--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38B49BF-909B-4149-B471-F2284B18D763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DB1FDF-5C76-4851-BB47-E1CDE914CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -279,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -391,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -439,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -487,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -503,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -591,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -607,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -623,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -639,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -663,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -687,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -711,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -727,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -743,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -759,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -799,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -823,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -847,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -863,7 +863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -879,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -911,7 +911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -935,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -959,7 +959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -983,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -999,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1071,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1167,7 +1167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1183,7 +1183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1343,7 +1343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1407,7 +1407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1423,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1439,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -1455,7 +1455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -1471,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -1503,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -1518,7 +1518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -1534,7 +1534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -1550,7 +1550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -1566,7 +1566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -1613,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -1644,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -1660,7 +1660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -1676,7 +1676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -1692,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -1707,7 +1707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -1723,7 +1723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -1739,7 +1739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -1755,7 +1755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -1770,7 +1770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -1786,7 +1786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -1802,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -1817,7 +1817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -1832,7 +1832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -1864,7 +1864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -1879,7 +1879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -1894,7 +1894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -1910,7 +1910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -1925,7 +1925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F122" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F128" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -1940,7 +1940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -1955,7 +1955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -1970,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -1985,7 +1985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F128" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F134" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2005,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="211">
   <si>
     <t>IH_Area</t>
   </si>
@@ -2945,6 +2945,12 @@
   </si>
   <si>
     <t>Core pass rates have increased very slightly in late Jan to approximately 75%. QA metrics, particularly the volume of broken/failing tests that need maintenance, remain relatively static.</t>
+  </si>
+  <si>
+    <t>53 - 31/1</t>
+  </si>
+  <si>
+    <t>Core pass rates have dropped at the end of Jan 2025 to approximately 68%. This was mainly due to a higher volume to tests that could not be run for the last weeks Ci/CD reports. Under investigation.</t>
   </si>
 </sst>
 </file>
@@ -4328,7 +4334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$194:$B$194</c:f>
+              <c:f>'Combined PassRates'!$A$200:$B$200</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4442,7 +4448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$194:$F$194</c:f>
+              <c:f>'Combined PassRates'!$C$200:$F$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4609,7 +4615,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$195:$B$195</c:f>
+              <c:f>'Combined PassRates'!$A$201:$B$201</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4728,7 +4734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$195:$F$195</c:f>
+              <c:f>'Combined PassRates'!$C$201:$F$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4920,7 +4926,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$196:$B$196</c:f>
+              <c:f>'Combined PassRates'!$A$202:$B$202</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5034,7 +5040,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$196:$F$196</c:f>
+              <c:f>'Combined PassRates'!$C$202:$F$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5226,7 +5232,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$197:$B$197</c:f>
+              <c:f>'Combined PassRates'!$A$203:$B$203</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5340,7 +5346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$197:$F$197</c:f>
+              <c:f>'Combined PassRates'!$C$203:$F$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5532,7 +5538,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$198:$B$198</c:f>
+              <c:f>'Combined PassRates'!$A$204:$B$204</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5646,7 +5652,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$198:$F$198</c:f>
+              <c:f>'Combined PassRates'!$C$204:$F$204</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5838,7 +5844,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$199:$B$199</c:f>
+              <c:f>'Combined PassRates'!$A$205:$B$205</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5952,7 +5958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$199:$F$199</c:f>
+              <c:f>'Combined PassRates'!$C$205:$F$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10548,11 +10554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10587,32 +10593,31 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13">
-        <v>45681</v>
+      <c r="B2" s="5">
+        <v>45688</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E2">
-        <v>812</v>
-      </c>
-      <c r="F2" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F2">
+        <v>276</v>
       </c>
       <c r="I2">
-        <f>SUM(C2:H2)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13">
-        <v>45681</v>
+      <c r="B3" s="5">
+        <v>45688</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10623,7 +10628,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
@@ -10631,8 +10636,8 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13">
-        <v>45681</v>
+      <c r="B4" s="5">
+        <v>45688</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10643,7 +10648,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -10651,8 +10656,8 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
-        <v>45681</v>
+      <c r="B5" s="5">
+        <v>45688</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10663,7 +10668,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -10671,8 +10676,8 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13">
-        <v>45681</v>
+      <c r="B6" s="5">
+        <v>45688</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10683,7 +10688,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -10691,24 +10696,20 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
-        <v>45681</v>
+      <c r="B7" s="5">
+        <v>45688</v>
       </c>
       <c r="C7">
-        <f>SUM(C2:C6)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="0">SUM(D2:D6)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E7">
-        <f>SUM(E2:E6)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7" si="1">SUM(F2:F6)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -10716,23 +10717,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C8">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D8">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E8">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F8" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <f>SUM(C8:H8)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -10740,7 +10741,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10760,7 +10761,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10780,7 +10781,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10800,7 +10801,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10820,49 +10821,47 @@
         <v>11</v>
       </c>
       <c r="B13" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="2">SUM(D8:D12)</f>
-        <v>157</v>
+        <f t="shared" ref="D13" si="0">SUM(D8:D12)</f>
+        <v>148</v>
       </c>
       <c r="E13">
         <f>SUM(E8:E12)</f>
+        <v>812</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="1">SUM(F8:F12)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C14">
+        <v>121</v>
+      </c>
+      <c r="D14">
+        <v>157</v>
+      </c>
+      <c r="E14">
         <v>799</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13" si="3">SUM(F8:F12)</f>
+      <c r="F14" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C14" s="19">
-        <v>122</v>
-      </c>
-      <c r="D14" s="19">
-        <v>162</v>
-      </c>
-      <c r="E14" s="19">
-        <v>790</v>
-      </c>
-      <c r="F14" s="21">
-        <v>97</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="23">
+      <c r="I14">
         <f>SUM(C14:H14)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -10870,19 +10869,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -10890,16 +10889,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -10910,19 +10909,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F17" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -10930,73 +10929,69 @@
         <v>10</v>
       </c>
       <c r="B18" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C14:C18)</f>
+        <v>121</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19" si="2">SUM(D14:D18)</f>
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E14:E18)</f>
+        <v>799</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="3">SUM(F14:F18)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="18">
         <v>45667</v>
       </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>79</v>
-      </c>
-      <c r="F18" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C19" s="19">
-        <f>SUM(C14:C18)</f>
-        <v>211</v>
-      </c>
-      <c r="D19" s="19">
-        <f t="shared" ref="D19" si="4">SUM(D14:D18)</f>
-        <v>254</v>
-      </c>
-      <c r="E19" s="19">
-        <f>SUM(E14:E18)</f>
-        <v>944</v>
-      </c>
-      <c r="F19" s="19">
-        <f t="shared" ref="F19" si="5">SUM(F14:F18)</f>
-        <v>431</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="23">
-        <f>SUM(C19:H19)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C20">
-        <v>136</v>
-      </c>
-      <c r="D20">
-        <v>182</v>
-      </c>
-      <c r="E20">
-        <v>695</v>
-      </c>
-      <c r="F20" s="9">
-        <v>165</v>
-      </c>
-      <c r="I20">
+      <c r="C20" s="19">
+        <v>122</v>
+      </c>
+      <c r="D20" s="19">
+        <v>162</v>
+      </c>
+      <c r="E20" s="19">
+        <v>790</v>
+      </c>
+      <c r="F20" s="21">
+        <v>97</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="23">
         <f>SUM(C20:H20)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -11004,7 +10999,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -11024,7 +11019,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -11044,7 +11039,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -11064,7 +11059,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -11080,27 +11075,33 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C25" s="19">
         <f>SUM(C20:C24)</f>
-        <v>225</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25" si="6">SUM(D20:D24)</f>
-        <v>274</v>
-      </c>
-      <c r="E25">
+        <v>211</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" ref="D25" si="4">SUM(D20:D24)</f>
+        <v>254</v>
+      </c>
+      <c r="E25" s="19">
         <f>SUM(E20:E24)</f>
-        <v>849</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ref="F25" si="7">SUM(F20:F24)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" ref="F25" si="5">SUM(F20:F24)</f>
+        <v>431</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="23">
+        <f>SUM(C25:H25)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -11108,23 +11109,23 @@
         <v>6</v>
       </c>
       <c r="B26" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C26">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D26">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E26">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F26" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I26">
         <f>SUM(C26:H26)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11132,7 +11133,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -11152,7 +11153,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -11172,7 +11173,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -11192,7 +11193,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C30">
         <v>50</v>
@@ -11212,23 +11213,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C31">
         <f>SUM(C26:C30)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="8">SUM(D26:D30)</f>
-        <v>249</v>
+        <f t="shared" ref="D31" si="6">SUM(D26:D30)</f>
+        <v>274</v>
       </c>
       <c r="E31">
         <f>SUM(E26:E30)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31" si="9">SUM(F26:F30)</f>
-        <v>367</v>
+        <f t="shared" ref="F31" si="7">SUM(F26:F30)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -11236,23 +11237,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C32">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D32">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E32">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F32" s="9">
         <v>33</v>
       </c>
       <c r="I32">
         <f>SUM(C32:H32)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11260,7 +11261,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -11280,7 +11281,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C34">
         <v>17</v>
@@ -11300,7 +11301,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -11320,7 +11321,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C36">
         <v>50</v>
@@ -11340,22 +11341,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C37">
         <f>SUM(C32:C36)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="10">SUM(D32:D36)</f>
-        <v>253</v>
+        <f t="shared" ref="D37" si="8">SUM(D32:D36)</f>
+        <v>249</v>
       </c>
       <c r="E37">
         <f>SUM(E32:E36)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37" si="11">SUM(F32:F36)</f>
+        <f t="shared" ref="F37" si="9">SUM(F32:F36)</f>
         <v>367</v>
       </c>
     </row>
@@ -11364,23 +11365,23 @@
         <v>6</v>
       </c>
       <c r="B38" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C38">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D38">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E38">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F38" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I38">
         <f>SUM(C38:H38)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11388,7 +11389,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -11408,7 +11409,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -11428,7 +11429,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -11448,7 +11449,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -11468,23 +11469,23 @@
         <v>11</v>
       </c>
       <c r="B43" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="12">SUM(D38:D42)</f>
-        <v>289</v>
+        <f t="shared" ref="D43" si="10">SUM(D38:D42)</f>
+        <v>253</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="13">SUM(F38:F42)</f>
-        <v>433</v>
+        <f t="shared" ref="F43" si="11">SUM(F38:F42)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -11492,23 +11493,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C44">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D44">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E44">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F44" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I44">
         <f>SUM(C44:H44)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -11516,7 +11517,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -11536,7 +11537,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C46">
         <v>17</v>
@@ -11556,7 +11557,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -11576,7 +11577,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -11596,23 +11597,23 @@
         <v>11</v>
       </c>
       <c r="B49" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C49">
         <f>SUM(C44:C48)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="14">SUM(D44:D48)</f>
-        <v>242</v>
+        <f t="shared" ref="D49" si="12">SUM(D44:D48)</f>
+        <v>289</v>
       </c>
       <c r="E49">
         <f>SUM(E44:E48)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="15">SUM(F44:F48)</f>
-        <v>363</v>
+        <f t="shared" ref="F49" si="13">SUM(F44:F48)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -11620,23 +11621,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C50">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D50">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E50">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F50" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I50">
         <f>SUM(C50:H50)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -11644,7 +11645,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -11664,16 +11665,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -11684,13 +11685,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -11704,19 +11705,19 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F54" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
@@ -11724,49 +11725,47 @@
         <v>11</v>
       </c>
       <c r="B55" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C55">
         <f>SUM(C50:C54)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="16">SUM(D50:D54)</f>
-        <v>189</v>
+        <f t="shared" ref="D55" si="14">SUM(D50:D54)</f>
+        <v>242</v>
       </c>
       <c r="E55">
         <f>SUM(E50:E54)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="17">SUM(F50:F54)</f>
-        <v>378</v>
+        <f t="shared" ref="F55" si="15">SUM(F50:F54)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="17" t="s">
+      <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C56" s="19">
-        <v>149</v>
-      </c>
-      <c r="D56" s="19">
-        <v>121</v>
-      </c>
-      <c r="E56" s="19">
-        <v>658</v>
-      </c>
-      <c r="F56" s="21">
-        <v>10</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="23">
+      <c r="B56" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C56">
+        <v>164</v>
+      </c>
+      <c r="D56">
+        <v>110</v>
+      </c>
+      <c r="E56">
+        <v>659</v>
+      </c>
+      <c r="F56" s="9">
+        <v>19</v>
+      </c>
+      <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -11774,16 +11773,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>38</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F57" s="9">
         <v>126</v>
@@ -11794,16 +11793,16 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
@@ -11814,19 +11813,19 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F59" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
@@ -11834,49 +11833,43 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C60">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="17" t="s">
+      <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C61" s="19">
+      <c r="B61" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C61">
         <f>SUM(C56:C60)</f>
-        <v>247</v>
-      </c>
-      <c r="D61" s="19">
-        <f t="shared" ref="D61" si="18">SUM(D56:D60)</f>
-        <v>190</v>
-      </c>
-      <c r="E61" s="19">
+        <v>248</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61" si="16">SUM(D56:D60)</f>
+        <v>189</v>
+      </c>
+      <c r="E61">
         <f>SUM(E56:E60)</f>
-        <v>813</v>
-      </c>
-      <c r="F61" s="19">
-        <f t="shared" ref="F61" si="19">SUM(F56:F60)</f>
-        <v>369</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="23">
-        <f>SUM(C61:H61)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="17">SUM(F56:F60)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -11884,25 +11877,25 @@
         <v>6</v>
       </c>
       <c r="B62" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C62" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D62" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E62" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F62" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="22">
+      <c r="I62" s="23">
         <f>SUM(C62:H62)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -11910,16 +11903,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>38</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="9">
         <v>126</v>
@@ -11930,16 +11923,16 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C64">
         <v>19</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -11950,16 +11943,16 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F65" s="9">
         <v>110</v>
@@ -11970,19 +11963,19 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C66">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F66" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
@@ -11990,49 +11983,55 @@
         <v>11</v>
       </c>
       <c r="B67" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C67" s="19">
         <f>SUM(C62:C66)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D67" s="19">
-        <f t="shared" ref="D67" si="20">SUM(D62:D66)</f>
-        <v>161</v>
+        <f t="shared" ref="D67" si="18">SUM(D62:D66)</f>
+        <v>190</v>
       </c>
       <c r="E67" s="19">
         <f>SUM(E62:E66)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F67" s="19">
-        <f t="shared" ref="F67" si="21">SUM(F62:F66)</f>
-        <v>393</v>
+        <f t="shared" ref="F67" si="19">SUM(F62:F66)</f>
+        <v>369</v>
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="20">
+      <c r="I67" s="23">
         <f>SUM(C67:H67)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="A68" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C68">
-        <v>142</v>
-      </c>
-      <c r="D68">
-        <v>124</v>
-      </c>
-      <c r="E68">
-        <v>672</v>
-      </c>
-      <c r="F68" s="9">
-        <v>9</v>
+      <c r="B68" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C68" s="19">
+        <v>148</v>
+      </c>
+      <c r="D68" s="19">
+        <v>99</v>
+      </c>
+      <c r="E68" s="19">
+        <v>665</v>
+      </c>
+      <c r="F68" s="21">
+        <v>12</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="22">
+        <f>SUM(C68:H68)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12040,19 +12039,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E69">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F69" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
@@ -12060,13 +12059,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>67</v>
@@ -12080,13 +12079,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>12</v>
@@ -12100,43 +12099,49 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C72">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F72" s="9">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="A73" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C73" s="19">
         <f>SUM(C68:C72)</f>
-        <v>239</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ref="D73" si="22">SUM(D68:D72)</f>
-        <v>164</v>
-      </c>
-      <c r="E73">
+        <v>248</v>
+      </c>
+      <c r="D73" s="19">
+        <f t="shared" ref="D73" si="20">SUM(D68:D72)</f>
+        <v>161</v>
+      </c>
+      <c r="E73" s="19">
         <f>SUM(E68:E72)</f>
-        <v>920</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ref="F73" si="23">SUM(F68:F72)</f>
-        <v>304</v>
+        <v>819</v>
+      </c>
+      <c r="F73" s="19">
+        <f t="shared" ref="F73" si="21">SUM(F68:F72)</f>
+        <v>393</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="20">
+        <f>SUM(C73:H73)</f>
+        <v>1621</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -12144,19 +12149,19 @@
         <v>6</v>
       </c>
       <c r="B74" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C74">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D74">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E74">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F74" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12164,19 +12169,19 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C75">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F75" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -12184,16 +12189,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -12204,19 +12209,19 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F77" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
@@ -12224,19 +12229,19 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C78">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F78" s="9">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
@@ -12244,23 +12249,23 @@
         <v>11</v>
       </c>
       <c r="B79" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C79">
         <f>SUM(C74:C78)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="24">SUM(D74:D78)</f>
-        <v>119</v>
+        <f t="shared" ref="D79" si="22">SUM(D74:D78)</f>
+        <v>164</v>
       </c>
       <c r="E79">
         <f>SUM(E74:E78)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="25">SUM(F74:F78)</f>
-        <v>247</v>
+        <f t="shared" ref="F79" si="23">SUM(F74:F78)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -12268,177 +12273,177 @@
         <v>6</v>
       </c>
       <c r="B80" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C80">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D80">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E80">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F80" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D81">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E81">
         <v>17</v>
       </c>
       <c r="F81" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C82">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F83" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C84">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D84">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F84" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="26">SUM(D80:D84)</f>
-        <v>125</v>
+        <f t="shared" ref="D85" si="24">SUM(D80:D84)</f>
+        <v>119</v>
       </c>
       <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="27">SUM(F80:F84)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F85" si="25">SUM(F80:F84)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C86">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D86">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E86">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F86" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E87">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F87" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E88">
         <v>77</v>
@@ -12447,224 +12452,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C89">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F89" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C90">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F90" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="28">SUM(D86:D90)</f>
-        <v>92</v>
+        <f t="shared" ref="D91" si="26">SUM(D86:D90)</f>
+        <v>125</v>
       </c>
       <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="29">SUM(F86:F90)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F91" si="27">SUM(F86:F90)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C92">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D92">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E92">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F92" s="9">
-        <v>3</v>
-      </c>
-      <c r="I92">
-        <f>SUM(C92:H92)</f>
-        <v>907</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E93">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F93" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E94">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F95" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C96">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F96" s="9">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="30">SUM(D92:D96)</f>
-        <v>83</v>
+        <f t="shared" ref="D97" si="28">SUM(D92:D96)</f>
+        <v>92</v>
       </c>
       <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="31">SUM(F92:F96)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F97" si="29">SUM(F92:F96)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C98">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D98">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E98">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F98" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <f>SUM(C98:H98)</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -12679,266 +12684,266 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F101" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D102">
         <v>8</v>
       </c>
       <c r="E102">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F102" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103" si="32">SUM(D98:D102)</f>
-        <v>113</v>
+        <f t="shared" ref="D103" si="30">SUM(D98:D102)</f>
+        <v>83</v>
       </c>
       <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="33">SUM(F98:F102)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F103" si="31">SUM(F98:F102)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C104">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D104">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E104">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F104" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>7</v>
       </c>
       <c r="E105">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F105" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C106">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C107">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D107">
+        <v>11</v>
+      </c>
+      <c r="E107">
+        <v>103</v>
+      </c>
+      <c r="F107" s="9">
         <v>6</v>
       </c>
-      <c r="E107">
-        <v>46</v>
-      </c>
-      <c r="F107" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C108">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F108" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="34">SUM(D104:D108)</f>
-        <v>118</v>
+        <f t="shared" ref="D109" si="32">SUM(D104:D108)</f>
+        <v>113</v>
       </c>
       <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="35">SUM(F104:F108)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F109" si="33">SUM(F104:F108)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C110">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D110">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E110">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F110" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F111" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>77</v>
@@ -12952,19 +12957,19 @@
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C113">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F113" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -12972,19 +12977,19 @@
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C114">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F114" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -12992,23 +12997,23 @@
         <v>11</v>
       </c>
       <c r="B115" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115" si="36">SUM(D110:D114)</f>
-        <v>77</v>
+        <f t="shared" ref="D115" si="34">SUM(D110:D114)</f>
+        <v>118</v>
       </c>
       <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="37">SUM(F110:F114)</f>
-        <v>83</v>
+        <f t="shared" ref="F115" si="35">SUM(F110:F114)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -13016,23 +13021,19 @@
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C116">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D116">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E116">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F116" s="9">
         <v>2</v>
-      </c>
-      <c r="I116">
-        <f>SUM(C116:H116)</f>
-        <v>863</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -13040,7 +13041,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -13060,13 +13061,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C118">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E118">
         <v>77</v>
@@ -13080,7 +13081,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C119">
         <v>24</v>
@@ -13100,19 +13101,19 @@
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C120">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F120" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -13120,23 +13121,23 @@
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="38">SUM(D116:D120)</f>
-        <v>79</v>
+        <f t="shared" ref="D121" si="36">SUM(D116:D120)</f>
+        <v>77</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="39">SUM(F116:F120)</f>
-        <v>73</v>
+        <f t="shared" ref="F121" si="37">SUM(F116:F120)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -13144,19 +13145,23 @@
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C122">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D122">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E122">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F122" s="9">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <f>SUM(C122:H122)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -13164,7 +13169,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -13173,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
@@ -13184,16 +13189,16 @@
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
@@ -13204,16 +13209,16 @@
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C125">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D125">
         <v>7</v>
       </c>
       <c r="E125">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F125" s="9">
         <v>0</v>
@@ -13224,19 +13229,19 @@
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C126">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D126">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E126">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F126" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
@@ -13244,23 +13249,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="40">SUM(D122:D126)</f>
-        <v>128</v>
+        <f t="shared" ref="D127" si="38">SUM(D122:D126)</f>
+        <v>79</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="41">SUM(F122:F126)</f>
-        <v>56</v>
+        <f t="shared" ref="F127" si="39">SUM(F122:F126)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -13268,19 +13273,19 @@
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C128">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D128">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E128">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F128" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
@@ -13288,19 +13293,19 @@
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F129" s="9">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
@@ -13308,16 +13313,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C130">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -13328,19 +13333,19 @@
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C131">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D131">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>114</v>
+      </c>
+      <c r="F131" s="9">
         <v>0</v>
-      </c>
-      <c r="E131">
-        <v>6</v>
-      </c>
-      <c r="F131" s="9">
-        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
@@ -13348,19 +13353,19 @@
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E132">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F132" s="9">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -13368,23 +13373,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="42">SUM(D128:D132)</f>
-        <v>238</v>
+        <f t="shared" ref="D133" si="40">SUM(D128:D132)</f>
+        <v>128</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="43">SUM(F128:F132)</f>
-        <v>572</v>
+        <f t="shared" ref="F133" si="41">SUM(F128:F132)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -13392,19 +13397,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C134">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E134">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F134" s="9">
-        <v>121</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -13412,19 +13417,19 @@
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E135">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F135" s="9">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
@@ -13432,16 +13437,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C136">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136">
         <v>5</v>
       </c>
       <c r="E136">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -13452,19 +13457,19 @@
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C137">
         <v>25</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F137" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
@@ -13472,16 +13477,16 @@
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C138">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F138" s="9">
         <v>0</v>
@@ -13492,23 +13497,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="44">SUM(D134:D138)</f>
-        <v>18</v>
+        <f t="shared" ref="D139" si="42">SUM(D134:D138)</f>
+        <v>238</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="45">SUM(F134:F138)</f>
-        <v>122</v>
+        <f t="shared" ref="F139" si="43">SUM(F134:F138)</f>
+        <v>572</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -13516,19 +13521,19 @@
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C140">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D140">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F140" s="9">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -13536,19 +13541,19 @@
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F141" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
@@ -13556,16 +13561,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -13576,16 +13581,16 @@
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C143">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F143" s="9">
         <v>0</v>
@@ -13596,16 +13601,16 @@
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F144" s="9">
         <v>0</v>
@@ -13616,23 +13621,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="46">SUM(D140:D144)</f>
-        <v>80</v>
+        <f t="shared" ref="D145" si="44">SUM(D140:D144)</f>
+        <v>18</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="47">SUM(F140:F144)</f>
-        <v>14</v>
+        <f t="shared" ref="F145" si="45">SUM(F140:F144)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -13640,23 +13645,19 @@
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C146">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D146">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E146">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F146" s="9">
         <v>14</v>
-      </c>
-      <c r="I146">
-        <f>SUM(C146:H146)</f>
-        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
@@ -13664,16 +13665,16 @@
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F147" s="9">
         <v>0</v>
@@ -13684,16 +13685,16 @@
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C148">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E148">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
@@ -13704,16 +13705,16 @@
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E149">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F149" s="9">
         <v>0</v>
@@ -13724,16 +13725,16 @@
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D150">
         <v>2</v>
       </c>
       <c r="E150">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F150" s="9">
         <v>0</v>
@@ -13744,22 +13745,22 @@
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="48">SUM(D146:D150)</f>
-        <v>102</v>
+        <f t="shared" ref="D151" si="46">SUM(D146:D150)</f>
+        <v>80</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="49">SUM(F146:F150)</f>
+        <f t="shared" ref="F151" si="47">SUM(F146:F150)</f>
         <v>14</v>
       </c>
     </row>
@@ -13768,19 +13769,23 @@
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C152">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E152">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F152" s="9">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="I152">
+        <f>SUM(C152:H152)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
@@ -13788,7 +13793,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -13797,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F153" s="9">
         <v>0</v>
@@ -13808,7 +13813,7 @@
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C154">
         <v>8</v>
@@ -13828,16 +13833,16 @@
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C155">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F155" s="9">
         <v>0</v>
@@ -13848,19 +13853,19 @@
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F156" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
@@ -13868,23 +13873,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="50">SUM(D152:D156)</f>
-        <v>71</v>
+        <f t="shared" ref="D157" si="48">SUM(D152:D156)</f>
+        <v>102</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="51">SUM(F152:F156)</f>
-        <v>125</v>
+        <f t="shared" ref="F157" si="49">SUM(F152:F156)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
@@ -13892,19 +13897,19 @@
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C158">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D158">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F158" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
@@ -13912,16 +13917,16 @@
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
@@ -13932,16 +13937,16 @@
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E160">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
@@ -13952,16 +13957,16 @@
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F161" s="9">
         <v>0</v>
@@ -13972,19 +13977,19 @@
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F162" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
@@ -13992,23 +13997,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="52">SUM(D158:D162)</f>
-        <v>77</v>
+        <f t="shared" ref="D163" si="50">SUM(D158:D162)</f>
+        <v>71</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="53">SUM(F158:F162)</f>
-        <v>22</v>
+        <f t="shared" ref="F163" si="51">SUM(F158:F162)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -14016,16 +14021,16 @@
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C164">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D164">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E164">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F164" s="9">
         <v>20</v>
@@ -14036,16 +14041,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
@@ -14056,16 +14061,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
@@ -14076,16 +14081,16 @@
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F167" s="9">
         <v>0</v>
@@ -14096,16 +14101,16 @@
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F168" s="9">
         <v>2</v>
@@ -14116,22 +14121,22 @@
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="54">SUM(D164:D168)</f>
-        <v>21</v>
+        <f t="shared" ref="D169" si="52">SUM(D164:D168)</f>
+        <v>77</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="55">SUM(F164:F168)</f>
+        <f t="shared" ref="F169" si="53">SUM(F164:F168)</f>
         <v>22</v>
       </c>
     </row>
@@ -14140,16 +14145,16 @@
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C170">
         <v>74</v>
       </c>
       <c r="D170">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E170">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F170" s="9">
         <v>20</v>
@@ -14160,7 +14165,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -14169,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F171" s="9">
         <v>0</v>
@@ -14180,13 +14185,13 @@
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E172">
         <v>83</v>
@@ -14200,7 +14205,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C173">
         <v>10</v>
@@ -14220,7 +14225,7 @@
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -14240,22 +14245,22 @@
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175:F175" si="56">SUM(D170:D174)</f>
-        <v>23</v>
+        <f t="shared" ref="D175" si="54">SUM(D170:D174)</f>
+        <v>21</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F175">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="F175" si="55">SUM(F170:F174)</f>
         <v>22</v>
       </c>
     </row>
@@ -14264,19 +14269,19 @@
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C176">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D176">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E176">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F176" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -14284,16 +14289,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -14304,16 +14309,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C178">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
@@ -14324,16 +14329,16 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
@@ -14344,13 +14349,13 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180">
         <v>109</v>
@@ -14364,23 +14369,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181:F181" si="57">SUM(D176:D180)</f>
-        <v>30</v>
+        <f t="shared" ref="D181:F181" si="56">SUM(D176:D180)</f>
+        <v>23</v>
       </c>
       <c r="E181">
-        <f t="shared" si="57"/>
-        <v>728</v>
+        <f>SUM(E176:E180)</f>
+        <v>725</v>
       </c>
       <c r="F181">
-        <f t="shared" si="57"/>
-        <v>13</v>
+        <f t="shared" si="56"/>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -14388,19 +14393,19 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C182">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D182">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E182">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F182" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -14408,19 +14413,19 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F183" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -14428,16 +14433,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C184">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -14448,19 +14453,19 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C185">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F185" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -14468,19 +14473,19 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C186">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F186" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -14488,23 +14493,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187:F187" si="58">SUM(D182:D186)</f>
-        <v>50</v>
+        <f t="shared" ref="D187:F187" si="57">SUM(D182:D186)</f>
+        <v>30</v>
       </c>
       <c r="E187">
-        <f t="shared" si="58"/>
-        <v>479</v>
+        <f t="shared" si="57"/>
+        <v>728</v>
       </c>
       <c r="F187">
-        <f t="shared" si="58"/>
-        <v>166</v>
+        <f t="shared" si="57"/>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -14512,19 +14517,19 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C188">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D188">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E188">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F188" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -14532,19 +14537,19 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F189" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
@@ -14552,16 +14557,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C190">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
@@ -14572,7 +14577,7 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C191">
         <v>10</v>
@@ -14581,10 +14586,10 @@
         <v>5</v>
       </c>
       <c r="E191">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F191" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
@@ -14592,19 +14597,19 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C192">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F192" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -14612,60 +14617,60 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193:F193" si="59">SUM(D188:D192)</f>
-        <v>39</v>
+        <f t="shared" ref="D193:F193" si="58">SUM(D188:D192)</f>
+        <v>50</v>
       </c>
       <c r="E193">
-        <f t="shared" si="59"/>
-        <v>581</v>
+        <f t="shared" si="58"/>
+        <v>479</v>
       </c>
       <c r="F193">
-        <f t="shared" si="59"/>
-        <v>110</v>
+        <f t="shared" si="58"/>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A194" s="14" t="s">
+      <c r="A194" t="s">
         <v>6</v>
       </c>
-      <c r="B194" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" s="14">
-        <v>79</v>
-      </c>
-      <c r="D194" s="14">
-        <v>21</v>
-      </c>
-      <c r="E194" s="14">
-        <v>255</v>
-      </c>
-      <c r="F194" s="16">
-        <v>22</v>
+      <c r="B194" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C194">
+        <v>78</v>
+      </c>
+      <c r="D194">
+        <v>31</v>
+      </c>
+      <c r="E194">
+        <v>245</v>
+      </c>
+      <c r="F194" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>7</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>12</v>
+      <c r="B195" s="13">
+        <v>45450</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
@@ -14675,17 +14680,17 @@
       <c r="A196" t="s">
         <v>8</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>12</v>
+      <c r="B196" s="13">
+        <v>45450</v>
       </c>
       <c r="C196">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -14695,37 +14700,37 @@
       <c r="A197" t="s">
         <v>9</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>12</v>
+      <c r="B197" s="13">
+        <v>45450</v>
       </c>
       <c r="C197">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E197">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F197" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>10</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>12</v>
+      <c r="B198" s="13">
+        <v>45450</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F198" s="9">
         <v>0</v>
@@ -14735,44 +14740,44 @@
       <c r="A199" t="s">
         <v>11</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>12</v>
+      <c r="B199" s="13">
+        <v>45450</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199:F199" si="60">SUM(D194:D198)</f>
-        <v>23</v>
+        <f t="shared" ref="D199:F199" si="59">SUM(D194:D198)</f>
+        <v>39</v>
       </c>
       <c r="E199">
-        <f t="shared" si="60"/>
-        <v>607</v>
+        <f t="shared" si="59"/>
+        <v>581</v>
       </c>
       <c r="F199">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A200" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="14">
+        <v>79</v>
+      </c>
+      <c r="D200" s="14">
+        <v>21</v>
+      </c>
+      <c r="E200" s="14">
+        <v>255</v>
+      </c>
+      <c r="F200" s="16">
         <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200">
-        <v>69</v>
-      </c>
-      <c r="D200">
-        <v>51</v>
-      </c>
-      <c r="E200">
-        <v>223</v>
-      </c>
-      <c r="F200" s="9">
-        <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -14780,19 +14785,19 @@
         <v>7</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F201" s="9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -14800,16 +14805,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -14820,19 +14825,19 @@
         <v>9</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C203">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F203" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -14840,16 +14845,16 @@
         <v>10</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F204" s="9">
         <v>0</v>
@@ -14860,23 +14865,23 @@
         <v>11</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D205">
-        <f t="shared" ref="D205:F205" si="61">SUM(D200:D204)</f>
-        <v>65</v>
+        <f t="shared" ref="D205:F205" si="60">SUM(D200:D204)</f>
+        <v>23</v>
       </c>
       <c r="E205">
-        <f t="shared" si="61"/>
-        <v>486</v>
+        <f t="shared" si="60"/>
+        <v>607</v>
       </c>
       <c r="F205">
-        <f t="shared" si="61"/>
-        <v>99</v>
+        <f t="shared" si="60"/>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
@@ -14884,19 +14889,19 @@
         <v>6</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C206">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D206">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E206">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F206" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -14904,19 +14909,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
         <v>1</v>
       </c>
-      <c r="E207">
-        <v>42</v>
-      </c>
       <c r="F207" s="9">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -14924,16 +14929,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -14944,19 +14949,19 @@
         <v>9</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C209">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F209" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.45">
@@ -14964,19 +14969,19 @@
         <v>10</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F210" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.45">
@@ -14984,180 +14989,168 @@
         <v>11</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
+        <v>93</v>
+      </c>
+      <c r="D211">
+        <f t="shared" ref="D211:F211" si="61">SUM(D206:D210)</f>
         <v>65</v>
       </c>
-      <c r="D211">
-        <f t="shared" ref="D211:F211" si="62">SUM(D206:D210)</f>
-        <v>53</v>
-      </c>
       <c r="E211">
-        <f t="shared" si="62"/>
-        <v>445</v>
+        <f t="shared" si="61"/>
+        <v>486</v>
       </c>
       <c r="F211">
-        <f t="shared" si="62"/>
-        <v>156</v>
+        <f t="shared" si="61"/>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B212" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C212">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E212">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F212" s="9">
-        <v>57</v>
-      </c>
-      <c r="G212" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>7</v>
       </c>
-      <c r="B213" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B213" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
         <v>42</v>
       </c>
       <c r="F213" s="9">
-        <v>0</v>
-      </c>
-      <c r="G213" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>8</v>
       </c>
-      <c r="B214" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B214" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
       </c>
-      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B215" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C215">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F215" s="9">
         <v>0</v>
       </c>
-      <c r="G215" s="6"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>10</v>
       </c>
-      <c r="B216" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B216" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C216">
         <v>3</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <v>79</v>
       </c>
       <c r="F216" s="9">
-        <v>0</v>
-      </c>
-      <c r="G216" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B217" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D217">
-        <f t="shared" ref="D217:F217" si="63">SUM(D212:D216)</f>
-        <v>7</v>
+        <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
+        <v>53</v>
       </c>
       <c r="E217">
-        <f t="shared" si="63"/>
-        <v>493</v>
+        <f t="shared" si="62"/>
+        <v>445</v>
       </c>
       <c r="F217">
-        <f t="shared" si="63"/>
-        <v>57</v>
-      </c>
-      <c r="G217" s="6"/>
+        <f t="shared" si="62"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>6</v>
       </c>
       <c r="B218" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C218">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F218" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G218" s="6"/>
     </row>
@@ -15166,20 +15159,20 @@
         <v>7</v>
       </c>
       <c r="B219" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C219">
         <v>0</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E219">
+        <v>42</v>
+      </c>
+      <c r="F219" s="9">
         <v>0</v>
-      </c>
-      <c r="F219" s="9">
-        <v>40</v>
       </c>
       <c r="G219" s="6"/>
     </row>
@@ -15188,20 +15181,20 @@
         <v>8</v>
       </c>
       <c r="B220" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C220">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F220" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G220" s="6"/>
     </row>
@@ -15210,20 +15203,20 @@
         <v>9</v>
       </c>
       <c r="B221" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C221">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F221" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G221" s="6"/>
     </row>
@@ -15232,20 +15225,20 @@
         <v>10</v>
       </c>
       <c r="B222" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>79</v>
+      </c>
+      <c r="F222" s="9">
         <v>0</v>
-      </c>
-      <c r="D222">
-        <v>4</v>
-      </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-      <c r="F222" s="9">
-        <v>75</v>
       </c>
       <c r="G222" s="6"/>
     </row>
@@ -15254,178 +15247,314 @@
         <v>11</v>
       </c>
       <c r="B223" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D223">
-        <f t="shared" ref="D223:F223" si="64">SUM(D218:D222)</f>
-        <v>17</v>
+        <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
+        <v>7</v>
       </c>
       <c r="E223">
-        <f t="shared" si="64"/>
-        <v>215</v>
+        <f t="shared" si="63"/>
+        <v>493</v>
       </c>
       <c r="F223">
-        <f t="shared" si="64"/>
-        <v>324</v>
-      </c>
+        <f t="shared" si="63"/>
+        <v>57</v>
+      </c>
+      <c r="G223" s="6"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>6</v>
       </c>
       <c r="B224" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C224">
+        <v>73</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>202</v>
+      </c>
+      <c r="F224" s="9">
+        <v>87</v>
+      </c>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>7</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" s="9">
+        <v>40</v>
+      </c>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C226">
+        <v>18</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>4</v>
+      </c>
+      <c r="F226" s="9">
+        <v>37</v>
+      </c>
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C227">
+        <v>19</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>9</v>
+      </c>
+      <c r="F227" s="9">
+        <v>85</v>
+      </c>
+      <c r="G227" s="6"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>4</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228" s="9">
+        <v>75</v>
+      </c>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C229">
+        <f>SUM(C224:C228)</f>
+        <v>110</v>
+      </c>
+      <c r="D229">
+        <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
+        <v>17</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="64"/>
+        <v>215</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="64"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C224">
+      <c r="C230">
         <v>70</v>
       </c>
-      <c r="D224">
+      <c r="D230">
         <v>15</v>
       </c>
-      <c r="E224">
+      <c r="E230">
         <v>260</v>
       </c>
-      <c r="F224" s="9">
+      <c r="F230" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A225" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
         <v>7</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B231" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C225">
+      <c r="C231">
         <v>1</v>
       </c>
-      <c r="D225">
+      <c r="D231">
         <v>5</v>
       </c>
-      <c r="E225">
+      <c r="E231">
         <v>2</v>
       </c>
-      <c r="F225" s="9">
+      <c r="F231" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A226" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
         <v>8</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B232" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C226">
+      <c r="C232">
         <v>6</v>
       </c>
-      <c r="D226">
+      <c r="D232">
         <v>0</v>
       </c>
-      <c r="E226">
+      <c r="E232">
         <v>41</v>
       </c>
-      <c r="F226" s="9">
+      <c r="F232" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A227" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
         <v>9</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B233" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C227">
+      <c r="C233">
         <v>13</v>
       </c>
-      <c r="D227">
+      <c r="D233">
         <v>0</v>
       </c>
-      <c r="E227">
+      <c r="E233">
         <v>85</v>
       </c>
-      <c r="F227" s="9">
+      <c r="F233" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A228" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
         <v>10</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B234" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C228">
+      <c r="C234">
         <v>1</v>
       </c>
-      <c r="D228">
+      <c r="D234">
         <v>0</v>
       </c>
-      <c r="E228">
+      <c r="E234">
         <v>74</v>
       </c>
-      <c r="F228" s="9">
+      <c r="F234" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A229" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
         <v>11</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B235" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C229">
-        <f>SUM(C224:C228)</f>
+      <c r="C235">
+        <f>SUM(C230:C234)</f>
         <v>91</v>
       </c>
-      <c r="D229">
-        <f t="shared" ref="D229:F229" si="65">SUM(D224:D228)</f>
+      <c r="D235">
+        <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
         <v>20</v>
       </c>
-      <c r="E229">
+      <c r="E235">
         <f t="shared" si="65"/>
         <v>462</v>
       </c>
-      <c r="F229">
+      <c r="F235">
         <f t="shared" si="65"/>
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B230" s="11"/>
-      <c r="F230" s="9"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B231" s="11"/>
-      <c r="F231" s="9"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B232" s="11"/>
-      <c r="F232" s="9"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B233" s="11"/>
-      <c r="F233" s="9"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B234" s="11"/>
-      <c r="F234" s="9"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B235" s="11"/>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B236" s="11"/>
+      <c r="F236" s="9"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B237" s="11"/>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B238" s="11"/>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B239" s="11"/>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B240" s="11"/>
+      <c r="F240" s="9"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B241" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15435,11 +15564,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16068,19 +16197,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C217</f>
+        <f>'Combined PassRates'!C223</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D217</f>
+        <f>'Combined PassRates'!D223</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E217</f>
+        <f>'Combined PassRates'!E223</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F217</f>
+        <f>'Combined PassRates'!F223</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -16095,19 +16224,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C211</f>
+        <f>'Combined PassRates'!C217</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D211</f>
+        <f>'Combined PassRates'!D217</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E211</f>
+        <f>'Combined PassRates'!E217</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F211</f>
+        <f>'Combined PassRates'!F217</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -16168,19 +16297,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -16195,19 +16324,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -16222,19 +16351,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -16249,19 +16378,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -16276,19 +16405,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -16303,19 +16432,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -16330,19 +16459,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -16357,19 +16486,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -16384,19 +16513,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -16411,19 +16540,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -16438,19 +16567,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -16465,19 +16594,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -16492,19 +16621,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -16519,19 +16648,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -16546,19 +16675,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -16573,19 +16702,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -16600,19 +16729,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -16627,19 +16756,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -16654,19 +16783,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -16681,19 +16810,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -16708,19 +16837,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -16735,19 +16864,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -16762,19 +16891,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -16789,19 +16918,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -16816,19 +16945,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -16843,19 +16972,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -16870,19 +16999,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -16897,19 +17026,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C38</f>
+        <f>'Combined PassRates'!C44</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D38</f>
+        <f>'Combined PassRates'!D44</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E38</f>
+        <f>'Combined PassRates'!E44</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F38</f>
+        <f>'Combined PassRates'!F44</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -16924,19 +17053,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -16951,19 +17080,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -16978,19 +17107,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -17005,19 +17134,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -17025,6 +17154,33 @@
       </c>
       <c r="G53" s="6" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f>'Combined PassRates'!C7</f>
+        <v>117</v>
+      </c>
+      <c r="C54">
+        <f>'Combined PassRates'!D7</f>
+        <v>207</v>
+      </c>
+      <c r="D54">
+        <f>'Combined PassRates'!E7</f>
+        <v>636</v>
+      </c>
+      <c r="E54">
+        <f>'Combined PassRates'!F7</f>
+        <v>276</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45688</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -17038,7 +17194,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17050,11 +17206,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18225,6 +18381,24 @@
         <v>208</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="str">
+        <f>PassRates!G54</f>
+        <v>53 - 31/1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>202</v>
       </c>
     </row>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DB1FDF-5C76-4851-BB47-E1CDE914CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26816A2-AA58-4DAA-9704-AACAA11CAF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,80 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+101+45+5=151
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+123+6+1=130</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+452+228+187=867</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -62,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -78,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -94,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -119,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -143,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -167,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -183,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -199,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -215,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -231,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -255,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -279,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -303,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -319,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -335,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -351,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -367,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -391,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -415,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -439,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -455,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -471,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -487,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -503,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -527,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -551,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -575,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -591,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -607,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -623,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -639,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -663,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -687,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -711,7 +784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -727,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -743,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -759,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -775,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -799,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -823,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -847,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -863,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -879,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -895,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -911,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -935,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -959,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -983,7 +1056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -999,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1071,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1167,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1183,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1343,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1407,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1423,7 +1496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1439,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -1455,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -1471,7 +1544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -1503,7 +1576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -1518,7 +1591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -1534,7 +1607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -1550,7 +1623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -1566,7 +1639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -1613,7 +1686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -1644,7 +1717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -1660,7 +1733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -1676,7 +1749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -1692,7 +1765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -1707,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -1723,7 +1796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -1739,7 +1812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -1755,7 +1828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -1770,7 +1843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -1786,7 +1859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -1802,7 +1875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -1817,7 +1890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -1832,7 +1905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -1864,7 +1937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -1879,7 +1952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -1894,7 +1967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -1910,7 +1983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -1925,7 +1998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F128" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F134" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -1940,7 +2013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -1955,7 +2028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -1970,7 +2043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -1985,7 +2058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F134" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F140" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2078,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="214">
   <si>
     <t>IH_Area</t>
   </si>
@@ -2951,6 +3024,16 @@
   </si>
   <si>
     <t>Core pass rates have dropped at the end of Jan 2025 to approximately 68%. This was mainly due to a higher volume to tests that could not be run for the last weeks Ci/CD reports. Under investigation.</t>
+  </si>
+  <si>
+    <t>54 - 07/2</t>
+  </si>
+  <si>
+    <t>Core pass rates at the beginning of Feb 2025 have increased slightly to approximately 75%. This was mainly due to an improvement in 'Broken' tests and a resolution of a Kafka issue causing a number of last weeks tests to 'not run'.</t>
+  </si>
+  <si>
+    <t>The QA resource profile of the team remains highly unlikely to change before mid Q1 2025, so internal options at improving coverage and pass rates will be the only source of remedial actions.
+The overall pass rates need maintenace to improve, but again this is due to lack of resources to meet this test automation challenge.</t>
   </si>
 </sst>
 </file>
@@ -4334,7 +4417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$200:$B$200</c:f>
+              <c:f>'Combined PassRates'!$A$206:$B$206</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4448,7 +4531,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$200:$F$200</c:f>
+              <c:f>'Combined PassRates'!$C$206:$F$206</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4615,7 +4698,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$201:$B$201</c:f>
+              <c:f>'Combined PassRates'!$A$207:$B$207</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4734,7 +4817,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$201:$F$201</c:f>
+              <c:f>'Combined PassRates'!$C$207:$F$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4926,7 +5009,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$202:$B$202</c:f>
+              <c:f>'Combined PassRates'!$A$208:$B$208</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5040,7 +5123,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$202:$F$202</c:f>
+              <c:f>'Combined PassRates'!$C$208:$F$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5232,7 +5315,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$203:$B$203</c:f>
+              <c:f>'Combined PassRates'!$A$209:$B$209</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5346,7 +5429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$203:$F$203</c:f>
+              <c:f>'Combined PassRates'!$C$209:$F$209</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5538,7 +5621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$204:$B$204</c:f>
+              <c:f>'Combined PassRates'!$A$210:$B$210</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5652,7 +5735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$204:$F$204</c:f>
+              <c:f>'Combined PassRates'!$C$210:$F$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5844,7 +5927,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$205:$B$205</c:f>
+              <c:f>'Combined PassRates'!$A$211:$B$211</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5958,7 +6041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$205:$F$205</c:f>
+              <c:f>'Combined PassRates'!$C$211:$F$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10554,11 +10637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10594,22 +10677,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D2">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F2">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I2">
-        <v>1236</v>
+        <f>SUM(C2:F2)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -10617,7 +10701,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10637,7 +10721,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10657,7 +10741,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10677,7 +10761,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10697,51 +10781,54 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C7">
-        <v>117</v>
+        <f>SUM(C2:C6)</f>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>207</v>
+        <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>636</v>
+        <f t="shared" si="0"/>
+        <v>867</v>
       </c>
       <c r="F7">
-        <v>276</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
-        <v>45681</v>
+      <c r="B8" s="5">
+        <v>45688</v>
       </c>
       <c r="C8">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D8">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E8">
-        <v>812</v>
-      </c>
-      <c r="F8" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F8">
+        <v>276</v>
       </c>
       <c r="I8">
-        <f>SUM(C8:H8)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
-        <v>45681</v>
+      <c r="B9" s="5">
+        <v>45688</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10752,7 +10839,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
@@ -10760,8 +10847,8 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
-        <v>45681</v>
+      <c r="B10" s="5">
+        <v>45688</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10772,7 +10859,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -10780,8 +10867,8 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
-        <v>45681</v>
+      <c r="B11" s="5">
+        <v>45688</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10792,7 +10879,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -10800,8 +10887,8 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
-        <v>45681</v>
+      <c r="B12" s="5">
+        <v>45688</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10812,7 +10899,7 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
@@ -10820,24 +10907,20 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
-        <v>45681</v>
+      <c r="B13" s="5">
+        <v>45688</v>
       </c>
       <c r="C13">
-        <f>SUM(C8:C12)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="0">SUM(D8:D12)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E13">
-        <f>SUM(E8:E12)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="1">SUM(F8:F12)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -10845,23 +10928,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C14">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D14">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E14">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F14" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I14">
         <f>SUM(C14:H14)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -10869,7 +10952,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -10889,7 +10972,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10909,7 +10992,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -10929,7 +11012,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10949,49 +11032,47 @@
         <v>11</v>
       </c>
       <c r="B19" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C19">
         <f>SUM(C14:C18)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19" si="2">SUM(D14:D18)</f>
-        <v>157</v>
+        <f t="shared" ref="D19" si="1">SUM(D14:D18)</f>
+        <v>148</v>
       </c>
       <c r="E19">
         <f>SUM(E14:E18)</f>
+        <v>812</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="2">SUM(F14:F18)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C20">
+        <v>121</v>
+      </c>
+      <c r="D20">
+        <v>157</v>
+      </c>
+      <c r="E20">
         <v>799</v>
       </c>
-      <c r="F19">
-        <f t="shared" ref="F19" si="3">SUM(F14:F18)</f>
+      <c r="F20" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C20" s="19">
-        <v>122</v>
-      </c>
-      <c r="D20" s="19">
-        <v>162</v>
-      </c>
-      <c r="E20" s="19">
-        <v>790</v>
-      </c>
-      <c r="F20" s="21">
-        <v>97</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="23">
+      <c r="I20">
         <f>SUM(C20:H20)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -10999,19 +11080,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F21" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -11019,16 +11100,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
@@ -11039,19 +11120,19 @@
         <v>9</v>
       </c>
       <c r="B23" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F23" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -11059,73 +11140,69 @@
         <v>10</v>
       </c>
       <c r="B24" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C20:C24)</f>
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="3">SUM(D20:D24)</f>
+        <v>157</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E20:E24)</f>
+        <v>799</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="4">SUM(F20:F24)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="18">
         <v>45667</v>
       </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>79</v>
-      </c>
-      <c r="F24" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C25" s="19">
-        <f>SUM(C20:C24)</f>
-        <v>211</v>
-      </c>
-      <c r="D25" s="19">
-        <f t="shared" ref="D25" si="4">SUM(D20:D24)</f>
-        <v>254</v>
-      </c>
-      <c r="E25" s="19">
-        <f>SUM(E20:E24)</f>
-        <v>944</v>
-      </c>
-      <c r="F25" s="19">
-        <f t="shared" ref="F25" si="5">SUM(F20:F24)</f>
-        <v>431</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="23">
-        <f>SUM(C25:H25)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C26">
-        <v>136</v>
-      </c>
-      <c r="D26">
-        <v>182</v>
-      </c>
-      <c r="E26">
-        <v>695</v>
-      </c>
-      <c r="F26" s="9">
-        <v>165</v>
-      </c>
-      <c r="I26">
+      <c r="C26" s="19">
+        <v>122</v>
+      </c>
+      <c r="D26" s="19">
+        <v>162</v>
+      </c>
+      <c r="E26" s="19">
+        <v>790</v>
+      </c>
+      <c r="F26" s="21">
+        <v>97</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="23">
         <f>SUM(C26:H26)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11133,7 +11210,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -11153,7 +11230,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -11173,7 +11250,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -11193,7 +11270,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C30">
         <v>50</v>
@@ -11209,27 +11286,33 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C31" s="19">
         <f>SUM(C26:C30)</f>
-        <v>225</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31" si="6">SUM(D26:D30)</f>
-        <v>274</v>
-      </c>
-      <c r="E31">
+        <v>211</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" ref="D31" si="5">SUM(D26:D30)</f>
+        <v>254</v>
+      </c>
+      <c r="E31" s="19">
         <f>SUM(E26:E30)</f>
-        <v>849</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31" si="7">SUM(F26:F30)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" ref="F31" si="6">SUM(F26:F30)</f>
+        <v>431</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="23">
+        <f>SUM(C31:H31)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -11237,23 +11320,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C32">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D32">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E32">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F32" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I32">
         <f>SUM(C32:H32)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11261,7 +11344,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -11281,7 +11364,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C34">
         <v>17</v>
@@ -11301,7 +11384,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -11321,7 +11404,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C36">
         <v>50</v>
@@ -11341,23 +11424,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C37">
         <f>SUM(C32:C36)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="8">SUM(D32:D36)</f>
-        <v>249</v>
+        <f t="shared" ref="D37" si="7">SUM(D32:D36)</f>
+        <v>274</v>
       </c>
       <c r="E37">
         <f>SUM(E32:E36)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37" si="9">SUM(F32:F36)</f>
-        <v>367</v>
+        <f t="shared" ref="F37" si="8">SUM(F32:F36)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -11365,23 +11448,23 @@
         <v>6</v>
       </c>
       <c r="B38" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C38">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D38">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E38">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F38" s="9">
         <v>33</v>
       </c>
       <c r="I38">
         <f>SUM(C38:H38)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11389,7 +11472,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -11409,7 +11492,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -11429,7 +11512,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -11449,7 +11532,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -11469,22 +11552,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="10">SUM(D38:D42)</f>
-        <v>253</v>
+        <f t="shared" ref="D43" si="9">SUM(D38:D42)</f>
+        <v>249</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="11">SUM(F38:F42)</f>
+        <f t="shared" ref="F43" si="10">SUM(F38:F42)</f>
         <v>367</v>
       </c>
     </row>
@@ -11493,23 +11576,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C44">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D44">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E44">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F44" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I44">
         <f>SUM(C44:H44)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -11517,7 +11600,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -11537,7 +11620,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C46">
         <v>17</v>
@@ -11557,7 +11640,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -11577,7 +11660,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -11597,23 +11680,23 @@
         <v>11</v>
       </c>
       <c r="B49" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C49">
         <f>SUM(C44:C48)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="12">SUM(D44:D48)</f>
-        <v>289</v>
+        <f t="shared" ref="D49" si="11">SUM(D44:D48)</f>
+        <v>253</v>
       </c>
       <c r="E49">
         <f>SUM(E44:E48)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="13">SUM(F44:F48)</f>
-        <v>433</v>
+        <f t="shared" ref="F49" si="12">SUM(F44:F48)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -11621,23 +11704,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C50">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D50">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E50">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F50" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I50">
         <f>SUM(C50:H50)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -11645,7 +11728,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -11665,7 +11748,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -11685,7 +11768,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -11705,7 +11788,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -11725,23 +11808,23 @@
         <v>11</v>
       </c>
       <c r="B55" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C55">
         <f>SUM(C50:C54)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="14">SUM(D50:D54)</f>
-        <v>242</v>
+        <f t="shared" ref="D55" si="13">SUM(D50:D54)</f>
+        <v>289</v>
       </c>
       <c r="E55">
         <f>SUM(E50:E54)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="15">SUM(F50:F54)</f>
-        <v>363</v>
+        <f t="shared" ref="F55" si="14">SUM(F50:F54)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -11749,23 +11832,23 @@
         <v>6</v>
       </c>
       <c r="B56" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C56">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D56">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E56">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F56" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -11773,7 +11856,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -11793,16 +11876,16 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
@@ -11813,13 +11896,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -11833,19 +11916,19 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C60">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F60" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
@@ -11853,49 +11936,47 @@
         <v>11</v>
       </c>
       <c r="B61" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C61">
         <f>SUM(C56:C60)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="16">SUM(D56:D60)</f>
-        <v>189</v>
+        <f t="shared" ref="D61" si="15">SUM(D56:D60)</f>
+        <v>242</v>
       </c>
       <c r="E61">
         <f>SUM(E56:E60)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="17">SUM(F56:F60)</f>
-        <v>378</v>
+        <f t="shared" ref="F61" si="16">SUM(F56:F60)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="17" t="s">
+      <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C62" s="19">
-        <v>149</v>
-      </c>
-      <c r="D62" s="19">
-        <v>121</v>
-      </c>
-      <c r="E62" s="19">
-        <v>658</v>
-      </c>
-      <c r="F62" s="21">
-        <v>10</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="23">
+      <c r="B62" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C62">
+        <v>164</v>
+      </c>
+      <c r="D62">
+        <v>110</v>
+      </c>
+      <c r="E62">
+        <v>659</v>
+      </c>
+      <c r="F62" s="9">
+        <v>19</v>
+      </c>
+      <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -11903,16 +11984,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>38</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9">
         <v>126</v>
@@ -11923,16 +12004,16 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -11943,19 +12024,19 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F65" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
@@ -11963,49 +12044,43 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C66">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F66" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="17" t="s">
+      <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C67" s="19">
+      <c r="B67" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C67">
         <f>SUM(C62:C66)</f>
-        <v>247</v>
-      </c>
-      <c r="D67" s="19">
-        <f t="shared" ref="D67" si="18">SUM(D62:D66)</f>
-        <v>190</v>
-      </c>
-      <c r="E67" s="19">
+        <v>248</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67" si="17">SUM(D62:D66)</f>
+        <v>189</v>
+      </c>
+      <c r="E67">
         <f>SUM(E62:E66)</f>
-        <v>813</v>
-      </c>
-      <c r="F67" s="19">
-        <f t="shared" ref="F67" si="19">SUM(F62:F66)</f>
-        <v>369</v>
-      </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="23">
-        <f>SUM(C67:H67)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67" si="18">SUM(F62:F66)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -12013,25 +12088,25 @@
         <v>6</v>
       </c>
       <c r="B68" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C68" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D68" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E68" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F68" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="22">
+      <c r="I68" s="23">
         <f>SUM(C68:H68)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12039,16 +12114,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>38</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="9">
         <v>126</v>
@@ -12059,16 +12134,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C70">
         <v>19</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -12079,16 +12154,16 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F71" s="9">
         <v>110</v>
@@ -12099,19 +12174,19 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C72">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F72" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
@@ -12119,49 +12194,55 @@
         <v>11</v>
       </c>
       <c r="B73" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C73" s="19">
         <f>SUM(C68:C72)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" s="19">
-        <f t="shared" ref="D73" si="20">SUM(D68:D72)</f>
-        <v>161</v>
+        <f t="shared" ref="D73" si="19">SUM(D68:D72)</f>
+        <v>190</v>
       </c>
       <c r="E73" s="19">
         <f>SUM(E68:E72)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F73" s="19">
-        <f t="shared" ref="F73" si="21">SUM(F68:F72)</f>
-        <v>393</v>
+        <f t="shared" ref="F73" si="20">SUM(F68:F72)</f>
+        <v>369</v>
       </c>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="20">
+      <c r="I73" s="23">
         <f>SUM(C73:H73)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="A74" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C74">
-        <v>142</v>
-      </c>
-      <c r="D74">
-        <v>124</v>
-      </c>
-      <c r="E74">
-        <v>672</v>
-      </c>
-      <c r="F74" s="9">
-        <v>9</v>
+      <c r="B74" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C74" s="19">
+        <v>148</v>
+      </c>
+      <c r="D74" s="19">
+        <v>99</v>
+      </c>
+      <c r="E74" s="19">
+        <v>665</v>
+      </c>
+      <c r="F74" s="21">
+        <v>12</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="22">
+        <f>SUM(C74:H74)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12169,19 +12250,19 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E75">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F75" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -12189,13 +12270,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>67</v>
@@ -12209,13 +12290,13 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>12</v>
@@ -12229,43 +12310,49 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C78">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F78" s="9">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="A79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C79" s="19">
         <f>SUM(C74:C78)</f>
-        <v>239</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ref="D79" si="22">SUM(D74:D78)</f>
-        <v>164</v>
-      </c>
-      <c r="E79">
+        <v>248</v>
+      </c>
+      <c r="D79" s="19">
+        <f t="shared" ref="D79" si="21">SUM(D74:D78)</f>
+        <v>161</v>
+      </c>
+      <c r="E79" s="19">
         <f>SUM(E74:E78)</f>
-        <v>920</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ref="F79" si="23">SUM(F74:F78)</f>
-        <v>304</v>
+        <v>819</v>
+      </c>
+      <c r="F79" s="19">
+        <f t="shared" ref="F79" si="22">SUM(F74:F78)</f>
+        <v>393</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="20">
+        <f>SUM(C79:H79)</f>
+        <v>1621</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -12273,19 +12360,19 @@
         <v>6</v>
       </c>
       <c r="B80" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C80">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D80">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E80">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F80" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -12293,19 +12380,19 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F81" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -12313,16 +12400,16 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -12333,19 +12420,19 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C83">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F83" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -12353,19 +12440,19 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C84">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F84" s="9">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -12373,23 +12460,23 @@
         <v>11</v>
       </c>
       <c r="B85" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="24">SUM(D80:D84)</f>
-        <v>119</v>
+        <f t="shared" ref="D85" si="23">SUM(D80:D84)</f>
+        <v>164</v>
       </c>
       <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="25">SUM(F80:F84)</f>
-        <v>247</v>
+        <f t="shared" ref="F85" si="24">SUM(F80:F84)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -12397,19 +12484,19 @@
         <v>6</v>
       </c>
       <c r="B86" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C86">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E86">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F86" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -12417,19 +12504,19 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C87">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D87">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E87">
         <v>17</v>
       </c>
       <c r="F87" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -12437,16 +12524,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -12457,19 +12544,19 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C89">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F89" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -12477,19 +12564,19 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C90">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D90">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F90" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -12497,23 +12584,23 @@
         <v>11</v>
       </c>
       <c r="B91" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="26">SUM(D86:D90)</f>
-        <v>125</v>
+        <f t="shared" ref="D91" si="25">SUM(D86:D90)</f>
+        <v>119</v>
       </c>
       <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="27">SUM(F86:F90)</f>
-        <v>245</v>
+        <f t="shared" ref="F91" si="26">SUM(F86:F90)</f>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -12521,19 +12608,19 @@
         <v>6</v>
       </c>
       <c r="B92" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C92">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D92">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E92">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F92" s="9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -12541,16 +12628,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E93">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F93" s="9">
         <v>88</v>
@@ -12561,13 +12648,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E94">
         <v>77</v>
@@ -12581,19 +12668,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C95">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F95" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -12601,19 +12688,19 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C96">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F96" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -12621,23 +12708,23 @@
         <v>11</v>
       </c>
       <c r="B97" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="28">SUM(D92:D96)</f>
-        <v>92</v>
+        <f t="shared" ref="D97" si="27">SUM(D92:D96)</f>
+        <v>125</v>
       </c>
       <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="29">SUM(F92:F96)</f>
-        <v>193</v>
+        <f t="shared" ref="F97" si="28">SUM(F92:F96)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -12645,23 +12732,19 @@
         <v>6</v>
       </c>
       <c r="B98" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C98">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D98">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E98">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F98" s="9">
-        <v>3</v>
-      </c>
-      <c r="I98">
-        <f>SUM(C98:H98)</f>
-        <v>907</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -12669,19 +12752,19 @@
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E99">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F99" s="9">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -12689,16 +12772,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
@@ -12709,19 +12792,19 @@
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D101">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F101" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -12729,19 +12812,19 @@
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C102">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F102" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -12749,23 +12832,23 @@
         <v>11</v>
       </c>
       <c r="B103" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103" si="30">SUM(D98:D102)</f>
-        <v>83</v>
+        <f t="shared" ref="D103" si="29">SUM(D98:D102)</f>
+        <v>92</v>
       </c>
       <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="31">SUM(F98:F102)</f>
-        <v>131</v>
+        <f t="shared" ref="F103" si="30">SUM(F98:F102)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -12773,19 +12856,23 @@
         <v>6</v>
       </c>
       <c r="B104" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C104">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D104">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E104">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F104" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <f>SUM(C104:H104)</f>
+        <v>907</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -12793,7 +12880,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C105">
         <v>12</v>
@@ -12813,16 +12900,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C106">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -12833,19 +12920,19 @@
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C107">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F107" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -12853,19 +12940,19 @@
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C108">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D108">
         <v>8</v>
       </c>
       <c r="E108">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F108" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -12873,23 +12960,23 @@
         <v>11</v>
       </c>
       <c r="B109" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="32">SUM(D104:D108)</f>
-        <v>113</v>
+        <f t="shared" ref="D109" si="31">SUM(D104:D108)</f>
+        <v>83</v>
       </c>
       <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="33">SUM(F104:F108)</f>
-        <v>142</v>
+        <f t="shared" ref="F109" si="32">SUM(F104:F108)</f>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -12897,19 +12984,19 @@
         <v>6</v>
       </c>
       <c r="B110" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C110">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D110">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E110">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F110" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -12917,19 +13004,19 @@
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D111">
         <v>7</v>
       </c>
       <c r="E111">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F111" s="9">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -12937,16 +13024,16 @@
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C112">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
@@ -12957,19 +13044,19 @@
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C113">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>103</v>
+      </c>
+      <c r="F113" s="9">
         <v>6</v>
-      </c>
-      <c r="E113">
-        <v>46</v>
-      </c>
-      <c r="F113" s="9">
-        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -12977,19 +13064,19 @@
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C114">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F114" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -12997,23 +13084,23 @@
         <v>11</v>
       </c>
       <c r="B115" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115" si="34">SUM(D110:D114)</f>
-        <v>118</v>
+        <f t="shared" ref="D115" si="33">SUM(D110:D114)</f>
+        <v>113</v>
       </c>
       <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="35">SUM(F110:F114)</f>
-        <v>128</v>
+        <f t="shared" ref="F115" si="34">SUM(F110:F114)</f>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -13021,19 +13108,19 @@
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C116">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D116">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E116">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F116" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -13041,16 +13128,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F117" s="9">
         <v>0</v>
@@ -13061,13 +13148,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>77</v>
@@ -13081,19 +13168,19 @@
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C119">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F119" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
@@ -13101,19 +13188,19 @@
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C120">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F120" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -13121,23 +13208,23 @@
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="36">SUM(D116:D120)</f>
-        <v>77</v>
+        <f t="shared" ref="D121" si="35">SUM(D116:D120)</f>
+        <v>118</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="37">SUM(F116:F120)</f>
-        <v>83</v>
+        <f t="shared" ref="F121" si="36">SUM(F116:F120)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -13145,23 +13232,19 @@
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C122">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D122">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E122">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F122" s="9">
         <v>2</v>
-      </c>
-      <c r="I122">
-        <f>SUM(C122:H122)</f>
-        <v>863</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -13169,7 +13252,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -13189,13 +13272,13 @@
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C124">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <v>77</v>
@@ -13209,7 +13292,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C125">
         <v>24</v>
@@ -13229,19 +13312,19 @@
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C126">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D126">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F126" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
@@ -13249,23 +13332,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="38">SUM(D122:D126)</f>
-        <v>79</v>
+        <f t="shared" ref="D127" si="37">SUM(D122:D126)</f>
+        <v>77</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="39">SUM(F122:F126)</f>
-        <v>73</v>
+        <f t="shared" ref="F127" si="38">SUM(F122:F126)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -13273,19 +13356,23 @@
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C128">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D128">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E128">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F128" s="9">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <f>SUM(C128:H128)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
@@ -13293,7 +13380,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -13302,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F129" s="9">
         <v>0</v>
@@ -13313,16 +13400,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C130">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -13333,16 +13420,16 @@
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C131">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D131">
         <v>7</v>
       </c>
       <c r="E131">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F131" s="9">
         <v>0</v>
@@ -13353,19 +13440,19 @@
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C132">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F132" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -13373,23 +13460,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="40">SUM(D128:D132)</f>
-        <v>128</v>
+        <f t="shared" ref="D133" si="39">SUM(D128:D132)</f>
+        <v>79</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="41">SUM(F128:F132)</f>
-        <v>56</v>
+        <f t="shared" ref="F133" si="40">SUM(F128:F132)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -13397,19 +13484,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C134">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D134">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E134">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F134" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -13417,19 +13504,19 @@
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F135" s="9">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
@@ -13437,16 +13524,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C136">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -13457,19 +13544,19 @@
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C137">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F137" s="9">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
@@ -13477,19 +13564,19 @@
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F138" s="9">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
@@ -13497,23 +13584,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="42">SUM(D134:D138)</f>
-        <v>238</v>
+        <f t="shared" ref="D139" si="41">SUM(D134:D138)</f>
+        <v>128</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="43">SUM(F134:F138)</f>
-        <v>572</v>
+        <f t="shared" ref="F139" si="42">SUM(F134:F138)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -13521,19 +13608,19 @@
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C140">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E140">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F140" s="9">
-        <v>121</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -13541,19 +13628,19 @@
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C141">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E141">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F141" s="9">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
@@ -13561,16 +13648,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C142">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142">
         <v>5</v>
       </c>
       <c r="E142">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -13581,19 +13668,19 @@
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C143">
         <v>25</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F143" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
@@ -13601,16 +13688,16 @@
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C144">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F144" s="9">
         <v>0</v>
@@ -13621,23 +13708,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="44">SUM(D140:D144)</f>
-        <v>18</v>
+        <f t="shared" ref="D145" si="43">SUM(D140:D144)</f>
+        <v>238</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="45">SUM(F140:F144)</f>
-        <v>122</v>
+        <f t="shared" ref="F145" si="44">SUM(F140:F144)</f>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -13645,19 +13732,19 @@
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C146">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D146">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F146" s="9">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
@@ -13665,19 +13752,19 @@
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F147" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
@@ -13685,16 +13772,16 @@
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
@@ -13705,16 +13792,16 @@
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C149">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D149">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F149" s="9">
         <v>0</v>
@@ -13725,16 +13812,16 @@
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C150">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F150" s="9">
         <v>0</v>
@@ -13745,23 +13832,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="46">SUM(D146:D150)</f>
-        <v>80</v>
+        <f t="shared" ref="D151" si="45">SUM(D146:D150)</f>
+        <v>18</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="47">SUM(F146:F150)</f>
-        <v>14</v>
+        <f t="shared" ref="F151" si="46">SUM(F146:F150)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
@@ -13769,23 +13856,19 @@
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C152">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D152">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E152">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F152" s="9">
         <v>14</v>
-      </c>
-      <c r="I152">
-        <f>SUM(C152:H152)</f>
-        <v>402</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
@@ -13793,16 +13876,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F153" s="9">
         <v>0</v>
@@ -13813,16 +13896,16 @@
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C154">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D154">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E154">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
@@ -13833,16 +13916,16 @@
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C155">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E155">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F155" s="9">
         <v>0</v>
@@ -13853,16 +13936,16 @@
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F156" s="9">
         <v>0</v>
@@ -13873,22 +13956,22 @@
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="48">SUM(D152:D156)</f>
-        <v>102</v>
+        <f t="shared" ref="D157" si="47">SUM(D152:D156)</f>
+        <v>80</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="49">SUM(F152:F156)</f>
+        <f t="shared" ref="F157" si="48">SUM(F152:F156)</f>
         <v>14</v>
       </c>
     </row>
@@ -13897,19 +13980,23 @@
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C158">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E158">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F158" s="9">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="I158">
+        <f>SUM(C158:H158)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
@@ -13917,7 +14004,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -13926,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
@@ -13937,7 +14024,7 @@
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C160">
         <v>8</v>
@@ -13957,16 +14044,16 @@
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C161">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F161" s="9">
         <v>0</v>
@@ -13977,19 +14064,19 @@
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>2</v>
       </c>
       <c r="E162">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F162" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
@@ -13997,23 +14084,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="50">SUM(D158:D162)</f>
-        <v>71</v>
+        <f t="shared" ref="D163" si="49">SUM(D158:D162)</f>
+        <v>102</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="51">SUM(F158:F162)</f>
-        <v>125</v>
+        <f t="shared" ref="F163" si="50">SUM(F158:F162)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -14021,19 +14108,19 @@
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C164">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D164">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F164" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
@@ -14041,16 +14128,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
@@ -14061,16 +14148,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C166">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E166">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
@@ -14081,16 +14168,16 @@
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F167" s="9">
         <v>0</v>
@@ -14101,19 +14188,19 @@
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F168" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
@@ -14121,23 +14208,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="52">SUM(D164:D168)</f>
-        <v>77</v>
+        <f t="shared" ref="D169" si="51">SUM(D164:D168)</f>
+        <v>71</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="53">SUM(F164:F168)</f>
-        <v>22</v>
+        <f t="shared" ref="F169" si="52">SUM(F164:F168)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -14145,16 +14232,16 @@
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C170">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D170">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E170">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F170" s="9">
         <v>20</v>
@@ -14165,16 +14252,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F171" s="9">
         <v>0</v>
@@ -14185,16 +14272,16 @@
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F172" s="9">
         <v>0</v>
@@ -14205,16 +14292,16 @@
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C173">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F173" s="9">
         <v>0</v>
@@ -14225,16 +14312,16 @@
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F174" s="9">
         <v>2</v>
@@ -14245,22 +14332,22 @@
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="54">SUM(D170:D174)</f>
-        <v>21</v>
+        <f t="shared" ref="D175" si="53">SUM(D170:D174)</f>
+        <v>77</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="55">SUM(F170:F174)</f>
+        <f t="shared" ref="F175" si="54">SUM(F170:F174)</f>
         <v>22</v>
       </c>
     </row>
@@ -14269,16 +14356,16 @@
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C176">
         <v>74</v>
       </c>
       <c r="D176">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E176">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F176" s="9">
         <v>20</v>
@@ -14289,7 +14376,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -14298,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -14309,13 +14396,13 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E178">
         <v>83</v>
@@ -14329,7 +14416,7 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C179">
         <v>10</v>
@@ -14349,7 +14436,7 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -14369,22 +14456,22 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181:F181" si="56">SUM(D176:D180)</f>
-        <v>23</v>
+        <f t="shared" ref="D181" si="55">SUM(D176:D180)</f>
+        <v>21</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F181">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="F181" si="56">SUM(F176:F180)</f>
         <v>22</v>
       </c>
     </row>
@@ -14393,19 +14480,19 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C182">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D182">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E182">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F182" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -14413,16 +14500,16 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F183" s="9">
         <v>0</v>
@@ -14433,16 +14520,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C184">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -14453,16 +14540,16 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C185">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
@@ -14473,13 +14560,13 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C186">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>109</v>
@@ -14493,23 +14580,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D187">
         <f t="shared" ref="D187:F187" si="57">SUM(D182:D186)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E187">
-        <f t="shared" si="57"/>
-        <v>728</v>
+        <f>SUM(E182:E186)</f>
+        <v>725</v>
       </c>
       <c r="F187">
         <f t="shared" si="57"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -14517,19 +14604,19 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C188">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D188">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E188">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F188" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -14537,19 +14624,19 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F189" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
@@ -14557,16 +14644,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C190">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
@@ -14577,19 +14664,19 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F191" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
@@ -14597,19 +14684,19 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F192" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -14617,23 +14704,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D193">
         <f t="shared" ref="D193:F193" si="58">SUM(D188:D192)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E193">
         <f t="shared" si="58"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F193">
         <f t="shared" si="58"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -14641,19 +14728,19 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C194">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D194">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E194">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F194" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -14661,19 +14748,19 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F195" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -14681,16 +14768,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C196">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -14701,7 +14788,7 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C197">
         <v>10</v>
@@ -14710,10 +14797,10 @@
         <v>5</v>
       </c>
       <c r="E197">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F197" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -14721,19 +14808,19 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C198">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F198" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -14741,60 +14828,60 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D199">
         <f t="shared" ref="D199:F199" si="59">SUM(D194:D198)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E199">
         <f t="shared" si="59"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F199">
         <f t="shared" si="59"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A200" s="14" t="s">
+      <c r="A200" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="14">
-        <v>79</v>
-      </c>
-      <c r="D200" s="14">
-        <v>21</v>
-      </c>
-      <c r="E200" s="14">
-        <v>255</v>
-      </c>
-      <c r="F200" s="16">
-        <v>22</v>
+      <c r="B200" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C200">
+        <v>78</v>
+      </c>
+      <c r="D200">
+        <v>31</v>
+      </c>
+      <c r="E200">
+        <v>245</v>
+      </c>
+      <c r="F200" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>7</v>
       </c>
-      <c r="B201" s="11" t="s">
-        <v>12</v>
+      <c r="B201" s="13">
+        <v>45450</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
@@ -14804,17 +14891,17 @@
       <c r="A202" t="s">
         <v>8</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>12</v>
+      <c r="B202" s="13">
+        <v>45450</v>
       </c>
       <c r="C202">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -14824,37 +14911,37 @@
       <c r="A203" t="s">
         <v>9</v>
       </c>
-      <c r="B203" s="11" t="s">
-        <v>12</v>
+      <c r="B203" s="13">
+        <v>45450</v>
       </c>
       <c r="C203">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F203" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>10</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>12</v>
+      <c r="B204" s="13">
+        <v>45450</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F204" s="9">
         <v>0</v>
@@ -14864,44 +14951,44 @@
       <c r="A205" t="s">
         <v>11</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>12</v>
+      <c r="B205" s="13">
+        <v>45450</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D205">
         <f t="shared" ref="D205:F205" si="60">SUM(D200:D204)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E205">
         <f t="shared" si="60"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F205">
         <f t="shared" si="60"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="14">
+        <v>79</v>
+      </c>
+      <c r="D206" s="14">
+        <v>21</v>
+      </c>
+      <c r="E206" s="14">
+        <v>255</v>
+      </c>
+      <c r="F206" s="16">
         <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206">
-        <v>69</v>
-      </c>
-      <c r="D206">
-        <v>51</v>
-      </c>
-      <c r="E206">
-        <v>223</v>
-      </c>
-      <c r="F206" s="9">
-        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -14909,19 +14996,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F207" s="9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -14929,16 +15016,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -14949,19 +15036,19 @@
         <v>9</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C209">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F209" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.45">
@@ -14969,16 +15056,16 @@
         <v>10</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D210">
         <v>2</v>
       </c>
       <c r="E210">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F210" s="9">
         <v>0</v>
@@ -14989,23 +15076,23 @@
         <v>11</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:F211" si="61">SUM(D206:D210)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E211">
         <f t="shared" si="61"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F211">
         <f t="shared" si="61"/>
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.45">
@@ -15013,19 +15100,19 @@
         <v>6</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C212">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D212">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E212">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F212" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.45">
@@ -15033,19 +15120,19 @@
         <v>7</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
+        <v>12</v>
+      </c>
+      <c r="E213">
         <v>1</v>
       </c>
-      <c r="E213">
-        <v>42</v>
-      </c>
       <c r="F213" s="9">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.45">
@@ -15053,16 +15140,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
@@ -15073,19 +15160,19 @@
         <v>9</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F215" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.45">
@@ -15093,19 +15180,19 @@
         <v>10</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F216" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.45">
@@ -15113,180 +15200,168 @@
         <v>11</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D217">
         <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E217">
         <f t="shared" si="62"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F217">
         <f t="shared" si="62"/>
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>6</v>
       </c>
-      <c r="B218" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B218" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C218">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E218">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F218" s="9">
-        <v>57</v>
-      </c>
-      <c r="G218" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>7</v>
       </c>
-      <c r="B219" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B219" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C219">
         <v>0</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219">
         <v>42</v>
       </c>
       <c r="F219" s="9">
-        <v>0</v>
-      </c>
-      <c r="G219" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>8</v>
       </c>
-      <c r="B220" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B220" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C220">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
       </c>
-      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>9</v>
       </c>
-      <c r="B221" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B221" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C221">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F221" s="9">
         <v>0</v>
       </c>
-      <c r="G221" s="6"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B222" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C222">
         <v>3</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E222">
         <v>79</v>
       </c>
       <c r="F222" s="9">
-        <v>0</v>
-      </c>
-      <c r="G222" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>11</v>
       </c>
-      <c r="B223" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B223" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D223">
         <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E223">
         <f t="shared" si="63"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F223">
         <f t="shared" si="63"/>
-        <v>57</v>
-      </c>
-      <c r="G223" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>6</v>
       </c>
       <c r="B224" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C224">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F224" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G224" s="6"/>
     </row>
@@ -15295,20 +15370,20 @@
         <v>7</v>
       </c>
       <c r="B225" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F225" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G225" s="6"/>
     </row>
@@ -15317,20 +15392,20 @@
         <v>8</v>
       </c>
       <c r="B226" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C226">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F226" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G226" s="6"/>
     </row>
@@ -15339,20 +15414,20 @@
         <v>9</v>
       </c>
       <c r="B227" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C227">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F227" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G227" s="6"/>
     </row>
@@ -15361,20 +15436,20 @@
         <v>10</v>
       </c>
       <c r="B228" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F228" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G228" s="6"/>
     </row>
@@ -15383,178 +15458,314 @@
         <v>11</v>
       </c>
       <c r="B229" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E229">
         <f t="shared" si="64"/>
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
-        <v>324</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G229" s="6"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>6</v>
       </c>
       <c r="B230" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C230">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D230">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="F230" s="9">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>7</v>
       </c>
       <c r="B231" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F231" s="9">
         <v>40</v>
       </c>
+      <c r="G231" s="6"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>8</v>
       </c>
       <c r="B232" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F232" s="9">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G232" s="6"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>9</v>
       </c>
       <c r="B233" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C233">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233">
+        <v>9</v>
+      </c>
+      <c r="F233" s="9">
         <v>85</v>
       </c>
-      <c r="F233" s="9">
-        <v>0</v>
-      </c>
+      <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>10</v>
       </c>
       <c r="B234" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F234" s="9">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G234" s="6"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C235">
+        <f>SUM(C230:C234)</f>
+        <v>110</v>
+      </c>
+      <c r="D235">
+        <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
+        <v>17</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="65"/>
+        <v>215</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="65"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C235">
-        <f>SUM(C230:C234)</f>
+      <c r="C236">
+        <v>70</v>
+      </c>
+      <c r="D236">
+        <v>15</v>
+      </c>
+      <c r="E236">
+        <v>260</v>
+      </c>
+      <c r="F236" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C238">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>41</v>
+      </c>
+      <c r="F238" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C239">
+        <v>13</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>85</v>
+      </c>
+      <c r="F239" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>74</v>
+      </c>
+      <c r="F240" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C241">
+        <f>SUM(C236:C240)</f>
         <v>91</v>
       </c>
-      <c r="D235">
-        <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
+      <c r="D241">
+        <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
         <v>20</v>
       </c>
-      <c r="E235">
-        <f t="shared" si="65"/>
+      <c r="E241">
+        <f t="shared" si="66"/>
         <v>462</v>
       </c>
-      <c r="F235">
-        <f t="shared" si="65"/>
+      <c r="F241">
+        <f t="shared" si="66"/>
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B236" s="11"/>
-      <c r="F236" s="9"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B237" s="11"/>
-      <c r="F237" s="9"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B238" s="11"/>
-      <c r="F238" s="9"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B239" s="11"/>
-      <c r="F239" s="9"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B240" s="11"/>
-      <c r="F240" s="9"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B241" s="11"/>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B242" s="11"/>
+      <c r="F242" s="9"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B243" s="11"/>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B244" s="11"/>
+      <c r="F244" s="9"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B245" s="11"/>
+      <c r="F245" s="9"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B246" s="11"/>
+      <c r="F246" s="9"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B247" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15564,11 +15775,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF54"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16197,19 +16408,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C223</f>
+        <f>'Combined PassRates'!C229</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D223</f>
+        <f>'Combined PassRates'!D229</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E223</f>
+        <f>'Combined PassRates'!E229</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F223</f>
+        <f>'Combined PassRates'!F229</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -16224,19 +16435,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C217</f>
+        <f>'Combined PassRates'!C223</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D217</f>
+        <f>'Combined PassRates'!D223</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E217</f>
+        <f>'Combined PassRates'!E223</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F217</f>
+        <f>'Combined PassRates'!F223</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -16297,19 +16508,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -16324,19 +16535,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -16351,19 +16562,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -16378,19 +16589,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -16405,19 +16616,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -16432,19 +16643,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -16459,19 +16670,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -16486,19 +16697,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -16513,19 +16724,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -16540,19 +16751,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -16567,19 +16778,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -16594,19 +16805,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -16621,19 +16832,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -16648,19 +16859,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -16675,19 +16886,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -16702,19 +16913,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -16729,19 +16940,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -16756,19 +16967,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -16783,19 +16994,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -16810,19 +17021,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -16837,19 +17048,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -16864,19 +17075,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -16891,19 +17102,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -16918,19 +17129,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -16945,19 +17156,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -16972,19 +17183,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -16999,19 +17210,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -17026,19 +17237,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C44</f>
+        <f>'Combined PassRates'!C50</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D44</f>
+        <f>'Combined PassRates'!D50</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E44</f>
+        <f>'Combined PassRates'!E50</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F44</f>
+        <f>'Combined PassRates'!F50</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -17053,19 +17264,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -17080,19 +17291,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -17107,19 +17318,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -17134,19 +17345,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -17161,19 +17372,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -17181,6 +17392,33 @@
       </c>
       <c r="G54" s="6" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f>'Combined PassRates'!C7</f>
+        <v>151</v>
+      </c>
+      <c r="C55">
+        <f>'Combined PassRates'!D7</f>
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <f>'Combined PassRates'!E7</f>
+        <v>867</v>
+      </c>
+      <c r="E55">
+        <f>'Combined PassRates'!F7</f>
+        <v>49</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45695</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -17194,7 +17432,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17206,11 +17444,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18400,6 +18638,24 @@
       </c>
       <c r="E54" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="str">
+        <f>PassRates!G55</f>
+        <v>54 - 07/2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26816A2-AA58-4DAA-9704-AACAA11CAF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBCBD6-7BB7-4108-9B74-5C9806BB4B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,104 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+78+59+6=143
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+113+7+1=121</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+505+209+186=900</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22+9=31</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -71,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -95,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -119,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -135,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -151,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -167,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -192,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -216,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -240,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -256,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -272,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -288,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -304,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -328,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -352,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -376,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -392,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -408,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -424,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -440,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -464,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -488,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -512,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -528,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -544,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -560,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -576,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -600,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -624,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -648,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -664,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -680,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -696,7 +793,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -712,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -736,7 +833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -760,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -784,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -800,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -816,7 +913,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -832,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -848,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -872,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -896,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -920,7 +1017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -936,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -952,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -968,7 +1065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -984,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1144,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1208,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1256,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1288,7 +1385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1336,7 +1433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1352,7 +1449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1384,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1400,7 +1497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1432,7 +1529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1448,7 +1545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -1528,7 +1625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -1544,7 +1641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -1576,7 +1673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -1591,7 +1688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -1607,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -1623,7 +1720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -1639,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -1654,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -1670,7 +1767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -1702,7 +1799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -1717,7 +1814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -1733,7 +1830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -1749,7 +1846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -1765,7 +1862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -1780,7 +1877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -1796,7 +1893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -1812,7 +1909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -1828,7 +1925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -1843,7 +1940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -1859,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -1875,7 +1972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -1890,7 +1987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -1905,7 +2002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -1921,7 +2018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -1937,7 +2034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -1952,7 +2049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -1967,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -1983,7 +2080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -1998,7 +2095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F134" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F140" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2013,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2028,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2043,7 +2140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2058,7 +2155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F140" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F146" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2078,7 +2175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="216">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3034,6 +3131,12 @@
   <si>
     <t>The QA resource profile of the team remains highly unlikely to change before mid Q1 2025, so internal options at improving coverage and pass rates will be the only source of remedial actions.
 The overall pass rates need maintenace to improve, but again this is due to lack of resources to meet this test automation challenge.</t>
+  </si>
+  <si>
+    <t>55 - 14/2</t>
+  </si>
+  <si>
+    <t>IH pass rates in mid Feb 2025 have increased slightly again to approximately 77%. As with the previous week, this was mainly due to an improvement in fixing previously 'Broken' automated tests.</t>
   </si>
 </sst>
 </file>
@@ -4417,7 +4520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$206:$B$206</c:f>
+              <c:f>'Combined PassRates'!$A$212:$B$212</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4531,7 +4634,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$206:$F$206</c:f>
+              <c:f>'Combined PassRates'!$C$212:$F$212</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4698,7 +4801,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$207:$B$207</c:f>
+              <c:f>'Combined PassRates'!$A$213:$B$213</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4817,7 +4920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$207:$F$207</c:f>
+              <c:f>'Combined PassRates'!$C$213:$F$213</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5009,7 +5112,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$208:$B$208</c:f>
+              <c:f>'Combined PassRates'!$A$214:$B$214</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5123,7 +5226,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$208:$F$208</c:f>
+              <c:f>'Combined PassRates'!$C$214:$F$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5315,7 +5418,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$209:$B$209</c:f>
+              <c:f>'Combined PassRates'!$A$215:$B$215</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5429,7 +5532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$209:$F$209</c:f>
+              <c:f>'Combined PassRates'!$C$215:$F$215</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5621,7 +5724,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$210:$B$210</c:f>
+              <c:f>'Combined PassRates'!$A$216:$B$216</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5735,7 +5838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$210:$F$210</c:f>
+              <c:f>'Combined PassRates'!$C$216:$F$216</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5927,7 +6030,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$211:$B$211</c:f>
+              <c:f>'Combined PassRates'!$A$217:$B$217</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6041,7 +6144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$211:$F$211</c:f>
+              <c:f>'Combined PassRates'!$C$217:$F$217</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10637,11 +10740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10677,23 +10780,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E2">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -10701,7 +10804,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10721,7 +10824,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10741,7 +10844,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10761,7 +10864,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10781,23 +10884,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -10805,22 +10908,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C8">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D8">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E8">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F8">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I8">
-        <v>1236</v>
+        <f>SUM(C8:F8)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -10828,7 +10932,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10848,7 +10952,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10868,7 +10972,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10888,7 +10992,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10908,51 +11012,54 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <f>SUM(C8:C12)</f>
+        <v>151</v>
       </c>
       <c r="D13">
-        <v>207</v>
+        <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>636</v>
+        <f t="shared" si="1"/>
+        <v>867</v>
       </c>
       <c r="F13">
-        <v>276</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13">
-        <v>45681</v>
+      <c r="B14" s="5">
+        <v>45688</v>
       </c>
       <c r="C14">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E14">
-        <v>812</v>
-      </c>
-      <c r="F14" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F14">
+        <v>276</v>
       </c>
       <c r="I14">
-        <f>SUM(C14:H14)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="13">
-        <v>45681</v>
+      <c r="B15" s="5">
+        <v>45688</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -10963,7 +11070,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
@@ -10971,8 +11078,8 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="13">
-        <v>45681</v>
+      <c r="B16" s="5">
+        <v>45688</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10983,7 +11090,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
@@ -10991,8 +11098,8 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="13">
-        <v>45681</v>
+      <c r="B17" s="5">
+        <v>45688</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11003,7 +11110,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
@@ -11011,8 +11118,8 @@
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="13">
-        <v>45681</v>
+      <c r="B18" s="5">
+        <v>45688</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11023,7 +11130,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18">
         <v>0</v>
       </c>
     </row>
@@ -11031,24 +11138,20 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="13">
-        <v>45681</v>
+      <c r="B19" s="5">
+        <v>45688</v>
       </c>
       <c r="C19">
-        <f>SUM(C14:C18)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19" si="1">SUM(D14:D18)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E19">
-        <f>SUM(E14:E18)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="2">SUM(F14:F18)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -11056,23 +11159,23 @@
         <v>6</v>
       </c>
       <c r="B20" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C20">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D20">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E20">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F20" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I20">
         <f>SUM(C20:H20)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -11080,7 +11183,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11100,7 +11203,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11120,7 +11223,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11140,7 +11243,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11160,49 +11263,47 @@
         <v>11</v>
       </c>
       <c r="B25" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="3">SUM(D20:D24)</f>
-        <v>157</v>
+        <f t="shared" ref="D25" si="2">SUM(D20:D24)</f>
+        <v>148</v>
       </c>
       <c r="E25">
         <f>SUM(E20:E24)</f>
+        <v>812</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="3">SUM(F20:F24)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C26">
+        <v>121</v>
+      </c>
+      <c r="D26">
+        <v>157</v>
+      </c>
+      <c r="E26">
         <v>799</v>
       </c>
-      <c r="F25">
-        <f t="shared" ref="F25" si="4">SUM(F20:F24)</f>
+      <c r="F26" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C26" s="19">
-        <v>122</v>
-      </c>
-      <c r="D26" s="19">
-        <v>162</v>
-      </c>
-      <c r="E26" s="19">
-        <v>790</v>
-      </c>
-      <c r="F26" s="21">
-        <v>97</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="23">
+      <c r="I26">
         <f>SUM(C26:H26)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11210,19 +11311,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F27" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -11230,16 +11331,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F28" s="9">
         <v>0</v>
@@ -11250,19 +11351,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F29" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -11270,73 +11371,69 @@
         <v>10</v>
       </c>
       <c r="B30" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)</f>
+        <v>121</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31" si="4">SUM(D26:D30)</f>
+        <v>157</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E26:E30)</f>
+        <v>799</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="5">SUM(F26:F30)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="18">
         <v>45667</v>
       </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>79</v>
-      </c>
-      <c r="F30" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C31" s="19">
-        <f>SUM(C26:C30)</f>
-        <v>211</v>
-      </c>
-      <c r="D31" s="19">
-        <f t="shared" ref="D31" si="5">SUM(D26:D30)</f>
-        <v>254</v>
-      </c>
-      <c r="E31" s="19">
-        <f>SUM(E26:E30)</f>
-        <v>944</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" ref="F31" si="6">SUM(F26:F30)</f>
-        <v>431</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="23">
-        <f>SUM(C31:H31)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C32">
-        <v>136</v>
-      </c>
-      <c r="D32">
-        <v>182</v>
-      </c>
-      <c r="E32">
-        <v>695</v>
-      </c>
-      <c r="F32" s="9">
-        <v>165</v>
-      </c>
-      <c r="I32">
+      <c r="C32" s="19">
+        <v>122</v>
+      </c>
+      <c r="D32" s="19">
+        <v>162</v>
+      </c>
+      <c r="E32" s="19">
+        <v>790</v>
+      </c>
+      <c r="F32" s="21">
+        <v>97</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="23">
         <f>SUM(C32:H32)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11344,7 +11441,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -11364,7 +11461,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C34">
         <v>17</v>
@@ -11384,7 +11481,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -11404,7 +11501,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C36">
         <v>50</v>
@@ -11420,27 +11517,33 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="A37" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C37" s="19">
         <f>SUM(C32:C36)</f>
-        <v>225</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ref="D37" si="7">SUM(D32:D36)</f>
-        <v>274</v>
-      </c>
-      <c r="E37">
+        <v>211</v>
+      </c>
+      <c r="D37" s="19">
+        <f t="shared" ref="D37" si="6">SUM(D32:D36)</f>
+        <v>254</v>
+      </c>
+      <c r="E37" s="19">
         <f>SUM(E32:E36)</f>
-        <v>849</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37" si="8">SUM(F32:F36)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" ref="F37" si="7">SUM(F32:F36)</f>
+        <v>431</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="23">
+        <f>SUM(C37:H37)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -11448,23 +11551,23 @@
         <v>6</v>
       </c>
       <c r="B38" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C38">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D38">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E38">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F38" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I38">
         <f>SUM(C38:H38)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11472,7 +11575,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -11492,7 +11595,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -11512,7 +11615,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -11532,7 +11635,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -11552,23 +11655,23 @@
         <v>11</v>
       </c>
       <c r="B43" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="9">SUM(D38:D42)</f>
-        <v>249</v>
+        <f t="shared" ref="D43" si="8">SUM(D38:D42)</f>
+        <v>274</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="10">SUM(F38:F42)</f>
-        <v>367</v>
+        <f t="shared" ref="F43" si="9">SUM(F38:F42)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -11576,23 +11679,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C44">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D44">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E44">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F44" s="9">
         <v>33</v>
       </c>
       <c r="I44">
         <f>SUM(C44:H44)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -11600,7 +11703,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -11620,7 +11723,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C46">
         <v>17</v>
@@ -11640,7 +11743,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -11660,7 +11763,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -11680,22 +11783,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C49">
         <f>SUM(C44:C48)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="11">SUM(D44:D48)</f>
-        <v>253</v>
+        <f t="shared" ref="D49" si="10">SUM(D44:D48)</f>
+        <v>249</v>
       </c>
       <c r="E49">
         <f>SUM(E44:E48)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="12">SUM(F44:F48)</f>
+        <f t="shared" ref="F49" si="11">SUM(F44:F48)</f>
         <v>367</v>
       </c>
     </row>
@@ -11704,23 +11807,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C50">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D50">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E50">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F50" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I50">
         <f>SUM(C50:H50)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -11728,7 +11831,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -11748,7 +11851,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -11768,7 +11871,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -11788,7 +11891,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -11808,23 +11911,23 @@
         <v>11</v>
       </c>
       <c r="B55" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C55">
         <f>SUM(C50:C54)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="13">SUM(D50:D54)</f>
-        <v>289</v>
+        <f t="shared" ref="D55" si="12">SUM(D50:D54)</f>
+        <v>253</v>
       </c>
       <c r="E55">
         <f>SUM(E50:E54)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="14">SUM(F50:F54)</f>
-        <v>433</v>
+        <f t="shared" ref="F55" si="13">SUM(F50:F54)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -11832,23 +11935,23 @@
         <v>6</v>
       </c>
       <c r="B56" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C56">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D56">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E56">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F56" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -11856,7 +11959,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -11876,7 +11979,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -11896,7 +11999,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -11916,7 +12019,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -11936,23 +12039,23 @@
         <v>11</v>
       </c>
       <c r="B61" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C61">
         <f>SUM(C56:C60)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="15">SUM(D56:D60)</f>
-        <v>242</v>
+        <f t="shared" ref="D61" si="14">SUM(D56:D60)</f>
+        <v>289</v>
       </c>
       <c r="E61">
         <f>SUM(E56:E60)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="16">SUM(F56:F60)</f>
-        <v>363</v>
+        <f t="shared" ref="F61" si="15">SUM(F56:F60)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -11960,23 +12063,23 @@
         <v>6</v>
       </c>
       <c r="B62" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C62">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D62">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E62">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F62" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -11984,7 +12087,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -12004,16 +12107,16 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -12024,13 +12127,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -12044,19 +12147,19 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C66">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F66" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
@@ -12064,49 +12167,47 @@
         <v>11</v>
       </c>
       <c r="B67" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C67">
         <f>SUM(C62:C66)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67" si="17">SUM(D62:D66)</f>
-        <v>189</v>
+        <f t="shared" ref="D67" si="16">SUM(D62:D66)</f>
+        <v>242</v>
       </c>
       <c r="E67">
         <f>SUM(E62:E66)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="18">SUM(F62:F66)</f>
-        <v>378</v>
+        <f t="shared" ref="F67" si="17">SUM(F62:F66)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="17" t="s">
+      <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C68" s="19">
-        <v>149</v>
-      </c>
-      <c r="D68" s="19">
-        <v>121</v>
-      </c>
-      <c r="E68" s="19">
-        <v>658</v>
-      </c>
-      <c r="F68" s="21">
-        <v>10</v>
-      </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="23">
+      <c r="B68" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C68">
+        <v>164</v>
+      </c>
+      <c r="D68">
+        <v>110</v>
+      </c>
+      <c r="E68">
+        <v>659</v>
+      </c>
+      <c r="F68" s="9">
+        <v>19</v>
+      </c>
+      <c r="I68">
         <f>SUM(C68:H68)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12114,16 +12215,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>38</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69" s="9">
         <v>126</v>
@@ -12134,16 +12235,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -12154,19 +12255,19 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F71" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
@@ -12174,49 +12275,43 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F72" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="17" t="s">
+      <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C73" s="19">
+      <c r="B73" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C73">
         <f>SUM(C68:C72)</f>
-        <v>247</v>
-      </c>
-      <c r="D73" s="19">
-        <f t="shared" ref="D73" si="19">SUM(D68:D72)</f>
-        <v>190</v>
-      </c>
-      <c r="E73" s="19">
+        <v>248</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73" si="18">SUM(D68:D72)</f>
+        <v>189</v>
+      </c>
+      <c r="E73">
         <f>SUM(E68:E72)</f>
-        <v>813</v>
-      </c>
-      <c r="F73" s="19">
-        <f t="shared" ref="F73" si="20">SUM(F68:F72)</f>
-        <v>369</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="23">
-        <f>SUM(C73:H73)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73" si="19">SUM(F68:F72)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -12224,25 +12319,25 @@
         <v>6</v>
       </c>
       <c r="B74" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C74" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D74" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E74" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F74" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="22">
+      <c r="I74" s="23">
         <f>SUM(C74:H74)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12250,16 +12345,16 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>38</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" s="9">
         <v>126</v>
@@ -12270,16 +12365,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C76">
         <v>19</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -12290,16 +12385,16 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F77" s="9">
         <v>110</v>
@@ -12310,19 +12405,19 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C78">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F78" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
@@ -12330,83 +12425,89 @@
         <v>11</v>
       </c>
       <c r="B79" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C79" s="19">
         <f>SUM(C74:C78)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D79" s="19">
-        <f t="shared" ref="D79" si="21">SUM(D74:D78)</f>
-        <v>161</v>
+        <f t="shared" ref="D79" si="20">SUM(D74:D78)</f>
+        <v>190</v>
       </c>
       <c r="E79" s="19">
         <f>SUM(E74:E78)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F79" s="19">
-        <f t="shared" ref="F79" si="22">SUM(F74:F78)</f>
-        <v>393</v>
+        <f t="shared" ref="F79" si="21">SUM(F74:F78)</f>
+        <v>369</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="20">
+      <c r="I79" s="23">
         <f>SUM(C79:H79)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="A80" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C80">
-        <v>142</v>
-      </c>
-      <c r="D80">
-        <v>124</v>
-      </c>
-      <c r="E80">
-        <v>672</v>
-      </c>
-      <c r="F80" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B80" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C80" s="19">
+        <v>148</v>
+      </c>
+      <c r="D80" s="19">
+        <v>99</v>
+      </c>
+      <c r="E80" s="19">
+        <v>665</v>
+      </c>
+      <c r="F80" s="21">
+        <v>12</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="22">
+        <f>SUM(C80:H80)</f>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E81">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F81" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C82">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D82">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>67</v>
@@ -12415,18 +12516,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>12</v>
@@ -12435,272 +12536,278 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C84">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F84" s="9">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C85">
+      <c r="B85" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C85" s="19">
         <f>SUM(C80:C84)</f>
-        <v>239</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ref="D85" si="23">SUM(D80:D84)</f>
-        <v>164</v>
-      </c>
-      <c r="E85">
+        <v>248</v>
+      </c>
+      <c r="D85" s="19">
+        <f t="shared" ref="D85" si="22">SUM(D80:D84)</f>
+        <v>161</v>
+      </c>
+      <c r="E85" s="19">
         <f>SUM(E80:E84)</f>
-        <v>920</v>
-      </c>
-      <c r="F85">
-        <f t="shared" ref="F85" si="24">SUM(F80:F84)</f>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+        <v>819</v>
+      </c>
+      <c r="F85" s="19">
+        <f t="shared" ref="F85" si="23">SUM(F80:F84)</f>
+        <v>393</v>
+      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="20">
+        <f>SUM(C85:H85)</f>
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C86">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D86">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E86">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F86" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F87" s="9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C89">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E89">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F89" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C90">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F90" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="25">SUM(D86:D90)</f>
-        <v>119</v>
+        <f t="shared" ref="D91" si="24">SUM(D86:D90)</f>
+        <v>164</v>
       </c>
       <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="26">SUM(F86:F90)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F91" si="25">SUM(F86:F90)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C92">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E92">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F92" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C93">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D93">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E93">
         <v>17</v>
       </c>
       <c r="F93" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F95" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C96">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F96" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -12708,23 +12815,23 @@
         <v>11</v>
       </c>
       <c r="B97" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="27">SUM(D92:D96)</f>
-        <v>125</v>
+        <f t="shared" ref="D97" si="26">SUM(D92:D96)</f>
+        <v>119</v>
       </c>
       <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="28">SUM(F92:F96)</f>
-        <v>245</v>
+        <f t="shared" ref="F97" si="27">SUM(F92:F96)</f>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -12732,19 +12839,19 @@
         <v>6</v>
       </c>
       <c r="B98" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C98">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D98">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E98">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F98" s="9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -12752,16 +12859,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D99">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E99">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F99" s="9">
         <v>88</v>
@@ -12772,13 +12879,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>77</v>
@@ -12792,19 +12899,19 @@
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C101">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F101" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -12812,19 +12919,19 @@
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C102">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F102" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -12832,23 +12939,23 @@
         <v>11</v>
       </c>
       <c r="B103" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103" si="29">SUM(D98:D102)</f>
-        <v>92</v>
+        <f t="shared" ref="D103" si="28">SUM(D98:D102)</f>
+        <v>125</v>
       </c>
       <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="30">SUM(F98:F102)</f>
-        <v>193</v>
+        <f t="shared" ref="F103" si="29">SUM(F98:F102)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -12856,23 +12963,19 @@
         <v>6</v>
       </c>
       <c r="B104" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C104">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D104">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E104">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F104" s="9">
-        <v>3</v>
-      </c>
-      <c r="I104">
-        <f>SUM(C104:H104)</f>
-        <v>907</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -12880,19 +12983,19 @@
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F105" s="9">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -12900,16 +13003,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E106">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -12920,19 +13023,19 @@
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F107" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -12940,19 +13043,19 @@
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C108">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F108" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -12960,23 +13063,23 @@
         <v>11</v>
       </c>
       <c r="B109" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="31">SUM(D104:D108)</f>
-        <v>83</v>
+        <f t="shared" ref="D109" si="30">SUM(D104:D108)</f>
+        <v>92</v>
       </c>
       <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="32">SUM(F104:F108)</f>
-        <v>131</v>
+        <f t="shared" ref="F109" si="31">SUM(F104:F108)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -12984,19 +13087,23 @@
         <v>6</v>
       </c>
       <c r="B110" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C110">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D110">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E110">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F110" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <f>SUM(C110:H110)</f>
+        <v>907</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -13004,7 +13111,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C111">
         <v>12</v>
@@ -13024,261 +13131,261 @@
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C112">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C113">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F113" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C114">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D114">
         <v>8</v>
       </c>
       <c r="E114">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F114" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115" si="33">SUM(D110:D114)</f>
-        <v>113</v>
+        <f t="shared" ref="D115" si="32">SUM(D110:D114)</f>
+        <v>83</v>
       </c>
       <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="34">SUM(F110:F114)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F115" si="33">SUM(F110:F114)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C116">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D116">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E116">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F116" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D117">
         <v>7</v>
       </c>
       <c r="E117">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C118">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C119">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D119">
+        <v>11</v>
+      </c>
+      <c r="E119">
+        <v>103</v>
+      </c>
+      <c r="F119" s="9">
         <v>6</v>
       </c>
-      <c r="E119">
-        <v>46</v>
-      </c>
-      <c r="F119" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C120">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F120" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="35">SUM(D116:D120)</f>
-        <v>118</v>
+        <f t="shared" ref="D121" si="34">SUM(D116:D120)</f>
+        <v>113</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="36">SUM(F116:F120)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F121" si="35">SUM(F116:F120)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C122">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D122">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E122">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F122" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>77</v>
@@ -13287,100 +13394,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C125">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E125">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F125" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C126">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F126" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="37">SUM(D122:D126)</f>
-        <v>77</v>
+        <f t="shared" ref="D127" si="36">SUM(D122:D126)</f>
+        <v>118</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="38">SUM(F122:F126)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F127" si="37">SUM(F122:F126)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C128">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D128">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E128">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F128" s="9">
         <v>2</v>
       </c>
-      <c r="I128">
-        <f>SUM(C128:H128)</f>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -13395,18 +13498,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C130">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>77</v>
@@ -13415,12 +13518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C131">
         <v>24</v>
@@ -13435,76 +13538,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C132">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D132">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F132" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="39">SUM(D128:D132)</f>
-        <v>79</v>
+        <f t="shared" ref="D133" si="38">SUM(D128:D132)</f>
+        <v>77</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="40">SUM(F128:F132)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F133" si="39">SUM(F128:F132)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C134">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D134">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E134">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F134" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <f>SUM(C134:H134)</f>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -13513,622 +13620,622 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F135" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C136">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C137">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D137">
         <v>7</v>
       </c>
       <c r="E137">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F137" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C138">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F138" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="41">SUM(D134:D138)</f>
-        <v>128</v>
+        <f t="shared" ref="D139" si="40">SUM(D134:D138)</f>
+        <v>79</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="42">SUM(F134:F138)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F139" si="41">SUM(F134:F138)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C140">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D140">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E140">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F140" s="9">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F141" s="9">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C143">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F143" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F144" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="43">SUM(D140:D144)</f>
-        <v>238</v>
+        <f t="shared" ref="D145" si="42">SUM(D140:D144)</f>
+        <v>128</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="44">SUM(F140:F144)</f>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F145" si="43">SUM(F140:F144)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C146">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E146">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F146" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C147">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E147">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F147" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D148">
         <v>5</v>
       </c>
       <c r="E148">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C149">
         <v>25</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F149" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C150">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F150" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="45">SUM(D146:D150)</f>
-        <v>18</v>
+        <f t="shared" ref="D151" si="44">SUM(D146:D150)</f>
+        <v>238</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="46">SUM(F146:F150)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F151" si="45">SUM(F146:F150)</f>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C152">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D152">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F152" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F153" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C155">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F155" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C156">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F156" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="47">SUM(D152:D156)</f>
-        <v>80</v>
+        <f t="shared" ref="D157" si="46">SUM(D152:D156)</f>
+        <v>18</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="48">SUM(F152:F156)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F157" si="47">SUM(F152:F156)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C158">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D158">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E158">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F158" s="9">
         <v>14</v>
       </c>
-      <c r="I158">
-        <f>SUM(C158:H158)</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C160">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D160">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E160">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F161" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D162">
         <v>2</v>
       </c>
       <c r="E162">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F162" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="49">SUM(D158:D162)</f>
-        <v>102</v>
+        <f t="shared" ref="D163" si="48">SUM(D158:D162)</f>
+        <v>80</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="50">SUM(F158:F162)</f>
+        <f t="shared" ref="F163" si="49">SUM(F158:F162)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C164">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E164">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F164" s="9">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="I164">
+        <f>SUM(C164:H164)</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -14137,18 +14244,18 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C166">
         <v>8</v>
@@ -14163,209 +14270,209 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C167">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F167" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
       <c r="E168">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F168" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="51">SUM(D164:D168)</f>
-        <v>71</v>
+        <f t="shared" ref="D169" si="50">SUM(D164:D168)</f>
+        <v>102</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="52">SUM(F164:F168)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F169" si="51">SUM(F164:F168)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C170">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D170">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F170" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F171" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E172">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F172" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F173" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F174" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="53">SUM(D170:D174)</f>
-        <v>77</v>
+        <f t="shared" ref="D175" si="52">SUM(D170:D174)</f>
+        <v>71</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="54">SUM(F170:F174)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F175" si="53">SUM(F170:F174)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C176">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D176">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E176">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F176" s="9">
         <v>20</v>
@@ -14376,16 +14483,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -14396,16 +14503,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E178">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
@@ -14416,16 +14523,16 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C179">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
@@ -14436,16 +14543,16 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C180">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F180" s="9">
         <v>2</v>
@@ -14456,22 +14563,22 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="55">SUM(D176:D180)</f>
-        <v>21</v>
+        <f t="shared" ref="D181" si="54">SUM(D176:D180)</f>
+        <v>77</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="56">SUM(F176:F180)</f>
+        <f t="shared" ref="F181" si="55">SUM(F176:F180)</f>
         <v>22</v>
       </c>
     </row>
@@ -14480,16 +14587,16 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C182">
         <v>74</v>
       </c>
       <c r="D182">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E182">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F182" s="9">
         <v>20</v>
@@ -14500,7 +14607,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -14509,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F183" s="9">
         <v>0</v>
@@ -14520,13 +14627,13 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E184">
         <v>83</v>
@@ -14540,7 +14647,7 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C185">
         <v>10</v>
@@ -14560,7 +14667,7 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -14580,22 +14687,22 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187:F187" si="57">SUM(D182:D186)</f>
-        <v>23</v>
+        <f t="shared" ref="D187" si="56">SUM(D182:D186)</f>
+        <v>21</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F187">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="F187" si="57">SUM(F182:F186)</f>
         <v>22</v>
       </c>
     </row>
@@ -14604,19 +14711,19 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C188">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D188">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E188">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F188" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -14624,16 +14731,16 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
@@ -14644,16 +14751,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C190">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
@@ -14664,16 +14771,16 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C191">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
@@ -14684,13 +14791,13 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C192">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
         <v>109</v>
@@ -14704,23 +14811,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D193">
         <f t="shared" ref="D193:F193" si="58">SUM(D188:D192)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E193">
-        <f t="shared" si="58"/>
-        <v>728</v>
+        <f>SUM(E188:E192)</f>
+        <v>725</v>
       </c>
       <c r="F193">
         <f t="shared" si="58"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -14728,19 +14835,19 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C194">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D194">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E194">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F194" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -14748,19 +14855,19 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F195" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -14768,16 +14875,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C196">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -14788,19 +14895,19 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C197">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F197" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -14808,19 +14915,19 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F198" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -14828,23 +14935,23 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D199">
         <f t="shared" ref="D199:F199" si="59">SUM(D194:D198)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E199">
         <f t="shared" si="59"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F199">
         <f t="shared" si="59"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -14852,19 +14959,19 @@
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C200">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D200">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E200">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F200" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -14872,19 +14979,19 @@
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F201" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -14892,16 +14999,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C202">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -14912,7 +15019,7 @@
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C203">
         <v>10</v>
@@ -14921,10 +15028,10 @@
         <v>5</v>
       </c>
       <c r="E203">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F203" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -14932,19 +15039,19 @@
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C204">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F204" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
@@ -14952,60 +15059,60 @@
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D205">
         <f t="shared" ref="D205:F205" si="60">SUM(D200:D204)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E205">
         <f t="shared" si="60"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F205">
         <f t="shared" si="60"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A206" s="14" t="s">
+      <c r="A206" t="s">
         <v>6</v>
       </c>
-      <c r="B206" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" s="14">
-        <v>79</v>
-      </c>
-      <c r="D206" s="14">
-        <v>21</v>
-      </c>
-      <c r="E206" s="14">
-        <v>255</v>
-      </c>
-      <c r="F206" s="16">
-        <v>22</v>
+      <c r="B206" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C206">
+        <v>78</v>
+      </c>
+      <c r="D206">
+        <v>31</v>
+      </c>
+      <c r="E206">
+        <v>245</v>
+      </c>
+      <c r="F206" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>7</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>12</v>
+      <c r="B207" s="13">
+        <v>45450</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F207" s="9">
         <v>0</v>
@@ -15015,489 +15122,477 @@
       <c r="A208" t="s">
         <v>8</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>12</v>
+      <c r="B208" s="13">
+        <v>45450</v>
       </c>
       <c r="C208">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>9</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>12</v>
+      <c r="B209" s="13">
+        <v>45450</v>
       </c>
       <c r="C209">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F209" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>10</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>12</v>
+      <c r="B210" s="13">
+        <v>45450</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F210" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>11</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>12</v>
+      <c r="B211" s="13">
+        <v>45450</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:F211" si="61">SUM(D206:D210)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E211">
         <f t="shared" si="61"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F211">
         <f t="shared" si="61"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="14">
+        <v>79</v>
+      </c>
+      <c r="D212" s="14">
+        <v>21</v>
+      </c>
+      <c r="E212" s="14">
+        <v>255</v>
+      </c>
+      <c r="F212" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212">
-        <v>69</v>
-      </c>
-      <c r="D212">
-        <v>51</v>
-      </c>
-      <c r="E212">
-        <v>223</v>
-      </c>
-      <c r="F212" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>7</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F213" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>8</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F215" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>10</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D216">
         <v>2</v>
       </c>
       <c r="E216">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F216" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>11</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D217">
         <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E217">
         <f t="shared" si="62"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F217">
         <f t="shared" si="62"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>6</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C218">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D218">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E218">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F218" s="9">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>7</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
+        <v>12</v>
+      </c>
+      <c r="E219">
         <v>1</v>
       </c>
-      <c r="E219">
-        <v>42</v>
-      </c>
       <c r="F219" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>8</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C220">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>9</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F221" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>10</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F222" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>11</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D223">
         <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E223">
         <f t="shared" si="63"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F223">
         <f t="shared" si="63"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>6</v>
       </c>
-      <c r="B224" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B224" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C224">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E224">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F224" s="9">
-        <v>57</v>
-      </c>
-      <c r="G224" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>7</v>
       </c>
-      <c r="B225" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B225" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225">
         <v>42</v>
       </c>
       <c r="F225" s="9">
-        <v>0</v>
-      </c>
-      <c r="G225" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>8</v>
       </c>
-      <c r="B226" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B226" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C226">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
       </c>
-      <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>9</v>
       </c>
-      <c r="B227" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B227" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C227">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F227" s="9">
         <v>0</v>
       </c>
-      <c r="G227" s="6"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>10</v>
       </c>
-      <c r="B228" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B228" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C228">
         <v>3</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E228">
         <v>79</v>
       </c>
       <c r="F228" s="9">
-        <v>0</v>
-      </c>
-      <c r="G228" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>11</v>
       </c>
-      <c r="B229" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B229" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E229">
         <f t="shared" si="64"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
-        <v>57</v>
-      </c>
-      <c r="G229" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>6</v>
       </c>
       <c r="B230" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C230">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F230" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G230" s="6"/>
     </row>
@@ -15506,20 +15601,20 @@
         <v>7</v>
       </c>
       <c r="B231" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F231" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G231" s="6"/>
     </row>
@@ -15528,20 +15623,20 @@
         <v>8</v>
       </c>
       <c r="B232" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C232">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F232" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G232" s="6"/>
     </row>
@@ -15550,20 +15645,20 @@
         <v>9</v>
       </c>
       <c r="B233" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C233">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F233" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G233" s="6"/>
     </row>
@@ -15572,20 +15667,20 @@
         <v>10</v>
       </c>
       <c r="B234" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F234" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G234" s="6"/>
     </row>
@@ -15594,178 +15689,314 @@
         <v>11</v>
       </c>
       <c r="B235" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E235">
         <f t="shared" si="65"/>
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
-        <v>324</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G235" s="6"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>6</v>
       </c>
       <c r="B236" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C236">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D236">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="F236" s="9">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G236" s="6"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>7</v>
       </c>
       <c r="B237" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F237" s="9">
         <v>40</v>
       </c>
+      <c r="G237" s="6"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>8</v>
       </c>
       <c r="B238" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C238">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F238" s="9">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G238" s="6"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>9</v>
       </c>
       <c r="B239" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C239">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239">
+        <v>9</v>
+      </c>
+      <c r="F239" s="9">
         <v>85</v>
       </c>
-      <c r="F239" s="9">
-        <v>0</v>
-      </c>
+      <c r="G239" s="6"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>10</v>
       </c>
       <c r="B240" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F240" s="9">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G240" s="6"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>11</v>
       </c>
       <c r="B241" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C241">
+        <f>SUM(C236:C240)</f>
+        <v>110</v>
+      </c>
+      <c r="D241">
+        <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
+        <v>17</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="66"/>
+        <v>215</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="66"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C241">
-        <f>SUM(C236:C240)</f>
+      <c r="C242">
+        <v>70</v>
+      </c>
+      <c r="D242">
+        <v>15</v>
+      </c>
+      <c r="E242">
+        <v>260</v>
+      </c>
+      <c r="F242" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C244">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>41</v>
+      </c>
+      <c r="F244" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C245">
+        <v>13</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>85</v>
+      </c>
+      <c r="F245" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>74</v>
+      </c>
+      <c r="F246" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C247">
+        <f>SUM(C242:C246)</f>
         <v>91</v>
       </c>
-      <c r="D241">
-        <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
+      <c r="D247">
+        <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
         <v>20</v>
       </c>
-      <c r="E241">
-        <f t="shared" si="66"/>
+      <c r="E247">
+        <f t="shared" si="67"/>
         <v>462</v>
       </c>
-      <c r="F241">
-        <f t="shared" si="66"/>
+      <c r="F247">
+        <f t="shared" si="67"/>
         <v>42</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B242" s="11"/>
-      <c r="F242" s="9"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B243" s="11"/>
-      <c r="F243" s="9"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B244" s="11"/>
-      <c r="F244" s="9"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B245" s="11"/>
-      <c r="F245" s="9"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B246" s="11"/>
-      <c r="F246" s="9"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B247" s="11"/>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B248" s="11"/>
+      <c r="F248" s="9"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B249" s="11"/>
+      <c r="F249" s="9"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B250" s="11"/>
+      <c r="F250" s="9"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B251" s="11"/>
+      <c r="F251" s="9"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B252" s="11"/>
+      <c r="F252" s="9"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B253" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15775,11 +16006,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF55"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16408,19 +16639,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C229</f>
+        <f>'Combined PassRates'!C235</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D229</f>
+        <f>'Combined PassRates'!D235</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E229</f>
+        <f>'Combined PassRates'!E235</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F229</f>
+        <f>'Combined PassRates'!F235</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -16435,19 +16666,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C223</f>
+        <f>'Combined PassRates'!C229</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D223</f>
+        <f>'Combined PassRates'!D229</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E223</f>
+        <f>'Combined PassRates'!E229</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F223</f>
+        <f>'Combined PassRates'!F229</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -16508,19 +16739,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C205</f>
+        <f>'Combined PassRates'!C211</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D205</f>
+        <f>'Combined PassRates'!D211</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E205</f>
+        <f>'Combined PassRates'!E211</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F205</f>
+        <f>'Combined PassRates'!F211</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -16535,19 +16766,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -16562,19 +16793,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -16589,19 +16820,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -16616,19 +16847,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -16643,19 +16874,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -16670,19 +16901,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -16697,19 +16928,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -16724,19 +16955,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -16751,19 +16982,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -16778,19 +17009,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -16805,19 +17036,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -16832,19 +17063,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -16859,19 +17090,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -16886,19 +17117,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -16913,19 +17144,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -16940,19 +17171,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -16967,19 +17198,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -16994,19 +17225,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -17021,19 +17252,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -17048,19 +17279,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -17075,19 +17306,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -17102,19 +17333,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -17129,19 +17360,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -17156,19 +17387,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -17183,19 +17414,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -17210,19 +17441,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -17237,19 +17468,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C50</f>
+        <f>'Combined PassRates'!C56</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D50</f>
+        <f>'Combined PassRates'!D56</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E50</f>
+        <f>'Combined PassRates'!E56</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F50</f>
+        <f>'Combined PassRates'!F56</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -17264,19 +17495,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -17291,19 +17522,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -17318,19 +17549,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -17345,19 +17576,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -17372,19 +17603,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -17399,19 +17630,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>151</v>
       </c>
       <c r="C55">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>130</v>
       </c>
       <c r="D55">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>867</v>
       </c>
       <c r="E55">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>49</v>
       </c>
       <c r="F55" s="13">
@@ -17419,6 +17650,33 @@
       </c>
       <c r="G55" s="6" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f>'Combined PassRates'!C7</f>
+        <v>143</v>
+      </c>
+      <c r="C56">
+        <f>'Combined PassRates'!D7</f>
+        <v>121</v>
+      </c>
+      <c r="D56">
+        <f>'Combined PassRates'!E7</f>
+        <v>900</v>
+      </c>
+      <c r="E56">
+        <f>'Combined PassRates'!F7</f>
+        <v>31</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45702</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -17444,11 +17702,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18655,6 +18913,24 @@
         <v>212</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="str">
+        <f>PassRates!G56</f>
+        <v>55 - 14/2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>213</v>
       </c>
     </row>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBCBD6-7BB7-4108-9B74-5C9806BB4B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE90C2D-F042-471D-9CD8-49B08628BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,104 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+82+42+6=130
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+115+6+1=122</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+485+227+186=898</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22+9=31</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
       <text>
         <r>
           <rPr>
@@ -71,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
       <text>
         <r>
           <rPr>
@@ -95,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
       <text>
         <r>
           <rPr>
@@ -119,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
       <text>
         <r>
           <rPr>
@@ -143,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -168,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -192,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -216,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -232,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -248,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -264,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -289,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -313,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -337,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -353,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -369,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -385,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -401,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -425,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -449,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -473,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -489,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -505,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -521,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -537,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -561,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -585,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -609,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -625,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -641,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -657,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -673,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -697,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -721,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -745,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -761,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -777,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -793,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -809,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -833,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -857,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -881,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -897,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -913,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -929,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -945,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -969,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -993,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -1017,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -1065,7 +1162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1169,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1321,7 +1418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1369,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1401,7 +1498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1417,7 +1514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1433,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1497,7 +1594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1513,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1545,7 +1642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1561,7 +1658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1577,7 +1674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -1625,7 +1722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -1641,7 +1738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -1657,7 +1754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -1673,7 +1770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -1688,7 +1785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -1704,7 +1801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -1720,7 +1817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -1736,7 +1833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -1751,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -1767,7 +1864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -1783,7 +1880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -1799,7 +1896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -1814,7 +1911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -1830,7 +1927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -1846,7 +1943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -1862,7 +1959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -1877,7 +1974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -1893,7 +1990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -1909,7 +2006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -1925,7 +2022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -1940,7 +2037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -1956,7 +2053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -1972,7 +2069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -1987,7 +2084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -2002,7 +2099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -2018,7 +2115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -2034,7 +2131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -2049,7 +2146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -2080,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -2095,7 +2192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F140" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F146" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2110,7 +2207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2125,7 +2222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2140,7 +2237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2155,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F146" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F152" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2175,7 +2272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="218">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3137,6 +3234,12 @@
   </si>
   <si>
     <t>IH pass rates in mid Feb 2025 have increased slightly again to approximately 77%. As with the previous week, this was mainly due to an improvement in fixing previously 'Broken' automated tests.</t>
+  </si>
+  <si>
+    <t>56 - 21/2</t>
+  </si>
+  <si>
+    <t>IH pass rates in late Feb 2025 have rmained static at approximately 77%.  However, the ratio of broken tests continues to fall slightly.</t>
   </si>
 </sst>
 </file>
@@ -4520,7 +4623,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$212:$B$212</c:f>
+              <c:f>'Combined PassRates'!$A$218:$B$218</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4634,7 +4737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$212:$F$212</c:f>
+              <c:f>'Combined PassRates'!$C$218:$F$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4801,7 +4904,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$213:$B$213</c:f>
+              <c:f>'Combined PassRates'!$A$219:$B$219</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4920,7 +5023,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$213:$F$213</c:f>
+              <c:f>'Combined PassRates'!$C$219:$F$219</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5112,7 +5215,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$214:$B$214</c:f>
+              <c:f>'Combined PassRates'!$A$220:$B$220</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5226,7 +5329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$214:$F$214</c:f>
+              <c:f>'Combined PassRates'!$C$220:$F$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5418,7 +5521,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$215:$B$215</c:f>
+              <c:f>'Combined PassRates'!$A$221:$B$221</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5532,7 +5635,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$215:$F$215</c:f>
+              <c:f>'Combined PassRates'!$C$221:$F$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5724,7 +5827,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$216:$B$216</c:f>
+              <c:f>'Combined PassRates'!$A$222:$B$222</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5838,7 +5941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$216:$F$216</c:f>
+              <c:f>'Combined PassRates'!$C$222:$F$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6030,7 +6133,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$217:$B$217</c:f>
+              <c:f>'Combined PassRates'!$A$223:$B$223</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6144,7 +6247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$217:$F$217</c:f>
+              <c:f>'Combined PassRates'!$C$223:$F$223</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10740,11 +10843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10780,19 +10883,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
@@ -10804,7 +10907,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10824,7 +10927,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10844,7 +10947,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10864,7 +10967,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10884,23 +10987,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -10908,23 +11011,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C8">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F8">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I8">
         <f>SUM(C8:F8)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -10932,7 +11035,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10952,7 +11055,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10972,7 +11075,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10992,7 +11095,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11012,23 +11115,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11036,22 +11139,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C14">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D14">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F14">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I14">
-        <v>1236</v>
+        <f>SUM(C14:F14)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -11059,7 +11163,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11079,7 +11183,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11099,7 +11203,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11119,7 +11223,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11139,51 +11243,54 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C19">
-        <v>117</v>
+        <f>SUM(C14:C18)</f>
+        <v>151</v>
       </c>
       <c r="D19">
-        <v>207</v>
+        <f t="shared" ref="D19:F19" si="2">SUM(D14:D18)</f>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>636</v>
+        <f t="shared" si="2"/>
+        <v>867</v>
       </c>
       <c r="F19">
-        <v>276</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="13">
-        <v>45681</v>
+      <c r="B20" s="5">
+        <v>45688</v>
       </c>
       <c r="C20">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D20">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E20">
-        <v>812</v>
-      </c>
-      <c r="F20" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F20">
+        <v>276</v>
       </c>
       <c r="I20">
-        <f>SUM(C20:H20)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="13">
-        <v>45681</v>
+      <c r="B21" s="5">
+        <v>45688</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11194,7 +11301,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -11202,8 +11309,8 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13">
-        <v>45681</v>
+      <c r="B22" s="5">
+        <v>45688</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11214,7 +11321,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22">
         <v>0</v>
       </c>
     </row>
@@ -11222,8 +11329,8 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13">
-        <v>45681</v>
+      <c r="B23" s="5">
+        <v>45688</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11234,7 +11341,7 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
@@ -11242,8 +11349,8 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="13">
-        <v>45681</v>
+      <c r="B24" s="5">
+        <v>45688</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11254,7 +11361,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -11262,24 +11369,20 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13">
-        <v>45681</v>
+      <c r="B25" s="5">
+        <v>45688</v>
       </c>
       <c r="C25">
-        <f>SUM(C20:C24)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="2">SUM(D20:D24)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E25">
-        <f>SUM(E20:E24)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="3">SUM(F20:F24)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -11287,23 +11390,23 @@
         <v>6</v>
       </c>
       <c r="B26" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C26">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D26">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E26">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F26" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I26">
         <f>SUM(C26:H26)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11311,7 +11414,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11331,7 +11434,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11351,7 +11454,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11371,7 +11474,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11391,49 +11494,47 @@
         <v>11</v>
       </c>
       <c r="B31" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C31">
         <f>SUM(C26:C30)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="4">SUM(D26:D30)</f>
-        <v>157</v>
+        <f t="shared" ref="D31" si="3">SUM(D26:D30)</f>
+        <v>148</v>
       </c>
       <c r="E31">
         <f>SUM(E26:E30)</f>
+        <v>812</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="4">SUM(F26:F30)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C32">
+        <v>121</v>
+      </c>
+      <c r="D32">
+        <v>157</v>
+      </c>
+      <c r="E32">
         <v>799</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31" si="5">SUM(F26:F30)</f>
+      <c r="F32" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C32" s="19">
-        <v>122</v>
-      </c>
-      <c r="D32" s="19">
-        <v>162</v>
-      </c>
-      <c r="E32" s="19">
-        <v>790</v>
-      </c>
-      <c r="F32" s="21">
-        <v>97</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="23">
+      <c r="I32">
         <f>SUM(C32:H32)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11441,19 +11542,19 @@
         <v>7</v>
       </c>
       <c r="B33" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F33" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
@@ -11461,16 +11562,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F34" s="9">
         <v>0</v>
@@ -11481,19 +11582,19 @@
         <v>9</v>
       </c>
       <c r="B35" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F35" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
@@ -11501,73 +11602,69 @@
         <v>10</v>
       </c>
       <c r="B36" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C32:C36)</f>
+        <v>121</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="5">SUM(D32:D36)</f>
+        <v>157</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E32:E36)</f>
+        <v>799</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="6">SUM(F32:F36)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="18">
         <v>45667</v>
       </c>
-      <c r="C36">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-      <c r="E36">
-        <v>79</v>
-      </c>
-      <c r="F36" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C37" s="19">
-        <f>SUM(C32:C36)</f>
-        <v>211</v>
-      </c>
-      <c r="D37" s="19">
-        <f t="shared" ref="D37" si="6">SUM(D32:D36)</f>
-        <v>254</v>
-      </c>
-      <c r="E37" s="19">
-        <f>SUM(E32:E36)</f>
-        <v>944</v>
-      </c>
-      <c r="F37" s="19">
-        <f t="shared" ref="F37" si="7">SUM(F32:F36)</f>
-        <v>431</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="23">
-        <f>SUM(C37:H37)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C38">
-        <v>136</v>
-      </c>
-      <c r="D38">
-        <v>182</v>
-      </c>
-      <c r="E38">
-        <v>695</v>
-      </c>
-      <c r="F38" s="9">
-        <v>165</v>
-      </c>
-      <c r="I38">
+      <c r="C38" s="19">
+        <v>122</v>
+      </c>
+      <c r="D38" s="19">
+        <v>162</v>
+      </c>
+      <c r="E38" s="19">
+        <v>790</v>
+      </c>
+      <c r="F38" s="21">
+        <v>97</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="23">
         <f>SUM(C38:H38)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11575,7 +11672,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -11595,7 +11692,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -11615,7 +11712,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -11635,7 +11732,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -11651,27 +11748,33 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="A43" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C43" s="19">
         <f>SUM(C38:C42)</f>
-        <v>225</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ref="D43" si="8">SUM(D38:D42)</f>
-        <v>274</v>
-      </c>
-      <c r="E43">
+        <v>211</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" ref="D43" si="7">SUM(D38:D42)</f>
+        <v>254</v>
+      </c>
+      <c r="E43" s="19">
         <f>SUM(E38:E42)</f>
-        <v>849</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ref="F43" si="9">SUM(F38:F42)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" ref="F43" si="8">SUM(F38:F42)</f>
+        <v>431</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="23">
+        <f>SUM(C43:H43)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -11679,23 +11782,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C44">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D44">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E44">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F44" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I44">
         <f>SUM(C44:H44)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -11703,7 +11806,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -11723,7 +11826,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C46">
         <v>17</v>
@@ -11743,7 +11846,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -11763,7 +11866,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -11783,23 +11886,23 @@
         <v>11</v>
       </c>
       <c r="B49" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C49">
         <f>SUM(C44:C48)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="10">SUM(D44:D48)</f>
-        <v>249</v>
+        <f t="shared" ref="D49" si="9">SUM(D44:D48)</f>
+        <v>274</v>
       </c>
       <c r="E49">
         <f>SUM(E44:E48)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="11">SUM(F44:F48)</f>
-        <v>367</v>
+        <f t="shared" ref="F49" si="10">SUM(F44:F48)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -11807,23 +11910,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C50">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D50">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E50">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F50" s="9">
         <v>33</v>
       </c>
       <c r="I50">
         <f>SUM(C50:H50)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -11831,7 +11934,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -11851,7 +11954,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -11871,7 +11974,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -11891,7 +11994,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -11911,22 +12014,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C55">
         <f>SUM(C50:C54)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="12">SUM(D50:D54)</f>
-        <v>253</v>
+        <f t="shared" ref="D55" si="11">SUM(D50:D54)</f>
+        <v>249</v>
       </c>
       <c r="E55">
         <f>SUM(E50:E54)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="13">SUM(F50:F54)</f>
+        <f t="shared" ref="F55" si="12">SUM(F50:F54)</f>
         <v>367</v>
       </c>
     </row>
@@ -11935,23 +12038,23 @@
         <v>6</v>
       </c>
       <c r="B56" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C56">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D56">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E56">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F56" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -11959,7 +12062,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -11979,7 +12082,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -11999,7 +12102,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -12019,7 +12122,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -12039,23 +12142,23 @@
         <v>11</v>
       </c>
       <c r="B61" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C61">
         <f>SUM(C56:C60)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="14">SUM(D56:D60)</f>
-        <v>289</v>
+        <f t="shared" ref="D61" si="13">SUM(D56:D60)</f>
+        <v>253</v>
       </c>
       <c r="E61">
         <f>SUM(E56:E60)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="15">SUM(F56:F60)</f>
-        <v>433</v>
+        <f t="shared" ref="F61" si="14">SUM(F56:F60)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -12063,23 +12166,23 @@
         <v>6</v>
       </c>
       <c r="B62" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C62">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D62">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E62">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F62" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12087,7 +12190,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -12107,7 +12210,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -12127,7 +12230,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -12147,7 +12250,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -12167,23 +12270,23 @@
         <v>11</v>
       </c>
       <c r="B67" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C67">
         <f>SUM(C62:C66)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67" si="16">SUM(D62:D66)</f>
-        <v>242</v>
+        <f t="shared" ref="D67" si="15">SUM(D62:D66)</f>
+        <v>289</v>
       </c>
       <c r="E67">
         <f>SUM(E62:E66)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="17">SUM(F62:F66)</f>
-        <v>363</v>
+        <f t="shared" ref="F67" si="16">SUM(F62:F66)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -12191,23 +12294,23 @@
         <v>6</v>
       </c>
       <c r="B68" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C68">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D68">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E68">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F68" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I68">
         <f>SUM(C68:H68)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12215,7 +12318,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -12235,16 +12338,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -12255,13 +12358,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -12275,19 +12378,19 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C72">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F72" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
@@ -12295,49 +12398,47 @@
         <v>11</v>
       </c>
       <c r="B73" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C73">
         <f>SUM(C68:C72)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="18">SUM(D68:D72)</f>
-        <v>189</v>
+        <f t="shared" ref="D73" si="17">SUM(D68:D72)</f>
+        <v>242</v>
       </c>
       <c r="E73">
         <f>SUM(E68:E72)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="19">SUM(F68:F72)</f>
-        <v>378</v>
+        <f t="shared" ref="F73" si="18">SUM(F68:F72)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="17" t="s">
+      <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C74" s="19">
-        <v>149</v>
-      </c>
-      <c r="D74" s="19">
-        <v>121</v>
-      </c>
-      <c r="E74" s="19">
-        <v>658</v>
-      </c>
-      <c r="F74" s="21">
-        <v>10</v>
-      </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="23">
+      <c r="B74" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C74">
+        <v>164</v>
+      </c>
+      <c r="D74">
+        <v>110</v>
+      </c>
+      <c r="E74">
+        <v>659</v>
+      </c>
+      <c r="F74" s="9">
+        <v>19</v>
+      </c>
+      <c r="I74">
         <f>SUM(C74:H74)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12345,16 +12446,16 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>38</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" s="9">
         <v>126</v>
@@ -12365,16 +12466,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -12385,19 +12486,19 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F77" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
@@ -12405,49 +12506,43 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C78">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F78" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="17" t="s">
+      <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C79" s="19">
+      <c r="B79" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C79">
         <f>SUM(C74:C78)</f>
-        <v>247</v>
-      </c>
-      <c r="D79" s="19">
-        <f t="shared" ref="D79" si="20">SUM(D74:D78)</f>
-        <v>190</v>
-      </c>
-      <c r="E79" s="19">
+        <v>248</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79" si="19">SUM(D74:D78)</f>
+        <v>189</v>
+      </c>
+      <c r="E79">
         <f>SUM(E74:E78)</f>
-        <v>813</v>
-      </c>
-      <c r="F79" s="19">
-        <f t="shared" ref="F79" si="21">SUM(F74:F78)</f>
-        <v>369</v>
-      </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="23">
-        <f>SUM(C79:H79)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79" si="20">SUM(F74:F78)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -12455,25 +12550,25 @@
         <v>6</v>
       </c>
       <c r="B80" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C80" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D80" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E80" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F80" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="22">
+      <c r="I80" s="23">
         <f>SUM(C80:H80)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -12481,16 +12576,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>38</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" s="9">
         <v>126</v>
@@ -12501,16 +12596,16 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C82">
         <v>19</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -12521,16 +12616,16 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F83" s="9">
         <v>110</v>
@@ -12541,19 +12636,19 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C84">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F84" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
@@ -12561,49 +12656,55 @@
         <v>11</v>
       </c>
       <c r="B85" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C85" s="19">
         <f>SUM(C80:C84)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="19">
-        <f t="shared" ref="D85" si="22">SUM(D80:D84)</f>
-        <v>161</v>
+        <f t="shared" ref="D85" si="21">SUM(D80:D84)</f>
+        <v>190</v>
       </c>
       <c r="E85" s="19">
         <f>SUM(E80:E84)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F85" s="19">
-        <f t="shared" ref="F85" si="23">SUM(F80:F84)</f>
-        <v>393</v>
+        <f t="shared" ref="F85" si="22">SUM(F80:F84)</f>
+        <v>369</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="20">
+      <c r="I85" s="23">
         <f>SUM(C85:H85)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="A86" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C86">
-        <v>142</v>
-      </c>
-      <c r="D86">
-        <v>124</v>
-      </c>
-      <c r="E86">
-        <v>672</v>
-      </c>
-      <c r="F86" s="9">
-        <v>9</v>
+      <c r="B86" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C86" s="19">
+        <v>148</v>
+      </c>
+      <c r="D86" s="19">
+        <v>99</v>
+      </c>
+      <c r="E86" s="19">
+        <v>665</v>
+      </c>
+      <c r="F86" s="21">
+        <v>12</v>
+      </c>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="22">
+        <f>SUM(C86:H86)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -12611,19 +12712,19 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E87">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F87" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
@@ -12631,13 +12732,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>67</v>
@@ -12651,13 +12752,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>12</v>
@@ -12671,43 +12772,49 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C90">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E90">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F90" s="9">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="A91" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C91">
+      <c r="B91" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C91" s="19">
         <f>SUM(C86:C90)</f>
-        <v>239</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ref="D91" si="24">SUM(D86:D90)</f>
-        <v>164</v>
-      </c>
-      <c r="E91">
+        <v>248</v>
+      </c>
+      <c r="D91" s="19">
+        <f t="shared" ref="D91" si="23">SUM(D86:D90)</f>
+        <v>161</v>
+      </c>
+      <c r="E91" s="19">
         <f>SUM(E86:E90)</f>
-        <v>920</v>
-      </c>
-      <c r="F91">
-        <f t="shared" ref="F91" si="25">SUM(F86:F90)</f>
-        <v>304</v>
+        <v>819</v>
+      </c>
+      <c r="F91" s="19">
+        <f t="shared" ref="F91" si="24">SUM(F86:F90)</f>
+        <v>393</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="20">
+        <f>SUM(C91:H91)</f>
+        <v>1621</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -12715,19 +12822,19 @@
         <v>6</v>
       </c>
       <c r="B92" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C92">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D92">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E92">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F92" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -12735,19 +12842,19 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D93">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F93" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
@@ -12755,16 +12862,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -12775,19 +12882,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F95" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
@@ -12795,221 +12902,221 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C96">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F96" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="26">SUM(D92:D96)</f>
-        <v>119</v>
+        <f t="shared" ref="D97" si="25">SUM(D92:D96)</f>
+        <v>164</v>
       </c>
       <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="27">SUM(F92:F96)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F97" si="26">SUM(F92:F96)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C98">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D98">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E98">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F98" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E99">
         <v>17</v>
       </c>
       <c r="F99" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D101">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F101" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C102">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D102">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F102" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103" si="28">SUM(D98:D102)</f>
-        <v>125</v>
+        <f t="shared" ref="D103" si="27">SUM(D98:D102)</f>
+        <v>119</v>
       </c>
       <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="29">SUM(F98:F102)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F103" si="28">SUM(F98:F102)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C104">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D104">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E104">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F104" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D105">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E105">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F105" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E106">
         <v>77</v>
@@ -13018,224 +13125,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C107">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F107" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C108">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E108">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F108" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="30">SUM(D104:D108)</f>
-        <v>92</v>
+        <f t="shared" ref="D109" si="29">SUM(D104:D108)</f>
+        <v>125</v>
       </c>
       <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="31">SUM(F104:F108)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F109" si="30">SUM(F104:F108)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C110">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D110">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E110">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F110" s="9">
-        <v>3</v>
-      </c>
-      <c r="I110">
-        <f>SUM(C110:H110)</f>
-        <v>907</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E111">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F111" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E112">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F113" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C114">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E114">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F114" s="9">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115" si="32">SUM(D110:D114)</f>
-        <v>83</v>
+        <f t="shared" ref="D115" si="31">SUM(D110:D114)</f>
+        <v>92</v>
       </c>
       <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="33">SUM(F110:F114)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F115" si="32">SUM(F110:F114)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C116">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D116">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E116">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F116" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <f>SUM(C116:H116)</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C117">
         <v>12</v>
@@ -13250,232 +13357,232 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C118">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C119">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F119" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C120">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D120">
         <v>8</v>
       </c>
       <c r="E120">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F120" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="34">SUM(D116:D120)</f>
-        <v>113</v>
+        <f t="shared" ref="D121" si="33">SUM(D116:D120)</f>
+        <v>83</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="35">SUM(F116:F120)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F121" si="34">SUM(F116:F120)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C122">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D122">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E122">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F122" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D123">
         <v>7</v>
       </c>
       <c r="E123">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F123" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C124">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E124">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C125">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D125">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>103</v>
+      </c>
+      <c r="F125" s="9">
         <v>6</v>
       </c>
-      <c r="E125">
-        <v>46</v>
-      </c>
-      <c r="F125" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C126">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F126" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="36">SUM(D122:D126)</f>
-        <v>118</v>
+        <f t="shared" ref="D127" si="35">SUM(D122:D126)</f>
+        <v>113</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="37">SUM(F122:F126)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F127" si="36">SUM(F122:F126)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C128">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D128">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E128">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F128" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
@@ -13483,16 +13590,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E129">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F129" s="9">
         <v>0</v>
@@ -13503,13 +13610,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>77</v>
@@ -13523,19 +13630,19 @@
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C131">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F131" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
@@ -13543,19 +13650,19 @@
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C132">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F132" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
@@ -13563,23 +13670,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="38">SUM(D128:D132)</f>
-        <v>77</v>
+        <f t="shared" ref="D133" si="37">SUM(D128:D132)</f>
+        <v>118</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="39">SUM(F128:F132)</f>
-        <v>83</v>
+        <f t="shared" ref="F133" si="38">SUM(F128:F132)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
@@ -13587,23 +13694,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C134">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D134">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E134">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F134" s="9">
         <v>2</v>
-      </c>
-      <c r="I134">
-        <f>SUM(C134:H134)</f>
-        <v>863</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
@@ -13611,7 +13714,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -13631,13 +13734,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C136">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E136">
         <v>77</v>
@@ -13651,7 +13754,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C137">
         <v>24</v>
@@ -13671,19 +13774,19 @@
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C138">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D138">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E138">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F138" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
@@ -13691,23 +13794,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="40">SUM(D134:D138)</f>
-        <v>79</v>
+        <f t="shared" ref="D139" si="39">SUM(D134:D138)</f>
+        <v>77</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="41">SUM(F134:F138)</f>
-        <v>73</v>
+        <f t="shared" ref="F139" si="40">SUM(F134:F138)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
@@ -13715,19 +13818,23 @@
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C140">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D140">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E140">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F140" s="9">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <f>SUM(C140:H140)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
@@ -13735,7 +13842,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -13744,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
@@ -13755,16 +13862,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -13775,16 +13882,16 @@
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C143">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D143">
         <v>7</v>
       </c>
       <c r="E143">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F143" s="9">
         <v>0</v>
@@ -13795,19 +13902,19 @@
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E144">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F144" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -13815,23 +13922,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="42">SUM(D140:D144)</f>
-        <v>128</v>
+        <f t="shared" ref="D145" si="41">SUM(D140:D144)</f>
+        <v>79</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="43">SUM(F140:F144)</f>
-        <v>56</v>
+        <f t="shared" ref="F145" si="42">SUM(F140:F144)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -13839,19 +13946,19 @@
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C146">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D146">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E146">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F146" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
@@ -13859,19 +13966,19 @@
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F147" s="9">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
@@ -13879,16 +13986,16 @@
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C148">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
@@ -13899,19 +14006,19 @@
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C149">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F149" s="9">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
@@ -13919,19 +14026,19 @@
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E150">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F150" s="9">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -13939,23 +14046,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="44">SUM(D146:D150)</f>
-        <v>238</v>
+        <f t="shared" ref="D151" si="43">SUM(D146:D150)</f>
+        <v>128</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="45">SUM(F146:F150)</f>
-        <v>572</v>
+        <f t="shared" ref="F151" si="44">SUM(F146:F150)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
@@ -13963,19 +14070,19 @@
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C152">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E152">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F152" s="9">
-        <v>121</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
@@ -13983,19 +14090,19 @@
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C153">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E153">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F153" s="9">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
@@ -14003,16 +14110,16 @@
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D154">
         <v>5</v>
       </c>
       <c r="E154">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
@@ -14023,19 +14130,19 @@
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C155">
         <v>25</v>
       </c>
       <c r="D155">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F155" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
@@ -14043,16 +14150,16 @@
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C156">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F156" s="9">
         <v>0</v>
@@ -14063,23 +14170,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="46">SUM(D152:D156)</f>
-        <v>18</v>
+        <f t="shared" ref="D157" si="45">SUM(D152:D156)</f>
+        <v>238</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="47">SUM(F152:F156)</f>
-        <v>122</v>
+        <f t="shared" ref="F157" si="46">SUM(F152:F156)</f>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
@@ -14087,19 +14194,19 @@
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C158">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D158">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F158" s="9">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
@@ -14107,19 +14214,19 @@
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F159" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -14127,16 +14234,16 @@
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C160">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E160">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
@@ -14147,16 +14254,16 @@
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C161">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D161">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E161">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F161" s="9">
         <v>0</v>
@@ -14167,16 +14274,16 @@
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F162" s="9">
         <v>0</v>
@@ -14187,23 +14294,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="48">SUM(D158:D162)</f>
-        <v>80</v>
+        <f t="shared" ref="D163" si="47">SUM(D158:D162)</f>
+        <v>18</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="49">SUM(F158:F162)</f>
-        <v>14</v>
+        <f t="shared" ref="F163" si="48">SUM(F158:F162)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
@@ -14211,23 +14318,19 @@
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C164">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D164">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E164">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F164" s="9">
         <v>14</v>
-      </c>
-      <c r="I164">
-        <f>SUM(C164:H164)</f>
-        <v>402</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
@@ -14235,16 +14338,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
@@ -14255,16 +14358,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C166">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D166">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E166">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
@@ -14275,16 +14378,16 @@
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C167">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F167" s="9">
         <v>0</v>
@@ -14295,16 +14398,16 @@
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
       <c r="E168">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F168" s="9">
         <v>0</v>
@@ -14315,22 +14418,22 @@
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="50">SUM(D164:D168)</f>
-        <v>102</v>
+        <f t="shared" ref="D169" si="49">SUM(D164:D168)</f>
+        <v>80</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="51">SUM(F164:F168)</f>
+        <f t="shared" ref="F169" si="50">SUM(F164:F168)</f>
         <v>14</v>
       </c>
     </row>
@@ -14339,19 +14442,23 @@
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C170">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E170">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F170" s="9">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="I170">
+        <f>SUM(C170:H170)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
@@ -14359,7 +14466,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -14368,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F171" s="9">
         <v>0</v>
@@ -14379,7 +14486,7 @@
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -14399,16 +14506,16 @@
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C173">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F173" s="9">
         <v>0</v>
@@ -14419,19 +14526,19 @@
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>2</v>
       </c>
       <c r="E174">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F174" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.45">
@@ -14439,23 +14546,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="52">SUM(D170:D174)</f>
-        <v>71</v>
+        <f t="shared" ref="D175" si="51">SUM(D170:D174)</f>
+        <v>102</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="53">SUM(F170:F174)</f>
-        <v>125</v>
+        <f t="shared" ref="F175" si="52">SUM(F170:F174)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.45">
@@ -14463,19 +14570,19 @@
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C176">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D176">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F176" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -14483,16 +14590,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -14503,16 +14610,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C178">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E178">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
@@ -14523,16 +14630,16 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
@@ -14543,19 +14650,19 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F180" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -14563,23 +14670,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="54">SUM(D176:D180)</f>
-        <v>77</v>
+        <f t="shared" ref="D181" si="53">SUM(D176:D180)</f>
+        <v>71</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="55">SUM(F176:F180)</f>
-        <v>22</v>
+        <f t="shared" ref="F181" si="54">SUM(F176:F180)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -14587,16 +14694,16 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C182">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D182">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E182">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F182" s="9">
         <v>20</v>
@@ -14607,16 +14714,16 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F183" s="9">
         <v>0</v>
@@ -14627,16 +14734,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -14647,16 +14754,16 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C185">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
@@ -14667,16 +14774,16 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F186" s="9">
         <v>2</v>
@@ -14687,22 +14794,22 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187" si="56">SUM(D182:D186)</f>
-        <v>21</v>
+        <f t="shared" ref="D187" si="55">SUM(D182:D186)</f>
+        <v>77</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="57">SUM(F182:F186)</f>
+        <f t="shared" ref="F187" si="56">SUM(F182:F186)</f>
         <v>22</v>
       </c>
     </row>
@@ -14711,16 +14818,16 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C188">
         <v>74</v>
       </c>
       <c r="D188">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F188" s="9">
         <v>20</v>
@@ -14731,7 +14838,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -14740,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
@@ -14751,13 +14858,13 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>83</v>
@@ -14771,7 +14878,7 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C191">
         <v>10</v>
@@ -14791,7 +14898,7 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C192">
         <v>5</v>
@@ -14811,22 +14918,22 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193:F193" si="58">SUM(D188:D192)</f>
-        <v>23</v>
+        <f t="shared" ref="D193" si="57">SUM(D188:D192)</f>
+        <v>21</v>
       </c>
       <c r="E193">
         <f>SUM(E188:E192)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F193">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="F193" si="58">SUM(F188:F192)</f>
         <v>22</v>
       </c>
     </row>
@@ -14835,19 +14942,19 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C194">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D194">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E194">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F194" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -14855,16 +14962,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
@@ -14875,16 +14982,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C196">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -14895,16 +15002,16 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C197">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F197" s="9">
         <v>0</v>
@@ -14915,13 +15022,13 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>109</v>
@@ -14935,23 +15042,23 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D199">
         <f t="shared" ref="D199:F199" si="59">SUM(D194:D198)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E199">
-        <f t="shared" si="59"/>
-        <v>728</v>
+        <f>SUM(E194:E198)</f>
+        <v>725</v>
       </c>
       <c r="F199">
         <f t="shared" si="59"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -14959,19 +15066,19 @@
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C200">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D200">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E200">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F200" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -14979,19 +15086,19 @@
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F201" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -14999,16 +15106,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C202">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -15019,19 +15126,19 @@
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D203">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F203" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -15039,19 +15146,19 @@
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F204" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
@@ -15059,23 +15166,23 @@
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D205">
         <f t="shared" ref="D205:F205" si="60">SUM(D200:D204)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E205">
         <f t="shared" si="60"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F205">
         <f t="shared" si="60"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
@@ -15083,19 +15190,19 @@
         <v>6</v>
       </c>
       <c r="B206" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C206">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D206">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E206">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F206" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -15103,19 +15210,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F207" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -15123,16 +15230,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C208">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E208">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -15143,7 +15250,7 @@
         <v>9</v>
       </c>
       <c r="B209" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C209">
         <v>10</v>
@@ -15152,10 +15259,10 @@
         <v>5</v>
       </c>
       <c r="E209">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F209" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
@@ -15163,19 +15270,19 @@
         <v>10</v>
       </c>
       <c r="B210" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C210">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F210" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -15183,60 +15290,60 @@
         <v>11</v>
       </c>
       <c r="B211" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:F211" si="61">SUM(D206:D210)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E211">
         <f t="shared" si="61"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F211">
         <f t="shared" si="61"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A212" s="14" t="s">
+      <c r="A212" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" s="14">
-        <v>79</v>
-      </c>
-      <c r="D212" s="14">
-        <v>21</v>
-      </c>
-      <c r="E212" s="14">
-        <v>255</v>
-      </c>
-      <c r="F212" s="16">
-        <v>22</v>
+      <c r="B212" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C212">
+        <v>78</v>
+      </c>
+      <c r="D212">
+        <v>31</v>
+      </c>
+      <c r="E212">
+        <v>245</v>
+      </c>
+      <c r="F212" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>7</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>12</v>
+      <c r="B213" s="13">
+        <v>45450</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F213" s="9">
         <v>0</v>
@@ -15246,17 +15353,17 @@
       <c r="A214" t="s">
         <v>8</v>
       </c>
-      <c r="B214" s="11" t="s">
-        <v>12</v>
+      <c r="B214" s="13">
+        <v>45450</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
@@ -15266,37 +15373,37 @@
       <c r="A215" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>12</v>
+      <c r="B215" s="13">
+        <v>45450</v>
       </c>
       <c r="C215">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F215" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>10</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>12</v>
+      <c r="B216" s="13">
+        <v>45450</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F216" s="9">
         <v>0</v>
@@ -15306,44 +15413,44 @@
       <c r="A217" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>12</v>
+      <c r="B217" s="13">
+        <v>45450</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D217">
         <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E217">
         <f t="shared" si="62"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F217">
         <f t="shared" si="62"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="14">
+        <v>79</v>
+      </c>
+      <c r="D218" s="14">
+        <v>21</v>
+      </c>
+      <c r="E218" s="14">
+        <v>255</v>
+      </c>
+      <c r="F218" s="16">
         <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C218">
-        <v>69</v>
-      </c>
-      <c r="D218">
-        <v>51</v>
-      </c>
-      <c r="E218">
-        <v>223</v>
-      </c>
-      <c r="F218" s="9">
-        <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -15351,19 +15458,19 @@
         <v>7</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F219" s="9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
@@ -15371,16 +15478,16 @@
         <v>8</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -15391,19 +15498,19 @@
         <v>9</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C221">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F221" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
@@ -15411,16 +15518,16 @@
         <v>10</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D222">
         <v>2</v>
       </c>
       <c r="E222">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F222" s="9">
         <v>0</v>
@@ -15431,23 +15538,23 @@
         <v>11</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D223">
         <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E223">
         <f t="shared" si="63"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F223">
         <f t="shared" si="63"/>
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
@@ -15455,19 +15562,19 @@
         <v>6</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C224">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D224">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E224">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F224" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.45">
@@ -15475,19 +15582,19 @@
         <v>7</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
+        <v>12</v>
+      </c>
+      <c r="E225">
         <v>1</v>
       </c>
-      <c r="E225">
-        <v>42</v>
-      </c>
       <c r="F225" s="9">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.45">
@@ -15495,16 +15602,16 @@
         <v>8</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C226">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
@@ -15515,19 +15622,19 @@
         <v>9</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C227">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F227" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.45">
@@ -15535,19 +15642,19 @@
         <v>10</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F228" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.45">
@@ -15555,180 +15662,168 @@
         <v>11</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E229">
         <f t="shared" si="64"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>6</v>
       </c>
-      <c r="B230" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B230" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C230">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E230">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F230" s="9">
-        <v>57</v>
-      </c>
-      <c r="G230" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>7</v>
       </c>
-      <c r="B231" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B231" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231">
         <v>42</v>
       </c>
       <c r="F231" s="9">
-        <v>0</v>
-      </c>
-      <c r="G231" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>8</v>
       </c>
-      <c r="B232" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B232" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C232">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F232" s="9">
         <v>0</v>
       </c>
-      <c r="G232" s="6"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>9</v>
       </c>
-      <c r="B233" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B233" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C233">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F233" s="9">
         <v>0</v>
       </c>
-      <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>10</v>
       </c>
-      <c r="B234" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B234" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C234">
         <v>3</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E234">
         <v>79</v>
       </c>
       <c r="F234" s="9">
-        <v>0</v>
-      </c>
-      <c r="G234" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>11</v>
       </c>
-      <c r="B235" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B235" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E235">
         <f t="shared" si="65"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
-        <v>57</v>
-      </c>
-      <c r="G235" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>6</v>
       </c>
       <c r="B236" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C236">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F236" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G236" s="6"/>
     </row>
@@ -15737,20 +15832,20 @@
         <v>7</v>
       </c>
       <c r="B237" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F237" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G237" s="6"/>
     </row>
@@ -15759,20 +15854,20 @@
         <v>8</v>
       </c>
       <c r="B238" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C238">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F238" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G238" s="6"/>
     </row>
@@ -15781,20 +15876,20 @@
         <v>9</v>
       </c>
       <c r="B239" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C239">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F239" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G239" s="6"/>
     </row>
@@ -15803,200 +15898,336 @@
         <v>10</v>
       </c>
       <c r="B240" s="5">
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>79</v>
+      </c>
+      <c r="F240" s="9">
+        <v>0</v>
+      </c>
+      <c r="G240" s="6"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="5">
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
+      </c>
+      <c r="C241">
+        <f>SUM(C236:C240)</f>
+        <v>98</v>
+      </c>
+      <c r="D241">
+        <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
+        <v>7</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="66"/>
+        <v>493</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="66"/>
+        <v>57</v>
+      </c>
+      <c r="G241" s="6"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="5">
         <f>PassRates!$F$17</f>
         <v>45415</v>
       </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>4</v>
-      </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-      <c r="F240" s="9">
-        <v>75</v>
-      </c>
-      <c r="G240" s="6"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A241" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="5">
+      <c r="C242">
+        <v>73</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242">
+        <v>202</v>
+      </c>
+      <c r="F242" s="9">
+        <v>87</v>
+      </c>
+      <c r="G242" s="6"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="5">
         <f>PassRates!$F$17</f>
         <v>45415</v>
       </c>
-      <c r="C241">
-        <f>SUM(C236:C240)</f>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>7</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" s="9">
+        <v>40</v>
+      </c>
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C244">
+        <v>18</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244" s="9">
+        <v>37</v>
+      </c>
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C245">
+        <v>19</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>9</v>
+      </c>
+      <c r="F245" s="9">
+        <v>85</v>
+      </c>
+      <c r="G245" s="6"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>4</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" s="9">
+        <v>75</v>
+      </c>
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C247">
+        <f>SUM(C242:C246)</f>
         <v>110</v>
       </c>
-      <c r="D241">
-        <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
+      <c r="D247">
+        <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
         <v>17</v>
       </c>
-      <c r="E241">
-        <f t="shared" si="66"/>
+      <c r="E247">
+        <f t="shared" si="67"/>
         <v>215</v>
       </c>
-      <c r="F241">
-        <f t="shared" si="66"/>
+      <c r="F247">
+        <f t="shared" si="67"/>
         <v>324</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A242" t="s">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
         <v>6</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B248" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C242">
+      <c r="C248">
         <v>70</v>
       </c>
-      <c r="D242">
+      <c r="D248">
         <v>15</v>
       </c>
-      <c r="E242">
+      <c r="E248">
         <v>260</v>
       </c>
-      <c r="F242" s="9">
+      <c r="F248" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A243" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
         <v>7</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B249" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C243">
+      <c r="C249">
         <v>1</v>
       </c>
-      <c r="D243">
+      <c r="D249">
         <v>5</v>
       </c>
-      <c r="E243">
+      <c r="E249">
         <v>2</v>
       </c>
-      <c r="F243" s="9">
+      <c r="F249" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A244" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
         <v>8</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B250" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C244">
+      <c r="C250">
         <v>6</v>
       </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
         <v>41</v>
       </c>
-      <c r="F244" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A245" t="s">
+      <c r="F250" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
         <v>9</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B251" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C245">
+      <c r="C251">
         <v>13</v>
       </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
         <v>85</v>
       </c>
-      <c r="F245" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A246" t="s">
+      <c r="F251" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
         <v>10</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B252" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C246">
+      <c r="C252">
         <v>1</v>
       </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246">
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
         <v>74</v>
       </c>
-      <c r="F246" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A247" t="s">
+      <c r="F252" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
         <v>11</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B253" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C247">
-        <f>SUM(C242:C246)</f>
+      <c r="C253">
+        <f>SUM(C248:C252)</f>
         <v>91</v>
       </c>
-      <c r="D247">
-        <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
+      <c r="D253">
+        <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
         <v>20</v>
       </c>
-      <c r="E247">
-        <f t="shared" si="67"/>
+      <c r="E253">
+        <f t="shared" si="68"/>
         <v>462</v>
       </c>
-      <c r="F247">
-        <f t="shared" si="67"/>
+      <c r="F253">
+        <f t="shared" si="68"/>
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B248" s="11"/>
-      <c r="F248" s="9"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B249" s="11"/>
-      <c r="F249" s="9"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B250" s="11"/>
-      <c r="F250" s="9"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B251" s="11"/>
-      <c r="F251" s="9"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B252" s="11"/>
-      <c r="F252" s="9"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B253" s="11"/>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B254" s="11"/>
+      <c r="F254" s="9"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B255" s="11"/>
+      <c r="F255" s="9"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B256" s="11"/>
+      <c r="F256" s="9"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B257" s="11"/>
+      <c r="F257" s="9"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B258" s="11"/>
+      <c r="F258" s="9"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B259" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16006,11 +16237,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF56"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16639,19 +16870,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C235</f>
+        <f>'Combined PassRates'!C241</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D235</f>
+        <f>'Combined PassRates'!D241</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E235</f>
+        <f>'Combined PassRates'!E241</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F235</f>
+        <f>'Combined PassRates'!F241</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -16666,19 +16897,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C229</f>
+        <f>'Combined PassRates'!C235</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D229</f>
+        <f>'Combined PassRates'!D235</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E229</f>
+        <f>'Combined PassRates'!E235</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F229</f>
+        <f>'Combined PassRates'!F235</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -16739,19 +16970,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C211</f>
+        <f>'Combined PassRates'!C217</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D211</f>
+        <f>'Combined PassRates'!D217</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E211</f>
+        <f>'Combined PassRates'!E217</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F211</f>
+        <f>'Combined PassRates'!F217</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -16766,19 +16997,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C205</f>
+        <f>'Combined PassRates'!C211</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D205</f>
+        <f>'Combined PassRates'!D211</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E205</f>
+        <f>'Combined PassRates'!E211</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F205</f>
+        <f>'Combined PassRates'!F211</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -16793,19 +17024,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -16820,19 +17051,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -16847,19 +17078,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -16874,19 +17105,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -16901,19 +17132,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -16928,19 +17159,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -16955,19 +17186,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -16982,19 +17213,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -17009,19 +17240,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -17036,19 +17267,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -17063,19 +17294,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -17090,19 +17321,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -17117,19 +17348,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -17144,19 +17375,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -17171,19 +17402,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -17198,19 +17429,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -17225,19 +17456,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -17252,19 +17483,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -17279,19 +17510,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -17306,19 +17537,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -17333,19 +17564,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -17360,19 +17591,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -17387,19 +17618,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -17414,19 +17645,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -17441,19 +17672,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -17468,19 +17699,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C56</f>
+        <f>'Combined PassRates'!C62</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D56</f>
+        <f>'Combined PassRates'!D62</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E56</f>
+        <f>'Combined PassRates'!E62</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F56</f>
+        <f>'Combined PassRates'!F62</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -17495,19 +17726,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -17522,19 +17753,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -17549,19 +17780,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -17576,19 +17807,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -17603,19 +17834,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -17630,19 +17861,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>151</v>
       </c>
       <c r="C55">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>130</v>
       </c>
       <c r="D55">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>867</v>
       </c>
       <c r="E55">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>49</v>
       </c>
       <c r="F55" s="13">
@@ -17657,19 +17888,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>143</v>
       </c>
       <c r="C56">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>121</v>
       </c>
       <c r="D56">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>900</v>
       </c>
       <c r="E56">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>31</v>
       </c>
       <c r="F56" s="13">
@@ -17677,6 +17908,33 @@
       </c>
       <c r="G56" s="6" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f>'Combined PassRates'!C7</f>
+        <v>130</v>
+      </c>
+      <c r="C57">
+        <f>'Combined PassRates'!D7</f>
+        <v>122</v>
+      </c>
+      <c r="D57">
+        <f>'Combined PassRates'!E7</f>
+        <v>898</v>
+      </c>
+      <c r="E57">
+        <f>'Combined PassRates'!F7</f>
+        <v>45</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45709</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -17702,11 +17960,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18931,6 +19189,24 @@
         <v>215</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <f>PassRates!G57</f>
+        <v>56 - 21/2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>213</v>
       </c>
     </row>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE90C2D-F042-471D-9CD8-49B08628BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82466666-C5BB-42A6-8064-F3E05B5E88E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined PassRates" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,104 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+89+46+5=140
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+122+8+1=131</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+456+229+187=872</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22+9=31</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
       <text>
         <r>
           <rPr>
@@ -71,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
       <text>
         <r>
           <rPr>
@@ -95,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
       <text>
         <r>
           <rPr>
@@ -119,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
       <text>
         <r>
           <rPr>
@@ -143,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
       <text>
         <r>
           <rPr>
@@ -168,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
       <text>
         <r>
           <rPr>
@@ -192,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
       <text>
         <r>
           <rPr>
@@ -216,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
       <text>
         <r>
           <rPr>
@@ -240,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -265,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -289,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -313,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -329,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -345,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -361,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -386,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -410,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -434,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -450,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -466,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -482,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -498,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -522,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -546,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -570,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -586,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -602,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -618,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -634,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -658,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -682,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -706,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -722,7 +819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -738,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -754,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -770,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -794,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -818,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -842,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -858,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -874,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -890,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -906,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -930,7 +1027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -954,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -978,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -994,7 +1091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -1146,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -1162,7 +1259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1282,7 +1379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1338,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1362,7 +1459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1386,7 +1483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1402,7 +1499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1466,7 +1563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1482,7 +1579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1498,7 +1595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1514,7 +1611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1546,7 +1643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1578,7 +1675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1594,7 +1691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1626,7 +1723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1642,7 +1739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1674,7 +1771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1690,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1706,7 +1803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -1722,7 +1819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -1738,7 +1835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -1754,7 +1851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -1770,7 +1867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -1801,7 +1898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -1817,7 +1914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -1833,7 +1930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -1864,7 +1961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -1880,7 +1977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -1896,7 +1993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -1911,7 +2008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -1927,7 +2024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -1943,7 +2040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -1959,7 +2056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -1974,7 +2071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -1990,7 +2087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -2006,7 +2103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -2022,7 +2119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -2037,7 +2134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -2053,7 +2150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -2069,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -2084,7 +2181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -2099,7 +2196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -2115,7 +2212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -2131,7 +2228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -2146,7 +2243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -2161,7 +2258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -2192,7 +2289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F146" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F152" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2207,7 +2304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2222,7 +2319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2237,7 +2334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F152" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F158" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2272,7 +2369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="220">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3239,7 +3336,13 @@
     <t>56 - 21/2</t>
   </si>
   <si>
-    <t>IH pass rates in late Feb 2025 have rmained static at approximately 77%.  However, the ratio of broken tests continues to fall slightly.</t>
+    <t>57 - 28/2</t>
+  </si>
+  <si>
+    <t>IH pass rates in late Feb 2025 have remained static at approximately 77%.  However, the ratio of broken tests continues to fall slightly.</t>
+  </si>
+  <si>
+    <t>IH pass rates at the of Feb 2025 have remained static at approximately 76%.  The ratio of broken tests in the last week is effectively unaltered.</t>
   </si>
 </sst>
 </file>
@@ -4623,7 +4726,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$218:$B$218</c:f>
+              <c:f>'Combined PassRates'!$A$224:$B$224</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4737,7 +4840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$218:$F$218</c:f>
+              <c:f>'Combined PassRates'!$C$224:$F$224</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4904,7 +5007,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$219:$B$219</c:f>
+              <c:f>'Combined PassRates'!$A$225:$B$225</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5023,7 +5126,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$219:$F$219</c:f>
+              <c:f>'Combined PassRates'!$C$225:$F$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5215,7 +5318,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$220:$B$220</c:f>
+              <c:f>'Combined PassRates'!$A$226:$B$226</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5329,7 +5432,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$220:$F$220</c:f>
+              <c:f>'Combined PassRates'!$C$226:$F$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5521,7 +5624,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$221:$B$221</c:f>
+              <c:f>'Combined PassRates'!$A$227:$B$227</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5635,7 +5738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$221:$F$221</c:f>
+              <c:f>'Combined PassRates'!$C$227:$F$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5827,7 +5930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$222:$B$222</c:f>
+              <c:f>'Combined PassRates'!$A$228:$B$228</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5941,7 +6044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$222:$F$222</c:f>
+              <c:f>'Combined PassRates'!$C$228:$F$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6133,7 +6236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$223:$B$223</c:f>
+              <c:f>'Combined PassRates'!$A$229:$B$229</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6247,7 +6350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$223:$F$223</c:f>
+              <c:f>'Combined PassRates'!$C$229:$F$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10841,13 +10944,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{021F7AC2-993B-477C-9CF2-CEAB8E859587}">
+  <we:reference id="c1011ceb-b5f9-4469-9c93-276f8624ae84" version="1.5.0.4" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA200001424" version="1.5.0.4" store="en-GB" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10883,23 +11006,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -10907,7 +11030,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10927,7 +11050,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10947,7 +11070,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10967,7 +11090,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10987,23 +11110,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -11011,19 +11134,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C8">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <f>SUM(C8:F8)</f>
@@ -11035,7 +11158,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11055,7 +11178,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11075,7 +11198,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11095,7 +11218,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11115,23 +11238,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11139,23 +11262,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D14">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E14">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F14">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <f>SUM(C14:F14)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -11163,7 +11286,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11183,7 +11306,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11203,7 +11326,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11223,7 +11346,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11243,23 +11366,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C19">
         <f>SUM(C14:C18)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:F19" si="2">SUM(D14:D18)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -11267,22 +11390,23 @@
         <v>6</v>
       </c>
       <c r="B20" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C20">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D20">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E20">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F20">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I20">
-        <v>1236</v>
+        <f>SUM(C20:F20)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -11290,7 +11414,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11310,7 +11434,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11330,7 +11454,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11350,7 +11474,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11370,51 +11494,54 @@
         <v>11</v>
       </c>
       <c r="B25" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C25">
-        <v>117</v>
+        <f>SUM(C20:C24)</f>
+        <v>151</v>
       </c>
       <c r="D25">
-        <v>207</v>
+        <f t="shared" ref="D25:F25" si="3">SUM(D20:D24)</f>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>636</v>
+        <f t="shared" si="3"/>
+        <v>867</v>
       </c>
       <c r="F25">
-        <v>276</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="13">
-        <v>45681</v>
+      <c r="B26" s="5">
+        <v>45688</v>
       </c>
       <c r="C26">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D26">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E26">
-        <v>812</v>
-      </c>
-      <c r="F26" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F26">
+        <v>276</v>
       </c>
       <c r="I26">
-        <f>SUM(C26:H26)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="13">
-        <v>45681</v>
+      <c r="B27" s="5">
+        <v>45688</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11425,7 +11552,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>0</v>
       </c>
     </row>
@@ -11433,8 +11560,8 @@
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="13">
-        <v>45681</v>
+      <c r="B28" s="5">
+        <v>45688</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11445,7 +11572,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>0</v>
       </c>
     </row>
@@ -11453,8 +11580,8 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="13">
-        <v>45681</v>
+      <c r="B29" s="5">
+        <v>45688</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11465,7 +11592,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29">
         <v>0</v>
       </c>
     </row>
@@ -11473,8 +11600,8 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="13">
-        <v>45681</v>
+      <c r="B30" s="5">
+        <v>45688</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11485,7 +11612,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
@@ -11493,24 +11620,20 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="13">
-        <v>45681</v>
+      <c r="B31" s="5">
+        <v>45688</v>
       </c>
       <c r="C31">
-        <f>SUM(C26:C30)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="3">SUM(D26:D30)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E31">
-        <f>SUM(E26:E30)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31" si="4">SUM(F26:F30)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -11518,23 +11641,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C32">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D32">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E32">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F32" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I32">
         <f>SUM(C32:H32)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11542,7 +11665,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11562,7 +11685,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11582,7 +11705,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11602,7 +11725,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11622,49 +11745,47 @@
         <v>11</v>
       </c>
       <c r="B37" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C37">
         <f>SUM(C32:C36)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="5">SUM(D32:D36)</f>
-        <v>157</v>
+        <f t="shared" ref="D37" si="4">SUM(D32:D36)</f>
+        <v>148</v>
       </c>
       <c r="E37">
         <f>SUM(E32:E36)</f>
+        <v>812</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="5">SUM(F32:F36)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C38">
+        <v>121</v>
+      </c>
+      <c r="D38">
+        <v>157</v>
+      </c>
+      <c r="E38">
         <v>799</v>
       </c>
-      <c r="F37">
-        <f t="shared" ref="F37" si="6">SUM(F32:F36)</f>
+      <c r="F38" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C38" s="19">
-        <v>122</v>
-      </c>
-      <c r="D38" s="19">
-        <v>162</v>
-      </c>
-      <c r="E38" s="19">
-        <v>790</v>
-      </c>
-      <c r="F38" s="21">
-        <v>97</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="23">
+      <c r="I38">
         <f>SUM(C38:H38)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11672,19 +11793,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F39" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
@@ -11692,16 +11813,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -11712,19 +11833,19 @@
         <v>9</v>
       </c>
       <c r="B41" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F41" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
@@ -11732,73 +11853,69 @@
         <v>10</v>
       </c>
       <c r="B42" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C38:C42)</f>
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="6">SUM(D38:D42)</f>
+        <v>157</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E38:E42)</f>
+        <v>799</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="7">SUM(F38:F42)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="18">
         <v>45667</v>
       </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>20</v>
-      </c>
-      <c r="E42">
-        <v>79</v>
-      </c>
-      <c r="F42" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C43" s="19">
-        <f>SUM(C38:C42)</f>
-        <v>211</v>
-      </c>
-      <c r="D43" s="19">
-        <f t="shared" ref="D43" si="7">SUM(D38:D42)</f>
-        <v>254</v>
-      </c>
-      <c r="E43" s="19">
-        <f>SUM(E38:E42)</f>
-        <v>944</v>
-      </c>
-      <c r="F43" s="19">
-        <f t="shared" ref="F43" si="8">SUM(F38:F42)</f>
-        <v>431</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="23">
-        <f>SUM(C43:H43)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C44">
-        <v>136</v>
-      </c>
-      <c r="D44">
-        <v>182</v>
-      </c>
-      <c r="E44">
-        <v>695</v>
-      </c>
-      <c r="F44" s="9">
-        <v>165</v>
-      </c>
-      <c r="I44">
+      <c r="C44" s="19">
+        <v>122</v>
+      </c>
+      <c r="D44" s="19">
+        <v>162</v>
+      </c>
+      <c r="E44" s="19">
+        <v>790</v>
+      </c>
+      <c r="F44" s="21">
+        <v>97</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="23">
         <f>SUM(C44:H44)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -11806,7 +11923,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -11826,7 +11943,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C46">
         <v>17</v>
@@ -11846,7 +11963,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -11866,7 +11983,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -11882,27 +11999,33 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="A49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C49" s="19">
         <f>SUM(C44:C48)</f>
-        <v>225</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ref="D49" si="9">SUM(D44:D48)</f>
-        <v>274</v>
-      </c>
-      <c r="E49">
+        <v>211</v>
+      </c>
+      <c r="D49" s="19">
+        <f t="shared" ref="D49" si="8">SUM(D44:D48)</f>
+        <v>254</v>
+      </c>
+      <c r="E49" s="19">
         <f>SUM(E44:E48)</f>
-        <v>849</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ref="F49" si="10">SUM(F44:F48)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" ref="F49" si="9">SUM(F44:F48)</f>
+        <v>431</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="23">
+        <f>SUM(C49:H49)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -11910,23 +12033,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C50">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D50">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E50">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F50" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I50">
         <f>SUM(C50:H50)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -11934,7 +12057,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -11954,7 +12077,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -11974,7 +12097,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -11994,7 +12117,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -12014,23 +12137,23 @@
         <v>11</v>
       </c>
       <c r="B55" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C55">
         <f>SUM(C50:C54)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="11">SUM(D50:D54)</f>
-        <v>249</v>
+        <f t="shared" ref="D55" si="10">SUM(D50:D54)</f>
+        <v>274</v>
       </c>
       <c r="E55">
         <f>SUM(E50:E54)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="12">SUM(F50:F54)</f>
-        <v>367</v>
+        <f t="shared" ref="F55" si="11">SUM(F50:F54)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -12038,23 +12161,23 @@
         <v>6</v>
       </c>
       <c r="B56" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C56">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E56">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F56" s="9">
         <v>33</v>
       </c>
       <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -12062,7 +12185,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -12082,7 +12205,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -12102,7 +12225,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -12122,7 +12245,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -12142,22 +12265,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C61">
         <f>SUM(C56:C60)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="13">SUM(D56:D60)</f>
-        <v>253</v>
+        <f t="shared" ref="D61" si="12">SUM(D56:D60)</f>
+        <v>249</v>
       </c>
       <c r="E61">
         <f>SUM(E56:E60)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="14">SUM(F56:F60)</f>
+        <f t="shared" ref="F61" si="13">SUM(F56:F60)</f>
         <v>367</v>
       </c>
     </row>
@@ -12166,23 +12289,23 @@
         <v>6</v>
       </c>
       <c r="B62" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C62">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D62">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E62">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F62" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12190,7 +12313,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -12210,7 +12333,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -12230,7 +12353,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -12250,7 +12373,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -12270,23 +12393,23 @@
         <v>11</v>
       </c>
       <c r="B67" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C67">
         <f>SUM(C62:C66)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67" si="15">SUM(D62:D66)</f>
-        <v>289</v>
+        <f t="shared" ref="D67" si="14">SUM(D62:D66)</f>
+        <v>253</v>
       </c>
       <c r="E67">
         <f>SUM(E62:E66)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="16">SUM(F62:F66)</f>
-        <v>433</v>
+        <f t="shared" ref="F67" si="15">SUM(F62:F66)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -12294,23 +12417,23 @@
         <v>6</v>
       </c>
       <c r="B68" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C68">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D68">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E68">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F68" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I68">
         <f>SUM(C68:H68)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12318,7 +12441,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -12338,7 +12461,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C70">
         <v>17</v>
@@ -12358,7 +12481,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -12378,7 +12501,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -12398,23 +12521,23 @@
         <v>11</v>
       </c>
       <c r="B73" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C73">
         <f>SUM(C68:C72)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="17">SUM(D68:D72)</f>
-        <v>242</v>
+        <f t="shared" ref="D73" si="16">SUM(D68:D72)</f>
+        <v>289</v>
       </c>
       <c r="E73">
         <f>SUM(E68:E72)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="18">SUM(F68:F72)</f>
-        <v>363</v>
+        <f t="shared" ref="F73" si="17">SUM(F68:F72)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -12422,23 +12545,23 @@
         <v>6</v>
       </c>
       <c r="B74" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C74">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D74">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E74">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F74" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I74">
         <f>SUM(C74:H74)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12446,7 +12569,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -12466,16 +12589,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -12486,13 +12609,13 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>6</v>
@@ -12506,19 +12629,19 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C78">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F78" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
@@ -12526,49 +12649,47 @@
         <v>11</v>
       </c>
       <c r="B79" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C79">
         <f>SUM(C74:C78)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="19">SUM(D74:D78)</f>
-        <v>189</v>
+        <f t="shared" ref="D79" si="18">SUM(D74:D78)</f>
+        <v>242</v>
       </c>
       <c r="E79">
         <f>SUM(E74:E78)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="20">SUM(F74:F78)</f>
-        <v>378</v>
+        <f t="shared" ref="F79" si="19">SUM(F74:F78)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="17" t="s">
+      <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C80" s="19">
-        <v>149</v>
-      </c>
-      <c r="D80" s="19">
-        <v>121</v>
-      </c>
-      <c r="E80" s="19">
-        <v>658</v>
-      </c>
-      <c r="F80" s="21">
-        <v>10</v>
-      </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="23">
+      <c r="B80" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C80">
+        <v>164</v>
+      </c>
+      <c r="D80">
+        <v>110</v>
+      </c>
+      <c r="E80">
+        <v>659</v>
+      </c>
+      <c r="F80" s="9">
+        <v>19</v>
+      </c>
+      <c r="I80">
         <f>SUM(C80:H80)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -12576,16 +12697,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>38</v>
       </c>
       <c r="E81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" s="9">
         <v>126</v>
@@ -12596,16 +12717,16 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E82">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -12616,19 +12737,19 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F83" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
@@ -12636,49 +12757,43 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C84">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="17" t="s">
+      <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C85" s="19">
+      <c r="B85" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>247</v>
-      </c>
-      <c r="D85" s="19">
-        <f t="shared" ref="D85" si="21">SUM(D80:D84)</f>
-        <v>190</v>
-      </c>
-      <c r="E85" s="19">
+        <v>248</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85" si="20">SUM(D80:D84)</f>
+        <v>189</v>
+      </c>
+      <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>813</v>
-      </c>
-      <c r="F85" s="19">
-        <f t="shared" ref="F85" si="22">SUM(F80:F84)</f>
-        <v>369</v>
-      </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="23">
-        <f>SUM(C85:H85)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85" si="21">SUM(F80:F84)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -12686,25 +12801,25 @@
         <v>6</v>
       </c>
       <c r="B86" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C86" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D86" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E86" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F86" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="22">
+      <c r="I86" s="23">
         <f>SUM(C86:H86)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -12712,16 +12827,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>38</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" s="9">
         <v>126</v>
@@ -12732,16 +12847,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C88">
         <v>19</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -12752,16 +12867,16 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F89" s="9">
         <v>110</v>
@@ -12772,19 +12887,19 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C90">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F90" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
@@ -12792,49 +12907,55 @@
         <v>11</v>
       </c>
       <c r="B91" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C91" s="19">
         <f>SUM(C86:C90)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D91" s="19">
-        <f t="shared" ref="D91" si="23">SUM(D86:D90)</f>
-        <v>161</v>
+        <f t="shared" ref="D91" si="22">SUM(D86:D90)</f>
+        <v>190</v>
       </c>
       <c r="E91" s="19">
         <f>SUM(E86:E90)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F91" s="19">
-        <f t="shared" ref="F91" si="24">SUM(F86:F90)</f>
-        <v>393</v>
+        <f t="shared" ref="F91" si="23">SUM(F86:F90)</f>
+        <v>369</v>
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="20">
+      <c r="I91" s="23">
         <f>SUM(C91:H91)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+      <c r="A92" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C92">
-        <v>142</v>
-      </c>
-      <c r="D92">
-        <v>124</v>
-      </c>
-      <c r="E92">
-        <v>672</v>
-      </c>
-      <c r="F92" s="9">
-        <v>9</v>
+      <c r="B92" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C92" s="19">
+        <v>148</v>
+      </c>
+      <c r="D92" s="19">
+        <v>99</v>
+      </c>
+      <c r="E92" s="19">
+        <v>665</v>
+      </c>
+      <c r="F92" s="21">
+        <v>12</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="22">
+        <f>SUM(C92:H92)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -12842,19 +12963,19 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C93">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E93">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F93" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
@@ -12862,13 +12983,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>67</v>
@@ -12882,13 +13003,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>12</v>
@@ -12902,345 +13023,351 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C96">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F96" s="9">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C97">
+      <c r="B97" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C97" s="19">
         <f>SUM(C92:C96)</f>
-        <v>239</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ref="D97" si="25">SUM(D92:D96)</f>
-        <v>164</v>
-      </c>
-      <c r="E97">
+        <v>248</v>
+      </c>
+      <c r="D97" s="19">
+        <f t="shared" ref="D97" si="24">SUM(D92:D96)</f>
+        <v>161</v>
+      </c>
+      <c r="E97" s="19">
         <f>SUM(E92:E96)</f>
-        <v>920</v>
-      </c>
-      <c r="F97">
-        <f t="shared" ref="F97" si="26">SUM(F92:F96)</f>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+        <v>819</v>
+      </c>
+      <c r="F97" s="19">
+        <f t="shared" ref="F97" si="25">SUM(F92:F96)</f>
+        <v>393</v>
+      </c>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="20">
+        <f>SUM(C97:H97)</f>
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C98">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D98">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E98">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F98" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D99">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F99" s="9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C101">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F101" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C102">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F102" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103" si="27">SUM(D98:D102)</f>
-        <v>119</v>
+        <f t="shared" ref="D103" si="26">SUM(D98:D102)</f>
+        <v>164</v>
       </c>
       <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="28">SUM(F98:F102)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F103" si="27">SUM(F98:F102)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C104">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D104">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E104">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F104" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C105">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D105">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E105">
         <v>17</v>
       </c>
       <c r="F105" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C107">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F107" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C108">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D108">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F108" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="29">SUM(D104:D108)</f>
-        <v>125</v>
+        <f t="shared" ref="D109" si="28">SUM(D104:D108)</f>
+        <v>119</v>
       </c>
       <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="30">SUM(F104:F108)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F109" si="29">SUM(F104:F108)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C110">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D110">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E110">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F110" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D111">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E111">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F111" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E112">
         <v>77</v>
@@ -13254,19 +13381,19 @@
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C113">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F113" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -13274,19 +13401,19 @@
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C114">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F114" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -13294,23 +13421,23 @@
         <v>11</v>
       </c>
       <c r="B115" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115" si="31">SUM(D110:D114)</f>
-        <v>92</v>
+        <f t="shared" ref="D115" si="30">SUM(D110:D114)</f>
+        <v>125</v>
       </c>
       <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="32">SUM(F110:F114)</f>
-        <v>193</v>
+        <f t="shared" ref="F115" si="31">SUM(F110:F114)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -13318,23 +13445,19 @@
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C116">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D116">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E116">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F116" s="9">
-        <v>3</v>
-      </c>
-      <c r="I116">
-        <f>SUM(C116:H116)</f>
-        <v>907</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -13342,19 +13465,19 @@
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E117">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F117" s="9">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
@@ -13362,16 +13485,16 @@
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
@@ -13382,19 +13505,19 @@
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C119">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F119" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
@@ -13402,19 +13525,19 @@
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C120">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F120" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -13422,23 +13545,23 @@
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="33">SUM(D116:D120)</f>
-        <v>83</v>
+        <f t="shared" ref="D121" si="32">SUM(D116:D120)</f>
+        <v>92</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="34">SUM(F116:F120)</f>
-        <v>131</v>
+        <f t="shared" ref="F121" si="33">SUM(F116:F120)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -13446,19 +13569,23 @@
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C122">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D122">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E122">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F122" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <f>SUM(C122:H122)</f>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -13466,7 +13593,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C123">
         <v>12</v>
@@ -13486,16 +13613,16 @@
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
@@ -13506,19 +13633,19 @@
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C125">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D125">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F125" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
@@ -13526,19 +13653,19 @@
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C126">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D126">
         <v>8</v>
       </c>
       <c r="E126">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F126" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
@@ -13546,23 +13673,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="35">SUM(D122:D126)</f>
-        <v>113</v>
+        <f t="shared" ref="D127" si="34">SUM(D122:D126)</f>
+        <v>83</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="36">SUM(F122:F126)</f>
-        <v>142</v>
+        <f t="shared" ref="F127" si="35">SUM(F122:F126)</f>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -13570,177 +13697,177 @@
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C128">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D128">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E128">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F128" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D129">
         <v>7</v>
       </c>
       <c r="E129">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F129" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C130">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C131">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D131">
+        <v>11</v>
+      </c>
+      <c r="E131">
+        <v>103</v>
+      </c>
+      <c r="F131" s="9">
         <v>6</v>
       </c>
-      <c r="E131">
-        <v>46</v>
-      </c>
-      <c r="F131" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C132">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F132" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="37">SUM(D128:D132)</f>
-        <v>118</v>
+        <f t="shared" ref="D133" si="36">SUM(D128:D132)</f>
+        <v>113</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="38">SUM(F128:F132)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F133" si="37">SUM(F128:F132)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C134">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D134">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E134">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F134" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F135" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C136">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>77</v>
@@ -13749,100 +13876,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C137">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F137" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C138">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F138" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="39">SUM(D134:D138)</f>
-        <v>77</v>
+        <f t="shared" ref="D139" si="38">SUM(D134:D138)</f>
+        <v>118</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="40">SUM(F134:F138)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F139" si="39">SUM(F134:F138)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C140">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D140">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E140">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F140" s="9">
         <v>2</v>
       </c>
-      <c r="I140">
-        <f>SUM(C140:H140)</f>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -13857,18 +13980,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E142">
         <v>77</v>
@@ -13877,12 +14000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C143">
         <v>24</v>
@@ -13897,76 +14020,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C144">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D144">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F144" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="41">SUM(D140:D144)</f>
-        <v>79</v>
+        <f t="shared" ref="D145" si="40">SUM(D140:D144)</f>
+        <v>77</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="42">SUM(F140:F144)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F145" si="41">SUM(F140:F144)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C146">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D146">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E146">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F146" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <f>SUM(C146:H146)</f>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -13975,275 +14102,275 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F147" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C149">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D149">
         <v>7</v>
       </c>
       <c r="E149">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F149" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C150">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E150">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F150" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="43">SUM(D146:D150)</f>
-        <v>128</v>
+        <f t="shared" ref="D151" si="42">SUM(D146:D150)</f>
+        <v>79</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="44">SUM(F146:F150)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F151" si="43">SUM(F146:F150)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C152">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D152">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E152">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F152" s="9">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F153" s="9">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C154">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C155">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F155" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F156" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="45">SUM(D152:D156)</f>
-        <v>238</v>
+        <f t="shared" ref="D157" si="44">SUM(D152:D156)</f>
+        <v>128</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="46">SUM(F152:F156)</f>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F157" si="45">SUM(F152:F156)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C158">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E158">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F158" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C159">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E159">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F159" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C160">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D160">
         <v>5</v>
       </c>
       <c r="E160">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
@@ -14254,19 +14381,19 @@
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C161">
         <v>25</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F161" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
@@ -14274,16 +14401,16 @@
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C162">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F162" s="9">
         <v>0</v>
@@ -14294,23 +14421,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="47">SUM(D158:D162)</f>
-        <v>18</v>
+        <f t="shared" ref="D163" si="46">SUM(D158:D162)</f>
+        <v>238</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="48">SUM(F158:F162)</f>
-        <v>122</v>
+        <f t="shared" ref="F163" si="47">SUM(F158:F162)</f>
+        <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
@@ -14318,19 +14445,19 @@
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C164">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D164">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F164" s="9">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
@@ -14338,19 +14465,19 @@
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F165" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
@@ -14358,16 +14485,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C166">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D166">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
@@ -14378,16 +14505,16 @@
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C167">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D167">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F167" s="9">
         <v>0</v>
@@ -14398,16 +14525,16 @@
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F168" s="9">
         <v>0</v>
@@ -14418,23 +14545,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="49">SUM(D164:D168)</f>
-        <v>80</v>
+        <f t="shared" ref="D169" si="48">SUM(D164:D168)</f>
+        <v>18</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="50">SUM(F164:F168)</f>
-        <v>14</v>
+        <f t="shared" ref="F169" si="49">SUM(F164:F168)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.45">
@@ -14442,23 +14569,19 @@
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C170">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D170">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E170">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F170" s="9">
         <v>14</v>
-      </c>
-      <c r="I170">
-        <f>SUM(C170:H170)</f>
-        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
@@ -14466,16 +14589,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E171">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F171" s="9">
         <v>0</v>
@@ -14486,16 +14609,16 @@
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C172">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D172">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E172">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F172" s="9">
         <v>0</v>
@@ -14506,16 +14629,16 @@
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C173">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E173">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F173" s="9">
         <v>0</v>
@@ -14526,16 +14649,16 @@
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D174">
         <v>2</v>
       </c>
       <c r="E174">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F174" s="9">
         <v>0</v>
@@ -14546,22 +14669,22 @@
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="51">SUM(D170:D174)</f>
-        <v>102</v>
+        <f t="shared" ref="D175" si="50">SUM(D170:D174)</f>
+        <v>80</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="52">SUM(F170:F174)</f>
+        <f t="shared" ref="F175" si="51">SUM(F170:F174)</f>
         <v>14</v>
       </c>
     </row>
@@ -14570,19 +14693,23 @@
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C176">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E176">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F176" s="9">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="I176">
+        <f>SUM(C176:H176)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -14590,7 +14717,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -14599,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -14610,7 +14737,7 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C178">
         <v>8</v>
@@ -14630,16 +14757,16 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C179">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
@@ -14650,19 +14777,19 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F180" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -14670,23 +14797,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="53">SUM(D176:D180)</f>
-        <v>71</v>
+        <f t="shared" ref="D181" si="52">SUM(D176:D180)</f>
+        <v>102</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="54">SUM(F176:F180)</f>
-        <v>125</v>
+        <f t="shared" ref="F181" si="53">SUM(F176:F180)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -14694,19 +14821,19 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C182">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D182">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F182" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -14714,16 +14841,16 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F183" s="9">
         <v>0</v>
@@ -14734,16 +14861,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C184">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E184">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -14754,16 +14881,16 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
@@ -14774,19 +14901,19 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F186" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -14794,23 +14921,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187" si="55">SUM(D182:D186)</f>
-        <v>77</v>
+        <f t="shared" ref="D187" si="54">SUM(D182:D186)</f>
+        <v>71</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="56">SUM(F182:F186)</f>
-        <v>22</v>
+        <f t="shared" ref="F187" si="55">SUM(F182:F186)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -14818,16 +14945,16 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C188">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D188">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E188">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F188" s="9">
         <v>20</v>
@@ -14838,16 +14965,16 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
@@ -14858,16 +14985,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
@@ -14878,16 +15005,16 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
@@ -14898,16 +15025,16 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C192">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F192" s="9">
         <v>2</v>
@@ -14918,22 +15045,22 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193" si="57">SUM(D188:D192)</f>
-        <v>21</v>
+        <f t="shared" ref="D193" si="56">SUM(D188:D192)</f>
+        <v>77</v>
       </c>
       <c r="E193">
         <f>SUM(E188:E192)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F193">
-        <f t="shared" ref="F193" si="58">SUM(F188:F192)</f>
+        <f t="shared" ref="F193" si="57">SUM(F188:F192)</f>
         <v>22</v>
       </c>
     </row>
@@ -14942,16 +15069,16 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C194">
         <v>74</v>
       </c>
       <c r="D194">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E194">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F194" s="9">
         <v>20</v>
@@ -14962,7 +15089,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -14971,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
@@ -14982,13 +15109,13 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C196">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>83</v>
@@ -15002,7 +15129,7 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C197">
         <v>10</v>
@@ -15022,7 +15149,7 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -15042,22 +15169,22 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199:F199" si="59">SUM(D194:D198)</f>
-        <v>23</v>
+        <f t="shared" ref="D199" si="58">SUM(D194:D198)</f>
+        <v>21</v>
       </c>
       <c r="E199">
         <f>SUM(E194:E198)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F199">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="F199" si="59">SUM(F194:F198)</f>
         <v>22</v>
       </c>
     </row>
@@ -15066,19 +15193,19 @@
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C200">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D200">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E200">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F200" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -15086,16 +15213,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
@@ -15106,16 +15233,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C202">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -15126,16 +15253,16 @@
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C203">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F203" s="9">
         <v>0</v>
@@ -15146,13 +15273,13 @@
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204">
         <v>109</v>
@@ -15166,23 +15293,23 @@
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D205">
         <f t="shared" ref="D205:F205" si="60">SUM(D200:D204)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E205">
-        <f t="shared" si="60"/>
-        <v>728</v>
+        <f>SUM(E200:E204)</f>
+        <v>725</v>
       </c>
       <c r="F205">
         <f t="shared" si="60"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
@@ -15190,19 +15317,19 @@
         <v>6</v>
       </c>
       <c r="B206" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C206">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D206">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E206">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F206" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -15210,19 +15337,19 @@
         <v>7</v>
       </c>
       <c r="B207" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F207" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -15230,16 +15357,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C208">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -15250,19 +15377,19 @@
         <v>9</v>
       </c>
       <c r="B209" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F209" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
@@ -15270,19 +15397,19 @@
         <v>10</v>
       </c>
       <c r="B210" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C210">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F210" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -15290,23 +15417,23 @@
         <v>11</v>
       </c>
       <c r="B211" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:F211" si="61">SUM(D206:D210)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E211">
         <f t="shared" si="61"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F211">
         <f t="shared" si="61"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
@@ -15314,19 +15441,19 @@
         <v>6</v>
       </c>
       <c r="B212" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C212">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D212">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E212">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F212" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -15334,19 +15461,19 @@
         <v>7</v>
       </c>
       <c r="B213" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F213" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
@@ -15354,16 +15481,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C214">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
@@ -15374,7 +15501,7 @@
         <v>9</v>
       </c>
       <c r="B215" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C215">
         <v>10</v>
@@ -15383,10 +15510,10 @@
         <v>5</v>
       </c>
       <c r="E215">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F215" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
@@ -15394,19 +15521,19 @@
         <v>10</v>
       </c>
       <c r="B216" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F216" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
@@ -15414,60 +15541,60 @@
         <v>11</v>
       </c>
       <c r="B217" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D217">
         <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E217">
         <f t="shared" si="62"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F217">
         <f t="shared" si="62"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A218" s="14" t="s">
+      <c r="A218" t="s">
         <v>6</v>
       </c>
-      <c r="B218" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C218" s="14">
-        <v>79</v>
-      </c>
-      <c r="D218" s="14">
-        <v>21</v>
-      </c>
-      <c r="E218" s="14">
-        <v>255</v>
-      </c>
-      <c r="F218" s="16">
-        <v>22</v>
+      <c r="B218" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C218">
+        <v>78</v>
+      </c>
+      <c r="D218">
+        <v>31</v>
+      </c>
+      <c r="E218">
+        <v>245</v>
+      </c>
+      <c r="F218" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>7</v>
       </c>
-      <c r="B219" s="11" t="s">
-        <v>12</v>
+      <c r="B219" s="13">
+        <v>45450</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -15477,17 +15604,17 @@
       <c r="A220" t="s">
         <v>8</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>12</v>
+      <c r="B220" s="13">
+        <v>45450</v>
       </c>
       <c r="C220">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -15497,37 +15624,37 @@
       <c r="A221" t="s">
         <v>9</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>12</v>
+      <c r="B221" s="13">
+        <v>45450</v>
       </c>
       <c r="C221">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E221">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F221" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="11" t="s">
-        <v>12</v>
+      <c r="B222" s="13">
+        <v>45450</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F222" s="9">
         <v>0</v>
@@ -15537,429 +15664,417 @@
       <c r="A223" t="s">
         <v>11</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>12</v>
+      <c r="B223" s="13">
+        <v>45450</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D223">
         <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E223">
         <f t="shared" si="63"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F223">
         <f t="shared" si="63"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="14">
+        <v>79</v>
+      </c>
+      <c r="D224" s="14">
+        <v>21</v>
+      </c>
+      <c r="E224" s="14">
+        <v>255</v>
+      </c>
+      <c r="F224" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C224">
-        <v>69</v>
-      </c>
-      <c r="D224">
-        <v>51</v>
-      </c>
-      <c r="E224">
-        <v>223</v>
-      </c>
-      <c r="F224" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>7</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F225" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>8</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C226">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>9</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C227">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F227" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>10</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F228" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>11</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E229">
         <f t="shared" si="64"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>6</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C230">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D230">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E230">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F230" s="9">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>7</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
+        <v>12</v>
+      </c>
+      <c r="E231">
         <v>1</v>
       </c>
-      <c r="E231">
-        <v>42</v>
-      </c>
       <c r="F231" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>8</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F232" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>9</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C233">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F233" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>10</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F234" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E235">
         <f t="shared" si="65"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>6</v>
       </c>
-      <c r="B236" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B236" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C236">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D236">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E236">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F236" s="9">
-        <v>57</v>
-      </c>
-      <c r="G236" s="6"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>7</v>
       </c>
-      <c r="B237" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B237" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>42</v>
       </c>
       <c r="F237" s="9">
-        <v>0</v>
-      </c>
-      <c r="G237" s="6"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>8</v>
       </c>
-      <c r="B238" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B238" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C238">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F238" s="9">
         <v>0</v>
       </c>
-      <c r="G238" s="6"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>9</v>
       </c>
-      <c r="B239" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B239" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C239">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F239" s="9">
         <v>0</v>
       </c>
-      <c r="G239" s="6"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>10</v>
       </c>
-      <c r="B240" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B240" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C240">
         <v>3</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E240">
         <v>79</v>
       </c>
       <c r="F240" s="9">
-        <v>0</v>
-      </c>
-      <c r="G240" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B241" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C241">
         <f>SUM(C236:C240)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D241">
         <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E241">
         <f t="shared" si="66"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F241">
         <f t="shared" si="66"/>
-        <v>57</v>
-      </c>
-      <c r="G241" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>6</v>
       </c>
       <c r="B242" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C242">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F242" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G242" s="6"/>
     </row>
@@ -15968,20 +16083,20 @@
         <v>7</v>
       </c>
       <c r="B243" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F243" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G243" s="6"/>
     </row>
@@ -15990,20 +16105,20 @@
         <v>8</v>
       </c>
       <c r="B244" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C244">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F244" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G244" s="6"/>
     </row>
@@ -16012,20 +16127,20 @@
         <v>9</v>
       </c>
       <c r="B245" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C245">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F245" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G245" s="6"/>
     </row>
@@ -16034,20 +16149,20 @@
         <v>10</v>
       </c>
       <c r="B246" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F246" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G246" s="6"/>
     </row>
@@ -16056,178 +16171,314 @@
         <v>11</v>
       </c>
       <c r="B247" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C247">
         <f>SUM(C242:C246)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D247">
         <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E247">
         <f t="shared" si="67"/>
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="F247">
         <f t="shared" si="67"/>
-        <v>324</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G247" s="6"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>6</v>
       </c>
       <c r="B248" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C248">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D248">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="F248" s="9">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>7</v>
       </c>
       <c r="B249" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F249" s="9">
         <v>40</v>
       </c>
+      <c r="G249" s="6"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>8</v>
       </c>
       <c r="B250" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C250">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F250" s="9">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G250" s="6"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>9</v>
       </c>
       <c r="B251" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C251">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251">
+        <v>9</v>
+      </c>
+      <c r="F251" s="9">
         <v>85</v>
       </c>
-      <c r="F251" s="9">
-        <v>0</v>
-      </c>
+      <c r="G251" s="6"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>10</v>
       </c>
       <c r="B252" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E252">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F252" s="9">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G252" s="6"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>11</v>
       </c>
       <c r="B253" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C253">
+        <f>SUM(C248:C252)</f>
+        <v>110</v>
+      </c>
+      <c r="D253">
+        <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
+        <v>17</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="68"/>
+        <v>215</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="68"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C253">
-        <f>SUM(C248:C252)</f>
+      <c r="C254">
+        <v>70</v>
+      </c>
+      <c r="D254">
+        <v>15</v>
+      </c>
+      <c r="E254">
+        <v>260</v>
+      </c>
+      <c r="F254" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C256">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>41</v>
+      </c>
+      <c r="F256" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C257">
+        <v>13</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>85</v>
+      </c>
+      <c r="F257" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>74</v>
+      </c>
+      <c r="F258" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C259">
+        <f>SUM(C254:C258)</f>
         <v>91</v>
       </c>
-      <c r="D253">
-        <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
+      <c r="D259">
+        <f t="shared" ref="D259:F259" si="69">SUM(D254:D258)</f>
         <v>20</v>
       </c>
-      <c r="E253">
-        <f t="shared" si="68"/>
+      <c r="E259">
+        <f t="shared" si="69"/>
         <v>462</v>
       </c>
-      <c r="F253">
-        <f t="shared" si="68"/>
+      <c r="F259">
+        <f t="shared" si="69"/>
         <v>42</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B254" s="11"/>
-      <c r="F254" s="9"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B255" s="11"/>
-      <c r="F255" s="9"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B256" s="11"/>
-      <c r="F256" s="9"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B257" s="11"/>
-      <c r="F257" s="9"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B258" s="11"/>
-      <c r="F258" s="9"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B259" s="11"/>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B260" s="11"/>
+      <c r="F260" s="9"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B261" s="11"/>
+      <c r="F261" s="9"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B262" s="11"/>
+      <c r="F262" s="9"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B263" s="11"/>
+      <c r="F263" s="9"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B264" s="11"/>
+      <c r="F264" s="9"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B265" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16237,11 +16488,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16870,19 +17121,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C241</f>
+        <f>'Combined PassRates'!C247</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D241</f>
+        <f>'Combined PassRates'!D247</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E241</f>
+        <f>'Combined PassRates'!E247</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F241</f>
+        <f>'Combined PassRates'!F247</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -16897,19 +17148,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C235</f>
+        <f>'Combined PassRates'!C241</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D235</f>
+        <f>'Combined PassRates'!D241</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E235</f>
+        <f>'Combined PassRates'!E241</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F235</f>
+        <f>'Combined PassRates'!F241</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -16970,19 +17221,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C217</f>
+        <f>'Combined PassRates'!C223</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D217</f>
+        <f>'Combined PassRates'!D223</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E217</f>
+        <f>'Combined PassRates'!E223</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F217</f>
+        <f>'Combined PassRates'!F223</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -16997,19 +17248,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C211</f>
+        <f>'Combined PassRates'!C217</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D211</f>
+        <f>'Combined PassRates'!D217</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E211</f>
+        <f>'Combined PassRates'!E217</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F211</f>
+        <f>'Combined PassRates'!F217</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -17024,19 +17275,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C205</f>
+        <f>'Combined PassRates'!C211</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D205</f>
+        <f>'Combined PassRates'!D211</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E205</f>
+        <f>'Combined PassRates'!E211</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F205</f>
+        <f>'Combined PassRates'!F211</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -17051,19 +17302,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -17078,19 +17329,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -17105,19 +17356,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -17132,19 +17383,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -17159,19 +17410,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -17186,19 +17437,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -17213,19 +17464,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -17240,19 +17491,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -17267,19 +17518,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -17294,19 +17545,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -17321,19 +17572,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -17348,19 +17599,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -17375,19 +17626,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -17402,19 +17653,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -17429,19 +17680,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -17456,19 +17707,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -17483,19 +17734,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -17510,19 +17761,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -17537,19 +17788,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -17564,19 +17815,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -17591,19 +17842,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -17618,19 +17869,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -17645,19 +17896,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -17672,19 +17923,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -17699,19 +17950,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C62</f>
+        <f>'Combined PassRates'!C68</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D62</f>
+        <f>'Combined PassRates'!D68</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E62</f>
+        <f>'Combined PassRates'!E68</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F62</f>
+        <f>'Combined PassRates'!F68</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -17726,19 +17977,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -17753,19 +18004,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -17780,19 +18031,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -17807,19 +18058,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -17834,19 +18085,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -17861,19 +18112,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>151</v>
       </c>
       <c r="C55">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>130</v>
       </c>
       <c r="D55">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>867</v>
       </c>
       <c r="E55">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>49</v>
       </c>
       <c r="F55" s="13">
@@ -17888,19 +18139,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>143</v>
       </c>
       <c r="C56">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>121</v>
       </c>
       <c r="D56">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>900</v>
       </c>
       <c r="E56">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>31</v>
       </c>
       <c r="F56" s="13">
@@ -17915,19 +18166,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>130</v>
       </c>
       <c r="C57">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>122</v>
       </c>
       <c r="D57">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>898</v>
       </c>
       <c r="E57">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>45</v>
       </c>
       <c r="F57" s="13">
@@ -17935,6 +18186,33 @@
       </c>
       <c r="G57" s="6" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f>'Combined PassRates'!C7</f>
+        <v>140</v>
+      </c>
+      <c r="C58">
+        <f>'Combined PassRates'!D7</f>
+        <v>131</v>
+      </c>
+      <c r="D58">
+        <f>'Combined PassRates'!E7</f>
+        <v>872</v>
+      </c>
+      <c r="E58">
+        <f>'Combined PassRates'!F7</f>
+        <v>48</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45716</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -17960,11 +18238,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19204,9 +19482,27 @@
         <v>200</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="str">
+        <f>PassRates!G58</f>
+        <v>57 - 28/2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>213</v>
       </c>
     </row>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82466666-C5BB-42A6-8064-F3E05B5E88E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C42D4-F984-4DD6-A2EB-B03B7F7C2F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined PassRates" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,104 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+80+46+5=131
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+130+5+1=136</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+485+232+187=904</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22+9=31</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
       <text>
         <r>
           <rPr>
@@ -71,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
       <text>
         <r>
           <rPr>
@@ -95,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
       <text>
         <r>
           <rPr>
@@ -119,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
       <text>
         <r>
           <rPr>
@@ -143,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
       <text>
         <r>
           <rPr>
@@ -168,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
       <text>
         <r>
           <rPr>
@@ -192,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
       <text>
         <r>
           <rPr>
@@ -216,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
       <text>
         <r>
           <rPr>
@@ -240,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
       <text>
         <r>
           <rPr>
@@ -265,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
       <text>
         <r>
           <rPr>
@@ -289,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
       <text>
         <r>
           <rPr>
@@ -313,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
       <text>
         <r>
           <rPr>
@@ -337,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -362,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -386,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -410,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -426,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -442,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -458,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -483,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -507,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -531,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -547,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -563,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -579,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -595,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -619,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -643,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -667,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -683,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -699,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -715,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -731,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -755,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -779,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -803,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -819,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -835,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -851,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -867,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -891,7 +988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -915,7 +1012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -939,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -955,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -971,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -987,7 +1084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -1091,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -1123,7 +1220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -1139,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -1187,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -1211,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -1259,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -1275,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1323,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1347,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1395,7 +1492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1459,7 +1556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1483,7 +1580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1499,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1515,7 +1612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1531,7 +1628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1547,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1563,7 +1660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1579,7 +1676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1595,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1611,7 +1708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1627,7 +1724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1643,7 +1740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1659,7 +1756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1675,7 +1772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1691,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1707,7 +1804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1723,7 +1820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1739,7 +1836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1755,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1771,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1787,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1803,7 +1900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -1819,7 +1916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -1851,7 +1948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -1867,7 +1964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -1882,7 +1979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -1898,7 +1995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -1914,7 +2011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -1930,7 +2027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -1945,7 +2042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -1961,7 +2058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -1977,7 +2074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -1993,7 +2090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -2008,7 +2105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -2024,7 +2121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -2040,7 +2137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -2056,7 +2153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -2071,7 +2168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -2087,7 +2184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -2103,7 +2200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -2119,7 +2216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -2134,7 +2231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -2150,7 +2247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -2166,7 +2263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -2181,7 +2278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -2212,7 +2309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -2228,7 +2325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -2258,7 +2355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -2274,7 +2371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -2289,7 +2386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F152" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F158" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2304,7 +2401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2319,7 +2416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2349,7 +2446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F158" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F164" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2369,7 +2466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="222">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3343,6 +3440,12 @@
   </si>
   <si>
     <t>IH pass rates at the of Feb 2025 have remained static at approximately 76%.  The ratio of broken tests in the last week is effectively unaltered.</t>
+  </si>
+  <si>
+    <t>58 - 07/3</t>
+  </si>
+  <si>
+    <t>IH pass rates at start of March 2025 have remained static at approximately 77%.  The ratio of broken tests in the last week is effectively unaltered.</t>
   </si>
 </sst>
 </file>
@@ -4726,7 +4829,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$224:$B$224</c:f>
+              <c:f>'Combined PassRates'!$A$230:$B$230</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4840,7 +4943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$224:$F$224</c:f>
+              <c:f>'Combined PassRates'!$C$230:$F$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5007,7 +5110,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$225:$B$225</c:f>
+              <c:f>'Combined PassRates'!$A$231:$B$231</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5126,7 +5229,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$225:$F$225</c:f>
+              <c:f>'Combined PassRates'!$C$231:$F$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5318,7 +5421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$226:$B$226</c:f>
+              <c:f>'Combined PassRates'!$A$232:$B$232</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5432,7 +5535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$226:$F$226</c:f>
+              <c:f>'Combined PassRates'!$C$232:$F$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5624,7 +5727,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$227:$B$227</c:f>
+              <c:f>'Combined PassRates'!$A$233:$B$233</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5738,7 +5841,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$227:$F$227</c:f>
+              <c:f>'Combined PassRates'!$C$233:$F$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5930,7 +6033,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$228:$B$228</c:f>
+              <c:f>'Combined PassRates'!$A$234:$B$234</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6044,7 +6147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$228:$F$228</c:f>
+              <c:f>'Combined PassRates'!$C$234:$F$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6236,7 +6339,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$229:$B$229</c:f>
+              <c:f>'Combined PassRates'!$A$235:$B$235</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6350,7 +6453,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$229:$F$229</c:f>
+              <c:f>'Combined PassRates'!$C$235:$F$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10966,11 +11069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11006,23 +11109,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
-        <v>1191</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -11030,7 +11133,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11050,7 +11153,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11070,7 +11173,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11090,7 +11193,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11110,23 +11213,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -11134,23 +11237,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E8">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I8">
         <f>SUM(C8:F8)</f>
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -11158,7 +11261,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11178,7 +11281,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11198,7 +11301,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11218,7 +11321,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11238,23 +11341,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11262,19 +11365,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C14">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F14">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <f>SUM(C14:F14)</f>
@@ -11286,7 +11389,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11306,7 +11409,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11326,7 +11429,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11346,7 +11449,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11366,23 +11469,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C19">
         <f>SUM(C14:C18)</f>
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:F19" si="2">SUM(D14:D18)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -11390,23 +11493,23 @@
         <v>6</v>
       </c>
       <c r="B20" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C20">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D20">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E20">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F20">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <f>SUM(C20:F20)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -11414,7 +11517,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11434,7 +11537,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11454,7 +11557,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11474,7 +11577,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11494,23 +11597,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:F25" si="3">SUM(D20:D24)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -11518,22 +11621,23 @@
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C26">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D26">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E26">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F26">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I26">
-        <v>1236</v>
+        <f>SUM(C26:F26)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11541,7 +11645,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11561,7 +11665,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11581,7 +11685,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11601,7 +11705,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11621,51 +11725,54 @@
         <v>11</v>
       </c>
       <c r="B31" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C31">
-        <v>117</v>
+        <f>SUM(C26:C30)</f>
+        <v>151</v>
       </c>
       <c r="D31">
-        <v>207</v>
+        <f t="shared" ref="D31:F31" si="4">SUM(D26:D30)</f>
+        <v>130</v>
       </c>
       <c r="E31">
-        <v>636</v>
+        <f t="shared" si="4"/>
+        <v>867</v>
       </c>
       <c r="F31">
-        <v>276</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="13">
-        <v>45681</v>
+      <c r="B32" s="5">
+        <v>45688</v>
       </c>
       <c r="C32">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D32">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E32">
-        <v>812</v>
-      </c>
-      <c r="F32" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F32">
+        <v>276</v>
       </c>
       <c r="I32">
-        <f>SUM(C32:H32)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="13">
-        <v>45681</v>
+      <c r="B33" s="5">
+        <v>45688</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11676,7 +11783,7 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33">
         <v>0</v>
       </c>
     </row>
@@ -11684,8 +11791,8 @@
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="13">
-        <v>45681</v>
+      <c r="B34" s="5">
+        <v>45688</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11696,7 +11803,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34">
         <v>0</v>
       </c>
     </row>
@@ -11704,8 +11811,8 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="13">
-        <v>45681</v>
+      <c r="B35" s="5">
+        <v>45688</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11716,7 +11823,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35">
         <v>0</v>
       </c>
     </row>
@@ -11724,8 +11831,8 @@
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="13">
-        <v>45681</v>
+      <c r="B36" s="5">
+        <v>45688</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11736,7 +11843,7 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36">
         <v>0</v>
       </c>
     </row>
@@ -11744,24 +11851,20 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="13">
-        <v>45681</v>
+      <c r="B37" s="5">
+        <v>45688</v>
       </c>
       <c r="C37">
-        <f>SUM(C32:C36)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="4">SUM(D32:D36)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E37">
-        <f>SUM(E32:E36)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37" si="5">SUM(F32:F36)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -11769,23 +11872,23 @@
         <v>6</v>
       </c>
       <c r="B38" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C38">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D38">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E38">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F38" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I38">
         <f>SUM(C38:H38)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11793,7 +11896,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -11813,7 +11916,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -11833,7 +11936,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -11853,7 +11956,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -11873,49 +11976,47 @@
         <v>11</v>
       </c>
       <c r="B43" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="6">SUM(D38:D42)</f>
-        <v>157</v>
+        <f t="shared" ref="D43" si="5">SUM(D38:D42)</f>
+        <v>148</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
+        <v>812</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="6">SUM(F38:F42)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C44">
+        <v>121</v>
+      </c>
+      <c r="D44">
+        <v>157</v>
+      </c>
+      <c r="E44">
         <v>799</v>
       </c>
-      <c r="F43">
-        <f t="shared" ref="F43" si="7">SUM(F38:F42)</f>
+      <c r="F44" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C44" s="19">
-        <v>122</v>
-      </c>
-      <c r="D44" s="19">
-        <v>162</v>
-      </c>
-      <c r="E44" s="19">
-        <v>790</v>
-      </c>
-      <c r="F44" s="21">
-        <v>97</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="23">
+      <c r="I44">
         <f>SUM(C44:H44)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -11923,19 +12024,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -11943,16 +12044,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -11963,19 +12064,19 @@
         <v>9</v>
       </c>
       <c r="B47" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
@@ -11983,73 +12084,69 @@
         <v>10</v>
       </c>
       <c r="B48" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C49">
+        <f>SUM(C44:C48)</f>
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="7">SUM(D44:D48)</f>
+        <v>157</v>
+      </c>
+      <c r="E49">
+        <f>SUM(E44:E48)</f>
+        <v>799</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="8">SUM(F44:F48)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="18">
         <v>45667</v>
       </c>
-      <c r="C48">
-        <v>50</v>
-      </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>79</v>
-      </c>
-      <c r="F48" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C49" s="19">
-        <f>SUM(C44:C48)</f>
-        <v>211</v>
-      </c>
-      <c r="D49" s="19">
-        <f t="shared" ref="D49" si="8">SUM(D44:D48)</f>
-        <v>254</v>
-      </c>
-      <c r="E49" s="19">
-        <f>SUM(E44:E48)</f>
-        <v>944</v>
-      </c>
-      <c r="F49" s="19">
-        <f t="shared" ref="F49" si="9">SUM(F44:F48)</f>
-        <v>431</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="23">
-        <f>SUM(C49:H49)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C50">
-        <v>136</v>
-      </c>
-      <c r="D50">
-        <v>182</v>
-      </c>
-      <c r="E50">
-        <v>695</v>
-      </c>
-      <c r="F50" s="9">
-        <v>165</v>
-      </c>
-      <c r="I50">
+      <c r="C50" s="19">
+        <v>122</v>
+      </c>
+      <c r="D50" s="19">
+        <v>162</v>
+      </c>
+      <c r="E50" s="19">
+        <v>790</v>
+      </c>
+      <c r="F50" s="21">
+        <v>97</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="23">
         <f>SUM(C50:H50)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -12057,7 +12154,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -12077,7 +12174,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -12097,7 +12194,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -12117,7 +12214,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -12133,27 +12230,33 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="A55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C55" s="19">
         <f>SUM(C50:C54)</f>
-        <v>225</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ref="D55" si="10">SUM(D50:D54)</f>
-        <v>274</v>
-      </c>
-      <c r="E55">
+        <v>211</v>
+      </c>
+      <c r="D55" s="19">
+        <f t="shared" ref="D55" si="9">SUM(D50:D54)</f>
+        <v>254</v>
+      </c>
+      <c r="E55" s="19">
         <f>SUM(E50:E54)</f>
-        <v>849</v>
-      </c>
-      <c r="F55">
-        <f t="shared" ref="F55" si="11">SUM(F50:F54)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F55" s="19">
+        <f t="shared" ref="F55" si="10">SUM(F50:F54)</f>
+        <v>431</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="23">
+        <f>SUM(C55:H55)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -12161,23 +12264,23 @@
         <v>6</v>
       </c>
       <c r="B56" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C56">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D56">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E56">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F56" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -12185,7 +12288,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -12205,7 +12308,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -12225,7 +12328,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -12245,7 +12348,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -12265,23 +12368,23 @@
         <v>11</v>
       </c>
       <c r="B61" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C61">
         <f>SUM(C56:C60)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="12">SUM(D56:D60)</f>
-        <v>249</v>
+        <f t="shared" ref="D61" si="11">SUM(D56:D60)</f>
+        <v>274</v>
       </c>
       <c r="E61">
         <f>SUM(E56:E60)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="13">SUM(F56:F60)</f>
-        <v>367</v>
+        <f t="shared" ref="F61" si="12">SUM(F56:F60)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -12289,23 +12392,23 @@
         <v>6</v>
       </c>
       <c r="B62" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C62">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D62">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E62">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F62" s="9">
         <v>33</v>
       </c>
       <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12313,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -12333,7 +12436,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -12353,7 +12456,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -12373,7 +12476,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -12393,22 +12496,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C67">
         <f>SUM(C62:C66)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67" si="14">SUM(D62:D66)</f>
-        <v>253</v>
+        <f t="shared" ref="D67" si="13">SUM(D62:D66)</f>
+        <v>249</v>
       </c>
       <c r="E67">
         <f>SUM(E62:E66)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="15">SUM(F62:F66)</f>
+        <f t="shared" ref="F67" si="14">SUM(F62:F66)</f>
         <v>367</v>
       </c>
     </row>
@@ -12417,23 +12520,23 @@
         <v>6</v>
       </c>
       <c r="B68" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C68">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D68">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E68">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F68" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I68">
         <f>SUM(C68:H68)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12441,7 +12544,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -12461,7 +12564,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C70">
         <v>17</v>
@@ -12481,7 +12584,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -12501,7 +12604,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -12521,23 +12624,23 @@
         <v>11</v>
       </c>
       <c r="B73" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C73">
         <f>SUM(C68:C72)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="16">SUM(D68:D72)</f>
-        <v>289</v>
+        <f t="shared" ref="D73" si="15">SUM(D68:D72)</f>
+        <v>253</v>
       </c>
       <c r="E73">
         <f>SUM(E68:E72)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="17">SUM(F68:F72)</f>
-        <v>433</v>
+        <f t="shared" ref="F73" si="16">SUM(F68:F72)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -12545,23 +12648,23 @@
         <v>6</v>
       </c>
       <c r="B74" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C74">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D74">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E74">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F74" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I74">
         <f>SUM(C74:H74)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12569,7 +12672,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -12589,7 +12692,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C76">
         <v>17</v>
@@ -12609,7 +12712,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -12629,7 +12732,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C78">
         <v>50</v>
@@ -12649,23 +12752,23 @@
         <v>11</v>
       </c>
       <c r="B79" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C79">
         <f>SUM(C74:C78)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="18">SUM(D74:D78)</f>
-        <v>242</v>
+        <f t="shared" ref="D79" si="17">SUM(D74:D78)</f>
+        <v>289</v>
       </c>
       <c r="E79">
         <f>SUM(E74:E78)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="19">SUM(F74:F78)</f>
-        <v>363</v>
+        <f t="shared" ref="F79" si="18">SUM(F74:F78)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -12673,23 +12776,23 @@
         <v>6</v>
       </c>
       <c r="B80" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C80">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D80">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E80">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F80" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I80">
         <f>SUM(C80:H80)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -12697,7 +12800,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -12717,16 +12820,16 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -12737,13 +12840,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>6</v>
@@ -12757,19 +12860,19 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C84">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F84" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
@@ -12777,49 +12880,47 @@
         <v>11</v>
       </c>
       <c r="B85" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="20">SUM(D80:D84)</f>
-        <v>189</v>
+        <f t="shared" ref="D85" si="19">SUM(D80:D84)</f>
+        <v>242</v>
       </c>
       <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="21">SUM(F80:F84)</f>
-        <v>378</v>
+        <f t="shared" ref="F85" si="20">SUM(F80:F84)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="17" t="s">
+      <c r="A86" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C86" s="19">
-        <v>149</v>
-      </c>
-      <c r="D86" s="19">
-        <v>121</v>
-      </c>
-      <c r="E86" s="19">
-        <v>658</v>
-      </c>
-      <c r="F86" s="21">
-        <v>10</v>
-      </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="23">
+      <c r="B86" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C86">
+        <v>164</v>
+      </c>
+      <c r="D86">
+        <v>110</v>
+      </c>
+      <c r="E86">
+        <v>659</v>
+      </c>
+      <c r="F86" s="9">
+        <v>19</v>
+      </c>
+      <c r="I86">
         <f>SUM(C86:H86)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -12827,16 +12928,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>38</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" s="9">
         <v>126</v>
@@ -12847,16 +12948,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E88">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -12867,19 +12968,19 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F89" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
@@ -12887,49 +12988,43 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C90">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="17" t="s">
+      <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C91" s="19">
+      <c r="B91" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>247</v>
-      </c>
-      <c r="D91" s="19">
-        <f t="shared" ref="D91" si="22">SUM(D86:D90)</f>
-        <v>190</v>
-      </c>
-      <c r="E91" s="19">
+        <v>248</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ref="D91" si="21">SUM(D86:D90)</f>
+        <v>189</v>
+      </c>
+      <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>813</v>
-      </c>
-      <c r="F91" s="19">
-        <f t="shared" ref="F91" si="23">SUM(F86:F90)</f>
-        <v>369</v>
-      </c>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="23">
-        <f>SUM(C91:H91)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ref="F91" si="22">SUM(F86:F90)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -12937,25 +13032,25 @@
         <v>6</v>
       </c>
       <c r="B92" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C92" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D92" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E92" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F92" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="22">
+      <c r="I92" s="23">
         <f>SUM(C92:H92)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -12963,16 +13058,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>38</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" s="9">
         <v>126</v>
@@ -12983,16 +13078,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C94">
         <v>19</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -13003,16 +13098,16 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C95">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F95" s="9">
         <v>110</v>
@@ -13023,19 +13118,19 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C96">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F96" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -13043,49 +13138,55 @@
         <v>11</v>
       </c>
       <c r="B97" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C97" s="19">
         <f>SUM(C92:C96)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D97" s="19">
-        <f t="shared" ref="D97" si="24">SUM(D92:D96)</f>
-        <v>161</v>
+        <f t="shared" ref="D97" si="23">SUM(D92:D96)</f>
+        <v>190</v>
       </c>
       <c r="E97" s="19">
         <f>SUM(E92:E96)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F97" s="19">
-        <f t="shared" ref="F97" si="25">SUM(F92:F96)</f>
-        <v>393</v>
+        <f t="shared" ref="F97" si="24">SUM(F92:F96)</f>
+        <v>369</v>
       </c>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="20">
+      <c r="I97" s="23">
         <f>SUM(C97:H97)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+      <c r="A98" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C98">
-        <v>142</v>
-      </c>
-      <c r="D98">
-        <v>124</v>
-      </c>
-      <c r="E98">
-        <v>672</v>
-      </c>
-      <c r="F98" s="9">
-        <v>9</v>
+      <c r="B98" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C98" s="19">
+        <v>148</v>
+      </c>
+      <c r="D98" s="19">
+        <v>99</v>
+      </c>
+      <c r="E98" s="19">
+        <v>665</v>
+      </c>
+      <c r="F98" s="21">
+        <v>12</v>
+      </c>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="22">
+        <f>SUM(C98:H98)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -13093,19 +13194,19 @@
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C99">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E99">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F99" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -13113,13 +13214,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>67</v>
@@ -13133,13 +13234,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D101">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>12</v>
@@ -13153,43 +13254,49 @@
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C102">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F102" s="9">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+      <c r="A103" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C103">
+      <c r="B103" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C103" s="19">
         <f>SUM(C98:C102)</f>
-        <v>239</v>
-      </c>
-      <c r="D103">
-        <f t="shared" ref="D103" si="26">SUM(D98:D102)</f>
-        <v>164</v>
-      </c>
-      <c r="E103">
+        <v>248</v>
+      </c>
+      <c r="D103" s="19">
+        <f t="shared" ref="D103" si="25">SUM(D98:D102)</f>
+        <v>161</v>
+      </c>
+      <c r="E103" s="19">
         <f>SUM(E98:E102)</f>
-        <v>920</v>
-      </c>
-      <c r="F103">
-        <f t="shared" ref="F103" si="27">SUM(F98:F102)</f>
-        <v>304</v>
+        <v>819</v>
+      </c>
+      <c r="F103" s="19">
+        <f t="shared" ref="F103" si="26">SUM(F98:F102)</f>
+        <v>393</v>
+      </c>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="20">
+        <f>SUM(C103:H103)</f>
+        <v>1621</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -13197,19 +13304,19 @@
         <v>6</v>
       </c>
       <c r="B104" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C104">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D104">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E104">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F104" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -13217,19 +13324,19 @@
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D105">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F105" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -13237,16 +13344,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E106">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -13257,19 +13364,19 @@
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C107">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E107">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F107" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -13277,19 +13384,19 @@
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C108">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F108" s="9">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -13297,23 +13404,23 @@
         <v>11</v>
       </c>
       <c r="B109" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="28">SUM(D104:D108)</f>
-        <v>119</v>
+        <f t="shared" ref="D109" si="27">SUM(D104:D108)</f>
+        <v>164</v>
       </c>
       <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="29">SUM(F104:F108)</f>
-        <v>247</v>
+        <f t="shared" ref="F109" si="28">SUM(F104:F108)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -13321,19 +13428,19 @@
         <v>6</v>
       </c>
       <c r="B110" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C110">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D110">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E110">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F110" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -13341,19 +13448,19 @@
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D111">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E111">
         <v>17</v>
       </c>
       <c r="F111" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -13361,16 +13468,16 @@
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
@@ -13381,19 +13488,19 @@
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C113">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F113" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -13401,19 +13508,19 @@
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C114">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E114">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F114" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -13421,23 +13528,23 @@
         <v>11</v>
       </c>
       <c r="B115" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115" si="30">SUM(D110:D114)</f>
-        <v>125</v>
+        <f t="shared" ref="D115" si="29">SUM(D110:D114)</f>
+        <v>119</v>
       </c>
       <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="31">SUM(F110:F114)</f>
-        <v>245</v>
+        <f t="shared" ref="F115" si="30">SUM(F110:F114)</f>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -13445,19 +13552,19 @@
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C116">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D116">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E116">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F116" s="9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -13465,16 +13572,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E117">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F117" s="9">
         <v>88</v>
@@ -13485,13 +13592,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E118">
         <v>77</v>
@@ -13505,19 +13612,19 @@
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C119">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F119" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
@@ -13525,19 +13632,19 @@
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C120">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E120">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F120" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -13545,23 +13652,23 @@
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="32">SUM(D116:D120)</f>
-        <v>92</v>
+        <f t="shared" ref="D121" si="31">SUM(D116:D120)</f>
+        <v>125</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="33">SUM(F116:F120)</f>
-        <v>193</v>
+        <f t="shared" ref="F121" si="32">SUM(F116:F120)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -13569,23 +13676,19 @@
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C122">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D122">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E122">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F122" s="9">
-        <v>3</v>
-      </c>
-      <c r="I122">
-        <f>SUM(C122:H122)</f>
-        <v>907</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -13593,19 +13696,19 @@
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E123">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F123" s="9">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
@@ -13613,16 +13716,16 @@
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
@@ -13633,19 +13736,19 @@
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C125">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E125">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F125" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
@@ -13653,19 +13756,19 @@
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C126">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E126">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F126" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
@@ -13673,23 +13776,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="34">SUM(D122:D126)</f>
-        <v>83</v>
+        <f t="shared" ref="D127" si="33">SUM(D122:D126)</f>
+        <v>92</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="35">SUM(F122:F126)</f>
-        <v>131</v>
+        <f t="shared" ref="F127" si="34">SUM(F122:F126)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -13697,19 +13800,23 @@
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C128">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D128">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E128">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F128" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <f>SUM(C128:H128)</f>
+        <v>907</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
@@ -13717,7 +13824,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C129">
         <v>12</v>
@@ -13737,16 +13844,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C130">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -13757,19 +13864,19 @@
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C131">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F131" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
@@ -13777,19 +13884,19 @@
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C132">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D132">
         <v>8</v>
       </c>
       <c r="E132">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F132" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -13797,23 +13904,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="36">SUM(D128:D132)</f>
-        <v>113</v>
+        <f t="shared" ref="D133" si="35">SUM(D128:D132)</f>
+        <v>83</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="37">SUM(F128:F132)</f>
-        <v>142</v>
+        <f t="shared" ref="F133" si="36">SUM(F128:F132)</f>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -13821,19 +13928,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C134">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D134">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E134">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F134" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -13841,19 +13948,19 @@
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D135">
         <v>7</v>
       </c>
       <c r="E135">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F135" s="9">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
@@ -13861,16 +13968,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E136">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -13881,19 +13988,19 @@
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C137">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D137">
+        <v>11</v>
+      </c>
+      <c r="E137">
+        <v>103</v>
+      </c>
+      <c r="F137" s="9">
         <v>6</v>
-      </c>
-      <c r="E137">
-        <v>46</v>
-      </c>
-      <c r="F137" s="9">
-        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
@@ -13901,19 +14008,19 @@
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C138">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F138" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
@@ -13921,23 +14028,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="38">SUM(D134:D138)</f>
-        <v>118</v>
+        <f t="shared" ref="D139" si="37">SUM(D134:D138)</f>
+        <v>113</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="39">SUM(F134:F138)</f>
-        <v>128</v>
+        <f t="shared" ref="F139" si="38">SUM(F134:F138)</f>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -13945,19 +14052,19 @@
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C140">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D140">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E140">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F140" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -13965,16 +14072,16 @@
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
@@ -13985,13 +14092,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C142">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>77</v>
@@ -14005,19 +14112,19 @@
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C143">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F143" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
@@ -14025,19 +14132,19 @@
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C144">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F144" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
@@ -14045,23 +14152,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="40">SUM(D140:D144)</f>
-        <v>77</v>
+        <f t="shared" ref="D145" si="39">SUM(D140:D144)</f>
+        <v>118</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="41">SUM(F140:F144)</f>
-        <v>83</v>
+        <f t="shared" ref="F145" si="40">SUM(F140:F144)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -14069,23 +14176,19 @@
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C146">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D146">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E146">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F146" s="9">
         <v>2</v>
-      </c>
-      <c r="I146">
-        <f>SUM(C146:H146)</f>
-        <v>863</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
@@ -14093,7 +14196,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -14113,13 +14216,13 @@
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C148">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E148">
         <v>77</v>
@@ -14133,7 +14236,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C149">
         <v>24</v>
@@ -14153,19 +14256,19 @@
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C150">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F150" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
@@ -14173,23 +14276,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="42">SUM(D146:D150)</f>
-        <v>79</v>
+        <f t="shared" ref="D151" si="41">SUM(D146:D150)</f>
+        <v>77</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="43">SUM(F146:F150)</f>
-        <v>73</v>
+        <f t="shared" ref="F151" si="42">SUM(F146:F150)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
@@ -14197,19 +14300,23 @@
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C152">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D152">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E152">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F152" s="9">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <f>SUM(C152:H152)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
@@ -14217,7 +14324,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -14226,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F153" s="9">
         <v>0</v>
@@ -14237,16 +14344,16 @@
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
@@ -14257,16 +14364,16 @@
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C155">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D155">
         <v>7</v>
       </c>
       <c r="E155">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F155" s="9">
         <v>0</v>
@@ -14277,19 +14384,19 @@
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C156">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E156">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F156" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
@@ -14297,23 +14404,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="44">SUM(D152:D156)</f>
-        <v>128</v>
+        <f t="shared" ref="D157" si="43">SUM(D152:D156)</f>
+        <v>79</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="45">SUM(F152:F156)</f>
-        <v>56</v>
+        <f t="shared" ref="F157" si="44">SUM(F152:F156)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
@@ -14321,19 +14428,19 @@
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C158">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D158">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E158">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F158" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
@@ -14341,19 +14448,19 @@
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F159" s="9">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
@@ -14361,487 +14468,487 @@
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C160">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C161">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F161" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F162" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="46">SUM(D158:D162)</f>
-        <v>238</v>
+        <f t="shared" ref="D163" si="45">SUM(D158:D162)</f>
+        <v>128</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="47">SUM(F158:F162)</f>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F163" si="46">SUM(F158:F162)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C164">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E164">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F164" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C165">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E165">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F165" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C166">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D166">
         <v>5</v>
       </c>
       <c r="E166">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C167">
         <v>25</v>
       </c>
       <c r="D167">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F167" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C168">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F168" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="48">SUM(D164:D168)</f>
-        <v>18</v>
+        <f t="shared" ref="D169" si="47">SUM(D164:D168)</f>
+        <v>238</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="49">SUM(F164:F168)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F169" si="48">SUM(F164:F168)</f>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C170">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D170">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F170" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F171" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C172">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F172" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C173">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D173">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F173" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C174">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F174" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="50">SUM(D170:D174)</f>
-        <v>80</v>
+        <f t="shared" ref="D175" si="49">SUM(D170:D174)</f>
+        <v>18</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="51">SUM(F170:F174)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F175" si="50">SUM(F170:F174)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C176">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D176">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E176">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F176" s="9">
         <v>14</v>
       </c>
-      <c r="I176">
-        <f>SUM(C176:H176)</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C178">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D178">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E178">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C179">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E179">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F180" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="52">SUM(D176:D180)</f>
-        <v>102</v>
+        <f t="shared" ref="D181" si="51">SUM(D176:D180)</f>
+        <v>80</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="53">SUM(F176:F180)</f>
+        <f t="shared" ref="F181" si="52">SUM(F176:F180)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C182">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E182">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F182" s="9">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="I182">
+        <f>SUM(C182:H182)</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -14850,18 +14957,18 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F183" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -14876,168 +14983,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C185">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>2</v>
       </c>
       <c r="E186">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F186" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187" si="54">SUM(D182:D186)</f>
-        <v>71</v>
+        <f t="shared" ref="D187" si="53">SUM(D182:D186)</f>
+        <v>102</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="55">SUM(F182:F186)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F187" si="54">SUM(F182:F186)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C188">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D188">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F188" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C189">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C190">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E190">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F192" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -15045,23 +15152,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193" si="56">SUM(D188:D192)</f>
-        <v>77</v>
+        <f t="shared" ref="D193" si="55">SUM(D188:D192)</f>
+        <v>71</v>
       </c>
       <c r="E193">
         <f>SUM(E188:E192)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F193">
-        <f t="shared" ref="F193" si="57">SUM(F188:F192)</f>
-        <v>22</v>
+        <f t="shared" ref="F193" si="56">SUM(F188:F192)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -15069,16 +15176,16 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C194">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D194">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E194">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F194" s="9">
         <v>20</v>
@@ -15089,16 +15196,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
@@ -15109,16 +15216,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C196">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -15129,16 +15236,16 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C197">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F197" s="9">
         <v>0</v>
@@ -15149,16 +15256,16 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F198" s="9">
         <v>2</v>
@@ -15169,22 +15276,22 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199" si="58">SUM(D194:D198)</f>
-        <v>21</v>
+        <f t="shared" ref="D199" si="57">SUM(D194:D198)</f>
+        <v>77</v>
       </c>
       <c r="E199">
         <f>SUM(E194:E198)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F199">
-        <f t="shared" ref="F199" si="59">SUM(F194:F198)</f>
+        <f t="shared" ref="F199" si="58">SUM(F194:F198)</f>
         <v>22</v>
       </c>
     </row>
@@ -15193,16 +15300,16 @@
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C200">
         <v>74</v>
       </c>
       <c r="D200">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E200">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F200" s="9">
         <v>20</v>
@@ -15213,7 +15320,7 @@
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -15222,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
@@ -15233,13 +15340,13 @@
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C202">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>83</v>
@@ -15253,7 +15360,7 @@
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C203">
         <v>10</v>
@@ -15273,7 +15380,7 @@
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C204">
         <v>5</v>
@@ -15293,22 +15400,22 @@
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D205">
-        <f t="shared" ref="D205:F205" si="60">SUM(D200:D204)</f>
-        <v>23</v>
+        <f t="shared" ref="D205" si="59">SUM(D200:D204)</f>
+        <v>21</v>
       </c>
       <c r="E205">
         <f>SUM(E200:E204)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F205">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="F205" si="60">SUM(F200:F204)</f>
         <v>22</v>
       </c>
     </row>
@@ -15317,19 +15424,19 @@
         <v>6</v>
       </c>
       <c r="B206" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C206">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D206">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E206">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F206" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -15337,16 +15444,16 @@
         <v>7</v>
       </c>
       <c r="B207" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F207" s="9">
         <v>0</v>
@@ -15357,16 +15464,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C208">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -15377,16 +15484,16 @@
         <v>9</v>
       </c>
       <c r="B209" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C209">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F209" s="9">
         <v>0</v>
@@ -15397,13 +15504,13 @@
         <v>10</v>
       </c>
       <c r="B210" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C210">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210">
         <v>109</v>
@@ -15417,23 +15524,23 @@
         <v>11</v>
       </c>
       <c r="B211" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:F211" si="61">SUM(D206:D210)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E211">
-        <f t="shared" si="61"/>
-        <v>728</v>
+        <f>SUM(E206:E210)</f>
+        <v>725</v>
       </c>
       <c r="F211">
         <f t="shared" si="61"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
@@ -15441,19 +15548,19 @@
         <v>6</v>
       </c>
       <c r="B212" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C212">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D212">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E212">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F212" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -15461,19 +15568,19 @@
         <v>7</v>
       </c>
       <c r="B213" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F213" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
@@ -15481,16 +15588,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C214">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
@@ -15501,19 +15608,19 @@
         <v>9</v>
       </c>
       <c r="B215" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C215">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F215" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
@@ -15521,19 +15628,19 @@
         <v>10</v>
       </c>
       <c r="B216" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C216">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F216" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
@@ -15541,23 +15648,23 @@
         <v>11</v>
       </c>
       <c r="B217" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D217">
         <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E217">
         <f t="shared" si="62"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F217">
         <f t="shared" si="62"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
@@ -15565,19 +15672,19 @@
         <v>6</v>
       </c>
       <c r="B218" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C218">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D218">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E218">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F218" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -15585,19 +15692,19 @@
         <v>7</v>
       </c>
       <c r="B219" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
@@ -15605,16 +15712,16 @@
         <v>8</v>
       </c>
       <c r="B220" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C220">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -15625,7 +15732,7 @@
         <v>9</v>
       </c>
       <c r="B221" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C221">
         <v>10</v>
@@ -15634,10 +15741,10 @@
         <v>5</v>
       </c>
       <c r="E221">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F221" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
@@ -15645,19 +15752,19 @@
         <v>10</v>
       </c>
       <c r="B222" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C222">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F222" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
@@ -15665,60 +15772,60 @@
         <v>11</v>
       </c>
       <c r="B223" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D223">
         <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E223">
         <f t="shared" si="63"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F223">
         <f t="shared" si="63"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A224" s="14" t="s">
+      <c r="A224" t="s">
         <v>6</v>
       </c>
-      <c r="B224" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C224" s="14">
-        <v>79</v>
-      </c>
-      <c r="D224" s="14">
-        <v>21</v>
-      </c>
-      <c r="E224" s="14">
-        <v>255</v>
-      </c>
-      <c r="F224" s="16">
-        <v>22</v>
+      <c r="B224" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C224">
+        <v>78</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224">
+        <v>245</v>
+      </c>
+      <c r="F224" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>7</v>
       </c>
-      <c r="B225" s="11" t="s">
-        <v>12</v>
+      <c r="B225" s="13">
+        <v>45450</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F225" s="9">
         <v>0</v>
@@ -15728,17 +15835,17 @@
       <c r="A226" t="s">
         <v>8</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>12</v>
+      <c r="B226" s="13">
+        <v>45450</v>
       </c>
       <c r="C226">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
@@ -15748,37 +15855,37 @@
       <c r="A227" t="s">
         <v>9</v>
       </c>
-      <c r="B227" s="11" t="s">
-        <v>12</v>
+      <c r="B227" s="13">
+        <v>45450</v>
       </c>
       <c r="C227">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F227" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>10</v>
       </c>
-      <c r="B228" s="11" t="s">
-        <v>12</v>
+      <c r="B228" s="13">
+        <v>45450</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F228" s="9">
         <v>0</v>
@@ -15788,44 +15895,44 @@
       <c r="A229" t="s">
         <v>11</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>12</v>
+      <c r="B229" s="13">
+        <v>45450</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E229">
         <f t="shared" si="64"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="14">
+        <v>79</v>
+      </c>
+      <c r="D230" s="14">
+        <v>21</v>
+      </c>
+      <c r="E230" s="14">
+        <v>255</v>
+      </c>
+      <c r="F230" s="16">
         <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A230" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C230">
-        <v>69</v>
-      </c>
-      <c r="D230">
-        <v>51</v>
-      </c>
-      <c r="E230">
-        <v>223</v>
-      </c>
-      <c r="F230" s="9">
-        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
@@ -15833,19 +15940,19 @@
         <v>7</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F231" s="9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
@@ -15853,16 +15960,16 @@
         <v>8</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C232">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F232" s="9">
         <v>0</v>
@@ -15873,19 +15980,19 @@
         <v>9</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C233">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F233" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
@@ -15893,16 +16000,16 @@
         <v>10</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D234">
         <v>2</v>
       </c>
       <c r="E234">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F234" s="9">
         <v>0</v>
@@ -15913,23 +16020,23 @@
         <v>11</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E235">
         <f t="shared" si="65"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -15937,19 +16044,19 @@
         <v>6</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C236">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D236">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E236">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F236" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -15957,19 +16064,19 @@
         <v>7</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
+        <v>12</v>
+      </c>
+      <c r="E237">
         <v>1</v>
       </c>
-      <c r="E237">
-        <v>42</v>
-      </c>
       <c r="F237" s="9">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
@@ -15977,16 +16084,16 @@
         <v>8</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C238">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F238" s="9">
         <v>0</v>
@@ -15997,19 +16104,19 @@
         <v>9</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C239">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F239" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -16017,19 +16124,19 @@
         <v>10</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F240" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.45">
@@ -16037,180 +16144,168 @@
         <v>11</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C241">
         <f>SUM(C236:C240)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D241">
         <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E241">
         <f t="shared" si="66"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F241">
         <f t="shared" si="66"/>
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>6</v>
       </c>
-      <c r="B242" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B242" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C242">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E242">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F242" s="9">
-        <v>57</v>
-      </c>
-      <c r="G242" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>7</v>
       </c>
-      <c r="B243" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B243" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243">
         <v>42</v>
       </c>
       <c r="F243" s="9">
-        <v>0</v>
-      </c>
-      <c r="G243" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>8</v>
       </c>
-      <c r="B244" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B244" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C244">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F244" s="9">
         <v>0</v>
       </c>
-      <c r="G244" s="6"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>9</v>
       </c>
-      <c r="B245" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B245" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C245">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F245" s="9">
         <v>0</v>
       </c>
-      <c r="G245" s="6"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>10</v>
       </c>
-      <c r="B246" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B246" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C246">
         <v>3</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E246">
         <v>79</v>
       </c>
       <c r="F246" s="9">
-        <v>0</v>
-      </c>
-      <c r="G246" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>11</v>
       </c>
-      <c r="B247" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B247" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C247">
         <f>SUM(C242:C246)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D247">
         <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E247">
         <f t="shared" si="67"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F247">
         <f t="shared" si="67"/>
-        <v>57</v>
-      </c>
-      <c r="G247" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>6</v>
       </c>
       <c r="B248" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C248">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F248" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G248" s="6"/>
     </row>
@@ -16219,20 +16314,20 @@
         <v>7</v>
       </c>
       <c r="B249" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F249" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G249" s="6"/>
     </row>
@@ -16241,20 +16336,20 @@
         <v>8</v>
       </c>
       <c r="B250" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C250">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F250" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G250" s="6"/>
     </row>
@@ -16263,20 +16358,20 @@
         <v>9</v>
       </c>
       <c r="B251" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C251">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F251" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G251" s="6"/>
     </row>
@@ -16285,20 +16380,20 @@
         <v>10</v>
       </c>
       <c r="B252" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F252" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G252" s="6"/>
     </row>
@@ -16307,178 +16402,314 @@
         <v>11</v>
       </c>
       <c r="B253" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C253">
         <f>SUM(C248:C252)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D253">
         <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E253">
         <f t="shared" si="68"/>
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="F253">
         <f t="shared" si="68"/>
-        <v>324</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G253" s="6"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>6</v>
       </c>
       <c r="B254" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C254">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D254">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="F254" s="9">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G254" s="6"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>7</v>
       </c>
       <c r="B255" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F255" s="9">
         <v>40</v>
       </c>
+      <c r="G255" s="6"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>8</v>
       </c>
       <c r="B256" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C256">
+        <v>18</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>4</v>
+      </c>
+      <c r="F256" s="9">
+        <v>37</v>
+      </c>
+      <c r="G256" s="6"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C257">
+        <v>19</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>9</v>
+      </c>
+      <c r="F257" s="9">
+        <v>85</v>
+      </c>
+      <c r="G257" s="6"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>4</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" s="9">
+        <v>75</v>
+      </c>
+      <c r="G258" s="6"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C259">
+        <f>SUM(C254:C258)</f>
+        <v>110</v>
+      </c>
+      <c r="D259">
+        <f t="shared" ref="D259:F259" si="69">SUM(D254:D258)</f>
+        <v>17</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="69"/>
+        <v>215</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="69"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C256">
-        <v>6</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
-        <v>41</v>
-      </c>
-      <c r="F256" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A257" t="s">
-        <v>9</v>
-      </c>
-      <c r="B257" s="5">
+      <c r="C260">
+        <v>70</v>
+      </c>
+      <c r="D260">
+        <v>15</v>
+      </c>
+      <c r="E260">
+        <v>260</v>
+      </c>
+      <c r="F260" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C257">
-        <v>13</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257">
-        <v>85</v>
-      </c>
-      <c r="F257" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A258" t="s">
-        <v>10</v>
-      </c>
-      <c r="B258" s="5">
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>5</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258">
-        <v>74</v>
-      </c>
-      <c r="F258" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A259" t="s">
-        <v>11</v>
-      </c>
-      <c r="B259" s="5">
+      <c r="C262">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>41</v>
+      </c>
+      <c r="F262" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C259">
-        <f>SUM(C254:C258)</f>
+      <c r="C263">
+        <v>13</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>85</v>
+      </c>
+      <c r="F263" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>74</v>
+      </c>
+      <c r="F264" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C265">
+        <f>SUM(C260:C264)</f>
         <v>91</v>
       </c>
-      <c r="D259">
-        <f t="shared" ref="D259:F259" si="69">SUM(D254:D258)</f>
+      <c r="D265">
+        <f t="shared" ref="D265:F265" si="70">SUM(D260:D264)</f>
         <v>20</v>
       </c>
-      <c r="E259">
-        <f t="shared" si="69"/>
+      <c r="E265">
+        <f t="shared" si="70"/>
         <v>462</v>
       </c>
-      <c r="F259">
-        <f t="shared" si="69"/>
+      <c r="F265">
+        <f t="shared" si="70"/>
         <v>42</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B260" s="11"/>
-      <c r="F260" s="9"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B261" s="11"/>
-      <c r="F261" s="9"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B262" s="11"/>
-      <c r="F262" s="9"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B263" s="11"/>
-      <c r="F263" s="9"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B264" s="11"/>
-      <c r="F264" s="9"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B265" s="11"/>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B266" s="11"/>
+      <c r="F266" s="9"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B267" s="11"/>
+      <c r="F267" s="9"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B268" s="11"/>
+      <c r="F268" s="9"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B269" s="11"/>
+      <c r="F269" s="9"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B270" s="11"/>
+      <c r="F270" s="9"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B271" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16488,11 +16719,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF58"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17121,19 +17352,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C247</f>
+        <f>'Combined PassRates'!C253</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D247</f>
+        <f>'Combined PassRates'!D253</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E247</f>
+        <f>'Combined PassRates'!E253</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F247</f>
+        <f>'Combined PassRates'!F253</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -17148,19 +17379,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C241</f>
+        <f>'Combined PassRates'!C247</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D241</f>
+        <f>'Combined PassRates'!D247</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E241</f>
+        <f>'Combined PassRates'!E247</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F241</f>
+        <f>'Combined PassRates'!F247</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -17221,19 +17452,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C223</f>
+        <f>'Combined PassRates'!C229</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D223</f>
+        <f>'Combined PassRates'!D229</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E223</f>
+        <f>'Combined PassRates'!E229</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F223</f>
+        <f>'Combined PassRates'!F229</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -17248,19 +17479,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C217</f>
+        <f>'Combined PassRates'!C223</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D217</f>
+        <f>'Combined PassRates'!D223</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E217</f>
+        <f>'Combined PassRates'!E223</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F217</f>
+        <f>'Combined PassRates'!F223</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -17275,19 +17506,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C211</f>
+        <f>'Combined PassRates'!C217</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D211</f>
+        <f>'Combined PassRates'!D217</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E211</f>
+        <f>'Combined PassRates'!E217</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F211</f>
+        <f>'Combined PassRates'!F217</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -17302,19 +17533,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C205</f>
+        <f>'Combined PassRates'!C211</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D205</f>
+        <f>'Combined PassRates'!D211</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E205</f>
+        <f>'Combined PassRates'!E211</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F205</f>
+        <f>'Combined PassRates'!F211</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -17329,19 +17560,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -17356,19 +17587,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -17383,19 +17614,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -17410,19 +17641,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -17437,19 +17668,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -17464,19 +17695,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -17491,19 +17722,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -17518,19 +17749,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -17545,19 +17776,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -17572,19 +17803,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -17599,19 +17830,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -17626,19 +17857,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -17653,19 +17884,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -17680,19 +17911,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -17707,19 +17938,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -17734,19 +17965,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -17761,19 +17992,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -17788,19 +18019,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -17815,19 +18046,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -17842,19 +18073,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -17869,19 +18100,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -17896,19 +18127,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -17923,19 +18154,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -17950,19 +18181,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C68</f>
+        <f>'Combined PassRates'!C74</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D68</f>
+        <f>'Combined PassRates'!D74</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E68</f>
+        <f>'Combined PassRates'!E74</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F68</f>
+        <f>'Combined PassRates'!F74</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -17977,19 +18208,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -18004,19 +18235,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -18031,19 +18262,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -18058,19 +18289,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -18085,19 +18316,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -18112,19 +18343,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>151</v>
       </c>
       <c r="C55">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>130</v>
       </c>
       <c r="D55">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>867</v>
       </c>
       <c r="E55">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>49</v>
       </c>
       <c r="F55" s="13">
@@ -18139,19 +18370,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>143</v>
       </c>
       <c r="C56">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>121</v>
       </c>
       <c r="D56">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>900</v>
       </c>
       <c r="E56">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>31</v>
       </c>
       <c r="F56" s="13">
@@ -18166,19 +18397,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>130</v>
       </c>
       <c r="C57">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>122</v>
       </c>
       <c r="D57">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>898</v>
       </c>
       <c r="E57">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>45</v>
       </c>
       <c r="F57" s="13">
@@ -18193,19 +18424,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>140</v>
       </c>
       <c r="C58">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>131</v>
       </c>
       <c r="D58">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>872</v>
       </c>
       <c r="E58">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>48</v>
       </c>
       <c r="F58" s="13">
@@ -18213,6 +18444,33 @@
       </c>
       <c r="G58" s="6" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f>'Combined PassRates'!C7</f>
+        <v>131</v>
+      </c>
+      <c r="C59">
+        <f>'Combined PassRates'!D7</f>
+        <v>136</v>
+      </c>
+      <c r="D59">
+        <f>'Combined PassRates'!E7</f>
+        <v>904</v>
+      </c>
+      <c r="E59">
+        <f>'Combined PassRates'!F7</f>
+        <v>25</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45723</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -18238,11 +18496,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19503,6 +19761,24 @@
         <v>219</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="str">
+        <f>PassRates!G59</f>
+        <v>58 - 07/3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>213</v>
       </c>
     </row>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C42D4-F984-4DD6-A2EB-B03B7F7C2F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BECD9C-CE1F-4CE1-B6FF-6ACDF7D63ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71880" yWindow="-4290" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined PassRates" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,104 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B69677F3-8C75-4F1F-AF3B-B1D75DE3A8BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+120+46+5=171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{13EF740D-A75E-4834-A2CE-29CE956DA842}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+135+5+1=141</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0BEDFE77-1527-4C14-A749-974CEB8DFB66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+436+232+201=869</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{8BA0C554-1F44-4233-85D6-C9A54F567A65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22+9=31</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
       <text>
         <r>
           <rPr>
@@ -71,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
       <text>
         <r>
           <rPr>
@@ -95,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
       <text>
         <r>
           <rPr>
@@ -119,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
       <text>
         <r>
           <rPr>
@@ -143,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
       <text>
         <r>
           <rPr>
@@ -168,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
       <text>
         <r>
           <rPr>
@@ -192,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
       <text>
         <r>
           <rPr>
@@ -216,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
       <text>
         <r>
           <rPr>
@@ -240,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
       <text>
         <r>
           <rPr>
@@ -265,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
       <text>
         <r>
           <rPr>
@@ -289,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
       <text>
         <r>
           <rPr>
@@ -313,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
       <text>
         <r>
           <rPr>
@@ -337,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
       <text>
         <r>
           <rPr>
@@ -362,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
       <text>
         <r>
           <rPr>
@@ -386,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
       <text>
         <r>
           <rPr>
@@ -410,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
       <text>
         <r>
           <rPr>
@@ -434,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -459,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -483,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -507,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -523,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -539,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -555,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -580,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -604,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -628,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -644,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -660,7 +757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -676,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -692,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -716,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -740,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -764,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -780,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -796,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -812,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -828,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -852,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -876,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -900,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -916,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -932,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -948,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -964,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -988,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -1012,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -1220,7 +1317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -1340,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1396,7 +1493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1476,7 +1573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1492,7 +1589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1508,7 +1605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1532,7 +1629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1556,7 +1653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1580,7 +1677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1596,7 +1693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1612,7 +1709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1628,7 +1725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1644,7 +1741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1660,7 +1757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1676,7 +1773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1692,7 +1789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1708,7 +1805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1724,7 +1821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1740,7 +1837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1756,7 +1853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1772,7 +1869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1788,7 +1885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1804,7 +1901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1820,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1836,7 +1933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1852,7 +1949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1868,7 +1965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1884,7 +1981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1900,7 +1997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -1916,7 +2013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -1932,7 +2029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -1948,7 +2045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -1964,7 +2061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -1979,7 +2076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -1995,7 +2092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -2011,7 +2108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -2027,7 +2124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -2042,7 +2139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -2058,7 +2155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -2074,7 +2171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -2090,7 +2187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -2105,7 +2202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -2121,7 +2218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -2137,7 +2234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -2168,7 +2265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -2184,7 +2281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -2200,7 +2297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -2216,7 +2313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -2231,7 +2328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -2247,7 +2344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -2263,7 +2360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -2278,7 +2375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -2293,7 +2390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -2309,7 +2406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -2325,7 +2422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -2340,7 +2437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -2355,7 +2452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -2371,7 +2468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F158" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F164" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2401,7 +2498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C170" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2431,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2446,7 +2543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F164" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F170" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2466,7 +2563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="225">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3446,6 +3543,16 @@
   </si>
   <si>
     <t>IH pass rates at start of March 2025 have remained static at approximately 77%.  The ratio of broken tests in the last week is effectively unaltered.</t>
+  </si>
+  <si>
+    <t>59 - 14/3</t>
+  </si>
+  <si>
+    <t>IH pass rates in mid March 2025 have dropped slightly to approximately 74%.  The ratio of failed tests in the last week has increased slightly,a lthough overall numbers of automated tests have risen.</t>
+  </si>
+  <si>
+    <t>The QA resource profile of the team remains highly unlikely to change before mid Q2 2025, so internal options at improving coverage and pass rates will be the only source of remedial actions.
+The overall pass rates need maintenace to improve, but again this is due to lack of resources to meet this test automation challenge.</t>
   </si>
 </sst>
 </file>
@@ -4829,7 +4936,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$230:$B$230</c:f>
+              <c:f>'Combined PassRates'!$A$236:$B$236</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4943,7 +5050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$230:$F$230</c:f>
+              <c:f>'Combined PassRates'!$C$236:$F$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5110,7 +5217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$231:$B$231</c:f>
+              <c:f>'Combined PassRates'!$A$237:$B$237</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5229,7 +5336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$231:$F$231</c:f>
+              <c:f>'Combined PassRates'!$C$237:$F$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5421,7 +5528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$232:$B$232</c:f>
+              <c:f>'Combined PassRates'!$A$238:$B$238</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5535,7 +5642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$232:$F$232</c:f>
+              <c:f>'Combined PassRates'!$C$238:$F$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5727,7 +5834,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$233:$B$233</c:f>
+              <c:f>'Combined PassRates'!$A$239:$B$239</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5841,7 +5948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$233:$F$233</c:f>
+              <c:f>'Combined PassRates'!$C$239:$F$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6033,7 +6140,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$234:$B$234</c:f>
+              <c:f>'Combined PassRates'!$A$240:$B$240</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6147,7 +6254,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$234:$F$234</c:f>
+              <c:f>'Combined PassRates'!$C$240:$F$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6339,7 +6446,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$235:$B$235</c:f>
+              <c:f>'Combined PassRates'!$A$241:$B$241</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6453,7 +6560,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$235:$F$235</c:f>
+              <c:f>'Combined PassRates'!$C$241:$F$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11069,11 +11176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11109,23 +11216,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
-        <v>1196</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -11133,7 +11240,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11153,7 +11260,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11173,7 +11280,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11193,7 +11300,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11213,23 +11320,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -11237,23 +11344,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E8">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <f>SUM(C8:F8)</f>
-        <v>1191</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -11261,7 +11368,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11281,7 +11388,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11301,7 +11408,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11321,7 +11428,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11341,23 +11448,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11365,23 +11472,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D14">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E14">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F14">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <f>SUM(C14:F14)</f>
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -11389,7 +11496,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11409,7 +11516,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11429,7 +11536,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11449,7 +11556,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11469,23 +11576,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C19">
         <f>SUM(C14:C18)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:F19" si="2">SUM(D14:D18)</f>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -11493,19 +11600,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C20">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D20">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F20">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I20">
         <f>SUM(C20:F20)</f>
@@ -11517,7 +11624,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11537,7 +11644,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11557,7 +11664,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11577,7 +11684,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11597,23 +11704,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:F25" si="3">SUM(D20:D24)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -11621,23 +11728,23 @@
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C26">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D26">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F26">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <f>SUM(C26:F26)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11645,7 +11752,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11665,7 +11772,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11685,7 +11792,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11705,7 +11812,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11725,23 +11832,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C31">
         <f>SUM(C26:C30)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:F31" si="4">SUM(D26:D30)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -11749,22 +11856,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C32">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D32">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E32">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F32">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I32">
-        <v>1236</v>
+        <f>SUM(C32:F32)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11772,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11792,7 +11900,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11812,7 +11920,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11832,7 +11940,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11852,51 +11960,54 @@
         <v>11</v>
       </c>
       <c r="B37" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C37">
-        <v>117</v>
+        <f>SUM(C32:C36)</f>
+        <v>151</v>
       </c>
       <c r="D37">
-        <v>207</v>
+        <f t="shared" ref="D37:F37" si="5">SUM(D32:D36)</f>
+        <v>130</v>
       </c>
       <c r="E37">
-        <v>636</v>
+        <f t="shared" si="5"/>
+        <v>867</v>
       </c>
       <c r="F37">
-        <v>276</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="13">
-        <v>45681</v>
+      <c r="B38" s="5">
+        <v>45688</v>
       </c>
       <c r="C38">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D38">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E38">
-        <v>812</v>
-      </c>
-      <c r="F38" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F38">
+        <v>276</v>
       </c>
       <c r="I38">
-        <f>SUM(C38:H38)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="13">
-        <v>45681</v>
+      <c r="B39" s="5">
+        <v>45688</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -11907,7 +12018,7 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39">
         <v>0</v>
       </c>
     </row>
@@ -11915,8 +12026,8 @@
       <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="13">
-        <v>45681</v>
+      <c r="B40" s="5">
+        <v>45688</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -11927,7 +12038,7 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40">
         <v>0</v>
       </c>
     </row>
@@ -11935,8 +12046,8 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="13">
-        <v>45681</v>
+      <c r="B41" s="5">
+        <v>45688</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -11947,7 +12058,7 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41">
         <v>0</v>
       </c>
     </row>
@@ -11955,8 +12066,8 @@
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="13">
-        <v>45681</v>
+      <c r="B42" s="5">
+        <v>45688</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -11967,7 +12078,7 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42">
         <v>0</v>
       </c>
     </row>
@@ -11975,24 +12086,20 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="13">
-        <v>45681</v>
+      <c r="B43" s="5">
+        <v>45688</v>
       </c>
       <c r="C43">
-        <f>SUM(C38:C42)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="5">SUM(D38:D42)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E43">
-        <f>SUM(E38:E42)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="6">SUM(F38:F42)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -12000,23 +12107,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C44">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D44">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E44">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F44" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I44">
         <f>SUM(C44:H44)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -12024,7 +12131,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -12044,7 +12151,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -12064,7 +12171,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -12084,7 +12191,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -12104,49 +12211,47 @@
         <v>11</v>
       </c>
       <c r="B49" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C49">
         <f>SUM(C44:C48)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="7">SUM(D44:D48)</f>
-        <v>157</v>
+        <f t="shared" ref="D49" si="6">SUM(D44:D48)</f>
+        <v>148</v>
       </c>
       <c r="E49">
         <f>SUM(E44:E48)</f>
+        <v>812</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="7">SUM(F44:F48)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C50">
+        <v>121</v>
+      </c>
+      <c r="D50">
+        <v>157</v>
+      </c>
+      <c r="E50">
         <v>799</v>
       </c>
-      <c r="F49">
-        <f t="shared" ref="F49" si="8">SUM(F44:F48)</f>
+      <c r="F50" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C50" s="19">
-        <v>122</v>
-      </c>
-      <c r="D50" s="19">
-        <v>162</v>
-      </c>
-      <c r="E50" s="19">
-        <v>790</v>
-      </c>
-      <c r="F50" s="21">
-        <v>97</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="23">
+      <c r="I50">
         <f>SUM(C50:H50)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -12154,19 +12259,19 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F51" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
@@ -12174,16 +12279,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -12194,19 +12299,19 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F53" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
@@ -12214,73 +12319,69 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C55">
+        <f>SUM(C50:C54)</f>
+        <v>121</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55" si="8">SUM(D50:D54)</f>
+        <v>157</v>
+      </c>
+      <c r="E55">
+        <f>SUM(E50:E54)</f>
+        <v>799</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="9">SUM(F50:F54)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="18">
         <v>45667</v>
       </c>
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>20</v>
-      </c>
-      <c r="E54">
-        <v>79</v>
-      </c>
-      <c r="F54" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C55" s="19">
-        <f>SUM(C50:C54)</f>
-        <v>211</v>
-      </c>
-      <c r="D55" s="19">
-        <f t="shared" ref="D55" si="9">SUM(D50:D54)</f>
-        <v>254</v>
-      </c>
-      <c r="E55" s="19">
-        <f>SUM(E50:E54)</f>
-        <v>944</v>
-      </c>
-      <c r="F55" s="19">
-        <f t="shared" ref="F55" si="10">SUM(F50:F54)</f>
-        <v>431</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="23">
-        <f>SUM(C55:H55)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C56">
-        <v>136</v>
-      </c>
-      <c r="D56">
-        <v>182</v>
-      </c>
-      <c r="E56">
-        <v>695</v>
-      </c>
-      <c r="F56" s="9">
-        <v>165</v>
-      </c>
-      <c r="I56">
+      <c r="C56" s="19">
+        <v>122</v>
+      </c>
+      <c r="D56" s="19">
+        <v>162</v>
+      </c>
+      <c r="E56" s="19">
+        <v>790</v>
+      </c>
+      <c r="F56" s="21">
+        <v>97</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="23">
         <f>SUM(C56:H56)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -12288,7 +12389,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -12308,7 +12409,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -12328,7 +12429,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -12348,7 +12449,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -12364,27 +12465,33 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="A61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C61" s="19">
         <f>SUM(C56:C60)</f>
-        <v>225</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ref="D61" si="11">SUM(D56:D60)</f>
-        <v>274</v>
-      </c>
-      <c r="E61">
+        <v>211</v>
+      </c>
+      <c r="D61" s="19">
+        <f t="shared" ref="D61" si="10">SUM(D56:D60)</f>
+        <v>254</v>
+      </c>
+      <c r="E61" s="19">
         <f>SUM(E56:E60)</f>
-        <v>849</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ref="F61" si="12">SUM(F56:F60)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F61" s="19">
+        <f t="shared" ref="F61" si="11">SUM(F56:F60)</f>
+        <v>431</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="23">
+        <f>SUM(C61:H61)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -12392,23 +12499,23 @@
         <v>6</v>
       </c>
       <c r="B62" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C62">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D62">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E62">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F62" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12416,7 +12523,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -12436,7 +12543,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -12456,7 +12563,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -12476,7 +12583,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -12496,23 +12603,23 @@
         <v>11</v>
       </c>
       <c r="B67" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C67">
         <f>SUM(C62:C66)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67" si="13">SUM(D62:D66)</f>
-        <v>249</v>
+        <f t="shared" ref="D67" si="12">SUM(D62:D66)</f>
+        <v>274</v>
       </c>
       <c r="E67">
         <f>SUM(E62:E66)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="14">SUM(F62:F66)</f>
-        <v>367</v>
+        <f t="shared" ref="F67" si="13">SUM(F62:F66)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -12520,23 +12627,23 @@
         <v>6</v>
       </c>
       <c r="B68" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C68">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D68">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E68">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F68" s="9">
         <v>33</v>
       </c>
       <c r="I68">
         <f>SUM(C68:H68)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12544,7 +12651,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -12564,7 +12671,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C70">
         <v>17</v>
@@ -12584,7 +12691,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -12604,7 +12711,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -12624,22 +12731,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C73">
         <f>SUM(C68:C72)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="15">SUM(D68:D72)</f>
-        <v>253</v>
+        <f t="shared" ref="D73" si="14">SUM(D68:D72)</f>
+        <v>249</v>
       </c>
       <c r="E73">
         <f>SUM(E68:E72)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="16">SUM(F68:F72)</f>
+        <f t="shared" ref="F73" si="15">SUM(F68:F72)</f>
         <v>367</v>
       </c>
     </row>
@@ -12648,23 +12755,23 @@
         <v>6</v>
       </c>
       <c r="B74" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C74">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D74">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E74">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F74" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I74">
         <f>SUM(C74:H74)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12672,7 +12779,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -12692,7 +12799,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C76">
         <v>17</v>
@@ -12712,7 +12819,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -12732,7 +12839,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C78">
         <v>50</v>
@@ -12752,23 +12859,23 @@
         <v>11</v>
       </c>
       <c r="B79" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C79">
         <f>SUM(C74:C78)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="17">SUM(D74:D78)</f>
-        <v>289</v>
+        <f t="shared" ref="D79" si="16">SUM(D74:D78)</f>
+        <v>253</v>
       </c>
       <c r="E79">
         <f>SUM(E74:E78)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="18">SUM(F74:F78)</f>
-        <v>433</v>
+        <f t="shared" ref="F79" si="17">SUM(F74:F78)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -12776,23 +12883,23 @@
         <v>6</v>
       </c>
       <c r="B80" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C80">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D80">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E80">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F80" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I80">
         <f>SUM(C80:H80)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -12800,7 +12907,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -12820,7 +12927,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C82">
         <v>17</v>
@@ -12840,7 +12947,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C83">
         <v>10</v>
@@ -12860,7 +12967,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C84">
         <v>50</v>
@@ -12880,23 +12987,23 @@
         <v>11</v>
       </c>
       <c r="B85" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="19">SUM(D80:D84)</f>
-        <v>242</v>
+        <f t="shared" ref="D85" si="18">SUM(D80:D84)</f>
+        <v>289</v>
       </c>
       <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="20">SUM(F80:F84)</f>
-        <v>363</v>
+        <f t="shared" ref="F85" si="19">SUM(F80:F84)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -12904,23 +13011,23 @@
         <v>6</v>
       </c>
       <c r="B86" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C86">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D86">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E86">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F86" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I86">
         <f>SUM(C86:H86)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -12928,7 +13035,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -12948,16 +13055,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -12968,13 +13075,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>6</v>
@@ -12988,19 +13095,19 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C90">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E90">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F90" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
@@ -13008,49 +13115,47 @@
         <v>11</v>
       </c>
       <c r="B91" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="21">SUM(D86:D90)</f>
-        <v>189</v>
+        <f t="shared" ref="D91" si="20">SUM(D86:D90)</f>
+        <v>242</v>
       </c>
       <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="22">SUM(F86:F90)</f>
-        <v>378</v>
+        <f t="shared" ref="F91" si="21">SUM(F86:F90)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="17" t="s">
+      <c r="A92" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C92" s="19">
-        <v>149</v>
-      </c>
-      <c r="D92" s="19">
-        <v>121</v>
-      </c>
-      <c r="E92" s="19">
-        <v>658</v>
-      </c>
-      <c r="F92" s="21">
-        <v>10</v>
-      </c>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="23">
+      <c r="B92" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C92">
+        <v>164</v>
+      </c>
+      <c r="D92">
+        <v>110</v>
+      </c>
+      <c r="E92">
+        <v>659</v>
+      </c>
+      <c r="F92" s="9">
+        <v>19</v>
+      </c>
+      <c r="I92">
         <f>SUM(C92:H92)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -13058,16 +13163,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C93">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>38</v>
       </c>
       <c r="E93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F93" s="9">
         <v>126</v>
@@ -13078,16 +13183,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -13098,19 +13203,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F95" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
@@ -13118,49 +13223,43 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C96">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F96" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="17" t="s">
+      <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C97" s="19">
+      <c r="B97" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>247</v>
-      </c>
-      <c r="D97" s="19">
-        <f t="shared" ref="D97" si="23">SUM(D92:D96)</f>
-        <v>190</v>
-      </c>
-      <c r="E97" s="19">
+        <v>248</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97" si="22">SUM(D92:D96)</f>
+        <v>189</v>
+      </c>
+      <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>813</v>
-      </c>
-      <c r="F97" s="19">
-        <f t="shared" ref="F97" si="24">SUM(F92:F96)</f>
-        <v>369</v>
-      </c>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="23">
-        <f>SUM(C97:H97)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ref="F97" si="23">SUM(F92:F96)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -13168,25 +13267,25 @@
         <v>6</v>
       </c>
       <c r="B98" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C98" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D98" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E98" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F98" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="22">
+      <c r="I98" s="23">
         <f>SUM(C98:H98)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -13194,16 +13293,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99">
         <v>38</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" s="9">
         <v>126</v>
@@ -13214,16 +13313,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C100">
         <v>19</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
@@ -13234,16 +13333,16 @@
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F101" s="9">
         <v>110</v>
@@ -13254,19 +13353,19 @@
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C102">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F102" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -13274,49 +13373,55 @@
         <v>11</v>
       </c>
       <c r="B103" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C103" s="19">
         <f>SUM(C98:C102)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D103" s="19">
-        <f t="shared" ref="D103" si="25">SUM(D98:D102)</f>
-        <v>161</v>
+        <f t="shared" ref="D103" si="24">SUM(D98:D102)</f>
+        <v>190</v>
       </c>
       <c r="E103" s="19">
         <f>SUM(E98:E102)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F103" s="19">
-        <f t="shared" ref="F103" si="26">SUM(F98:F102)</f>
-        <v>393</v>
+        <f t="shared" ref="F103" si="25">SUM(F98:F102)</f>
+        <v>369</v>
       </c>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="20">
+      <c r="I103" s="23">
         <f>SUM(C103:H103)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+      <c r="A104" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C104">
-        <v>142</v>
-      </c>
-      <c r="D104">
-        <v>124</v>
-      </c>
-      <c r="E104">
-        <v>672</v>
-      </c>
-      <c r="F104" s="9">
-        <v>9</v>
+      <c r="B104" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C104" s="19">
+        <v>148</v>
+      </c>
+      <c r="D104" s="19">
+        <v>99</v>
+      </c>
+      <c r="E104" s="19">
+        <v>665</v>
+      </c>
+      <c r="F104" s="21">
+        <v>12</v>
+      </c>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="22">
+        <f>SUM(C104:H104)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -13324,19 +13429,19 @@
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C105">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E105">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F105" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -13344,13 +13449,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D106">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E106">
         <v>67</v>
@@ -13364,13 +13469,13 @@
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D107">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E107">
         <v>12</v>
@@ -13384,43 +13489,49 @@
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C108">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F108" s="9">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+      <c r="A109" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C109">
+      <c r="B109" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C109" s="19">
         <f>SUM(C104:C108)</f>
-        <v>239</v>
-      </c>
-      <c r="D109">
-        <f t="shared" ref="D109" si="27">SUM(D104:D108)</f>
-        <v>164</v>
-      </c>
-      <c r="E109">
+        <v>248</v>
+      </c>
+      <c r="D109" s="19">
+        <f t="shared" ref="D109" si="26">SUM(D104:D108)</f>
+        <v>161</v>
+      </c>
+      <c r="E109" s="19">
         <f>SUM(E104:E108)</f>
-        <v>920</v>
-      </c>
-      <c r="F109">
-        <f t="shared" ref="F109" si="28">SUM(F104:F108)</f>
-        <v>304</v>
+        <v>819</v>
+      </c>
+      <c r="F109" s="19">
+        <f t="shared" ref="F109" si="27">SUM(F104:F108)</f>
+        <v>393</v>
+      </c>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="20">
+        <f>SUM(C109:H109)</f>
+        <v>1621</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -13428,19 +13539,19 @@
         <v>6</v>
       </c>
       <c r="B110" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C110">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D110">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E110">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F110" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -13448,19 +13559,19 @@
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D111">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F111" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -13468,261 +13579,261 @@
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C113">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F113" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C114">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F114" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115" si="29">SUM(D110:D114)</f>
-        <v>119</v>
+        <f t="shared" ref="D115" si="28">SUM(D110:D114)</f>
+        <v>164</v>
       </c>
       <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="30">SUM(F110:F114)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F115" si="29">SUM(F110:F114)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C116">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D116">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E116">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F116" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C117">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D117">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E117">
         <v>17</v>
       </c>
       <c r="F117" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C119">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F119" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C120">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D120">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F120" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="31">SUM(D116:D120)</f>
-        <v>125</v>
+        <f t="shared" ref="D121" si="30">SUM(D116:D120)</f>
+        <v>119</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="32">SUM(F116:F120)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F121" si="31">SUM(F116:F120)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C122">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D122">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E122">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F122" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E123">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F123" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E124">
         <v>77</v>
@@ -13731,224 +13842,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C125">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F125" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C126">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E126">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F126" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="33">SUM(D122:D126)</f>
-        <v>92</v>
+        <f t="shared" ref="D127" si="32">SUM(D122:D126)</f>
+        <v>125</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="34">SUM(F122:F126)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F127" si="33">SUM(F122:F126)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C128">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D128">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E128">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F128" s="9">
-        <v>3</v>
-      </c>
-      <c r="I128">
-        <f>SUM(C128:H128)</f>
-        <v>907</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E129">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F129" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C131">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F131" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C132">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E132">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F132" s="9">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="35">SUM(D128:D132)</f>
-        <v>83</v>
+        <f t="shared" ref="D133" si="34">SUM(D128:D132)</f>
+        <v>92</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="36">SUM(F128:F132)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F133" si="35">SUM(F128:F132)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C134">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D134">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E134">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F134" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I134">
+        <f>SUM(C134:H134)</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C135">
         <v>12</v>
@@ -13963,188 +14074,188 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C136">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C137">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D137">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F137" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C138">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D138">
         <v>8</v>
       </c>
       <c r="E138">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F138" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="37">SUM(D134:D138)</f>
-        <v>113</v>
+        <f t="shared" ref="D139" si="36">SUM(D134:D138)</f>
+        <v>83</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="38">SUM(F134:F138)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F139" si="37">SUM(F134:F138)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C140">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D140">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E140">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F140" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D141">
         <v>7</v>
       </c>
       <c r="E141">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F141" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E142">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C143">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D143">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>103</v>
+      </c>
+      <c r="F143" s="9">
         <v>6</v>
       </c>
-      <c r="E143">
-        <v>46</v>
-      </c>
-      <c r="F143" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C144">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F144" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
@@ -14152,23 +14263,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="39">SUM(D140:D144)</f>
-        <v>118</v>
+        <f t="shared" ref="D145" si="38">SUM(D140:D144)</f>
+        <v>113</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="40">SUM(F140:F144)</f>
-        <v>128</v>
+        <f t="shared" ref="F145" si="39">SUM(F140:F144)</f>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -14176,19 +14287,19 @@
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C146">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D146">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E146">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F146" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
@@ -14196,16 +14307,16 @@
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F147" s="9">
         <v>0</v>
@@ -14216,13 +14327,13 @@
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>77</v>
@@ -14236,19 +14347,19 @@
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C149">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F149" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
@@ -14256,19 +14367,19 @@
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C150">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F150" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
@@ -14276,23 +14387,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="41">SUM(D146:D150)</f>
-        <v>77</v>
+        <f t="shared" ref="D151" si="40">SUM(D146:D150)</f>
+        <v>118</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="42">SUM(F146:F150)</f>
-        <v>83</v>
+        <f t="shared" ref="F151" si="41">SUM(F146:F150)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
@@ -14300,23 +14411,19 @@
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C152">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D152">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E152">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F152" s="9">
         <v>2</v>
-      </c>
-      <c r="I152">
-        <f>SUM(C152:H152)</f>
-        <v>863</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
@@ -14324,7 +14431,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -14344,13 +14451,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C154">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E154">
         <v>77</v>
@@ -14364,7 +14471,7 @@
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C155">
         <v>24</v>
@@ -14384,19 +14491,19 @@
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C156">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D156">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F156" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
@@ -14404,23 +14511,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="43">SUM(D152:D156)</f>
-        <v>79</v>
+        <f t="shared" ref="D157" si="42">SUM(D152:D156)</f>
+        <v>77</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="44">SUM(F152:F156)</f>
-        <v>73</v>
+        <f t="shared" ref="F157" si="43">SUM(F152:F156)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
@@ -14428,19 +14535,23 @@
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C158">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D158">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E158">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F158" s="9">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <f>SUM(C158:H158)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
@@ -14448,7 +14559,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -14457,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
@@ -14468,16 +14579,16 @@
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C160">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
@@ -14488,16 +14599,16 @@
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C161">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D161">
         <v>7</v>
       </c>
       <c r="E161">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F161" s="9">
         <v>0</v>
@@ -14508,19 +14619,19 @@
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C162">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E162">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F162" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
@@ -14528,23 +14639,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="45">SUM(D158:D162)</f>
-        <v>128</v>
+        <f t="shared" ref="D163" si="44">SUM(D158:D162)</f>
+        <v>79</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="46">SUM(F158:F162)</f>
-        <v>56</v>
+        <f t="shared" ref="F163" si="45">SUM(F158:F162)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -14552,19 +14663,19 @@
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C164">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D164">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E164">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F164" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
@@ -14572,19 +14683,19 @@
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F165" s="9">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
@@ -14592,16 +14703,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C166">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
@@ -14612,19 +14723,19 @@
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C167">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F167" s="9">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
@@ -14632,19 +14743,19 @@
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E168">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F168" s="9">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
@@ -14652,23 +14763,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="47">SUM(D164:D168)</f>
-        <v>238</v>
+        <f t="shared" ref="D169" si="46">SUM(D164:D168)</f>
+        <v>128</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="48">SUM(F164:F168)</f>
-        <v>572</v>
+        <f t="shared" ref="F169" si="47">SUM(F164:F168)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -14676,19 +14787,19 @@
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C170">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E170">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F170" s="9">
-        <v>121</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
@@ -14696,19 +14807,19 @@
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C171">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E171">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F171" s="9">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
@@ -14716,16 +14827,16 @@
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C172">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D172">
         <v>5</v>
       </c>
       <c r="E172">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F172" s="9">
         <v>0</v>
@@ -14736,19 +14847,19 @@
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C173">
         <v>25</v>
       </c>
       <c r="D173">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F173" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
@@ -14756,16 +14867,16 @@
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C174">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F174" s="9">
         <v>0</v>
@@ -14776,23 +14887,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="49">SUM(D170:D174)</f>
-        <v>18</v>
+        <f t="shared" ref="D175" si="48">SUM(D170:D174)</f>
+        <v>238</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="50">SUM(F170:F174)</f>
-        <v>122</v>
+        <f t="shared" ref="F175" si="49">SUM(F170:F174)</f>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -14800,19 +14911,19 @@
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C176">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D176">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F176" s="9">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.45">
@@ -14820,19 +14931,19 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.45">
@@ -14840,16 +14951,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C178">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D178">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E178">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
@@ -14860,16 +14971,16 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C179">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D179">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
@@ -14880,16 +14991,16 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C180">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F180" s="9">
         <v>0</v>
@@ -14900,23 +15011,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="51">SUM(D176:D180)</f>
-        <v>80</v>
+        <f t="shared" ref="D181" si="50">SUM(D176:D180)</f>
+        <v>18</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="52">SUM(F176:F180)</f>
-        <v>14</v>
+        <f t="shared" ref="F181" si="51">SUM(F176:F180)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.45">
@@ -14924,23 +15035,19 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C182">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D182">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E182">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F182" s="9">
         <v>14</v>
-      </c>
-      <c r="I182">
-        <f>SUM(C182:H182)</f>
-        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.45">
@@ -14948,16 +15055,16 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E183">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F183" s="9">
         <v>0</v>
@@ -14968,16 +15075,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C184">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D184">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E184">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -14988,16 +15095,16 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C185">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E185">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
@@ -15008,16 +15115,16 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D186">
         <v>2</v>
       </c>
       <c r="E186">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F186" s="9">
         <v>0</v>
@@ -15028,22 +15135,22 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187" si="53">SUM(D182:D186)</f>
-        <v>102</v>
+        <f t="shared" ref="D187" si="52">SUM(D182:D186)</f>
+        <v>80</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="54">SUM(F182:F186)</f>
+        <f t="shared" ref="F187" si="53">SUM(F182:F186)</f>
         <v>14</v>
       </c>
     </row>
@@ -15052,19 +15159,23 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C188">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E188">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F188" s="9">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="I188">
+        <f>SUM(C188:H188)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.45">
@@ -15072,7 +15183,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -15081,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
@@ -15092,7 +15203,7 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C190">
         <v>8</v>
@@ -15112,16 +15223,16 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C191">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
@@ -15132,19 +15243,19 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>2</v>
       </c>
       <c r="E192">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F192" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -15152,23 +15263,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193" si="55">SUM(D188:D192)</f>
-        <v>71</v>
+        <f t="shared" ref="D193" si="54">SUM(D188:D192)</f>
+        <v>102</v>
       </c>
       <c r="E193">
         <f>SUM(E188:E192)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F193">
-        <f t="shared" ref="F193" si="56">SUM(F188:F192)</f>
-        <v>125</v>
+        <f t="shared" ref="F193" si="55">SUM(F188:F192)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -15176,19 +15287,19 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C194">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D194">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F194" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -15196,16 +15307,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C195">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
@@ -15216,16 +15327,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E196">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -15236,16 +15347,16 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C197">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F197" s="9">
         <v>0</v>
@@ -15256,19 +15367,19 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F198" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -15276,23 +15387,23 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199" si="57">SUM(D194:D198)</f>
-        <v>77</v>
+        <f t="shared" ref="D199" si="56">SUM(D194:D198)</f>
+        <v>71</v>
       </c>
       <c r="E199">
         <f>SUM(E194:E198)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F199">
-        <f t="shared" ref="F199" si="58">SUM(F194:F198)</f>
-        <v>22</v>
+        <f t="shared" ref="F199" si="57">SUM(F194:F198)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -15300,16 +15411,16 @@
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C200">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D200">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E200">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F200" s="9">
         <v>20</v>
@@ -15320,16 +15431,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
@@ -15340,16 +15451,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C202">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -15360,16 +15471,16 @@
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F203" s="9">
         <v>0</v>
@@ -15380,16 +15491,16 @@
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F204" s="9">
         <v>2</v>
@@ -15400,22 +15511,22 @@
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D205">
-        <f t="shared" ref="D205" si="59">SUM(D200:D204)</f>
-        <v>21</v>
+        <f t="shared" ref="D205" si="58">SUM(D200:D204)</f>
+        <v>77</v>
       </c>
       <c r="E205">
         <f>SUM(E200:E204)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F205">
-        <f t="shared" ref="F205" si="60">SUM(F200:F204)</f>
+        <f t="shared" ref="F205" si="59">SUM(F200:F204)</f>
         <v>22</v>
       </c>
     </row>
@@ -15424,16 +15535,16 @@
         <v>6</v>
       </c>
       <c r="B206" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C206">
         <v>74</v>
       </c>
       <c r="D206">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E206">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F206" s="9">
         <v>20</v>
@@ -15444,7 +15555,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -15453,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F207" s="9">
         <v>0</v>
@@ -15464,13 +15575,13 @@
         <v>8</v>
       </c>
       <c r="B208" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C208">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>83</v>
@@ -15484,7 +15595,7 @@
         <v>9</v>
       </c>
       <c r="B209" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C209">
         <v>10</v>
@@ -15504,7 +15615,7 @@
         <v>10</v>
       </c>
       <c r="B210" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -15524,22 +15635,22 @@
         <v>11</v>
       </c>
       <c r="B211" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D211">
-        <f t="shared" ref="D211:F211" si="61">SUM(D206:D210)</f>
-        <v>23</v>
+        <f t="shared" ref="D211" si="60">SUM(D206:D210)</f>
+        <v>21</v>
       </c>
       <c r="E211">
         <f>SUM(E206:E210)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F211">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="F211" si="61">SUM(F206:F210)</f>
         <v>22</v>
       </c>
     </row>
@@ -15548,19 +15659,19 @@
         <v>6</v>
       </c>
       <c r="B212" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C212">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D212">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E212">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F212" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -15568,16 +15679,16 @@
         <v>7</v>
       </c>
       <c r="B213" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F213" s="9">
         <v>0</v>
@@ -15588,16 +15699,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C214">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
@@ -15608,16 +15719,16 @@
         <v>9</v>
       </c>
       <c r="B215" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F215" s="9">
         <v>0</v>
@@ -15628,13 +15739,13 @@
         <v>10</v>
       </c>
       <c r="B216" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C216">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
         <v>109</v>
@@ -15648,23 +15759,23 @@
         <v>11</v>
       </c>
       <c r="B217" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D217">
         <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E217">
-        <f t="shared" si="62"/>
-        <v>728</v>
+        <f>SUM(E212:E216)</f>
+        <v>725</v>
       </c>
       <c r="F217">
         <f t="shared" si="62"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
@@ -15672,19 +15783,19 @@
         <v>6</v>
       </c>
       <c r="B218" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C218">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D218">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E218">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F218" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -15692,19 +15803,19 @@
         <v>7</v>
       </c>
       <c r="B219" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F219" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
@@ -15712,16 +15823,16 @@
         <v>8</v>
       </c>
       <c r="B220" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C220">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -15732,19 +15843,19 @@
         <v>9</v>
       </c>
       <c r="B221" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F221" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
@@ -15752,19 +15863,19 @@
         <v>10</v>
       </c>
       <c r="B222" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C222">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F222" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
@@ -15772,23 +15883,23 @@
         <v>11</v>
       </c>
       <c r="B223" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D223">
         <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E223">
         <f t="shared" si="63"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F223">
         <f t="shared" si="63"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
@@ -15796,19 +15907,19 @@
         <v>6</v>
       </c>
       <c r="B224" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C224">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D224">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E224">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F224" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
@@ -15816,19 +15927,19 @@
         <v>7</v>
       </c>
       <c r="B225" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F225" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
@@ -15836,16 +15947,16 @@
         <v>8</v>
       </c>
       <c r="B226" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C226">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E226">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
@@ -15856,7 +15967,7 @@
         <v>9</v>
       </c>
       <c r="B227" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C227">
         <v>10</v>
@@ -15865,10 +15976,10 @@
         <v>5</v>
       </c>
       <c r="E227">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F227" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
@@ -15876,19 +15987,19 @@
         <v>10</v>
       </c>
       <c r="B228" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C228">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F228" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
@@ -15896,60 +16007,60 @@
         <v>11</v>
       </c>
       <c r="B229" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E229">
         <f t="shared" si="64"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A230" s="14" t="s">
+      <c r="A230" t="s">
         <v>6</v>
       </c>
-      <c r="B230" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C230" s="14">
-        <v>79</v>
-      </c>
-      <c r="D230" s="14">
-        <v>21</v>
-      </c>
-      <c r="E230" s="14">
-        <v>255</v>
-      </c>
-      <c r="F230" s="16">
-        <v>22</v>
+      <c r="B230" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C230">
+        <v>78</v>
+      </c>
+      <c r="D230">
+        <v>31</v>
+      </c>
+      <c r="E230">
+        <v>245</v>
+      </c>
+      <c r="F230" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>7</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>12</v>
+      <c r="B231" s="13">
+        <v>45450</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F231" s="9">
         <v>0</v>
@@ -15959,17 +16070,17 @@
       <c r="A232" t="s">
         <v>8</v>
       </c>
-      <c r="B232" s="11" t="s">
-        <v>12</v>
+      <c r="B232" s="13">
+        <v>45450</v>
       </c>
       <c r="C232">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F232" s="9">
         <v>0</v>
@@ -15979,37 +16090,37 @@
       <c r="A233" t="s">
         <v>9</v>
       </c>
-      <c r="B233" s="11" t="s">
-        <v>12</v>
+      <c r="B233" s="13">
+        <v>45450</v>
       </c>
       <c r="C233">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E233">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F233" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>10</v>
       </c>
-      <c r="B234" s="11" t="s">
-        <v>12</v>
+      <c r="B234" s="13">
+        <v>45450</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F234" s="9">
         <v>0</v>
@@ -16019,44 +16130,44 @@
       <c r="A235" t="s">
         <v>11</v>
       </c>
-      <c r="B235" s="11" t="s">
-        <v>12</v>
+      <c r="B235" s="13">
+        <v>45450</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E235">
         <f t="shared" si="65"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="14">
+        <v>79</v>
+      </c>
+      <c r="D236" s="14">
+        <v>21</v>
+      </c>
+      <c r="E236" s="14">
+        <v>255</v>
+      </c>
+      <c r="F236" s="16">
         <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A236" t="s">
-        <v>6</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C236">
-        <v>69</v>
-      </c>
-      <c r="D236">
-        <v>51</v>
-      </c>
-      <c r="E236">
-        <v>223</v>
-      </c>
-      <c r="F236" s="9">
-        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -16064,19 +16175,19 @@
         <v>7</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F237" s="9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
@@ -16084,16 +16195,16 @@
         <v>8</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C238">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F238" s="9">
         <v>0</v>
@@ -16104,19 +16215,19 @@
         <v>9</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C239">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F239" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -16124,16 +16235,16 @@
         <v>10</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D240">
         <v>2</v>
       </c>
       <c r="E240">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F240" s="9">
         <v>0</v>
@@ -16144,23 +16255,23 @@
         <v>11</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C241">
         <f>SUM(C236:C240)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D241">
         <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E241">
         <f t="shared" si="66"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F241">
         <f t="shared" si="66"/>
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.45">
@@ -16168,19 +16279,19 @@
         <v>6</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C242">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D242">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E242">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F242" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.45">
@@ -16188,19 +16299,19 @@
         <v>7</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
+        <v>12</v>
+      </c>
+      <c r="E243">
         <v>1</v>
       </c>
-      <c r="E243">
-        <v>42</v>
-      </c>
       <c r="F243" s="9">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.45">
@@ -16208,16 +16319,16 @@
         <v>8</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C244">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F244" s="9">
         <v>0</v>
@@ -16228,19 +16339,19 @@
         <v>9</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F245" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.45">
@@ -16248,19 +16359,19 @@
         <v>10</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F246" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.45">
@@ -16268,180 +16379,168 @@
         <v>11</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C247">
         <f>SUM(C242:C246)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D247">
         <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E247">
         <f t="shared" si="67"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F247">
         <f t="shared" si="67"/>
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>6</v>
       </c>
-      <c r="B248" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B248" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C248">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D248">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E248">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F248" s="9">
-        <v>57</v>
-      </c>
-      <c r="G248" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>7</v>
       </c>
-      <c r="B249" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B249" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249">
         <v>42</v>
       </c>
       <c r="F249" s="9">
-        <v>0</v>
-      </c>
-      <c r="G249" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>8</v>
       </c>
-      <c r="B250" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B250" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C250">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F250" s="9">
         <v>0</v>
       </c>
-      <c r="G250" s="6"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>9</v>
       </c>
-      <c r="B251" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B251" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C251">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F251" s="9">
         <v>0</v>
       </c>
-      <c r="G251" s="6"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>10</v>
       </c>
-      <c r="B252" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B252" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C252">
         <v>3</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E252">
         <v>79</v>
       </c>
       <c r="F252" s="9">
-        <v>0</v>
-      </c>
-      <c r="G252" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>11</v>
       </c>
-      <c r="B253" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B253" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C253">
         <f>SUM(C248:C252)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D253">
         <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E253">
         <f t="shared" si="68"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F253">
         <f t="shared" si="68"/>
-        <v>57</v>
-      </c>
-      <c r="G253" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>6</v>
       </c>
       <c r="B254" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C254">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F254" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -16450,20 +16549,20 @@
         <v>7</v>
       </c>
       <c r="B255" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F255" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G255" s="6"/>
     </row>
@@ -16472,20 +16571,20 @@
         <v>8</v>
       </c>
       <c r="B256" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C256">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F256" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G256" s="6"/>
     </row>
@@ -16494,20 +16593,20 @@
         <v>9</v>
       </c>
       <c r="B257" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C257">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F257" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G257" s="6"/>
     </row>
@@ -16516,20 +16615,20 @@
         <v>10</v>
       </c>
       <c r="B258" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D258">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F258" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G258" s="6"/>
     </row>
@@ -16538,178 +16637,314 @@
         <v>11</v>
       </c>
       <c r="B259" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C259">
         <f>SUM(C254:C258)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D259">
         <f t="shared" ref="D259:F259" si="69">SUM(D254:D258)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E259">
         <f t="shared" si="69"/>
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="F259">
         <f t="shared" si="69"/>
-        <v>324</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G259" s="6"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>6</v>
       </c>
       <c r="B260" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C260">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D260">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E260">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="F260" s="9">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G260" s="6"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>7</v>
       </c>
       <c r="B261" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F261" s="9">
         <v>40</v>
       </c>
+      <c r="G261" s="6"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>8</v>
       </c>
       <c r="B262" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C262">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F262" s="9">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G262" s="6"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>9</v>
       </c>
       <c r="B263" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C263">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E263">
+        <v>9</v>
+      </c>
+      <c r="F263" s="9">
         <v>85</v>
       </c>
-      <c r="F263" s="9">
-        <v>0</v>
-      </c>
+      <c r="G263" s="6"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>10</v>
       </c>
       <c r="B264" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E264">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F264" s="9">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G264" s="6"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>11</v>
       </c>
       <c r="B265" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C265">
+        <f>SUM(C260:C264)</f>
+        <v>110</v>
+      </c>
+      <c r="D265">
+        <f t="shared" ref="D265:F265" si="70">SUM(D260:D264)</f>
+        <v>17</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="70"/>
+        <v>215</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="70"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C265">
-        <f>SUM(C260:C264)</f>
+      <c r="C266">
+        <v>70</v>
+      </c>
+      <c r="D266">
+        <v>15</v>
+      </c>
+      <c r="E266">
+        <v>260</v>
+      </c>
+      <c r="F266" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>5</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C268">
+        <v>6</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>41</v>
+      </c>
+      <c r="F268" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C269">
+        <v>13</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>85</v>
+      </c>
+      <c r="F269" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>74</v>
+      </c>
+      <c r="F270" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C271">
+        <f>SUM(C266:C270)</f>
         <v>91</v>
       </c>
-      <c r="D265">
-        <f t="shared" ref="D265:F265" si="70">SUM(D260:D264)</f>
+      <c r="D271">
+        <f t="shared" ref="D271:F271" si="71">SUM(D266:D270)</f>
         <v>20</v>
       </c>
-      <c r="E265">
-        <f t="shared" si="70"/>
+      <c r="E271">
+        <f t="shared" si="71"/>
         <v>462</v>
       </c>
-      <c r="F265">
-        <f t="shared" si="70"/>
+      <c r="F271">
+        <f t="shared" si="71"/>
         <v>42</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B266" s="11"/>
-      <c r="F266" s="9"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B267" s="11"/>
-      <c r="F267" s="9"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B268" s="11"/>
-      <c r="F268" s="9"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B269" s="11"/>
-      <c r="F269" s="9"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B270" s="11"/>
-      <c r="F270" s="9"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B271" s="11"/>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B272" s="11"/>
+      <c r="F272" s="9"/>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B273" s="11"/>
+      <c r="F273" s="9"/>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B274" s="11"/>
+      <c r="F274" s="9"/>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B275" s="11"/>
+      <c r="F275" s="9"/>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B276" s="11"/>
+      <c r="F276" s="9"/>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B277" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16719,11 +16954,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17352,19 +17587,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C253</f>
+        <f>'Combined PassRates'!C259</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D253</f>
+        <f>'Combined PassRates'!D259</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E253</f>
+        <f>'Combined PassRates'!E259</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F253</f>
+        <f>'Combined PassRates'!F259</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -17379,19 +17614,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C247</f>
+        <f>'Combined PassRates'!C253</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D247</f>
+        <f>'Combined PassRates'!D253</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E247</f>
+        <f>'Combined PassRates'!E253</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F247</f>
+        <f>'Combined PassRates'!F253</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -17452,19 +17687,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C229</f>
+        <f>'Combined PassRates'!C235</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D229</f>
+        <f>'Combined PassRates'!D235</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E229</f>
+        <f>'Combined PassRates'!E235</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F229</f>
+        <f>'Combined PassRates'!F235</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -17479,19 +17714,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C223</f>
+        <f>'Combined PassRates'!C229</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D223</f>
+        <f>'Combined PassRates'!D229</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E223</f>
+        <f>'Combined PassRates'!E229</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F223</f>
+        <f>'Combined PassRates'!F229</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -17506,19 +17741,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C217</f>
+        <f>'Combined PassRates'!C223</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D217</f>
+        <f>'Combined PassRates'!D223</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E217</f>
+        <f>'Combined PassRates'!E223</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F217</f>
+        <f>'Combined PassRates'!F223</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -17533,19 +17768,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C211</f>
+        <f>'Combined PassRates'!C217</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D211</f>
+        <f>'Combined PassRates'!D217</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E211</f>
+        <f>'Combined PassRates'!E217</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F211</f>
+        <f>'Combined PassRates'!F217</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -17560,19 +17795,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C205</f>
+        <f>'Combined PassRates'!C211</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D205</f>
+        <f>'Combined PassRates'!D211</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E205</f>
+        <f>'Combined PassRates'!E211</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F205</f>
+        <f>'Combined PassRates'!F211</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -17587,19 +17822,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -17614,19 +17849,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -17641,19 +17876,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -17668,19 +17903,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -17695,19 +17930,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -17722,19 +17957,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -17749,19 +17984,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -17776,19 +18011,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -17803,19 +18038,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -17830,19 +18065,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -17857,19 +18092,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -17884,19 +18119,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -17911,19 +18146,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -17938,19 +18173,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -17965,19 +18200,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -17992,19 +18227,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -18019,19 +18254,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -18046,19 +18281,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -18073,19 +18308,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -18100,19 +18335,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -18127,19 +18362,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -18154,19 +18389,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -18181,19 +18416,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C74</f>
+        <f>'Combined PassRates'!C80</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D74</f>
+        <f>'Combined PassRates'!D80</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E74</f>
+        <f>'Combined PassRates'!E80</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F74</f>
+        <f>'Combined PassRates'!F80</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -18208,19 +18443,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -18235,19 +18470,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -18262,19 +18497,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -18289,19 +18524,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -18316,19 +18551,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -18343,19 +18578,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>151</v>
       </c>
       <c r="C55">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>130</v>
       </c>
       <c r="D55">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>867</v>
       </c>
       <c r="E55">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>49</v>
       </c>
       <c r="F55" s="13">
@@ -18370,19 +18605,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>143</v>
       </c>
       <c r="C56">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>121</v>
       </c>
       <c r="D56">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>900</v>
       </c>
       <c r="E56">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>31</v>
       </c>
       <c r="F56" s="13">
@@ -18397,19 +18632,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>130</v>
       </c>
       <c r="C57">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>122</v>
       </c>
       <c r="D57">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>898</v>
       </c>
       <c r="E57">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>45</v>
       </c>
       <c r="F57" s="13">
@@ -18424,19 +18659,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>140</v>
       </c>
       <c r="C58">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>131</v>
       </c>
       <c r="D58">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>872</v>
       </c>
       <c r="E58">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>48</v>
       </c>
       <c r="F58" s="13">
@@ -18451,19 +18686,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>131</v>
       </c>
       <c r="C59">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>136</v>
       </c>
       <c r="D59">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>904</v>
       </c>
       <c r="E59">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>25</v>
       </c>
       <c r="F59" s="13">
@@ -18471,6 +18706,33 @@
       </c>
       <c r="G59" s="6" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f>'Combined PassRates'!C7</f>
+        <v>171</v>
+      </c>
+      <c r="C60">
+        <f>'Combined PassRates'!D7</f>
+        <v>141</v>
+      </c>
+      <c r="D60">
+        <f>'Combined PassRates'!E7</f>
+        <v>869</v>
+      </c>
+      <c r="E60">
+        <f>'Combined PassRates'!F7</f>
+        <v>38</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45730</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -18496,11 +18758,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19780,6 +20042,24 @@
       </c>
       <c r="E59" s="1" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="str">
+        <f>PassRates!G60</f>
+        <v>59 - 14/3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BECD9C-CE1F-4CE1-B6FF-6ACDF7D63ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDA84C-D57B-4E83-A037-C8BD827F1805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71880" yWindow="-4290" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined PassRates" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,104 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B69677F3-8C75-4F1F-AF3B-B1D75DE3A8BC}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{1A3555B2-C6C8-4F52-B6F3-21753623CBA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+134+42+7=171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{18F42F9C-9DF7-492A-801F-078A4FE2A1D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+106+10+2=119</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C70BA727-6F02-43CE-AA99-1662461F4295}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+406+215+196=869</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{C2E86458-5627-4964-A222-913F6A6BACCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+103+19=122</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B69677F3-8C75-4F1F-AF3B-B1D75DE3A8BC}">
       <text>
         <r>
           <rPr>
@@ -71,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{13EF740D-A75E-4834-A2CE-29CE956DA842}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{13EF740D-A75E-4834-A2CE-29CE956DA842}">
       <text>
         <r>
           <rPr>
@@ -95,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0BEDFE77-1527-4C14-A749-974CEB8DFB66}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{0BEDFE77-1527-4C14-A749-974CEB8DFB66}">
       <text>
         <r>
           <rPr>
@@ -119,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{8BA0C554-1F44-4233-85D6-C9A54F567A65}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{8BA0C554-1F44-4233-85D6-C9A54F567A65}">
       <text>
         <r>
           <rPr>
@@ -143,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
       <text>
         <r>
           <rPr>
@@ -168,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
       <text>
         <r>
           <rPr>
@@ -192,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
       <text>
         <r>
           <rPr>
@@ -216,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
       <text>
         <r>
           <rPr>
@@ -240,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
       <text>
         <r>
           <rPr>
@@ -265,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
       <text>
         <r>
           <rPr>
@@ -289,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
       <text>
         <r>
           <rPr>
@@ -313,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
       <text>
         <r>
           <rPr>
@@ -337,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
       <text>
         <r>
           <rPr>
@@ -362,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
       <text>
         <r>
           <rPr>
@@ -386,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
       <text>
         <r>
           <rPr>
@@ -410,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
       <text>
         <r>
           <rPr>
@@ -434,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
       <text>
         <r>
           <rPr>
@@ -459,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
       <text>
         <r>
           <rPr>
@@ -483,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
       <text>
         <r>
           <rPr>
@@ -507,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
       <text>
         <r>
           <rPr>
@@ -531,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -556,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -580,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -604,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -620,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -636,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -652,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -677,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -701,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -725,7 +822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -741,7 +838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -757,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -773,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -789,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -813,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -837,7 +934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -861,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -877,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -893,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -909,7 +1006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -925,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -949,7 +1046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -973,7 +1070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -997,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -1197,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -1269,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -1301,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -1317,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -1357,7 +1454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -1381,7 +1478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -1421,7 +1518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -1437,7 +1534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -1469,7 +1566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1493,7 +1590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1517,7 +1614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1541,7 +1638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1573,7 +1670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1589,7 +1686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F92" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C96" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1677,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1693,7 +1790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1709,7 +1806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1725,7 +1822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1757,7 +1854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1773,7 +1870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1789,7 +1886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1805,7 +1902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1821,7 +1918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1837,7 +1934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1869,7 +1966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1885,7 +1982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1901,7 +1998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -1917,7 +2014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -1933,7 +2030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -1949,7 +2046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -1965,7 +2062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -1981,7 +2078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -1997,7 +2094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -2013,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -2029,7 +2126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -2045,7 +2142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -2061,7 +2158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -2076,7 +2173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -2092,7 +2189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -2108,7 +2205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -2124,7 +2221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -2139,7 +2236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -2155,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -2171,7 +2268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -2187,7 +2284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -2202,7 +2299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -2218,7 +2315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -2234,7 +2331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -2250,7 +2347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -2265,7 +2362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -2313,7 +2410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -2328,7 +2425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -2344,7 +2441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -2360,7 +2457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -2375,7 +2472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E162" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -2390,7 +2487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -2406,7 +2503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -2422,7 +2519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -2437,7 +2534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C170" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -2452,7 +2549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -2468,7 +2565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -2483,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F164" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F170" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2498,7 +2595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C170" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C176" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2513,7 +2610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D176" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E176" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2543,7 +2640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F170" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F176" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2563,7 +2660,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="227">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3548,11 +3645,17 @@
     <t>59 - 14/3</t>
   </si>
   <si>
-    <t>IH pass rates in mid March 2025 have dropped slightly to approximately 74%.  The ratio of failed tests in the last week has increased slightly,a lthough overall numbers of automated tests have risen.</t>
-  </si>
-  <si>
     <t>The QA resource profile of the team remains highly unlikely to change before mid Q2 2025, so internal options at improving coverage and pass rates will be the only source of remedial actions.
 The overall pass rates need maintenace to improve, but again this is due to lack of resources to meet this test automation challenge.</t>
+  </si>
+  <si>
+    <t>60 - 21/3</t>
+  </si>
+  <si>
+    <t>IH pass rates in mid March 2025 have dropped slightly to approximately 74%.  The ratio of failed tests in the last week has increased slightly, although overall numbers of automated tests have risen.</t>
+  </si>
+  <si>
+    <t>IH pass rates in late March 2025 has dropped to approximately 66%.  This is largely because of an increase in tests that could not be run because of environment issues, although overall numbers of automated tests have risen very slightly.</t>
   </si>
 </sst>
 </file>
@@ -4936,7 +5039,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$236:$B$236</c:f>
+              <c:f>'Combined PassRates'!$A$242:$B$242</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5050,7 +5153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$236:$F$236</c:f>
+              <c:f>'Combined PassRates'!$C$242:$F$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5217,7 +5320,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$237:$B$237</c:f>
+              <c:f>'Combined PassRates'!$A$243:$B$243</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5336,7 +5439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$237:$F$237</c:f>
+              <c:f>'Combined PassRates'!$C$243:$F$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5528,7 +5631,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$238:$B$238</c:f>
+              <c:f>'Combined PassRates'!$A$244:$B$244</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5642,7 +5745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$238:$F$238</c:f>
+              <c:f>'Combined PassRates'!$C$244:$F$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5834,7 +5937,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$239:$B$239</c:f>
+              <c:f>'Combined PassRates'!$A$245:$B$245</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5948,7 +6051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$239:$F$239</c:f>
+              <c:f>'Combined PassRates'!$C$245:$F$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6140,7 +6243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$240:$B$240</c:f>
+              <c:f>'Combined PassRates'!$A$246:$B$246</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6254,7 +6357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$240:$F$240</c:f>
+              <c:f>'Combined PassRates'!$C$246:$F$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6446,7 +6549,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$241:$B$241</c:f>
+              <c:f>'Combined PassRates'!$A$247:$B$247</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6560,7 +6663,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$241:$F$241</c:f>
+              <c:f>'Combined PassRates'!$C$247:$F$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11176,11 +11279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I277"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11216,23 +11319,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C2">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
-        <v>1219</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -11240,7 +11343,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11260,7 +11363,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11280,7 +11383,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11300,7 +11403,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11320,23 +11423,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -11344,23 +11447,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E8">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <f>SUM(C8:F8)</f>
-        <v>1196</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -11368,7 +11471,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11388,7 +11491,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11408,7 +11511,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11428,7 +11531,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11448,23 +11551,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11472,23 +11575,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C14">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D14">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E14">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F14">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <f>SUM(C14:F14)</f>
-        <v>1191</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -11496,7 +11599,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11516,7 +11619,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11536,7 +11639,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11556,7 +11659,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11576,23 +11679,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C19">
         <f>SUM(C14:C18)</f>
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:F19" si="2">SUM(D14:D18)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -11600,23 +11703,23 @@
         <v>6</v>
       </c>
       <c r="B20" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C20">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D20">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E20">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I20">
         <f>SUM(C20:F20)</f>
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -11624,7 +11727,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11644,7 +11747,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11664,7 +11767,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11684,7 +11787,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11704,23 +11807,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:F25" si="3">SUM(D20:D24)</f>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -11728,19 +11831,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C26">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D26">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F26">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I26">
         <f>SUM(C26:F26)</f>
@@ -11752,7 +11855,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11772,7 +11875,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11792,7 +11895,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11812,7 +11915,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11832,23 +11935,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C31">
         <f>SUM(C26:C30)</f>
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:F31" si="4">SUM(D26:D30)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -11856,23 +11959,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C32">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D32">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E32">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F32">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I32">
         <f>SUM(C32:F32)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11880,7 +11983,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11900,7 +12003,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11920,7 +12023,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11940,7 +12043,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11960,23 +12063,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C37">
         <f>SUM(C32:C36)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:F37" si="5">SUM(D32:D36)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -11984,22 +12087,23 @@
         <v>6</v>
       </c>
       <c r="B38" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C38">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D38">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E38">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F38">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I38">
-        <v>1236</v>
+        <f>SUM(C38:F38)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -12007,7 +12111,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -12027,7 +12131,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -12047,7 +12151,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -12067,7 +12171,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -12087,51 +12191,54 @@
         <v>11</v>
       </c>
       <c r="B43" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C43">
-        <v>117</v>
+        <f>SUM(C38:C42)</f>
+        <v>151</v>
       </c>
       <c r="D43">
-        <v>207</v>
+        <f t="shared" ref="D43:F43" si="6">SUM(D38:D42)</f>
+        <v>130</v>
       </c>
       <c r="E43">
-        <v>636</v>
+        <f t="shared" si="6"/>
+        <v>867</v>
       </c>
       <c r="F43">
-        <v>276</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="13">
-        <v>45681</v>
+      <c r="B44" s="5">
+        <v>45688</v>
       </c>
       <c r="C44">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D44">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E44">
-        <v>812</v>
-      </c>
-      <c r="F44" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F44">
+        <v>276</v>
       </c>
       <c r="I44">
-        <f>SUM(C44:H44)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="13">
-        <v>45681</v>
+      <c r="B45" s="5">
+        <v>45688</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -12142,7 +12249,7 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45">
         <v>0</v>
       </c>
     </row>
@@ -12150,8 +12257,8 @@
       <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="13">
-        <v>45681</v>
+      <c r="B46" s="5">
+        <v>45688</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -12162,7 +12269,7 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46">
         <v>0</v>
       </c>
     </row>
@@ -12170,8 +12277,8 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="13">
-        <v>45681</v>
+      <c r="B47" s="5">
+        <v>45688</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -12182,7 +12289,7 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47">
         <v>0</v>
       </c>
     </row>
@@ -12190,8 +12297,8 @@
       <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="13">
-        <v>45681</v>
+      <c r="B48" s="5">
+        <v>45688</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -12202,7 +12309,7 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48">
         <v>0</v>
       </c>
     </row>
@@ -12210,24 +12317,20 @@
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="13">
-        <v>45681</v>
+      <c r="B49" s="5">
+        <v>45688</v>
       </c>
       <c r="C49">
-        <f>SUM(C44:C48)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="6">SUM(D44:D48)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E49">
-        <f>SUM(E44:E48)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="7">SUM(F44:F48)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -12235,23 +12338,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C50">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D50">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E50">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F50" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I50">
         <f>SUM(C50:H50)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -12259,7 +12362,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -12279,7 +12382,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -12299,7 +12402,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -12319,7 +12422,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -12339,49 +12442,47 @@
         <v>11</v>
       </c>
       <c r="B55" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C55">
         <f>SUM(C50:C54)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="8">SUM(D50:D54)</f>
-        <v>157</v>
+        <f t="shared" ref="D55" si="7">SUM(D50:D54)</f>
+        <v>148</v>
       </c>
       <c r="E55">
         <f>SUM(E50:E54)</f>
+        <v>812</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="8">SUM(F50:F54)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C56">
+        <v>121</v>
+      </c>
+      <c r="D56">
+        <v>157</v>
+      </c>
+      <c r="E56">
         <v>799</v>
       </c>
-      <c r="F55">
-        <f t="shared" ref="F55" si="9">SUM(F50:F54)</f>
+      <c r="F56" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C56" s="19">
-        <v>122</v>
-      </c>
-      <c r="D56" s="19">
-        <v>162</v>
-      </c>
-      <c r="E56" s="19">
-        <v>790</v>
-      </c>
-      <c r="F56" s="21">
-        <v>97</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="23">
+      <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -12389,19 +12490,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F57" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
@@ -12409,16 +12510,16 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
@@ -12429,19 +12530,19 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F59" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
@@ -12449,73 +12550,69 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C61">
+        <f>SUM(C56:C60)</f>
+        <v>121</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61" si="9">SUM(D56:D60)</f>
+        <v>157</v>
+      </c>
+      <c r="E61">
+        <f>SUM(E56:E60)</f>
+        <v>799</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="10">SUM(F56:F60)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="18">
         <v>45667</v>
       </c>
-      <c r="C60">
-        <v>50</v>
-      </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
-      <c r="E60">
-        <v>79</v>
-      </c>
-      <c r="F60" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C61" s="19">
-        <f>SUM(C56:C60)</f>
-        <v>211</v>
-      </c>
-      <c r="D61" s="19">
-        <f t="shared" ref="D61" si="10">SUM(D56:D60)</f>
-        <v>254</v>
-      </c>
-      <c r="E61" s="19">
-        <f>SUM(E56:E60)</f>
-        <v>944</v>
-      </c>
-      <c r="F61" s="19">
-        <f t="shared" ref="F61" si="11">SUM(F56:F60)</f>
-        <v>431</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="23">
-        <f>SUM(C61:H61)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C62">
-        <v>136</v>
-      </c>
-      <c r="D62">
-        <v>182</v>
-      </c>
-      <c r="E62">
-        <v>695</v>
-      </c>
-      <c r="F62" s="9">
-        <v>165</v>
-      </c>
-      <c r="I62">
+      <c r="C62" s="19">
+        <v>122</v>
+      </c>
+      <c r="D62" s="19">
+        <v>162</v>
+      </c>
+      <c r="E62" s="19">
+        <v>790</v>
+      </c>
+      <c r="F62" s="21">
+        <v>97</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="23">
         <f>SUM(C62:H62)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12523,7 +12620,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -12543,7 +12640,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -12563,7 +12660,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -12583,7 +12680,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -12599,27 +12696,33 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="A67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C67">
+      <c r="B67" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C67" s="19">
         <f>SUM(C62:C66)</f>
-        <v>225</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67" si="12">SUM(D62:D66)</f>
-        <v>274</v>
-      </c>
-      <c r="E67">
+        <v>211</v>
+      </c>
+      <c r="D67" s="19">
+        <f t="shared" ref="D67" si="11">SUM(D62:D66)</f>
+        <v>254</v>
+      </c>
+      <c r="E67" s="19">
         <f>SUM(E62:E66)</f>
-        <v>849</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67" si="13">SUM(F62:F66)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F67" s="19">
+        <f t="shared" ref="F67" si="12">SUM(F62:F66)</f>
+        <v>431</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="23">
+        <f>SUM(C67:H67)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -12627,23 +12730,23 @@
         <v>6</v>
       </c>
       <c r="B68" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C68">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D68">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E68">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F68" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I68">
         <f>SUM(C68:H68)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12651,7 +12754,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -12671,7 +12774,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C70">
         <v>17</v>
@@ -12691,7 +12794,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -12711,7 +12814,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -12731,23 +12834,23 @@
         <v>11</v>
       </c>
       <c r="B73" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C73">
         <f>SUM(C68:C72)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="14">SUM(D68:D72)</f>
-        <v>249</v>
+        <f t="shared" ref="D73" si="13">SUM(D68:D72)</f>
+        <v>274</v>
       </c>
       <c r="E73">
         <f>SUM(E68:E72)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="15">SUM(F68:F72)</f>
-        <v>367</v>
+        <f t="shared" ref="F73" si="14">SUM(F68:F72)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -12755,23 +12858,23 @@
         <v>6</v>
       </c>
       <c r="B74" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C74">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D74">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E74">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F74" s="9">
         <v>33</v>
       </c>
       <c r="I74">
         <f>SUM(C74:H74)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12779,7 +12882,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -12799,7 +12902,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C76">
         <v>17</v>
@@ -12819,7 +12922,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -12839,7 +12942,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C78">
         <v>50</v>
@@ -12859,22 +12962,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C79">
         <f>SUM(C74:C78)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="16">SUM(D74:D78)</f>
-        <v>253</v>
+        <f t="shared" ref="D79" si="15">SUM(D74:D78)</f>
+        <v>249</v>
       </c>
       <c r="E79">
         <f>SUM(E74:E78)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="17">SUM(F74:F78)</f>
+        <f t="shared" ref="F79" si="16">SUM(F74:F78)</f>
         <v>367</v>
       </c>
     </row>
@@ -12883,23 +12986,23 @@
         <v>6</v>
       </c>
       <c r="B80" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C80">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D80">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E80">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F80" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I80">
         <f>SUM(C80:H80)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -12907,7 +13010,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -12927,7 +13030,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C82">
         <v>17</v>
@@ -12947,7 +13050,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C83">
         <v>10</v>
@@ -12967,7 +13070,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C84">
         <v>50</v>
@@ -12987,23 +13090,23 @@
         <v>11</v>
       </c>
       <c r="B85" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="18">SUM(D80:D84)</f>
-        <v>289</v>
+        <f t="shared" ref="D85" si="17">SUM(D80:D84)</f>
+        <v>253</v>
       </c>
       <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="19">SUM(F80:F84)</f>
-        <v>433</v>
+        <f t="shared" ref="F85" si="18">SUM(F80:F84)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -13011,23 +13114,23 @@
         <v>6</v>
       </c>
       <c r="B86" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C86">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D86">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E86">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F86" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I86">
         <f>SUM(C86:H86)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -13035,7 +13138,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -13055,7 +13158,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -13075,7 +13178,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -13095,7 +13198,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C90">
         <v>50</v>
@@ -13115,23 +13218,23 @@
         <v>11</v>
       </c>
       <c r="B91" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="20">SUM(D86:D90)</f>
-        <v>242</v>
+        <f t="shared" ref="D91" si="19">SUM(D86:D90)</f>
+        <v>289</v>
       </c>
       <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="21">SUM(F86:F90)</f>
-        <v>363</v>
+        <f t="shared" ref="F91" si="20">SUM(F86:F90)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -13139,23 +13242,23 @@
         <v>6</v>
       </c>
       <c r="B92" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C92">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D92">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E92">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F92" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I92">
         <f>SUM(C92:H92)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -13163,7 +13266,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -13183,16 +13286,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -13203,13 +13306,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -13223,19 +13326,19 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C96">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F96" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -13243,49 +13346,47 @@
         <v>11</v>
       </c>
       <c r="B97" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="22">SUM(D92:D96)</f>
-        <v>189</v>
+        <f t="shared" ref="D97" si="21">SUM(D92:D96)</f>
+        <v>242</v>
       </c>
       <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="23">SUM(F92:F96)</f>
-        <v>378</v>
+        <f t="shared" ref="F97" si="22">SUM(F92:F96)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" s="17" t="s">
+      <c r="A98" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C98" s="19">
-        <v>149</v>
-      </c>
-      <c r="D98" s="19">
-        <v>121</v>
-      </c>
-      <c r="E98" s="19">
-        <v>658</v>
-      </c>
-      <c r="F98" s="21">
-        <v>10</v>
-      </c>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="23">
+      <c r="B98" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C98">
+        <v>164</v>
+      </c>
+      <c r="D98">
+        <v>110</v>
+      </c>
+      <c r="E98">
+        <v>659</v>
+      </c>
+      <c r="F98" s="9">
+        <v>19</v>
+      </c>
+      <c r="I98">
         <f>SUM(C98:H98)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -13293,16 +13394,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>38</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="9">
         <v>126</v>
@@ -13313,16 +13414,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C100">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E100">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
@@ -13333,19 +13434,19 @@
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C101">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F101" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -13353,49 +13454,43 @@
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C102">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F102" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="17" t="s">
+      <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C103" s="19">
+      <c r="B103" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>247</v>
-      </c>
-      <c r="D103" s="19">
-        <f t="shared" ref="D103" si="24">SUM(D98:D102)</f>
-        <v>190</v>
-      </c>
-      <c r="E103" s="19">
+        <v>248</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="D103" si="23">SUM(D98:D102)</f>
+        <v>189</v>
+      </c>
+      <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>813</v>
-      </c>
-      <c r="F103" s="19">
-        <f t="shared" ref="F103" si="25">SUM(F98:F102)</f>
-        <v>369</v>
-      </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="23">
-        <f>SUM(C103:H103)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ref="F103" si="24">SUM(F98:F102)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -13403,25 +13498,25 @@
         <v>6</v>
       </c>
       <c r="B104" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C104" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D104" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E104" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F104" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="22">
+      <c r="I104" s="23">
         <f>SUM(C104:H104)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -13429,16 +13524,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105">
         <v>38</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F105" s="9">
         <v>126</v>
@@ -13449,16 +13544,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C106">
         <v>19</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E106">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -13469,16 +13564,16 @@
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C107">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F107" s="9">
         <v>110</v>
@@ -13489,19 +13584,19 @@
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C108">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F108" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -13509,49 +13604,55 @@
         <v>11</v>
       </c>
       <c r="B109" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C109" s="19">
         <f>SUM(C104:C108)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D109" s="19">
-        <f t="shared" ref="D109" si="26">SUM(D104:D108)</f>
-        <v>161</v>
+        <f t="shared" ref="D109" si="25">SUM(D104:D108)</f>
+        <v>190</v>
       </c>
       <c r="E109" s="19">
         <f>SUM(E104:E108)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F109" s="19">
-        <f t="shared" ref="F109" si="27">SUM(F104:F108)</f>
-        <v>393</v>
+        <f t="shared" ref="F109" si="26">SUM(F104:F108)</f>
+        <v>369</v>
       </c>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="20">
+      <c r="I109" s="23">
         <f>SUM(C109:H109)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+      <c r="A110" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C110">
-        <v>142</v>
-      </c>
-      <c r="D110">
-        <v>124</v>
-      </c>
-      <c r="E110">
-        <v>672</v>
-      </c>
-      <c r="F110" s="9">
-        <v>9</v>
+      <c r="B110" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C110" s="19">
+        <v>148</v>
+      </c>
+      <c r="D110" s="19">
+        <v>99</v>
+      </c>
+      <c r="E110" s="19">
+        <v>665</v>
+      </c>
+      <c r="F110" s="21">
+        <v>12</v>
+      </c>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="22">
+        <f>SUM(C110:H110)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -13559,19 +13660,19 @@
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C111">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E111">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F111" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -13579,13 +13680,13 @@
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E112">
         <v>67</v>
@@ -13594,18 +13695,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E113">
         <v>12</v>
@@ -13614,316 +13715,322 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C114">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F114" s="9">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C115">
+      <c r="B115" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C115" s="19">
         <f>SUM(C110:C114)</f>
-        <v>239</v>
-      </c>
-      <c r="D115">
-        <f t="shared" ref="D115" si="28">SUM(D110:D114)</f>
-        <v>164</v>
-      </c>
-      <c r="E115">
+        <v>248</v>
+      </c>
+      <c r="D115" s="19">
+        <f t="shared" ref="D115" si="27">SUM(D110:D114)</f>
+        <v>161</v>
+      </c>
+      <c r="E115" s="19">
         <f>SUM(E110:E114)</f>
-        <v>920</v>
-      </c>
-      <c r="F115">
-        <f t="shared" ref="F115" si="29">SUM(F110:F114)</f>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+        <v>819</v>
+      </c>
+      <c r="F115" s="19">
+        <f t="shared" ref="F115" si="28">SUM(F110:F114)</f>
+        <v>393</v>
+      </c>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="20">
+        <f>SUM(C115:H115)</f>
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C116">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D116">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E116">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F116" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C117">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D117">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F117" s="9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C119">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F119" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C120">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F120" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C121">
         <f>SUM(C116:C120)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121" si="30">SUM(D116:D120)</f>
-        <v>119</v>
+        <f t="shared" ref="D121" si="29">SUM(D116:D120)</f>
+        <v>164</v>
       </c>
       <c r="E121">
         <f>SUM(E116:E120)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="31">SUM(F116:F120)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F121" si="30">SUM(F116:F120)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C122">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D122">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E122">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F122" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C123">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D123">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E123">
         <v>17</v>
       </c>
       <c r="F123" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C125">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F125" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C126">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D126">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E126">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F126" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="32">SUM(D122:D126)</f>
-        <v>125</v>
+        <f t="shared" ref="D127" si="31">SUM(D122:D126)</f>
+        <v>119</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="33">SUM(F122:F126)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F127" si="32">SUM(F122:F126)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C128">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D128">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E128">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F128" s="9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
@@ -13931,16 +14038,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D129">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E129">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F129" s="9">
         <v>88</v>
@@ -13951,13 +14058,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E130">
         <v>77</v>
@@ -13971,19 +14078,19 @@
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C131">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F131" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
@@ -13991,19 +14098,19 @@
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C132">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E132">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F132" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
@@ -14011,23 +14118,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="34">SUM(D128:D132)</f>
-        <v>92</v>
+        <f t="shared" ref="D133" si="33">SUM(D128:D132)</f>
+        <v>125</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="35">SUM(F128:F132)</f>
-        <v>193</v>
+        <f t="shared" ref="F133" si="34">SUM(F128:F132)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
@@ -14035,23 +14142,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C134">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D134">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E134">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F134" s="9">
-        <v>3</v>
-      </c>
-      <c r="I134">
-        <f>SUM(C134:H134)</f>
-        <v>907</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
@@ -14059,19 +14162,19 @@
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C135">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E135">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F135" s="9">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
@@ -14079,16 +14182,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C136">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -14099,19 +14202,19 @@
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C137">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F137" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
@@ -14119,19 +14222,19 @@
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C138">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F138" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
@@ -14139,23 +14242,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="36">SUM(D134:D138)</f>
-        <v>83</v>
+        <f t="shared" ref="D139" si="35">SUM(D134:D138)</f>
+        <v>92</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="37">SUM(F134:F138)</f>
-        <v>131</v>
+        <f t="shared" ref="F139" si="36">SUM(F134:F138)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
@@ -14163,19 +14266,23 @@
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C140">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D140">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E140">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F140" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I140">
+        <f>SUM(C140:H140)</f>
+        <v>907</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
@@ -14183,7 +14290,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C141">
         <v>12</v>
@@ -14203,16 +14310,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -14223,19 +14330,19 @@
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C143">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F143" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
@@ -14243,221 +14350,221 @@
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C144">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D144">
         <v>8</v>
       </c>
       <c r="E144">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F144" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="38">SUM(D140:D144)</f>
-        <v>113</v>
+        <f t="shared" ref="D145" si="37">SUM(D140:D144)</f>
+        <v>83</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="39">SUM(F140:F144)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F145" si="38">SUM(F140:F144)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C146">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D146">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E146">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F146" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D147">
         <v>7</v>
       </c>
       <c r="E147">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F147" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C148">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E148">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C149">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D149">
+        <v>11</v>
+      </c>
+      <c r="E149">
+        <v>103</v>
+      </c>
+      <c r="F149" s="9">
         <v>6</v>
       </c>
-      <c r="E149">
-        <v>46</v>
-      </c>
-      <c r="F149" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C150">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F150" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="40">SUM(D146:D150)</f>
-        <v>118</v>
+        <f t="shared" ref="D151" si="39">SUM(D146:D150)</f>
+        <v>113</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="41">SUM(F146:F150)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F151" si="40">SUM(F146:F150)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C152">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D152">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E152">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F152" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E153">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F153" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>77</v>
@@ -14466,100 +14573,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C155">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D155">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F155" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C156">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F156" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="42">SUM(D152:D156)</f>
-        <v>77</v>
+        <f t="shared" ref="D157" si="41">SUM(D152:D156)</f>
+        <v>118</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="43">SUM(F152:F156)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F157" si="42">SUM(F152:F156)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C158">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D158">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E158">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F158" s="9">
         <v>2</v>
       </c>
-      <c r="I158">
-        <f>SUM(C158:H158)</f>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -14574,18 +14677,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C160">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>77</v>
@@ -14594,12 +14697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C161">
         <v>24</v>
@@ -14614,76 +14717,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C162">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F162" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="44">SUM(D158:D162)</f>
-        <v>79</v>
+        <f t="shared" ref="D163" si="43">SUM(D158:D162)</f>
+        <v>77</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="45">SUM(F158:F162)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F163" si="44">SUM(F158:F162)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C164">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D164">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E164">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F164" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <f>SUM(C164:H164)</f>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -14692,622 +14799,622 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C166">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F166" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C167">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D167">
         <v>7</v>
       </c>
       <c r="E167">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F167" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C168">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D168">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E168">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F168" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="46">SUM(D164:D168)</f>
-        <v>128</v>
+        <f t="shared" ref="D169" si="45">SUM(D164:D168)</f>
+        <v>79</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="47">SUM(F164:F168)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F169" si="46">SUM(F164:F168)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C170">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D170">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E170">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F170" s="9">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F171" s="9">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C172">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F172" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C173">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E173">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F173" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E174">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F174" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="48">SUM(D170:D174)</f>
-        <v>238</v>
+        <f t="shared" ref="D175" si="47">SUM(D170:D174)</f>
+        <v>128</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="49">SUM(F170:F174)</f>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F175" si="48">SUM(F170:F174)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C176">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E176">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F176" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C177">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E177">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F177" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C178">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D178">
         <v>5</v>
       </c>
       <c r="E178">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C179">
         <v>25</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F179" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C180">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D180">
         <v>1</v>
       </c>
       <c r="E180">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F180" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="50">SUM(D176:D180)</f>
-        <v>18</v>
+        <f t="shared" ref="D181" si="49">SUM(D176:D180)</f>
+        <v>238</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="51">SUM(F176:F180)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F181" si="50">SUM(F176:F180)</f>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C182">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D182">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F182" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F183" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C184">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D184">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C185">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D185">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E185">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C186">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F186" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187" si="52">SUM(D182:D186)</f>
-        <v>80</v>
+        <f t="shared" ref="D187" si="51">SUM(D182:D186)</f>
+        <v>18</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="53">SUM(F182:F186)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F187" si="52">SUM(F182:F186)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C188">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D188">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E188">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F188" s="9">
         <v>14</v>
       </c>
-      <c r="I188">
-        <f>SUM(C188:H188)</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C190">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D190">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E190">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E191">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D192">
         <v>2</v>
       </c>
       <c r="E192">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F192" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193" si="54">SUM(D188:D192)</f>
-        <v>102</v>
+        <f t="shared" ref="D193" si="53">SUM(D188:D192)</f>
+        <v>80</v>
       </c>
       <c r="E193">
         <f>SUM(E188:E192)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F193">
-        <f t="shared" ref="F193" si="55">SUM(F188:F192)</f>
+        <f t="shared" ref="F193" si="54">SUM(F188:F192)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C194">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E194">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F194" s="9">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="I194">
+        <f>SUM(C194:H194)</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -15316,18 +15423,18 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C196">
         <v>8</v>
@@ -15342,249 +15449,249 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C197">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F197" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <v>2</v>
       </c>
       <c r="E198">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F198" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199" si="56">SUM(D194:D198)</f>
-        <v>71</v>
+        <f t="shared" ref="D199" si="55">SUM(D194:D198)</f>
+        <v>102</v>
       </c>
       <c r="E199">
         <f>SUM(E194:E198)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F199">
-        <f t="shared" ref="F199" si="57">SUM(F194:F198)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F199" si="56">SUM(F194:F198)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C200">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D200">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F200" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C201">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C202">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E202">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C203">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F203" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F204" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D205">
-        <f t="shared" ref="D205" si="58">SUM(D200:D204)</f>
-        <v>77</v>
+        <f t="shared" ref="D205" si="57">SUM(D200:D204)</f>
+        <v>71</v>
       </c>
       <c r="E205">
         <f>SUM(E200:E204)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F205">
-        <f t="shared" ref="F205" si="59">SUM(F200:F204)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F205" si="58">SUM(F200:F204)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>6</v>
       </c>
       <c r="B206" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C206">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D206">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E206">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F206" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>7</v>
       </c>
       <c r="B207" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F207" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>8</v>
       </c>
       <c r="B208" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C208">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -15595,16 +15702,16 @@
         <v>9</v>
       </c>
       <c r="B209" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F209" s="9">
         <v>0</v>
@@ -15615,16 +15722,16 @@
         <v>10</v>
       </c>
       <c r="B210" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F210" s="9">
         <v>2</v>
@@ -15635,22 +15742,22 @@
         <v>11</v>
       </c>
       <c r="B211" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D211">
-        <f t="shared" ref="D211" si="60">SUM(D206:D210)</f>
-        <v>21</v>
+        <f t="shared" ref="D211" si="59">SUM(D206:D210)</f>
+        <v>77</v>
       </c>
       <c r="E211">
         <f>SUM(E206:E210)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211" si="61">SUM(F206:F210)</f>
+        <f t="shared" ref="F211" si="60">SUM(F206:F210)</f>
         <v>22</v>
       </c>
     </row>
@@ -15659,16 +15766,16 @@
         <v>6</v>
       </c>
       <c r="B212" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C212">
         <v>74</v>
       </c>
       <c r="D212">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E212">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F212" s="9">
         <v>20</v>
@@ -15679,7 +15786,7 @@
         <v>7</v>
       </c>
       <c r="B213" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -15688,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F213" s="9">
         <v>0</v>
@@ -15699,13 +15806,13 @@
         <v>8</v>
       </c>
       <c r="B214" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C214">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E214">
         <v>83</v>
@@ -15719,7 +15826,7 @@
         <v>9</v>
       </c>
       <c r="B215" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C215">
         <v>10</v>
@@ -15739,7 +15846,7 @@
         <v>10</v>
       </c>
       <c r="B216" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C216">
         <v>5</v>
@@ -15759,22 +15866,22 @@
         <v>11</v>
       </c>
       <c r="B217" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D217">
-        <f t="shared" ref="D217:F217" si="62">SUM(D212:D216)</f>
-        <v>23</v>
+        <f t="shared" ref="D217" si="61">SUM(D212:D216)</f>
+        <v>21</v>
       </c>
       <c r="E217">
         <f>SUM(E212:E216)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F217">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="F217" si="62">SUM(F212:F216)</f>
         <v>22</v>
       </c>
     </row>
@@ -15783,19 +15890,19 @@
         <v>6</v>
       </c>
       <c r="B218" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C218">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D218">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E218">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F218" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -15803,16 +15910,16 @@
         <v>7</v>
       </c>
       <c r="B219" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -15823,16 +15930,16 @@
         <v>8</v>
       </c>
       <c r="B220" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C220">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -15843,16 +15950,16 @@
         <v>9</v>
       </c>
       <c r="B221" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C221">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F221" s="9">
         <v>0</v>
@@ -15863,13 +15970,13 @@
         <v>10</v>
       </c>
       <c r="B222" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C222">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222">
         <v>109</v>
@@ -15883,23 +15990,23 @@
         <v>11</v>
       </c>
       <c r="B223" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D223">
         <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E223">
-        <f t="shared" si="63"/>
-        <v>728</v>
+        <f>SUM(E218:E222)</f>
+        <v>725</v>
       </c>
       <c r="F223">
         <f t="shared" si="63"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
@@ -15907,19 +16014,19 @@
         <v>6</v>
       </c>
       <c r="B224" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C224">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D224">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E224">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F224" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
@@ -15927,19 +16034,19 @@
         <v>7</v>
       </c>
       <c r="B225" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F225" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
@@ -15947,16 +16054,16 @@
         <v>8</v>
       </c>
       <c r="B226" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C226">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
@@ -15967,19 +16074,19 @@
         <v>9</v>
       </c>
       <c r="B227" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C227">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F227" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
@@ -15987,19 +16094,19 @@
         <v>10</v>
       </c>
       <c r="B228" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C228">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F228" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
@@ -16007,23 +16114,23 @@
         <v>11</v>
       </c>
       <c r="B229" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E229">
         <f t="shared" si="64"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
@@ -16031,19 +16138,19 @@
         <v>6</v>
       </c>
       <c r="B230" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C230">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D230">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E230">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F230" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
@@ -16051,19 +16158,19 @@
         <v>7</v>
       </c>
       <c r="B231" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E231">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F231" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
@@ -16071,16 +16178,16 @@
         <v>8</v>
       </c>
       <c r="B232" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C232">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E232">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F232" s="9">
         <v>0</v>
@@ -16091,7 +16198,7 @@
         <v>9</v>
       </c>
       <c r="B233" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C233">
         <v>10</v>
@@ -16100,10 +16207,10 @@
         <v>5</v>
       </c>
       <c r="E233">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F233" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
@@ -16111,19 +16218,19 @@
         <v>10</v>
       </c>
       <c r="B234" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C234">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F234" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
@@ -16131,60 +16238,60 @@
         <v>11</v>
       </c>
       <c r="B235" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E235">
         <f t="shared" si="65"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A236" s="14" t="s">
+      <c r="A236" t="s">
         <v>6</v>
       </c>
-      <c r="B236" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" s="14">
-        <v>79</v>
-      </c>
-      <c r="D236" s="14">
-        <v>21</v>
-      </c>
-      <c r="E236" s="14">
-        <v>255</v>
-      </c>
-      <c r="F236" s="16">
-        <v>22</v>
+      <c r="B236" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C236">
+        <v>78</v>
+      </c>
+      <c r="D236">
+        <v>31</v>
+      </c>
+      <c r="E236">
+        <v>245</v>
+      </c>
+      <c r="F236" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>7</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>12</v>
+      <c r="B237" s="13">
+        <v>45450</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F237" s="9">
         <v>0</v>
@@ -16194,17 +16301,17 @@
       <c r="A238" t="s">
         <v>8</v>
       </c>
-      <c r="B238" s="11" t="s">
-        <v>12</v>
+      <c r="B238" s="13">
+        <v>45450</v>
       </c>
       <c r="C238">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F238" s="9">
         <v>0</v>
@@ -16214,469 +16321,457 @@
       <c r="A239" t="s">
         <v>9</v>
       </c>
-      <c r="B239" s="11" t="s">
-        <v>12</v>
+      <c r="B239" s="13">
+        <v>45450</v>
       </c>
       <c r="C239">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F239" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>10</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>12</v>
+      <c r="B240" s="13">
+        <v>45450</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F240" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="11" t="s">
-        <v>12</v>
+      <c r="B241" s="13">
+        <v>45450</v>
       </c>
       <c r="C241">
         <f>SUM(C236:C240)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D241">
         <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E241">
         <f t="shared" si="66"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F241">
         <f t="shared" si="66"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="14">
+        <v>79</v>
+      </c>
+      <c r="D242" s="14">
+        <v>21</v>
+      </c>
+      <c r="E242" s="14">
+        <v>255</v>
+      </c>
+      <c r="F242" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C242">
-        <v>69</v>
-      </c>
-      <c r="D242">
-        <v>51</v>
-      </c>
-      <c r="E242">
-        <v>223</v>
-      </c>
-      <c r="F242" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>7</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F243" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>8</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F244" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>9</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C245">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F245" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>10</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D246">
         <v>2</v>
       </c>
       <c r="E246">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F246" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>11</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C247">
         <f>SUM(C242:C246)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D247">
         <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E247">
         <f t="shared" si="67"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F247">
         <f t="shared" si="67"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>6</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C248">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D248">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E248">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F248" s="9">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>7</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
+        <v>12</v>
+      </c>
+      <c r="E249">
         <v>1</v>
       </c>
-      <c r="E249">
-        <v>42</v>
-      </c>
       <c r="F249" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>8</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C250">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F250" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>9</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C251">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F251" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>10</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F252" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>11</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C253">
         <f>SUM(C248:C252)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D253">
         <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E253">
         <f t="shared" si="68"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F253">
         <f t="shared" si="68"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>6</v>
       </c>
-      <c r="B254" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B254" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C254">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E254">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F254" s="9">
-        <v>57</v>
-      </c>
-      <c r="G254" s="6"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>7</v>
       </c>
-      <c r="B255" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B255" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255">
         <v>42</v>
       </c>
       <c r="F255" s="9">
-        <v>0</v>
-      </c>
-      <c r="G255" s="6"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>8</v>
       </c>
-      <c r="B256" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B256" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C256">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F256" s="9">
         <v>0</v>
       </c>
-      <c r="G256" s="6"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>9</v>
       </c>
-      <c r="B257" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B257" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C257">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F257" s="9">
         <v>0</v>
       </c>
-      <c r="G257" s="6"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B258" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C258">
         <v>3</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E258">
         <v>79</v>
       </c>
       <c r="F258" s="9">
-        <v>0</v>
-      </c>
-      <c r="G258" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>11</v>
       </c>
-      <c r="B259" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B259" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C259">
         <f>SUM(C254:C258)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D259">
         <f t="shared" ref="D259:F259" si="69">SUM(D254:D258)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E259">
         <f t="shared" si="69"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F259">
         <f t="shared" si="69"/>
-        <v>57</v>
-      </c>
-      <c r="G259" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>6</v>
       </c>
       <c r="B260" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C260">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F260" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G260" s="6"/>
     </row>
@@ -16685,20 +16780,20 @@
         <v>7</v>
       </c>
       <c r="B261" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
       <c r="D261">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F261" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G261" s="6"/>
     </row>
@@ -16707,20 +16802,20 @@
         <v>8</v>
       </c>
       <c r="B262" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C262">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F262" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G262" s="6"/>
     </row>
@@ -16729,20 +16824,20 @@
         <v>9</v>
       </c>
       <c r="B263" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C263">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F263" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G263" s="6"/>
     </row>
@@ -16751,20 +16846,20 @@
         <v>10</v>
       </c>
       <c r="B264" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F264" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G264" s="6"/>
     </row>
@@ -16773,178 +16868,314 @@
         <v>11</v>
       </c>
       <c r="B265" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C265">
         <f>SUM(C260:C264)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D265">
         <f t="shared" ref="D265:F265" si="70">SUM(D260:D264)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E265">
         <f t="shared" si="70"/>
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="F265">
         <f t="shared" si="70"/>
-        <v>324</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G265" s="6"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>6</v>
       </c>
       <c r="B266" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C266">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D266">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="F266" s="9">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G266" s="6"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>7</v>
       </c>
       <c r="B267" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F267" s="9">
         <v>40</v>
       </c>
+      <c r="G267" s="6"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>8</v>
       </c>
       <c r="B268" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C268">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F268" s="9">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G268" s="6"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>9</v>
       </c>
       <c r="B269" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C269">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
+        <v>9</v>
+      </c>
+      <c r="F269" s="9">
         <v>85</v>
       </c>
-      <c r="F269" s="9">
-        <v>0</v>
-      </c>
+      <c r="G269" s="6"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>10</v>
       </c>
       <c r="B270" s="5">
-        <f>PassRates!$F$16</f>
-        <v>45408</v>
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E270">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F270" s="9">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G270" s="6"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>11</v>
       </c>
       <c r="B271" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C271">
+        <f>SUM(C266:C270)</f>
+        <v>110</v>
+      </c>
+      <c r="D271">
+        <f t="shared" ref="D271:F271" si="71">SUM(D266:D270)</f>
+        <v>17</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="71"/>
+        <v>215</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="71"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C271">
-        <f>SUM(C266:C270)</f>
+      <c r="C272">
+        <v>70</v>
+      </c>
+      <c r="D272">
+        <v>15</v>
+      </c>
+      <c r="E272">
+        <v>260</v>
+      </c>
+      <c r="F272" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C274">
+        <v>6</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>41</v>
+      </c>
+      <c r="F274" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C275">
+        <v>13</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>85</v>
+      </c>
+      <c r="F275" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>74</v>
+      </c>
+      <c r="F276" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="5">
+        <f>PassRates!$F$16</f>
+        <v>45408</v>
+      </c>
+      <c r="C277">
+        <f>SUM(C272:C276)</f>
         <v>91</v>
       </c>
-      <c r="D271">
-        <f t="shared" ref="D271:F271" si="71">SUM(D266:D270)</f>
+      <c r="D277">
+        <f t="shared" ref="D277:F277" si="72">SUM(D272:D276)</f>
         <v>20</v>
       </c>
-      <c r="E271">
-        <f t="shared" si="71"/>
+      <c r="E277">
+        <f t="shared" si="72"/>
         <v>462</v>
       </c>
-      <c r="F271">
-        <f t="shared" si="71"/>
+      <c r="F277">
+        <f t="shared" si="72"/>
         <v>42</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B272" s="11"/>
-      <c r="F272" s="9"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B273" s="11"/>
-      <c r="F273" s="9"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B274" s="11"/>
-      <c r="F274" s="9"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B275" s="11"/>
-      <c r="F275" s="9"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B276" s="11"/>
-      <c r="F276" s="9"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B277" s="11"/>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B278" s="11"/>
+      <c r="F278" s="9"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B279" s="11"/>
+      <c r="F279" s="9"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B280" s="11"/>
+      <c r="F280" s="9"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B281" s="11"/>
+      <c r="F281" s="9"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B282" s="11"/>
+      <c r="F282" s="9"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B283" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16954,11 +17185,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF60"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17587,19 +17818,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C259</f>
+        <f>'Combined PassRates'!C265</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D259</f>
+        <f>'Combined PassRates'!D265</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E259</f>
+        <f>'Combined PassRates'!E265</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F259</f>
+        <f>'Combined PassRates'!F265</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -17614,19 +17845,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C253</f>
+        <f>'Combined PassRates'!C259</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D253</f>
+        <f>'Combined PassRates'!D259</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E253</f>
+        <f>'Combined PassRates'!E259</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F253</f>
+        <f>'Combined PassRates'!F259</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -17687,19 +17918,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C235</f>
+        <f>'Combined PassRates'!C241</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D235</f>
+        <f>'Combined PassRates'!D241</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E235</f>
+        <f>'Combined PassRates'!E241</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F235</f>
+        <f>'Combined PassRates'!F241</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -17714,19 +17945,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C229</f>
+        <f>'Combined PassRates'!C235</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D229</f>
+        <f>'Combined PassRates'!D235</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E229</f>
+        <f>'Combined PassRates'!E235</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F229</f>
+        <f>'Combined PassRates'!F235</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -17741,19 +17972,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C223</f>
+        <f>'Combined PassRates'!C229</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D223</f>
+        <f>'Combined PassRates'!D229</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E223</f>
+        <f>'Combined PassRates'!E229</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F223</f>
+        <f>'Combined PassRates'!F229</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -17768,19 +17999,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C217</f>
+        <f>'Combined PassRates'!C223</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D217</f>
+        <f>'Combined PassRates'!D223</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E217</f>
+        <f>'Combined PassRates'!E223</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F217</f>
+        <f>'Combined PassRates'!F223</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -17795,19 +18026,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C211</f>
+        <f>'Combined PassRates'!C217</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D211</f>
+        <f>'Combined PassRates'!D217</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E211</f>
+        <f>'Combined PassRates'!E217</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F211</f>
+        <f>'Combined PassRates'!F217</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -17822,19 +18053,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C205</f>
+        <f>'Combined PassRates'!C211</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D205</f>
+        <f>'Combined PassRates'!D211</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E205</f>
+        <f>'Combined PassRates'!E211</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F205</f>
+        <f>'Combined PassRates'!F211</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -17849,19 +18080,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -17876,19 +18107,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -17903,19 +18134,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -17930,19 +18161,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -17957,19 +18188,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -17984,19 +18215,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -18011,19 +18242,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -18038,19 +18269,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -18065,19 +18296,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -18092,19 +18323,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -18119,19 +18350,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -18146,19 +18377,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -18173,19 +18404,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -18200,19 +18431,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -18227,19 +18458,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -18254,19 +18485,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -18281,19 +18512,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -18308,19 +18539,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -18335,19 +18566,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -18362,19 +18593,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -18389,19 +18620,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C79</f>
+        <f>'Combined PassRates'!C85</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D79</f>
+        <f>'Combined PassRates'!D85</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E79</f>
+        <f>'Combined PassRates'!E85</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F79</f>
+        <f>'Combined PassRates'!F85</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -18416,19 +18647,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C80</f>
+        <f>'Combined PassRates'!C86</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D80</f>
+        <f>'Combined PassRates'!D86</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E80</f>
+        <f>'Combined PassRates'!E86</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F80</f>
+        <f>'Combined PassRates'!F86</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -18443,19 +18674,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -18470,19 +18701,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -18497,19 +18728,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -18524,19 +18755,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -18551,19 +18782,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -18578,19 +18809,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>151</v>
       </c>
       <c r="C55">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>130</v>
       </c>
       <c r="D55">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>867</v>
       </c>
       <c r="E55">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>49</v>
       </c>
       <c r="F55" s="13">
@@ -18605,19 +18836,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>143</v>
       </c>
       <c r="C56">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>121</v>
       </c>
       <c r="D56">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>900</v>
       </c>
       <c r="E56">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>31</v>
       </c>
       <c r="F56" s="13">
@@ -18632,19 +18863,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>130</v>
       </c>
       <c r="C57">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>122</v>
       </c>
       <c r="D57">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>898</v>
       </c>
       <c r="E57">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>45</v>
       </c>
       <c r="F57" s="13">
@@ -18659,19 +18890,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>140</v>
       </c>
       <c r="C58">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>131</v>
       </c>
       <c r="D58">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>872</v>
       </c>
       <c r="E58">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>48</v>
       </c>
       <c r="F58" s="13">
@@ -18686,19 +18917,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>131</v>
       </c>
       <c r="C59">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>136</v>
       </c>
       <c r="D59">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>904</v>
       </c>
       <c r="E59">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>25</v>
       </c>
       <c r="F59" s="13">
@@ -18713,19 +18944,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>171</v>
       </c>
       <c r="C60">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>141</v>
       </c>
       <c r="D60">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>869</v>
       </c>
       <c r="E60">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>38</v>
       </c>
       <c r="F60" s="13">
@@ -18733,6 +18964,33 @@
       </c>
       <c r="G60" s="6" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f>'Combined PassRates'!C7</f>
+        <v>183</v>
+      </c>
+      <c r="C61">
+        <f>'Combined PassRates'!D7</f>
+        <v>119</v>
+      </c>
+      <c r="D61">
+        <f>'Combined PassRates'!E7</f>
+        <v>816</v>
+      </c>
+      <c r="E61">
+        <f>'Combined PassRates'!F7</f>
+        <v>122</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45737</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -18758,11 +19016,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20056,10 +20314,28 @@
         <v>200</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>224</v>
+    </row>
+    <row r="61" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="str">
+        <f>PassRates!G61</f>
+        <v>60 - 21/3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDA84C-D57B-4E83-A037-C8BD827F1805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C4E64-20A0-4F7B-8042-DFEE13E7C614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined PassRates" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,105 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{1A3555B2-C6C8-4F52-B6F3-21753623CBA3}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9FFDB86D-515F-4B1D-B917-0587E80027F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+120+42+7=171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3FB17B77-696B-43D5-9E7C-F88433723713}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+114+10+5=129</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{DB54BF16-EFE7-449E-A9DA-FCFB86DB149A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+427+215+194=869</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1B953545-F518-4092-9D6E-51995D0A8606}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+92+19=111
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{1A3555B2-C6C8-4F52-B6F3-21753623CBA3}">
       <text>
         <r>
           <rPr>
@@ -71,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{18F42F9C-9DF7-492A-801F-078A4FE2A1D4}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{18F42F9C-9DF7-492A-801F-078A4FE2A1D4}">
       <text>
         <r>
           <rPr>
@@ -95,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C70BA727-6F02-43CE-AA99-1662461F4295}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C70BA727-6F02-43CE-AA99-1662461F4295}">
       <text>
         <r>
           <rPr>
@@ -119,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{C2E86458-5627-4964-A222-913F6A6BACCE}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{C2E86458-5627-4964-A222-913F6A6BACCE}">
       <text>
         <r>
           <rPr>
@@ -143,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B69677F3-8C75-4F1F-AF3B-B1D75DE3A8BC}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B69677F3-8C75-4F1F-AF3B-B1D75DE3A8BC}">
       <text>
         <r>
           <rPr>
@@ -168,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{13EF740D-A75E-4834-A2CE-29CE956DA842}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{13EF740D-A75E-4834-A2CE-29CE956DA842}">
       <text>
         <r>
           <rPr>
@@ -192,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{0BEDFE77-1527-4C14-A749-974CEB8DFB66}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{0BEDFE77-1527-4C14-A749-974CEB8DFB66}">
       <text>
         <r>
           <rPr>
@@ -216,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{8BA0C554-1F44-4233-85D6-C9A54F567A65}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{8BA0C554-1F44-4233-85D6-C9A54F567A65}">
       <text>
         <r>
           <rPr>
@@ -240,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
       <text>
         <r>
           <rPr>
@@ -265,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
       <text>
         <r>
           <rPr>
@@ -289,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
       <text>
         <r>
           <rPr>
@@ -313,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
       <text>
         <r>
           <rPr>
@@ -337,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
       <text>
         <r>
           <rPr>
@@ -362,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
       <text>
         <r>
           <rPr>
@@ -386,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
       <text>
         <r>
           <rPr>
@@ -410,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
       <text>
         <r>
           <rPr>
@@ -434,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
       <text>
         <r>
           <rPr>
@@ -459,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
       <text>
         <r>
           <rPr>
@@ -483,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
       <text>
         <r>
           <rPr>
@@ -507,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
       <text>
         <r>
           <rPr>
@@ -531,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
       <text>
         <r>
           <rPr>
@@ -556,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
       <text>
         <r>
           <rPr>
@@ -580,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
       <text>
         <r>
           <rPr>
@@ -604,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
       <text>
         <r>
           <rPr>
@@ -628,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -653,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -677,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -701,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -717,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -733,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -749,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -774,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -798,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -822,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -838,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -854,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -870,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -886,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -910,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -934,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -958,7 +1056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -974,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -990,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -1006,7 +1104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -1070,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -1262,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -1278,7 +1376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -1318,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -1342,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -1414,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -1430,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -1454,7 +1552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -1478,7 +1576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -1518,7 +1616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -1534,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -1550,7 +1648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -1566,7 +1664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F92" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1590,7 +1688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C96" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1614,7 +1712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1638,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1654,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1670,7 +1768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1702,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F92" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F98" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1726,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C96" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1750,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D102" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1790,7 +1888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1806,7 +1904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1822,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1838,7 +1936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1854,7 +1952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1870,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1886,7 +1984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -1902,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -1918,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -1934,7 +2032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -1950,7 +2048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -1966,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -1982,7 +2080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -1998,7 +2096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -2014,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -2030,7 +2128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -2046,7 +2144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -2062,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -2078,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -2094,7 +2192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -2110,7 +2208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -2126,7 +2224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -2142,7 +2240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -2158,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -2173,7 +2271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -2189,7 +2287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -2205,7 +2303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -2221,7 +2319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -2236,7 +2334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -2268,7 +2366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -2299,7 +2397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -2315,7 +2413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -2331,7 +2429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -2347,7 +2445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -2362,7 +2460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -2378,7 +2476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -2394,7 +2492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -2410,7 +2508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E162" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -2425,7 +2523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -2441,7 +2539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -2457,7 +2555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -2472,7 +2570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E162" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E168" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -2487,7 +2585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C170" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -2503,7 +2601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -2519,7 +2617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -2534,7 +2632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C170" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C176" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -2549,7 +2647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D176" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -2565,7 +2663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E176" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F170" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F176" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2595,7 +2693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C176" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C182" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2610,7 +2708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D176" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2625,7 +2723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E176" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E182" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2640,7 +2738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F176" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F182" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2660,7 +2758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="230">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3656,6 +3754,16 @@
   </si>
   <si>
     <t>IH pass rates in late March 2025 has dropped to approximately 66%.  This is largely because of an increase in tests that could not be run because of environment issues, although overall numbers of automated tests have risen very slightly.</t>
+  </si>
+  <si>
+    <t>61 - 28/3</t>
+  </si>
+  <si>
+    <t>The QA resource profile of the team remains highly unlikely to change before late Q2 2025, so internal options at improving coverage and pass rates will be the only source of remedial actions.
+The overall pass rates need maintenace to improve, but again this is due to lack of resources to meet this test automation challenge.</t>
+  </si>
+  <si>
+    <t>IH pass rates at the end of March 2025 remain around 68%.  This is largely because of tests failing to run due to being blocked because of environment issues.</t>
   </si>
 </sst>
 </file>
@@ -5039,7 +5147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$242:$B$242</c:f>
+              <c:f>'Combined PassRates'!$A$248:$B$248</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5153,7 +5261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$242:$F$242</c:f>
+              <c:f>'Combined PassRates'!$C$248:$F$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5320,7 +5428,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$243:$B$243</c:f>
+              <c:f>'Combined PassRates'!$A$249:$B$249</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5439,7 +5547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$243:$F$243</c:f>
+              <c:f>'Combined PassRates'!$C$249:$F$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5631,7 +5739,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$244:$B$244</c:f>
+              <c:f>'Combined PassRates'!$A$250:$B$250</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5745,7 +5853,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$244:$F$244</c:f>
+              <c:f>'Combined PassRates'!$C$250:$F$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5937,7 +6045,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$245:$B$245</c:f>
+              <c:f>'Combined PassRates'!$A$251:$B$251</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6051,7 +6159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$245:$F$245</c:f>
+              <c:f>'Combined PassRates'!$C$251:$F$251</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6243,7 +6351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$246:$B$246</c:f>
+              <c:f>'Combined PassRates'!$A$252:$B$252</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6357,7 +6465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$246:$F$246</c:f>
+              <c:f>'Combined PassRates'!$C$252:$F$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6549,7 +6657,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$247:$B$247</c:f>
+              <c:f>'Combined PassRates'!$A$253:$B$253</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6663,7 +6771,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$247:$F$247</c:f>
+              <c:f>'Combined PassRates'!$C$253:$F$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11279,11 +11387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I283"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11319,23 +11427,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
-        <v>1240</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -11343,7 +11451,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11363,7 +11471,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11383,7 +11491,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11403,7 +11511,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11423,23 +11531,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -11447,23 +11555,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D8">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E8">
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I8">
         <f>SUM(C8:F8)</f>
-        <v>1219</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -11471,7 +11579,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11491,7 +11599,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11511,7 +11619,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11531,7 +11639,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11551,23 +11659,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11575,23 +11683,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C14">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D14">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E14">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <f>SUM(C14:F14)</f>
-        <v>1196</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -11599,7 +11707,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11619,7 +11727,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11639,7 +11747,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11659,7 +11767,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11679,23 +11787,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C19">
         <f>SUM(C14:C18)</f>
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:F19" si="2">SUM(D14:D18)</f>
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -11703,23 +11811,23 @@
         <v>6</v>
       </c>
       <c r="B20" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C20">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D20">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E20">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F20">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <f>SUM(C20:F20)</f>
-        <v>1191</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -11727,7 +11835,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11747,7 +11855,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11767,7 +11875,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11787,7 +11895,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11807,23 +11915,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:F25" si="3">SUM(D20:D24)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -11831,23 +11939,23 @@
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C26">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D26">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E26">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F26">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I26">
         <f>SUM(C26:F26)</f>
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11855,7 +11963,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11875,7 +11983,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11895,7 +12003,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11915,7 +12023,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11935,23 +12043,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C31">
         <f>SUM(C26:C30)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:F31" si="4">SUM(D26:D30)</f>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -11959,19 +12067,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C32">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I32">
         <f>SUM(C32:F32)</f>
@@ -11983,7 +12091,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -12003,7 +12111,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -12023,7 +12131,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -12043,7 +12151,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -12063,23 +12171,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C37">
         <f>SUM(C32:C36)</f>
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:F37" si="5">SUM(D32:D36)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -12087,23 +12195,23 @@
         <v>6</v>
       </c>
       <c r="B38" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C38">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D38">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E38">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F38">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I38">
         <f>SUM(C38:F38)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -12111,7 +12219,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -12131,7 +12239,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -12151,7 +12259,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -12171,7 +12279,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -12191,23 +12299,23 @@
         <v>11</v>
       </c>
       <c r="B43" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D43">
         <f t="shared" ref="D43:F43" si="6">SUM(D38:D42)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E43">
         <f t="shared" si="6"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -12215,22 +12323,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C44">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D44">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E44">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F44">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I44">
-        <v>1236</v>
+        <f>SUM(C44:F44)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -12238,7 +12347,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -12258,7 +12367,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -12278,7 +12387,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -12298,7 +12407,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -12318,51 +12427,54 @@
         <v>11</v>
       </c>
       <c r="B49" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C49">
-        <v>117</v>
+        <f>SUM(C44:C48)</f>
+        <v>151</v>
       </c>
       <c r="D49">
-        <v>207</v>
+        <f t="shared" ref="D49:F49" si="7">SUM(D44:D48)</f>
+        <v>130</v>
       </c>
       <c r="E49">
-        <v>636</v>
+        <f t="shared" si="7"/>
+        <v>867</v>
       </c>
       <c r="F49">
-        <v>276</v>
+        <f t="shared" si="7"/>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="13">
-        <v>45681</v>
+      <c r="B50" s="5">
+        <v>45688</v>
       </c>
       <c r="C50">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D50">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E50">
-        <v>812</v>
-      </c>
-      <c r="F50" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F50">
+        <v>276</v>
       </c>
       <c r="I50">
-        <f>SUM(C50:H50)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="13">
-        <v>45681</v>
+      <c r="B51" s="5">
+        <v>45688</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -12373,7 +12485,7 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51">
         <v>0</v>
       </c>
     </row>
@@ -12381,8 +12493,8 @@
       <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="13">
-        <v>45681</v>
+      <c r="B52" s="5">
+        <v>45688</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -12393,7 +12505,7 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52">
         <v>0</v>
       </c>
     </row>
@@ -12401,8 +12513,8 @@
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="13">
-        <v>45681</v>
+      <c r="B53" s="5">
+        <v>45688</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -12413,7 +12525,7 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53">
         <v>0</v>
       </c>
     </row>
@@ -12421,8 +12533,8 @@
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="13">
-        <v>45681</v>
+      <c r="B54" s="5">
+        <v>45688</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -12433,7 +12545,7 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54">
         <v>0</v>
       </c>
     </row>
@@ -12441,24 +12553,20 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="13">
-        <v>45681</v>
+      <c r="B55" s="5">
+        <v>45688</v>
       </c>
       <c r="C55">
-        <f>SUM(C50:C54)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="7">SUM(D50:D54)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E55">
-        <f>SUM(E50:E54)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="8">SUM(F50:F54)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -12466,23 +12574,23 @@
         <v>6</v>
       </c>
       <c r="B56" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C56">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D56">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E56">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F56" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I56">
         <f>SUM(C56:H56)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -12490,7 +12598,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -12510,7 +12618,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -12530,7 +12638,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -12550,7 +12658,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -12570,49 +12678,47 @@
         <v>11</v>
       </c>
       <c r="B61" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C61">
         <f>SUM(C56:C60)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="9">SUM(D56:D60)</f>
-        <v>157</v>
+        <f t="shared" ref="D61" si="8">SUM(D56:D60)</f>
+        <v>148</v>
       </c>
       <c r="E61">
         <f>SUM(E56:E60)</f>
+        <v>812</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="9">SUM(F56:F60)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C62">
+        <v>121</v>
+      </c>
+      <c r="D62">
+        <v>157</v>
+      </c>
+      <c r="E62">
         <v>799</v>
       </c>
-      <c r="F61">
-        <f t="shared" ref="F61" si="10">SUM(F56:F60)</f>
+      <c r="F62" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C62" s="19">
-        <v>122</v>
-      </c>
-      <c r="D62" s="19">
-        <v>162</v>
-      </c>
-      <c r="E62" s="19">
-        <v>790</v>
-      </c>
-      <c r="F62" s="21">
-        <v>97</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="23">
+      <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12620,19 +12726,19 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F63" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
@@ -12640,16 +12746,16 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -12660,19 +12766,19 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F65" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
@@ -12680,73 +12786,69 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C67">
+        <f>SUM(C62:C66)</f>
+        <v>121</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67" si="10">SUM(D62:D66)</f>
+        <v>157</v>
+      </c>
+      <c r="E67">
+        <f>SUM(E62:E66)</f>
+        <v>799</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67" si="11">SUM(F62:F66)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="18">
         <v>45667</v>
       </c>
-      <c r="C66">
-        <v>50</v>
-      </c>
-      <c r="D66">
-        <v>20</v>
-      </c>
-      <c r="E66">
-        <v>79</v>
-      </c>
-      <c r="F66" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C67" s="19">
-        <f>SUM(C62:C66)</f>
-        <v>211</v>
-      </c>
-      <c r="D67" s="19">
-        <f t="shared" ref="D67" si="11">SUM(D62:D66)</f>
-        <v>254</v>
-      </c>
-      <c r="E67" s="19">
-        <f>SUM(E62:E66)</f>
-        <v>944</v>
-      </c>
-      <c r="F67" s="19">
-        <f t="shared" ref="F67" si="12">SUM(F62:F66)</f>
-        <v>431</v>
-      </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="23">
-        <f>SUM(C67:H67)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C68">
-        <v>136</v>
-      </c>
-      <c r="D68">
-        <v>182</v>
-      </c>
-      <c r="E68">
-        <v>695</v>
-      </c>
-      <c r="F68" s="9">
-        <v>165</v>
-      </c>
-      <c r="I68">
+      <c r="C68" s="19">
+        <v>122</v>
+      </c>
+      <c r="D68" s="19">
+        <v>162</v>
+      </c>
+      <c r="E68" s="19">
+        <v>790</v>
+      </c>
+      <c r="F68" s="21">
+        <v>97</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="23">
         <f>SUM(C68:H68)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12754,7 +12856,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -12774,7 +12876,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C70">
         <v>17</v>
@@ -12794,7 +12896,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -12814,7 +12916,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -12830,27 +12932,33 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="A73" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C73" s="19">
         <f>SUM(C68:C72)</f>
-        <v>225</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ref="D73" si="13">SUM(D68:D72)</f>
-        <v>274</v>
-      </c>
-      <c r="E73">
+        <v>211</v>
+      </c>
+      <c r="D73" s="19">
+        <f t="shared" ref="D73" si="12">SUM(D68:D72)</f>
+        <v>254</v>
+      </c>
+      <c r="E73" s="19">
         <f>SUM(E68:E72)</f>
-        <v>849</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ref="F73" si="14">SUM(F68:F72)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F73" s="19">
+        <f t="shared" ref="F73" si="13">SUM(F68:F72)</f>
+        <v>431</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="23">
+        <f>SUM(C73:H73)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -12858,23 +12966,23 @@
         <v>6</v>
       </c>
       <c r="B74" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C74">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D74">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E74">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F74" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I74">
         <f>SUM(C74:H74)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12882,7 +12990,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -12902,7 +13010,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C76">
         <v>17</v>
@@ -12922,7 +13030,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -12942,7 +13050,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C78">
         <v>50</v>
@@ -12962,23 +13070,23 @@
         <v>11</v>
       </c>
       <c r="B79" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C79">
         <f>SUM(C74:C78)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="15">SUM(D74:D78)</f>
-        <v>249</v>
+        <f t="shared" ref="D79" si="14">SUM(D74:D78)</f>
+        <v>274</v>
       </c>
       <c r="E79">
         <f>SUM(E74:E78)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="16">SUM(F74:F78)</f>
-        <v>367</v>
+        <f t="shared" ref="F79" si="15">SUM(F74:F78)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -12986,23 +13094,23 @@
         <v>6</v>
       </c>
       <c r="B80" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C80">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D80">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E80">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F80" s="9">
         <v>33</v>
       </c>
       <c r="I80">
         <f>SUM(C80:H80)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -13010,7 +13118,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -13030,7 +13138,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C82">
         <v>17</v>
@@ -13050,7 +13158,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C83">
         <v>10</v>
@@ -13070,7 +13178,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C84">
         <v>50</v>
@@ -13090,22 +13198,22 @@
         <v>11</v>
       </c>
       <c r="B85" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="17">SUM(D80:D84)</f>
-        <v>253</v>
+        <f t="shared" ref="D85" si="16">SUM(D80:D84)</f>
+        <v>249</v>
       </c>
       <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="18">SUM(F80:F84)</f>
+        <f t="shared" ref="F85" si="17">SUM(F80:F84)</f>
         <v>367</v>
       </c>
     </row>
@@ -13114,23 +13222,23 @@
         <v>6</v>
       </c>
       <c r="B86" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C86">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D86">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E86">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F86" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I86">
         <f>SUM(C86:H86)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -13138,7 +13246,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -13158,7 +13266,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -13178,7 +13286,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -13198,7 +13306,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C90">
         <v>50</v>
@@ -13218,23 +13326,23 @@
         <v>11</v>
       </c>
       <c r="B91" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="19">SUM(D86:D90)</f>
-        <v>289</v>
+        <f t="shared" ref="D91" si="18">SUM(D86:D90)</f>
+        <v>253</v>
       </c>
       <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="20">SUM(F86:F90)</f>
-        <v>433</v>
+        <f t="shared" ref="F91" si="19">SUM(F86:F90)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -13242,23 +13350,23 @@
         <v>6</v>
       </c>
       <c r="B92" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C92">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D92">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E92">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F92" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I92">
         <f>SUM(C92:H92)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -13266,7 +13374,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -13286,7 +13394,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C94">
         <v>17</v>
@@ -13306,7 +13414,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C95">
         <v>10</v>
@@ -13326,7 +13434,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C96">
         <v>50</v>
@@ -13346,23 +13454,23 @@
         <v>11</v>
       </c>
       <c r="B97" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="21">SUM(D92:D96)</f>
-        <v>242</v>
+        <f t="shared" ref="D97" si="20">SUM(D92:D96)</f>
+        <v>289</v>
       </c>
       <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="22">SUM(F92:F96)</f>
-        <v>363</v>
+        <f t="shared" ref="F97" si="21">SUM(F92:F96)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -13370,23 +13478,23 @@
         <v>6</v>
       </c>
       <c r="B98" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C98">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D98">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E98">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F98" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I98">
         <f>SUM(C98:H98)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -13394,7 +13502,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -13414,16 +13522,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C100">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E100">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
@@ -13434,13 +13542,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -13454,19 +13562,19 @@
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C102">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F102" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -13474,49 +13582,47 @@
         <v>11</v>
       </c>
       <c r="B103" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103" si="23">SUM(D98:D102)</f>
-        <v>189</v>
+        <f t="shared" ref="D103" si="22">SUM(D98:D102)</f>
+        <v>242</v>
       </c>
       <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="24">SUM(F98:F102)</f>
-        <v>378</v>
+        <f t="shared" ref="F103" si="23">SUM(F98:F102)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="17" t="s">
+      <c r="A104" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C104" s="19">
-        <v>149</v>
-      </c>
-      <c r="D104" s="19">
-        <v>121</v>
-      </c>
-      <c r="E104" s="19">
-        <v>658</v>
-      </c>
-      <c r="F104" s="21">
-        <v>10</v>
-      </c>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="23">
+      <c r="B104" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C104">
+        <v>164</v>
+      </c>
+      <c r="D104">
+        <v>110</v>
+      </c>
+      <c r="E104">
+        <v>659</v>
+      </c>
+      <c r="F104" s="9">
+        <v>19</v>
+      </c>
+      <c r="I104">
         <f>SUM(C104:H104)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -13524,16 +13630,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>38</v>
       </c>
       <c r="E105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F105" s="9">
         <v>126</v>
@@ -13544,16 +13650,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C106">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E106">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -13564,19 +13670,19 @@
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F107" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -13584,49 +13690,43 @@
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C108">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F108" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109" s="17" t="s">
+      <c r="A109" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C109" s="19">
+      <c r="B109" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>247</v>
-      </c>
-      <c r="D109" s="19">
-        <f t="shared" ref="D109" si="25">SUM(D104:D108)</f>
-        <v>190</v>
-      </c>
-      <c r="E109" s="19">
+        <v>248</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ref="D109" si="24">SUM(D104:D108)</f>
+        <v>189</v>
+      </c>
+      <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>813</v>
-      </c>
-      <c r="F109" s="19">
-        <f t="shared" ref="F109" si="26">SUM(F104:F108)</f>
-        <v>369</v>
-      </c>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="23">
-        <f>SUM(C109:H109)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ref="F109" si="25">SUM(F104:F108)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -13634,25 +13734,25 @@
         <v>6</v>
       </c>
       <c r="B110" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C110" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D110" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E110" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F110" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="22">
+      <c r="I110" s="23">
         <f>SUM(C110:H110)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -13660,16 +13760,16 @@
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>38</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F111" s="9">
         <v>126</v>
@@ -13680,16 +13780,16 @@
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C112">
         <v>19</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
@@ -13700,16 +13800,16 @@
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C113">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F113" s="9">
         <v>110</v>
@@ -13720,19 +13820,19 @@
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C114">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F114" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -13740,49 +13840,55 @@
         <v>11</v>
       </c>
       <c r="B115" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C115" s="19">
         <f>SUM(C110:C114)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D115" s="19">
-        <f t="shared" ref="D115" si="27">SUM(D110:D114)</f>
-        <v>161</v>
+        <f t="shared" ref="D115" si="26">SUM(D110:D114)</f>
+        <v>190</v>
       </c>
       <c r="E115" s="19">
         <f>SUM(E110:E114)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F115" s="19">
-        <f t="shared" ref="F115" si="28">SUM(F110:F114)</f>
-        <v>393</v>
+        <f t="shared" ref="F115" si="27">SUM(F110:F114)</f>
+        <v>369</v>
       </c>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="20">
+      <c r="I115" s="23">
         <f>SUM(C115:H115)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+      <c r="A116" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C116">
-        <v>142</v>
-      </c>
-      <c r="D116">
-        <v>124</v>
-      </c>
-      <c r="E116">
-        <v>672</v>
-      </c>
-      <c r="F116" s="9">
-        <v>9</v>
+      <c r="B116" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C116" s="19">
+        <v>148</v>
+      </c>
+      <c r="D116" s="19">
+        <v>99</v>
+      </c>
+      <c r="E116" s="19">
+        <v>665</v>
+      </c>
+      <c r="F116" s="21">
+        <v>12</v>
+      </c>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="22">
+        <f>SUM(C116:H116)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -13790,19 +13896,19 @@
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C117">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E117">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F117" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
@@ -13810,13 +13916,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D118">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>67</v>
@@ -13830,13 +13936,13 @@
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D119">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E119">
         <v>12</v>
@@ -13850,43 +13956,49 @@
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C120">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F120" s="9">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+      <c r="A121" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C121">
+      <c r="B121" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C121" s="19">
         <f>SUM(C116:C120)</f>
-        <v>239</v>
-      </c>
-      <c r="D121">
-        <f t="shared" ref="D121" si="29">SUM(D116:D120)</f>
-        <v>164</v>
-      </c>
-      <c r="E121">
+        <v>248</v>
+      </c>
+      <c r="D121" s="19">
+        <f t="shared" ref="D121" si="28">SUM(D116:D120)</f>
+        <v>161</v>
+      </c>
+      <c r="E121" s="19">
         <f>SUM(E116:E120)</f>
-        <v>920</v>
-      </c>
-      <c r="F121">
-        <f t="shared" ref="F121" si="30">SUM(F116:F120)</f>
-        <v>304</v>
+        <v>819</v>
+      </c>
+      <c r="F121" s="19">
+        <f t="shared" ref="F121" si="29">SUM(F116:F120)</f>
+        <v>393</v>
+      </c>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="20">
+        <f>SUM(C121:H121)</f>
+        <v>1621</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -13894,19 +14006,19 @@
         <v>6</v>
       </c>
       <c r="B122" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C122">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D122">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E122">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F122" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -13914,19 +14026,19 @@
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C123">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D123">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F123" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
@@ -13934,16 +14046,16 @@
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
@@ -13954,19 +14066,19 @@
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C125">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F125" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
@@ -13974,19 +14086,19 @@
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C126">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F126" s="9">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
@@ -13994,23 +14106,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C127">
         <f>SUM(C122:C126)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127" si="31">SUM(D122:D126)</f>
-        <v>119</v>
+        <f t="shared" ref="D127" si="30">SUM(D122:D126)</f>
+        <v>164</v>
       </c>
       <c r="E127">
         <f>SUM(E122:E126)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="32">SUM(F122:F126)</f>
-        <v>247</v>
+        <f t="shared" ref="F127" si="31">SUM(F122:F126)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -14018,177 +14130,177 @@
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C128">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D128">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E128">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F128" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C129">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D129">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E129">
         <v>17</v>
       </c>
       <c r="F129" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C130">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C131">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F131" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C132">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E132">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F132" s="9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="33">SUM(D128:D132)</f>
-        <v>125</v>
+        <f t="shared" ref="D133" si="32">SUM(D128:D132)</f>
+        <v>119</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="34">SUM(F128:F132)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F133" si="33">SUM(F128:F132)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C134">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D134">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E134">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F134" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D135">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E135">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F135" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E136">
         <v>77</v>
@@ -14197,224 +14309,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C137">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F137" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C138">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F138" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="35">SUM(D134:D138)</f>
-        <v>92</v>
+        <f t="shared" ref="D139" si="34">SUM(D134:D138)</f>
+        <v>125</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="36">SUM(F134:F138)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F139" si="35">SUM(F134:F138)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C140">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D140">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E140">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F140" s="9">
-        <v>3</v>
-      </c>
-      <c r="I140">
-        <f>SUM(C140:H140)</f>
-        <v>907</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E141">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F141" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C142">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F143" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C144">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E144">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F144" s="9">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="37">SUM(D140:D144)</f>
-        <v>83</v>
+        <f t="shared" ref="D145" si="36">SUM(D140:D144)</f>
+        <v>92</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="38">SUM(F140:F144)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F145" si="37">SUM(F140:F144)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C146">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D146">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E146">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F146" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I146">
+        <f>SUM(C146:H146)</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C147">
         <v>12</v>
@@ -14429,266 +14541,266 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C149">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F149" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C150">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D150">
         <v>8</v>
       </c>
       <c r="E150">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F150" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="39">SUM(D146:D150)</f>
-        <v>113</v>
+        <f t="shared" ref="D151" si="38">SUM(D146:D150)</f>
+        <v>83</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="40">SUM(F146:F150)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F151" si="39">SUM(F146:F150)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C152">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D152">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E152">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F152" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D153">
         <v>7</v>
       </c>
       <c r="E153">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F153" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C154">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E154">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C155">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D155">
+        <v>11</v>
+      </c>
+      <c r="E155">
+        <v>103</v>
+      </c>
+      <c r="F155" s="9">
         <v>6</v>
       </c>
-      <c r="E155">
-        <v>46</v>
-      </c>
-      <c r="F155" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C156">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E156">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F156" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="41">SUM(D152:D156)</f>
-        <v>118</v>
+        <f t="shared" ref="D157" si="40">SUM(D152:D156)</f>
+        <v>113</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="42">SUM(F152:F156)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F157" si="41">SUM(F152:F156)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C158">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D158">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E158">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F158" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E159">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C160">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>77</v>
@@ -14702,19 +14814,19 @@
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C161">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F161" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
@@ -14722,19 +14834,19 @@
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C162">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E162">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F162" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
@@ -14742,23 +14854,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="43">SUM(D158:D162)</f>
-        <v>77</v>
+        <f t="shared" ref="D163" si="42">SUM(D158:D162)</f>
+        <v>118</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="44">SUM(F158:F162)</f>
-        <v>83</v>
+        <f t="shared" ref="F163" si="43">SUM(F158:F162)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
@@ -14766,23 +14878,19 @@
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C164">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D164">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E164">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F164" s="9">
         <v>2</v>
-      </c>
-      <c r="I164">
-        <f>SUM(C164:H164)</f>
-        <v>863</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
@@ -14790,7 +14898,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -14810,13 +14918,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C166">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E166">
         <v>77</v>
@@ -14830,7 +14938,7 @@
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C167">
         <v>24</v>
@@ -14850,19 +14958,19 @@
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C168">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E168">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F168" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.45">
@@ -14870,23 +14978,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="45">SUM(D164:D168)</f>
-        <v>79</v>
+        <f t="shared" ref="D169" si="44">SUM(D164:D168)</f>
+        <v>77</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="46">SUM(F164:F168)</f>
-        <v>73</v>
+        <f t="shared" ref="F169" si="45">SUM(F164:F168)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.45">
@@ -14894,19 +15002,23 @@
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C170">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D170">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E170">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F170" s="9">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <f>SUM(C170:H170)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
@@ -14914,7 +15026,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -14923,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F171" s="9">
         <v>0</v>
@@ -14934,16 +15046,16 @@
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C172">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F172" s="9">
         <v>0</v>
@@ -14954,16 +15066,16 @@
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C173">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D173">
         <v>7</v>
       </c>
       <c r="E173">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F173" s="9">
         <v>0</v>
@@ -14974,19 +15086,19 @@
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C174">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D174">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E174">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F174" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.45">
@@ -14994,23 +15106,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="47">SUM(D170:D174)</f>
-        <v>128</v>
+        <f t="shared" ref="D175" si="46">SUM(D170:D174)</f>
+        <v>79</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="48">SUM(F170:F174)</f>
-        <v>56</v>
+        <f t="shared" ref="F175" si="47">SUM(F170:F174)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.45">
@@ -15018,19 +15130,19 @@
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C176">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D176">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E176">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F176" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -15038,19 +15150,19 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C177">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F177" s="9">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -15058,16 +15170,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C178">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
@@ -15078,19 +15190,19 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C179">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E179">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F179" s="9">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
@@ -15098,19 +15210,19 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E180">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F180" s="9">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -15118,23 +15230,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="49">SUM(D176:D180)</f>
-        <v>238</v>
+        <f t="shared" ref="D181" si="48">SUM(D176:D180)</f>
+        <v>128</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="50">SUM(F176:F180)</f>
-        <v>572</v>
+        <f t="shared" ref="F181" si="49">SUM(F176:F180)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -15142,19 +15254,19 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C182">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E182">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F182" s="9">
-        <v>121</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -15162,19 +15274,19 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C183">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E183">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F183" s="9">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -15182,16 +15294,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C184">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D184">
         <v>5</v>
       </c>
       <c r="E184">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -15202,19 +15314,19 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C185">
         <v>25</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F185" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -15222,16 +15334,16 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C186">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F186" s="9">
         <v>0</v>
@@ -15242,23 +15354,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187" si="51">SUM(D182:D186)</f>
-        <v>18</v>
+        <f t="shared" ref="D187" si="50">SUM(D182:D186)</f>
+        <v>238</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="52">SUM(F182:F186)</f>
-        <v>122</v>
+        <f t="shared" ref="F187" si="51">SUM(F182:F186)</f>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -15266,19 +15378,19 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C188">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D188">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E188">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F188" s="9">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -15286,19 +15398,19 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F189" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
@@ -15306,16 +15418,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C190">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D190">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
@@ -15326,16 +15438,16 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C191">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E191">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
@@ -15346,16 +15458,16 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F192" s="9">
         <v>0</v>
@@ -15366,23 +15478,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193" si="53">SUM(D188:D192)</f>
-        <v>80</v>
+        <f t="shared" ref="D193" si="52">SUM(D188:D192)</f>
+        <v>18</v>
       </c>
       <c r="E193">
         <f>SUM(E188:E192)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F193">
-        <f t="shared" ref="F193" si="54">SUM(F188:F192)</f>
-        <v>14</v>
+        <f t="shared" ref="F193" si="53">SUM(F188:F192)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.45">
@@ -15390,23 +15502,19 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C194">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D194">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E194">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F194" s="9">
         <v>14</v>
-      </c>
-      <c r="I194">
-        <f>SUM(C194:H194)</f>
-        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.45">
@@ -15414,16 +15522,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
@@ -15434,16 +15542,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D196">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E196">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -15454,16 +15562,16 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C197">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E197">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F197" s="9">
         <v>0</v>
@@ -15474,16 +15582,16 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D198">
         <v>2</v>
       </c>
       <c r="E198">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F198" s="9">
         <v>0</v>
@@ -15494,22 +15602,22 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199" si="55">SUM(D194:D198)</f>
-        <v>102</v>
+        <f t="shared" ref="D199" si="54">SUM(D194:D198)</f>
+        <v>80</v>
       </c>
       <c r="E199">
         <f>SUM(E194:E198)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F199">
-        <f t="shared" ref="F199" si="56">SUM(F194:F198)</f>
+        <f t="shared" ref="F199" si="55">SUM(F194:F198)</f>
         <v>14</v>
       </c>
     </row>
@@ -15518,19 +15626,23 @@
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C200">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E200">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F200" s="9">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="I200">
+        <f>SUM(C200:H200)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.45">
@@ -15538,7 +15650,7 @@
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -15547,7 +15659,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
@@ -15558,7 +15670,7 @@
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C202">
         <v>8</v>
@@ -15578,16 +15690,16 @@
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C203">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F203" s="9">
         <v>0</v>
@@ -15598,19 +15710,19 @@
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F204" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.45">
@@ -15618,23 +15730,23 @@
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D205">
-        <f t="shared" ref="D205" si="57">SUM(D200:D204)</f>
-        <v>71</v>
+        <f t="shared" ref="D205" si="56">SUM(D200:D204)</f>
+        <v>102</v>
       </c>
       <c r="E205">
         <f>SUM(E200:E204)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F205">
-        <f t="shared" ref="F205" si="58">SUM(F200:F204)</f>
-        <v>125</v>
+        <f t="shared" ref="F205" si="57">SUM(F200:F204)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.45">
@@ -15642,19 +15754,19 @@
         <v>6</v>
       </c>
       <c r="B206" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C206">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D206">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F206" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.45">
@@ -15662,16 +15774,16 @@
         <v>7</v>
       </c>
       <c r="B207" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C207">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F207" s="9">
         <v>0</v>
@@ -15682,16 +15794,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E208">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -15702,16 +15814,16 @@
         <v>9</v>
       </c>
       <c r="B209" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C209">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F209" s="9">
         <v>0</v>
@@ -15722,19 +15834,19 @@
         <v>10</v>
       </c>
       <c r="B210" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F210" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -15742,23 +15854,23 @@
         <v>11</v>
       </c>
       <c r="B211" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D211">
-        <f t="shared" ref="D211" si="59">SUM(D206:D210)</f>
-        <v>77</v>
+        <f t="shared" ref="D211" si="58">SUM(D206:D210)</f>
+        <v>71</v>
       </c>
       <c r="E211">
         <f>SUM(E206:E210)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211" si="60">SUM(F206:F210)</f>
-        <v>22</v>
+        <f t="shared" ref="F211" si="59">SUM(F206:F210)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
@@ -15766,16 +15878,16 @@
         <v>6</v>
       </c>
       <c r="B212" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C212">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D212">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E212">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F212" s="9">
         <v>20</v>
@@ -15786,16 +15898,16 @@
         <v>7</v>
       </c>
       <c r="B213" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F213" s="9">
         <v>0</v>
@@ -15806,16 +15918,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
@@ -15826,16 +15938,16 @@
         <v>9</v>
       </c>
       <c r="B215" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C215">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F215" s="9">
         <v>0</v>
@@ -15846,16 +15958,16 @@
         <v>10</v>
       </c>
       <c r="B216" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F216" s="9">
         <v>2</v>
@@ -15866,22 +15978,22 @@
         <v>11</v>
       </c>
       <c r="B217" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D217">
-        <f t="shared" ref="D217" si="61">SUM(D212:D216)</f>
-        <v>21</v>
+        <f t="shared" ref="D217" si="60">SUM(D212:D216)</f>
+        <v>77</v>
       </c>
       <c r="E217">
         <f>SUM(E212:E216)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F217">
-        <f t="shared" ref="F217" si="62">SUM(F212:F216)</f>
+        <f t="shared" ref="F217" si="61">SUM(F212:F216)</f>
         <v>22</v>
       </c>
     </row>
@@ -15890,16 +16002,16 @@
         <v>6</v>
       </c>
       <c r="B218" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C218">
         <v>74</v>
       </c>
       <c r="D218">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E218">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F218" s="9">
         <v>20</v>
@@ -15910,7 +16022,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -15919,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -15930,13 +16042,13 @@
         <v>8</v>
       </c>
       <c r="B220" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C220">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>83</v>
@@ -15950,7 +16062,7 @@
         <v>9</v>
       </c>
       <c r="B221" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C221">
         <v>10</v>
@@ -15970,7 +16082,7 @@
         <v>10</v>
       </c>
       <c r="B222" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -15990,22 +16102,22 @@
         <v>11</v>
       </c>
       <c r="B223" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D223">
-        <f t="shared" ref="D223:F223" si="63">SUM(D218:D222)</f>
-        <v>23</v>
+        <f t="shared" ref="D223" si="62">SUM(D218:D222)</f>
+        <v>21</v>
       </c>
       <c r="E223">
         <f>SUM(E218:E222)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F223">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="F223" si="63">SUM(F218:F222)</f>
         <v>22</v>
       </c>
     </row>
@@ -16014,19 +16126,19 @@
         <v>6</v>
       </c>
       <c r="B224" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C224">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D224">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E224">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F224" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
@@ -16034,16 +16146,16 @@
         <v>7</v>
       </c>
       <c r="B225" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F225" s="9">
         <v>0</v>
@@ -16054,16 +16166,16 @@
         <v>8</v>
       </c>
       <c r="B226" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C226">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F226" s="9">
         <v>0</v>
@@ -16074,16 +16186,16 @@
         <v>9</v>
       </c>
       <c r="B227" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C227">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F227" s="9">
         <v>0</v>
@@ -16094,13 +16206,13 @@
         <v>10</v>
       </c>
       <c r="B228" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228">
         <v>109</v>
@@ -16114,23 +16226,23 @@
         <v>11</v>
       </c>
       <c r="B229" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D229">
         <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E229">
-        <f t="shared" si="64"/>
-        <v>728</v>
+        <f>SUM(E224:E228)</f>
+        <v>725</v>
       </c>
       <c r="F229">
         <f t="shared" si="64"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
@@ -16138,19 +16250,19 @@
         <v>6</v>
       </c>
       <c r="B230" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C230">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D230">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E230">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F230" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
@@ -16158,19 +16270,19 @@
         <v>7</v>
       </c>
       <c r="B231" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F231" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
@@ -16178,16 +16290,16 @@
         <v>8</v>
       </c>
       <c r="B232" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C232">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F232" s="9">
         <v>0</v>
@@ -16198,19 +16310,19 @@
         <v>9</v>
       </c>
       <c r="B233" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C233">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F233" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
@@ -16218,19 +16330,19 @@
         <v>10</v>
       </c>
       <c r="B234" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C234">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F234" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
@@ -16238,23 +16350,23 @@
         <v>11</v>
       </c>
       <c r="B235" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E235">
         <f t="shared" si="65"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -16262,19 +16374,19 @@
         <v>6</v>
       </c>
       <c r="B236" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C236">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D236">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E236">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F236" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -16282,19 +16394,19 @@
         <v>7</v>
       </c>
       <c r="B237" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E237">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F237" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
@@ -16302,16 +16414,16 @@
         <v>8</v>
       </c>
       <c r="B238" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C238">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E238">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F238" s="9">
         <v>0</v>
@@ -16322,7 +16434,7 @@
         <v>9</v>
       </c>
       <c r="B239" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C239">
         <v>10</v>
@@ -16331,10 +16443,10 @@
         <v>5</v>
       </c>
       <c r="E239">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F239" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -16342,19 +16454,19 @@
         <v>10</v>
       </c>
       <c r="B240" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F240" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
@@ -16362,60 +16474,60 @@
         <v>11</v>
       </c>
       <c r="B241" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C241">
         <f>SUM(C236:C240)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D241">
         <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E241">
         <f t="shared" si="66"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F241">
         <f t="shared" si="66"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A242" s="14" t="s">
+      <c r="A242" t="s">
         <v>6</v>
       </c>
-      <c r="B242" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" s="14">
-        <v>79</v>
-      </c>
-      <c r="D242" s="14">
-        <v>21</v>
-      </c>
-      <c r="E242" s="14">
-        <v>255</v>
-      </c>
-      <c r="F242" s="16">
-        <v>22</v>
+      <c r="B242" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C242">
+        <v>78</v>
+      </c>
+      <c r="D242">
+        <v>31</v>
+      </c>
+      <c r="E242">
+        <v>245</v>
+      </c>
+      <c r="F242" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>7</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>12</v>
+      <c r="B243" s="13">
+        <v>45450</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F243" s="9">
         <v>0</v>
@@ -16425,17 +16537,17 @@
       <c r="A244" t="s">
         <v>8</v>
       </c>
-      <c r="B244" s="11" t="s">
-        <v>12</v>
+      <c r="B244" s="13">
+        <v>45450</v>
       </c>
       <c r="C244">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E244">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F244" s="9">
         <v>0</v>
@@ -16445,37 +16557,37 @@
       <c r="A245" t="s">
         <v>9</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>12</v>
+      <c r="B245" s="13">
+        <v>45450</v>
       </c>
       <c r="C245">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E245">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F245" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>10</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>12</v>
+      <c r="B246" s="13">
+        <v>45450</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E246">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F246" s="9">
         <v>0</v>
@@ -16485,44 +16597,44 @@
       <c r="A247" t="s">
         <v>11</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>12</v>
+      <c r="B247" s="13">
+        <v>45450</v>
       </c>
       <c r="C247">
         <f>SUM(C242:C246)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D247">
         <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E247">
         <f t="shared" si="67"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F247">
         <f t="shared" si="67"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="14">
+        <v>79</v>
+      </c>
+      <c r="D248" s="14">
+        <v>21</v>
+      </c>
+      <c r="E248" s="14">
+        <v>255</v>
+      </c>
+      <c r="F248" s="16">
         <v>22</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A248" t="s">
-        <v>6</v>
-      </c>
-      <c r="B248" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C248">
-        <v>69</v>
-      </c>
-      <c r="D248">
-        <v>51</v>
-      </c>
-      <c r="E248">
-        <v>223</v>
-      </c>
-      <c r="F248" s="9">
-        <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
@@ -16530,19 +16642,19 @@
         <v>7</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F249" s="9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
@@ -16550,16 +16662,16 @@
         <v>8</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F250" s="9">
         <v>0</v>
@@ -16570,19 +16682,19 @@
         <v>9</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C251">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F251" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
@@ -16590,16 +16702,16 @@
         <v>10</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D252">
         <v>2</v>
       </c>
       <c r="E252">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F252" s="9">
         <v>0</v>
@@ -16610,23 +16722,23 @@
         <v>11</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C253">
         <f>SUM(C248:C252)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D253">
         <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E253">
         <f t="shared" si="68"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F253">
         <f t="shared" si="68"/>
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
@@ -16634,19 +16746,19 @@
         <v>6</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C254">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D254">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E254">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F254" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
@@ -16654,19 +16766,19 @@
         <v>7</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
+        <v>12</v>
+      </c>
+      <c r="E255">
         <v>1</v>
       </c>
-      <c r="E255">
-        <v>42</v>
-      </c>
       <c r="F255" s="9">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
@@ -16674,16 +16786,16 @@
         <v>8</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C256">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F256" s="9">
         <v>0</v>
@@ -16694,19 +16806,19 @@
         <v>9</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F257" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.45">
@@ -16714,19 +16826,19 @@
         <v>10</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F258" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.45">
@@ -16734,180 +16846,168 @@
         <v>11</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C259">
         <f>SUM(C254:C258)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D259">
         <f t="shared" ref="D259:F259" si="69">SUM(D254:D258)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E259">
         <f t="shared" si="69"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F259">
         <f t="shared" si="69"/>
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>6</v>
       </c>
-      <c r="B260" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B260" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C260">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D260">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E260">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F260" s="9">
-        <v>57</v>
-      </c>
-      <c r="G260" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>7</v>
       </c>
-      <c r="B261" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B261" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261">
         <v>42</v>
       </c>
       <c r="F261" s="9">
-        <v>0</v>
-      </c>
-      <c r="G261" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>8</v>
       </c>
-      <c r="B262" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B262" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C262">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F262" s="9">
         <v>0</v>
       </c>
-      <c r="G262" s="6"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>9</v>
       </c>
-      <c r="B263" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B263" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C263">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F263" s="9">
         <v>0</v>
       </c>
-      <c r="G263" s="6"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>10</v>
       </c>
-      <c r="B264" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B264" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C264">
         <v>3</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E264">
         <v>79</v>
       </c>
       <c r="F264" s="9">
-        <v>0</v>
-      </c>
-      <c r="G264" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>11</v>
       </c>
-      <c r="B265" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B265" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C265">
         <f>SUM(C260:C264)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D265">
         <f t="shared" ref="D265:F265" si="70">SUM(D260:D264)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E265">
         <f t="shared" si="70"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F265">
         <f t="shared" si="70"/>
-        <v>57</v>
-      </c>
-      <c r="G265" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>6</v>
       </c>
       <c r="B266" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C266">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F266" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G266" s="6"/>
     </row>
@@ -16916,20 +17016,20 @@
         <v>7</v>
       </c>
       <c r="B267" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
       <c r="D267">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F267" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G267" s="6"/>
     </row>
@@ -16938,20 +17038,20 @@
         <v>8</v>
       </c>
       <c r="B268" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C268">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F268" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G268" s="6"/>
     </row>
@@ -16960,20 +17060,20 @@
         <v>9</v>
       </c>
       <c r="B269" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C269">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F269" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G269" s="6"/>
     </row>
@@ -16982,20 +17082,20 @@
         <v>10</v>
       </c>
       <c r="B270" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D270">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F270" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G270" s="6"/>
     </row>
@@ -17004,178 +17104,314 @@
         <v>11</v>
       </c>
       <c r="B271" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C271">
         <f>SUM(C266:C270)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D271">
         <f t="shared" ref="D271:F271" si="71">SUM(D266:D270)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E271">
         <f t="shared" si="71"/>
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="F271">
         <f t="shared" si="71"/>
-        <v>324</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G271" s="6"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>6</v>
       </c>
       <c r="B272" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C272">
+        <v>73</v>
+      </c>
+      <c r="D272">
+        <v>5</v>
+      </c>
+      <c r="E272">
+        <v>202</v>
+      </c>
+      <c r="F272" s="9">
+        <v>87</v>
+      </c>
+      <c r="G272" s="6"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>7</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" s="9">
+        <v>40</v>
+      </c>
+      <c r="G273" s="6"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C274">
+        <v>18</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>4</v>
+      </c>
+      <c r="F274" s="9">
+        <v>37</v>
+      </c>
+      <c r="G274" s="6"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C275">
+        <v>19</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>9</v>
+      </c>
+      <c r="F275" s="9">
+        <v>85</v>
+      </c>
+      <c r="G275" s="6"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>4</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" s="9">
+        <v>75</v>
+      </c>
+      <c r="G276" s="6"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="5">
+        <f>PassRates!$F$17</f>
+        <v>45415</v>
+      </c>
+      <c r="C277">
+        <f>SUM(C272:C276)</f>
+        <v>110</v>
+      </c>
+      <c r="D277">
+        <f t="shared" ref="D277:F277" si="72">SUM(D272:D276)</f>
+        <v>17</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="72"/>
+        <v>215</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="72"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C272">
+      <c r="C278">
         <v>70</v>
       </c>
-      <c r="D272">
+      <c r="D278">
         <v>15</v>
       </c>
-      <c r="E272">
+      <c r="E278">
         <v>260</v>
       </c>
-      <c r="F272" s="9">
+      <c r="F278" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A273" t="s">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
         <v>7</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B279" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C273">
+      <c r="C279">
         <v>1</v>
       </c>
-      <c r="D273">
+      <c r="D279">
         <v>5</v>
       </c>
-      <c r="E273">
+      <c r="E279">
         <v>2</v>
       </c>
-      <c r="F273" s="9">
+      <c r="F279" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A274" t="s">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
         <v>8</v>
       </c>
-      <c r="B274" s="5">
+      <c r="B280" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C274">
+      <c r="C280">
         <v>6</v>
       </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274">
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
         <v>41</v>
       </c>
-      <c r="F274" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A275" t="s">
+      <c r="F280" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
         <v>9</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B281" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C275">
+      <c r="C281">
         <v>13</v>
       </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275">
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
         <v>85</v>
       </c>
-      <c r="F275" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A276" t="s">
+      <c r="F281" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
         <v>10</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B282" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C276">
+      <c r="C282">
         <v>1</v>
       </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276">
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
         <v>74</v>
       </c>
-      <c r="F276" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A277" t="s">
+      <c r="F282" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
         <v>11</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B283" s="5">
         <f>PassRates!$F$16</f>
         <v>45408</v>
       </c>
-      <c r="C277">
-        <f>SUM(C272:C276)</f>
+      <c r="C283">
+        <f>SUM(C278:C282)</f>
         <v>91</v>
       </c>
-      <c r="D277">
-        <f t="shared" ref="D277:F277" si="72">SUM(D272:D276)</f>
+      <c r="D283">
+        <f t="shared" ref="D283:F283" si="73">SUM(D278:D282)</f>
         <v>20</v>
       </c>
-      <c r="E277">
-        <f t="shared" si="72"/>
+      <c r="E283">
+        <f t="shared" si="73"/>
         <v>462</v>
       </c>
-      <c r="F277">
-        <f t="shared" si="72"/>
+      <c r="F283">
+        <f t="shared" si="73"/>
         <v>42</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B278" s="11"/>
-      <c r="F278" s="9"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B279" s="11"/>
-      <c r="F279" s="9"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B280" s="11"/>
-      <c r="F280" s="9"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B281" s="11"/>
-      <c r="F281" s="9"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B282" s="11"/>
-      <c r="F282" s="9"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B283" s="11"/>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B284" s="11"/>
+      <c r="F284" s="9"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B285" s="11"/>
+      <c r="F285" s="9"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B286" s="11"/>
+      <c r="F286" s="9"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B287" s="11"/>
+      <c r="F287" s="9"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B288" s="11"/>
+      <c r="F288" s="9"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B289" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17185,11 +17421,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF61"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17818,19 +18054,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'Combined PassRates'!C265</f>
+        <f>'Combined PassRates'!C271</f>
         <v>98</v>
       </c>
       <c r="C18">
-        <f>'Combined PassRates'!D265</f>
+        <f>'Combined PassRates'!D271</f>
         <v>7</v>
       </c>
       <c r="D18">
-        <f>'Combined PassRates'!E265</f>
+        <f>'Combined PassRates'!E271</f>
         <v>493</v>
       </c>
       <c r="E18">
-        <f>'Combined PassRates'!F265</f>
+        <f>'Combined PassRates'!F271</f>
         <v>57</v>
       </c>
       <c r="F18" s="5">
@@ -17845,19 +18081,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'Combined PassRates'!C259</f>
+        <f>'Combined PassRates'!C265</f>
         <v>65</v>
       </c>
       <c r="C19">
-        <f>'Combined PassRates'!D259</f>
+        <f>'Combined PassRates'!D265</f>
         <v>53</v>
       </c>
       <c r="D19">
-        <f>'Combined PassRates'!E259</f>
+        <f>'Combined PassRates'!E265</f>
         <v>445</v>
       </c>
       <c r="E19">
-        <f>'Combined PassRates'!F259</f>
+        <f>'Combined PassRates'!F265</f>
         <v>156</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -17918,19 +18154,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'Combined PassRates'!C241</f>
+        <f>'Combined PassRates'!C247</f>
         <v>111</v>
       </c>
       <c r="C22">
-        <f>'Combined PassRates'!D241</f>
+        <f>'Combined PassRates'!D247</f>
         <v>39</v>
       </c>
       <c r="D22">
-        <f>'Combined PassRates'!E241</f>
+        <f>'Combined PassRates'!E247</f>
         <v>581</v>
       </c>
       <c r="E22">
-        <f>'Combined PassRates'!F241</f>
+        <f>'Combined PassRates'!F247</f>
         <v>110</v>
       </c>
       <c r="F22" s="13">
@@ -17945,19 +18181,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'Combined PassRates'!C235</f>
+        <f>'Combined PassRates'!C241</f>
         <v>184</v>
       </c>
       <c r="C23">
-        <f>'Combined PassRates'!D235</f>
+        <f>'Combined PassRates'!D241</f>
         <v>50</v>
       </c>
       <c r="D23">
-        <f>'Combined PassRates'!E235</f>
+        <f>'Combined PassRates'!E241</f>
         <v>479</v>
       </c>
       <c r="E23">
-        <f>'Combined PassRates'!F235</f>
+        <f>'Combined PassRates'!F241</f>
         <v>166</v>
       </c>
       <c r="F23" s="13">
@@ -17972,19 +18208,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'Combined PassRates'!C229</f>
+        <f>'Combined PassRates'!C235</f>
         <v>97</v>
       </c>
       <c r="C24">
-        <f>'Combined PassRates'!D229</f>
+        <f>'Combined PassRates'!D235</f>
         <v>30</v>
       </c>
       <c r="D24">
-        <f>'Combined PassRates'!E229</f>
+        <f>'Combined PassRates'!E235</f>
         <v>728</v>
       </c>
       <c r="E24">
-        <f>'Combined PassRates'!F229</f>
+        <f>'Combined PassRates'!F235</f>
         <v>13</v>
       </c>
       <c r="F24" s="13">
@@ -17999,19 +18235,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'Combined PassRates'!C223</f>
+        <f>'Combined PassRates'!C229</f>
         <v>99</v>
       </c>
       <c r="C25">
-        <f>'Combined PassRates'!D223</f>
+        <f>'Combined PassRates'!D229</f>
         <v>23</v>
       </c>
       <c r="D25">
-        <f>'Combined PassRates'!E223</f>
+        <f>'Combined PassRates'!E229</f>
         <v>725</v>
       </c>
       <c r="E25">
-        <f>'Combined PassRates'!F223</f>
+        <f>'Combined PassRates'!F229</f>
         <v>22</v>
       </c>
       <c r="F25" s="13">
@@ -18026,19 +18262,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'Combined PassRates'!C217</f>
+        <f>'Combined PassRates'!C223</f>
         <v>100</v>
       </c>
       <c r="C26">
-        <f>'Combined PassRates'!D217</f>
+        <f>'Combined PassRates'!D223</f>
         <v>21</v>
       </c>
       <c r="D26">
-        <f>'Combined PassRates'!E217</f>
+        <f>'Combined PassRates'!E223</f>
         <v>736</v>
       </c>
       <c r="E26">
-        <f>'Combined PassRates'!F217</f>
+        <f>'Combined PassRates'!F223</f>
         <v>22</v>
       </c>
       <c r="F26" s="13">
@@ -18053,19 +18289,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'Combined PassRates'!C211</f>
+        <f>'Combined PassRates'!C217</f>
         <v>124</v>
       </c>
       <c r="C27">
-        <f>'Combined PassRates'!D211</f>
+        <f>'Combined PassRates'!D217</f>
         <v>77</v>
       </c>
       <c r="D27">
-        <f>'Combined PassRates'!E211</f>
+        <f>'Combined PassRates'!E217</f>
         <v>679</v>
       </c>
       <c r="E27">
-        <f>'Combined PassRates'!F211</f>
+        <f>'Combined PassRates'!F217</f>
         <v>22</v>
       </c>
       <c r="F27" s="13">
@@ -18080,19 +18316,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'Combined PassRates'!C205</f>
+        <f>'Combined PassRates'!C211</f>
         <v>168</v>
       </c>
       <c r="C28">
-        <f>'Combined PassRates'!D205</f>
+        <f>'Combined PassRates'!D211</f>
         <v>71</v>
       </c>
       <c r="D28">
-        <f>'Combined PassRates'!E205</f>
+        <f>'Combined PassRates'!E211</f>
         <v>541</v>
       </c>
       <c r="E28">
-        <f>'Combined PassRates'!F205</f>
+        <f>'Combined PassRates'!F211</f>
         <v>125</v>
       </c>
       <c r="F28" s="13">
@@ -18107,19 +18343,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'Combined PassRates'!C199</f>
+        <f>'Combined PassRates'!C205</f>
         <v>156</v>
       </c>
       <c r="C29">
-        <f>'Combined PassRates'!D199</f>
+        <f>'Combined PassRates'!D205</f>
         <v>102</v>
       </c>
       <c r="D29">
-        <f>'Combined PassRates'!E199</f>
+        <f>'Combined PassRates'!E205</f>
         <v>623</v>
       </c>
       <c r="E29">
-        <f>'Combined PassRates'!F199</f>
+        <f>'Combined PassRates'!F205</f>
         <v>14</v>
       </c>
       <c r="F29" s="13">
@@ -18134,19 +18370,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'Combined PassRates'!C193</f>
+        <f>'Combined PassRates'!C199</f>
         <v>293</v>
       </c>
       <c r="C30">
-        <f>'Combined PassRates'!D193</f>
+        <f>'Combined PassRates'!D199</f>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>'Combined PassRates'!E193</f>
+        <f>'Combined PassRates'!E199</f>
         <v>515</v>
       </c>
       <c r="E30">
-        <f>'Combined PassRates'!F193</f>
+        <f>'Combined PassRates'!F199</f>
         <v>14</v>
       </c>
       <c r="F30" s="13">
@@ -18161,19 +18397,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'Combined PassRates'!C187</f>
+        <f>'Combined PassRates'!C193</f>
         <v>221</v>
       </c>
       <c r="C31">
-        <f>'Combined PassRates'!D187</f>
+        <f>'Combined PassRates'!D193</f>
         <v>18</v>
       </c>
       <c r="D31">
-        <f>'Combined PassRates'!E187</f>
+        <f>'Combined PassRates'!E193</f>
         <v>552</v>
       </c>
       <c r="E31">
-        <f>'Combined PassRates'!F187</f>
+        <f>'Combined PassRates'!F193</f>
         <v>122</v>
       </c>
       <c r="F31" s="13">
@@ -18188,19 +18424,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'Combined PassRates'!C181</f>
+        <f>'Combined PassRates'!C187</f>
         <v>103</v>
       </c>
       <c r="C32">
-        <f>'Combined PassRates'!D181</f>
+        <f>'Combined PassRates'!D187</f>
         <v>238</v>
       </c>
       <c r="D32">
-        <f>'Combined PassRates'!E181</f>
+        <f>'Combined PassRates'!E187</f>
         <v>535</v>
       </c>
       <c r="E32">
-        <f>'Combined PassRates'!F181</f>
+        <f>'Combined PassRates'!F187</f>
         <v>572</v>
       </c>
       <c r="F32" s="13">
@@ -18215,19 +18451,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'Combined PassRates'!C175</f>
+        <f>'Combined PassRates'!C181</f>
         <v>201</v>
       </c>
       <c r="C33">
-        <f>'Combined PassRates'!D175</f>
+        <f>'Combined PassRates'!D181</f>
         <v>128</v>
       </c>
       <c r="D33">
-        <f>'Combined PassRates'!E175</f>
+        <f>'Combined PassRates'!E181</f>
         <v>1076</v>
       </c>
       <c r="E33">
-        <f>'Combined PassRates'!F175</f>
+        <f>'Combined PassRates'!F181</f>
         <v>56</v>
       </c>
       <c r="F33" s="13">
@@ -18242,19 +18478,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'Combined PassRates'!C169</f>
+        <f>'Combined PassRates'!C175</f>
         <v>210</v>
       </c>
       <c r="C34">
-        <f>'Combined PassRates'!D169</f>
+        <f>'Combined PassRates'!D175</f>
         <v>79</v>
       </c>
       <c r="D34">
-        <f>'Combined PassRates'!E169</f>
+        <f>'Combined PassRates'!E175</f>
         <v>1130</v>
       </c>
       <c r="E34">
-        <f>'Combined PassRates'!F169</f>
+        <f>'Combined PassRates'!F175</f>
         <v>73</v>
       </c>
       <c r="F34" s="13">
@@ -18269,19 +18505,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'Combined PassRates'!C163</f>
+        <f>'Combined PassRates'!C169</f>
         <v>223</v>
       </c>
       <c r="C35">
-        <f>'Combined PassRates'!D163</f>
+        <f>'Combined PassRates'!D169</f>
         <v>77</v>
       </c>
       <c r="D35">
-        <f>'Combined PassRates'!E163</f>
+        <f>'Combined PassRates'!E169</f>
         <v>1131</v>
       </c>
       <c r="E35">
-        <f>'Combined PassRates'!F163</f>
+        <f>'Combined PassRates'!F169</f>
         <v>83</v>
       </c>
       <c r="F35" s="13">
@@ -18296,19 +18532,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'Combined PassRates'!C157</f>
+        <f>'Combined PassRates'!C163</f>
         <v>218</v>
       </c>
       <c r="C36">
-        <f>'Combined PassRates'!D157</f>
+        <f>'Combined PassRates'!D163</f>
         <v>118</v>
       </c>
       <c r="D36">
-        <f>'Combined PassRates'!E157</f>
+        <f>'Combined PassRates'!E163</f>
         <v>1115</v>
       </c>
       <c r="E36">
-        <f>'Combined PassRates'!F157</f>
+        <f>'Combined PassRates'!F163</f>
         <v>128</v>
       </c>
       <c r="F36" s="13">
@@ -18323,19 +18559,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'Combined PassRates'!C151</f>
+        <f>'Combined PassRates'!C157</f>
         <v>220</v>
       </c>
       <c r="C37">
-        <f>'Combined PassRates'!D151</f>
+        <f>'Combined PassRates'!D157</f>
         <v>113</v>
       </c>
       <c r="D37">
-        <f>'Combined PassRates'!E151</f>
+        <f>'Combined PassRates'!E157</f>
         <v>1066</v>
       </c>
       <c r="E37">
-        <f>'Combined PassRates'!F151</f>
+        <f>'Combined PassRates'!F157</f>
         <v>142</v>
       </c>
       <c r="F37" s="13">
@@ -18350,19 +18586,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'Combined PassRates'!C145</f>
+        <f>'Combined PassRates'!C151</f>
         <v>242</v>
       </c>
       <c r="C38">
-        <f>'Combined PassRates'!D145</f>
+        <f>'Combined PassRates'!D151</f>
         <v>83</v>
       </c>
       <c r="D38">
-        <f>'Combined PassRates'!E145</f>
+        <f>'Combined PassRates'!E151</f>
         <v>1113</v>
       </c>
       <c r="E38">
-        <f>'Combined PassRates'!F145</f>
+        <f>'Combined PassRates'!F151</f>
         <v>131</v>
       </c>
       <c r="F38" s="13">
@@ -18377,19 +18613,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'Combined PassRates'!C139</f>
+        <f>'Combined PassRates'!C145</f>
         <v>237</v>
       </c>
       <c r="C39">
-        <f>'Combined PassRates'!D139</f>
+        <f>'Combined PassRates'!D145</f>
         <v>92</v>
       </c>
       <c r="D39">
-        <f>'Combined PassRates'!E139</f>
+        <f>'Combined PassRates'!E145</f>
         <v>1092</v>
       </c>
       <c r="E39">
-        <f>'Combined PassRates'!F139</f>
+        <f>'Combined PassRates'!F145</f>
         <v>193</v>
       </c>
       <c r="F39" s="13">
@@ -18404,19 +18640,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'Combined PassRates'!C133</f>
+        <f>'Combined PassRates'!C139</f>
         <v>246</v>
       </c>
       <c r="C40">
-        <f>'Combined PassRates'!D133</f>
+        <f>'Combined PassRates'!D139</f>
         <v>125</v>
       </c>
       <c r="D40">
-        <f>'Combined PassRates'!E133</f>
+        <f>'Combined PassRates'!E139</f>
         <v>932</v>
       </c>
       <c r="E40">
-        <f>'Combined PassRates'!F133</f>
+        <f>'Combined PassRates'!F139</f>
         <v>245</v>
       </c>
       <c r="F40" s="13">
@@ -18431,19 +18667,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'Combined PassRates'!C127</f>
+        <f>'Combined PassRates'!C133</f>
         <v>279</v>
       </c>
       <c r="C41">
-        <f>'Combined PassRates'!D127</f>
+        <f>'Combined PassRates'!D133</f>
         <v>119</v>
       </c>
       <c r="D41">
-        <f>'Combined PassRates'!E127</f>
+        <f>'Combined PassRates'!E133</f>
         <v>943</v>
       </c>
       <c r="E41">
-        <f>'Combined PassRates'!F127</f>
+        <f>'Combined PassRates'!F133</f>
         <v>247</v>
       </c>
       <c r="F41" s="13">
@@ -18458,19 +18694,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'Combined PassRates'!C121</f>
+        <f>'Combined PassRates'!C127</f>
         <v>239</v>
       </c>
       <c r="C42">
-        <f>'Combined PassRates'!D121</f>
+        <f>'Combined PassRates'!D127</f>
         <v>164</v>
       </c>
       <c r="D42">
-        <f>'Combined PassRates'!E121</f>
+        <f>'Combined PassRates'!E127</f>
         <v>920</v>
       </c>
       <c r="E42">
-        <f>'Combined PassRates'!F121</f>
+        <f>'Combined PassRates'!F127</f>
         <v>304</v>
       </c>
       <c r="F42" s="13">
@@ -18485,19 +18721,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'Combined PassRates'!C115</f>
+        <f>'Combined PassRates'!C121</f>
         <v>248</v>
       </c>
       <c r="C43">
-        <f>'Combined PassRates'!D115</f>
+        <f>'Combined PassRates'!D121</f>
         <v>161</v>
       </c>
       <c r="D43">
-        <f>'Combined PassRates'!E115</f>
+        <f>'Combined PassRates'!E121</f>
         <v>819</v>
       </c>
       <c r="E43">
-        <f>'Combined PassRates'!F115</f>
+        <f>'Combined PassRates'!F121</f>
         <v>393</v>
       </c>
       <c r="F43" s="13">
@@ -18512,19 +18748,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'Combined PassRates'!C109</f>
+        <f>'Combined PassRates'!C115</f>
         <v>247</v>
       </c>
       <c r="C44">
-        <f>'Combined PassRates'!D109</f>
+        <f>'Combined PassRates'!D115</f>
         <v>190</v>
       </c>
       <c r="D44">
-        <f>'Combined PassRates'!E109</f>
+        <f>'Combined PassRates'!E115</f>
         <v>813</v>
       </c>
       <c r="E44">
-        <f>'Combined PassRates'!F109</f>
+        <f>'Combined PassRates'!F115</f>
         <v>369</v>
       </c>
       <c r="F44" s="13">
@@ -18539,19 +18775,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'Combined PassRates'!C103</f>
+        <f>'Combined PassRates'!C109</f>
         <v>248</v>
       </c>
       <c r="C45">
-        <f>'Combined PassRates'!D103</f>
+        <f>'Combined PassRates'!D109</f>
         <v>189</v>
       </c>
       <c r="D45">
-        <f>'Combined PassRates'!E103</f>
+        <f>'Combined PassRates'!E109</f>
         <v>806</v>
       </c>
       <c r="E45">
-        <f>'Combined PassRates'!F103</f>
+        <f>'Combined PassRates'!F109</f>
         <v>378</v>
       </c>
       <c r="F45" s="13">
@@ -18566,19 +18802,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'Combined PassRates'!C97</f>
+        <f>'Combined PassRates'!C103</f>
         <v>242</v>
       </c>
       <c r="C46">
-        <f>'Combined PassRates'!D97</f>
+        <f>'Combined PassRates'!D103</f>
         <v>242</v>
       </c>
       <c r="D46">
-        <f>'Combined PassRates'!E97</f>
+        <f>'Combined PassRates'!E103</f>
         <v>805</v>
       </c>
       <c r="E46">
-        <f>'Combined PassRates'!F97</f>
+        <f>'Combined PassRates'!F103</f>
         <v>363</v>
       </c>
       <c r="F46" s="13">
@@ -18593,19 +18829,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'Combined PassRates'!C91</f>
+        <f>'Combined PassRates'!C97</f>
         <v>213</v>
       </c>
       <c r="C47">
-        <f>'Combined PassRates'!D91</f>
+        <f>'Combined PassRates'!D97</f>
         <v>289</v>
       </c>
       <c r="D47">
-        <f>'Combined PassRates'!E91</f>
+        <f>'Combined PassRates'!E97</f>
         <v>740</v>
       </c>
       <c r="E47">
-        <f>'Combined PassRates'!F91</f>
+        <f>'Combined PassRates'!F97</f>
         <v>433</v>
       </c>
       <c r="F47" s="13">
@@ -18620,19 +18856,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'Combined PassRates'!C85</f>
+        <f>'Combined PassRates'!C91</f>
         <v>248</v>
       </c>
       <c r="C48">
-        <f>'Combined PassRates'!D85</f>
+        <f>'Combined PassRates'!D91</f>
         <v>253</v>
       </c>
       <c r="D48">
-        <f>'Combined PassRates'!E85</f>
+        <f>'Combined PassRates'!E91</f>
         <v>801</v>
       </c>
       <c r="E48">
-        <f>'Combined PassRates'!F85</f>
+        <f>'Combined PassRates'!F91</f>
         <v>367</v>
       </c>
       <c r="F48" s="13">
@@ -18647,19 +18883,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'Combined PassRates'!C86</f>
+        <f>'Combined PassRates'!C92</f>
         <v>124</v>
       </c>
       <c r="C49">
-        <f>'Combined PassRates'!D86</f>
+        <f>'Combined PassRates'!D92</f>
         <v>197</v>
       </c>
       <c r="D49">
-        <f>'Combined PassRates'!E86</f>
+        <f>'Combined PassRates'!E92</f>
         <v>586</v>
       </c>
       <c r="E49">
-        <f>'Combined PassRates'!F86</f>
+        <f>'Combined PassRates'!F92</f>
         <v>99</v>
       </c>
       <c r="F49" s="13">
@@ -18674,19 +18910,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'Combined PassRates'!C73</f>
+        <f>'Combined PassRates'!C79</f>
         <v>225</v>
       </c>
       <c r="C50">
-        <f>'Combined PassRates'!D73</f>
+        <f>'Combined PassRates'!D79</f>
         <v>274</v>
       </c>
       <c r="D50">
-        <f>'Combined PassRates'!E73</f>
+        <f>'Combined PassRates'!E79</f>
         <v>849</v>
       </c>
       <c r="E50">
-        <f>'Combined PassRates'!F73</f>
+        <f>'Combined PassRates'!F79</f>
         <v>499</v>
       </c>
       <c r="F50" s="13">
@@ -18701,19 +18937,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'Combined PassRates'!C67</f>
+        <f>'Combined PassRates'!C73</f>
         <v>211</v>
       </c>
       <c r="C51">
-        <f>'Combined PassRates'!D67</f>
+        <f>'Combined PassRates'!D73</f>
         <v>254</v>
       </c>
       <c r="D51">
-        <f>'Combined PassRates'!E67</f>
+        <f>'Combined PassRates'!E73</f>
         <v>944</v>
       </c>
       <c r="E51">
-        <f>'Combined PassRates'!F67</f>
+        <f>'Combined PassRates'!F73</f>
         <v>431</v>
       </c>
       <c r="F51" s="13">
@@ -18728,19 +18964,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'Combined PassRates'!C61</f>
+        <f>'Combined PassRates'!C67</f>
         <v>121</v>
       </c>
       <c r="C52">
-        <f>'Combined PassRates'!D61</f>
+        <f>'Combined PassRates'!D67</f>
         <v>157</v>
       </c>
       <c r="D52">
-        <f>'Combined PassRates'!E61</f>
+        <f>'Combined PassRates'!E67</f>
         <v>799</v>
       </c>
       <c r="E52">
-        <f>'Combined PassRates'!F61</f>
+        <f>'Combined PassRates'!F67</f>
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -18755,19 +18991,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'Combined PassRates'!C55</f>
+        <f>'Combined PassRates'!C61</f>
         <v>142</v>
       </c>
       <c r="C53">
-        <f>'Combined PassRates'!D55</f>
+        <f>'Combined PassRates'!D61</f>
         <v>148</v>
       </c>
       <c r="D53">
-        <f>'Combined PassRates'!E55</f>
+        <f>'Combined PassRates'!E61</f>
         <v>812</v>
       </c>
       <c r="E53">
-        <f>'Combined PassRates'!F55</f>
+        <f>'Combined PassRates'!F61</f>
         <v>77</v>
       </c>
       <c r="F53" s="13">
@@ -18782,19 +19018,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'Combined PassRates'!C49</f>
+        <f>'Combined PassRates'!C55</f>
         <v>117</v>
       </c>
       <c r="C54">
-        <f>'Combined PassRates'!D49</f>
+        <f>'Combined PassRates'!D55</f>
         <v>207</v>
       </c>
       <c r="D54">
-        <f>'Combined PassRates'!E49</f>
+        <f>'Combined PassRates'!E55</f>
         <v>636</v>
       </c>
       <c r="E54">
-        <f>'Combined PassRates'!F49</f>
+        <f>'Combined PassRates'!F55</f>
         <v>276</v>
       </c>
       <c r="F54" s="13">
@@ -18809,19 +19045,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'Combined PassRates'!C43</f>
+        <f>'Combined PassRates'!C49</f>
         <v>151</v>
       </c>
       <c r="C55">
-        <f>'Combined PassRates'!D43</f>
+        <f>'Combined PassRates'!D49</f>
         <v>130</v>
       </c>
       <c r="D55">
-        <f>'Combined PassRates'!E43</f>
+        <f>'Combined PassRates'!E49</f>
         <v>867</v>
       </c>
       <c r="E55">
-        <f>'Combined PassRates'!F43</f>
+        <f>'Combined PassRates'!F49</f>
         <v>49</v>
       </c>
       <c r="F55" s="13">
@@ -18836,19 +19072,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>'Combined PassRates'!C37</f>
+        <f>'Combined PassRates'!C43</f>
         <v>143</v>
       </c>
       <c r="C56">
-        <f>'Combined PassRates'!D37</f>
+        <f>'Combined PassRates'!D43</f>
         <v>121</v>
       </c>
       <c r="D56">
-        <f>'Combined PassRates'!E37</f>
+        <f>'Combined PassRates'!E43</f>
         <v>900</v>
       </c>
       <c r="E56">
-        <f>'Combined PassRates'!F37</f>
+        <f>'Combined PassRates'!F43</f>
         <v>31</v>
       </c>
       <c r="F56" s="13">
@@ -18863,19 +19099,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>'Combined PassRates'!C31</f>
+        <f>'Combined PassRates'!C37</f>
         <v>130</v>
       </c>
       <c r="C57">
-        <f>'Combined PassRates'!D31</f>
+        <f>'Combined PassRates'!D37</f>
         <v>122</v>
       </c>
       <c r="D57">
-        <f>'Combined PassRates'!E31</f>
+        <f>'Combined PassRates'!E37</f>
         <v>898</v>
       </c>
       <c r="E57">
-        <f>'Combined PassRates'!F31</f>
+        <f>'Combined PassRates'!F37</f>
         <v>45</v>
       </c>
       <c r="F57" s="13">
@@ -18890,19 +19126,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>'Combined PassRates'!C25</f>
+        <f>'Combined PassRates'!C31</f>
         <v>140</v>
       </c>
       <c r="C58">
-        <f>'Combined PassRates'!D25</f>
+        <f>'Combined PassRates'!D31</f>
         <v>131</v>
       </c>
       <c r="D58">
-        <f>'Combined PassRates'!E25</f>
+        <f>'Combined PassRates'!E31</f>
         <v>872</v>
       </c>
       <c r="E58">
-        <f>'Combined PassRates'!F25</f>
+        <f>'Combined PassRates'!F31</f>
         <v>48</v>
       </c>
       <c r="F58" s="13">
@@ -18917,19 +19153,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>'Combined PassRates'!C19</f>
+        <f>'Combined PassRates'!C25</f>
         <v>131</v>
       </c>
       <c r="C59">
-        <f>'Combined PassRates'!D19</f>
+        <f>'Combined PassRates'!D25</f>
         <v>136</v>
       </c>
       <c r="D59">
-        <f>'Combined PassRates'!E19</f>
+        <f>'Combined PassRates'!E25</f>
         <v>904</v>
       </c>
       <c r="E59">
-        <f>'Combined PassRates'!F19</f>
+        <f>'Combined PassRates'!F25</f>
         <v>25</v>
       </c>
       <c r="F59" s="13">
@@ -18944,19 +19180,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>'Combined PassRates'!C13</f>
+        <f>'Combined PassRates'!C19</f>
         <v>171</v>
       </c>
       <c r="C60">
-        <f>'Combined PassRates'!D13</f>
+        <f>'Combined PassRates'!D19</f>
         <v>141</v>
       </c>
       <c r="D60">
-        <f>'Combined PassRates'!E13</f>
+        <f>'Combined PassRates'!E19</f>
         <v>869</v>
       </c>
       <c r="E60">
-        <f>'Combined PassRates'!F13</f>
+        <f>'Combined PassRates'!F19</f>
         <v>38</v>
       </c>
       <c r="F60" s="13">
@@ -18971,19 +19207,19 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f>'Combined PassRates'!C7</f>
+        <f>'Combined PassRates'!C13</f>
         <v>183</v>
       </c>
       <c r="C61">
-        <f>'Combined PassRates'!D7</f>
+        <f>'Combined PassRates'!D13</f>
         <v>119</v>
       </c>
       <c r="D61">
-        <f>'Combined PassRates'!E7</f>
+        <f>'Combined PassRates'!E13</f>
         <v>816</v>
       </c>
       <c r="E61">
-        <f>'Combined PassRates'!F7</f>
+        <f>'Combined PassRates'!F13</f>
         <v>122</v>
       </c>
       <c r="F61" s="13">
@@ -18991,6 +19227,33 @@
       </c>
       <c r="G61" s="6" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f>'Combined PassRates'!C7</f>
+        <v>169</v>
+      </c>
+      <c r="C62">
+        <f>'Combined PassRates'!D7</f>
+        <v>129</v>
+      </c>
+      <c r="D62">
+        <f>'Combined PassRates'!E7</f>
+        <v>836</v>
+      </c>
+      <c r="E62">
+        <f>'Combined PassRates'!F7</f>
+        <v>111</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45744</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -19016,10 +19279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4702-DBC5-421F-83A7-4803BFF5B98C}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -20336,6 +20599,24 @@
       </c>
       <c r="E61" s="1" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="str">
+        <f>PassRates!G62</f>
+        <v>61 - 28/3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/StatusRpts/InvHubQA_StarRpt2024.xlsx
+++ b/StatusRpts/InvHubQA_StarRpt2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa_NR\2025\QA\InvHub\InvHub_Rpts_2025_Onwards\StatusRpts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C4E64-20A0-4F7B-8042-DFEE13E7C614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68072FB4-21BC-4DEA-8626-C47B0B39A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-4305" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined PassRates" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,105 @@
     <author>Ciaran Finnegan</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9FFDB86D-515F-4B1D-B917-0587E80027F5}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2EB8FA58-470D-4591-AA11-86858670153D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+146+31+7=171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{8B4934FE-C690-465A-B140-8BE8FFB97770}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+89+8+2=129</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6169916F-DB02-446B-87BD-B967B7826AFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+503+197+199=869</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{C04FC8AD-86D3-4491-A9E8-656303CBAE7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ciaran Finnegan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+30+6=36
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{9FFDB86D-515F-4B1D-B917-0587E80027F5}">
       <text>
         <r>
           <rPr>
@@ -71,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3FB17B77-696B-43D5-9E7C-F88433723713}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{3FB17B77-696B-43D5-9E7C-F88433723713}">
       <text>
         <r>
           <rPr>
@@ -95,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{DB54BF16-EFE7-449E-A9DA-FCFB86DB149A}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{DB54BF16-EFE7-449E-A9DA-FCFB86DB149A}">
       <text>
         <r>
           <rPr>
@@ -119,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1B953545-F518-4092-9D6E-51995D0A8606}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{1B953545-F518-4092-9D6E-51995D0A8606}">
       <text>
         <r>
           <rPr>
@@ -144,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{1A3555B2-C6C8-4F52-B6F3-21753623CBA3}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{1A3555B2-C6C8-4F52-B6F3-21753623CBA3}">
       <text>
         <r>
           <rPr>
@@ -169,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{18F42F9C-9DF7-492A-801F-078A4FE2A1D4}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{18F42F9C-9DF7-492A-801F-078A4FE2A1D4}">
       <text>
         <r>
           <rPr>
@@ -193,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C70BA727-6F02-43CE-AA99-1662461F4295}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{C70BA727-6F02-43CE-AA99-1662461F4295}">
       <text>
         <r>
           <rPr>
@@ -217,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{C2E86458-5627-4964-A222-913F6A6BACCE}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{C2E86458-5627-4964-A222-913F6A6BACCE}">
       <text>
         <r>
           <rPr>
@@ -241,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B69677F3-8C75-4F1F-AF3B-B1D75DE3A8BC}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B69677F3-8C75-4F1F-AF3B-B1D75DE3A8BC}">
       <text>
         <r>
           <rPr>
@@ -266,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{13EF740D-A75E-4834-A2CE-29CE956DA842}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{13EF740D-A75E-4834-A2CE-29CE956DA842}">
       <text>
         <r>
           <rPr>
@@ -290,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{0BEDFE77-1527-4C14-A749-974CEB8DFB66}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{0BEDFE77-1527-4C14-A749-974CEB8DFB66}">
       <text>
         <r>
           <rPr>
@@ -314,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{8BA0C554-1F44-4233-85D6-C9A54F567A65}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{8BA0C554-1F44-4233-85D6-C9A54F567A65}">
       <text>
         <r>
           <rPr>
@@ -338,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{2B6DEB79-A6EA-4A2B-A2DB-19FC9873FDA4}">
       <text>
         <r>
           <rPr>
@@ -363,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{EBFE69F8-8206-47EC-B291-53B5E32F78C2}">
       <text>
         <r>
           <rPr>
@@ -387,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{D03903CE-E445-4F78-8FF2-12238F155828}">
       <text>
         <r>
           <rPr>
@@ -411,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{E057A005-3A0A-4013-A3F6-55307579F37A}">
       <text>
         <r>
           <rPr>
@@ -435,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{B7361C9F-4875-4D4C-AA03-7FE56132224A}">
       <text>
         <r>
           <rPr>
@@ -460,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{F66F0756-B91F-44EF-ACBE-362E52ADAABB}">
       <text>
         <r>
           <rPr>
@@ -484,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{FD15DBBF-6849-4B42-BD36-6B0F81B7B709}">
       <text>
         <r>
           <rPr>
@@ -508,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{D05B114D-C509-4113-B5F0-41767275EBBF}">
       <text>
         <r>
           <rPr>
@@ -532,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{A1B39877-8B7D-4C32-8095-B2C07AAB3689}">
       <text>
         <r>
           <rPr>
@@ -557,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{39FCF9D3-FAEC-423B-B38E-7A7D0A883764}">
       <text>
         <r>
           <rPr>
@@ -581,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{8CA69E61-7C4C-4E84-BBB1-DF3C5351BCE5}">
       <text>
         <r>
           <rPr>
@@ -605,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{734C4386-9AD2-4E7C-B0BC-F3F823FB1829}">
       <text>
         <r>
           <rPr>
@@ -629,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{98EC126E-C77D-4A4C-AA07-4B5CF9CE4662}">
       <text>
         <r>
           <rPr>
@@ -654,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{E6F34E4E-A6B4-418E-B253-33EFD16EE213}">
       <text>
         <r>
           <rPr>
@@ -678,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{D5A49CF7-E975-4B50-BF80-BA3C3FE7B979}">
       <text>
         <r>
           <rPr>
@@ -702,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{27B6D735-D51D-45D8-A3E1-E1C9EE957C21}">
       <text>
         <r>
           <rPr>
@@ -726,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{B3C8AFBE-8C10-4E86-B198-A1787ED84869}">
       <text>
         <r>
           <rPr>
@@ -751,7 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{2FCCE62A-1993-4187-827D-07FF1B666A71}">
       <text>
         <r>
           <rPr>
@@ -775,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{448AFCAE-DD58-4925-BCC3-3B51F2EF86DD}">
       <text>
         <r>
           <rPr>
@@ -799,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{321B4B8B-8AAB-4E1C-90C4-16AC776DACB8}">
       <text>
         <r>
           <rPr>
@@ -815,7 +913,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{9CDCB10C-5319-4188-A689-CF80E6E51D65}">
       <text>
         <r>
           <rPr>
@@ -831,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{C4B2C4CC-15C4-4E6E-9C63-3F500633FD74}">
       <text>
         <r>
           <rPr>
@@ -847,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{A658526C-37E8-4147-A11E-7D15A2FC0FA6}">
       <text>
         <r>
           <rPr>
@@ -872,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{D13DA17C-AD45-460B-8D39-5AF49E145FA2}">
       <text>
         <r>
           <rPr>
@@ -896,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{D573284A-108D-440F-A6DF-93F0DEFFF9D9}">
       <text>
         <r>
           <rPr>
@@ -920,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{58687808-B74E-4EB8-891D-3863E5495AED}">
       <text>
         <r>
           <rPr>
@@ -936,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{D821386D-DFF8-4A17-A2B5-3B209342864D}">
       <text>
         <r>
           <rPr>
@@ -952,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{4F6DC2E3-8CDF-453B-97A0-028CA2D17DF6}">
       <text>
         <r>
           <rPr>
@@ -968,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
+    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{60D3EF2A-B1BF-432D-96C2-D123D418DC96}">
       <text>
         <r>
           <rPr>
@@ -984,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{FE71254B-7556-497A-895F-13CFBF75FD06}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{6256D99A-0EDF-406E-BBB0-5A76DF486707}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{E1D2608A-0DE5-4FE6-9175-678FAD1F5C0B}">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{2C04BEBB-D577-42FA-8B4E-E66953119717}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{993D997E-A983-46D8-9FE7-B57E90628D53}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{DE212A59-690C-484D-B4FD-DEFB126CF9DE}">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
+    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{9C51F71C-99FA-418D-89CA-FC086CAAB328}">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{27D324EE-A9C6-433B-847A-8BCD47308411}">
       <text>
         <r>
           <rPr>
@@ -1144,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{C53F69CD-1D30-4A1A-B910-1343AE6FB542}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{1C30794C-C043-4359-876A-A9A69CA7B394}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{03E9BA3A-CEA1-45FC-A65D-352D3AE3914A}">
       <text>
         <r>
           <rPr>
@@ -1208,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{FAF2C362-4EE4-4B56-92E0-53A29BFC1035}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{DFA90C47-A6CA-43ED-B679-0619DF0284CE}">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{9CBFEBB2-230C-40E1-9F8A-5F06A32E3D59}">
       <text>
         <r>
           <rPr>
@@ -1256,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
+    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{FCCC94DA-E899-498B-86A0-67E27C16C36B}">
       <text>
         <r>
           <rPr>
@@ -1280,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
+    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{66D00180-94A6-42DC-B7CF-7C628E4129E8}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{251B786C-2972-464D-B2E6-E32541D0404F}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{E2877DFA-20F5-4281-95D1-FE6A57A5C008}">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{ECAD6536-3F43-483B-8C77-6ABC156727DB}">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{EADD566B-A19D-4EA0-937A-2270AA4F8B62}">
       <text>
         <r>
           <rPr>
@@ -1376,7 +1474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{C2F8B5FE-BCCB-4013-989A-226DB6DF3FED}">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
+    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{6F166914-1583-489B-9887-B547307EF694}">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
+    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{D44CDB7B-4BEF-4E9A-9923-F0F5BC1CDC8E}">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
+    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{B9CBF3E1-07D2-4017-A574-67687DDD2511}">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{65D920B0-FA8C-4C3B-B94B-72199D0EB341}">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{D2BD0DA2-F014-475B-B066-089D7704CB15}">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{45054232-84D8-42AF-9467-BFDA51EAB99D}">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{679F858E-4AF6-4DB1-9CD3-8349A7A1BDFF}">
       <text>
         <r>
           <rPr>
@@ -1528,7 +1626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
+    <comment ref="F92" authorId="0" shapeId="0" xr:uid="{AE46B7A8-0D94-4C9C-8532-33848C3395E7}">
       <text>
         <r>
           <rPr>
@@ -1552,7 +1650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
+    <comment ref="C96" authorId="0" shapeId="0" xr:uid="{11068F89-0146-428D-B821-3BAA1B938EB6}">
       <text>
         <r>
           <rPr>
@@ -1576,7 +1674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
+    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{444B6718-8861-4A1F-A34E-13FC0509C184}">
       <text>
         <r>
           <rPr>
@@ -1600,7 +1698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{20BC532D-D8C3-48F3-AFD4-242FE010FA8C}">
       <text>
         <r>
           <rPr>
@@ -1616,7 +1714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{3F9B4393-C9C6-41FB-9B75-F4D1B1D4576F}">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{0AB37365-85BF-4522-BE4B-AA02EA58E64A}">
       <text>
         <r>
           <rPr>
@@ -1648,7 +1746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{227EB47A-9B2C-4B3B-B57A-3F944693C110}">
       <text>
         <r>
           <rPr>
@@ -1664,7 +1762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F92" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
+    <comment ref="F98" authorId="0" shapeId="0" xr:uid="{38123964-FAF7-4571-858D-3FC0F3D41AC9}">
       <text>
         <r>
           <rPr>
@@ -1688,7 +1786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C96" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
+    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{B9E7FA39-FEAE-4BE4-9D44-12B52B66C252}">
       <text>
         <r>
           <rPr>
@@ -1712,7 +1810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
+    <comment ref="D102" authorId="0" shapeId="0" xr:uid="{ED78CB5E-E1C8-4107-A0B2-C697091DEB1B}">
       <text>
         <r>
           <rPr>
@@ -1736,7 +1834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{70681C22-3B0B-47C9-ABF4-E8813007D67F}">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{1FF1CAC6-71E0-4A8B-B0CA-FCD1D8CDE216}">
       <text>
         <r>
           <rPr>
@@ -1768,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{61BB3E02-3173-4E44-B8EE-5ECB80F28B89}">
       <text>
         <r>
           <rPr>
@@ -1784,7 +1882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{9CCB0273-C555-4CA0-925D-02A3798202E7}">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F98" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
+    <comment ref="F104" authorId="0" shapeId="0" xr:uid="{61CFD7DD-DDB0-4DD1-BEA0-A8D544E24364}">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
+    <comment ref="C108" authorId="0" shapeId="0" xr:uid="{48DF1071-AC58-4D04-9B08-65ADBAA1BA17}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D102" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
+    <comment ref="D108" authorId="0" shapeId="0" xr:uid="{4152E950-E629-408E-9435-EB084B7474A5}">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
+    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{CC25CBD8-1262-43D3-9629-5838CED02233}">
       <text>
         <r>
           <rPr>
@@ -1888,7 +1986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{8EB9249C-EE6B-429D-BC65-F6010B8F8DD2}">
       <text>
         <r>
           <rPr>
@@ -1904,7 +2002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{ACF5E30D-E518-44B5-8452-686DAF124AB7}">
       <text>
         <r>
           <rPr>
@@ -1920,7 +2018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
+    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{4A9DCC85-0BE9-4428-8B5D-81A3D5BC6C9C}">
       <text>
         <r>
           <rPr>
@@ -1936,7 +2034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{ED3F2842-3F52-4461-97C6-CCF28D32DBC5}">
       <text>
         <r>
           <rPr>
@@ -1952,7 +2050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
+    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{860F64FF-AADF-410D-B35A-41D0CCDC6B21}">
       <text>
         <r>
           <rPr>
@@ -1968,7 +2066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{91D88DF2-202B-4CBF-9124-44CB0A3EEB2E}">
       <text>
         <r>
           <rPr>
@@ -1984,7 +2082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{8AA59A27-E594-4060-8F25-A04183726954}">
       <text>
         <r>
           <rPr>
@@ -2000,7 +2098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
+    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{CAB9F96B-E9FC-4638-AD0F-31BB5D2B43A6}">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
+    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{CD49ABFA-7C3A-4599-A72B-BE29F65FE0A1}">
       <text>
         <r>
           <rPr>
@@ -2032,7 +2130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{7F1F8899-23E1-496F-87F9-10DFF1602715}">
       <text>
         <r>
           <rPr>
@@ -2048,7 +2146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
+    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{655073C8-2E10-4B02-9A97-58A9D20F839E}">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{1B72C991-FBAD-46D8-AC48-C54F7486E30A}">
       <text>
         <r>
           <rPr>
@@ -2080,7 +2178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C122" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
+    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{14D4B7F2-D257-44BE-A716-564DAFD7619C}">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{8002698B-DD9D-41B0-B910-379B56F06744}">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
+    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{2757B149-9434-4286-90EE-A5195ADBD5F2}">
       <text>
         <r>
           <rPr>
@@ -2128,7 +2226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
+    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{E3E5EA51-0FF4-4956-9377-7E0C636E6008}">
       <text>
         <r>
           <rPr>
@@ -2144,7 +2242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
+    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{8E3687D1-D1B5-4DA6-9378-E7F170BFDEDD}">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
+    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{CCBDCD41-76F0-4FDF-9C0E-816E91ACA4CA}">
       <text>
         <r>
           <rPr>
@@ -2176,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{6F53F442-A2F4-4709-921F-A60205DBDE53}">
       <text>
         <r>
           <rPr>
@@ -2192,7 +2290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
+    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{7A872903-B85E-4CF9-8318-F412203E73B0}">
       <text>
         <r>
           <rPr>
@@ -2208,7 +2306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{217197BC-0BC1-4E6F-BDE3-9D9166845B28}">
       <text>
         <r>
           <rPr>
@@ -2224,7 +2322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D134" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{9A08C727-E66D-4A65-BFD5-857039A8CBFC}">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{9D4C0588-08D2-49DE-B792-15A0025C32A8}">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{FF5D1EFB-AD2B-4A8E-ACA6-D6862D2C6A33}">
       <text>
         <r>
           <rPr>
@@ -2271,7 +2369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
+    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{9BBAAA35-7532-4D51-A6FC-951548C668E0}">
       <text>
         <r>
           <rPr>
@@ -2287,7 +2385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{86DC8C63-F84E-4128-8517-846209848890}">
       <text>
         <r>
           <rPr>
@@ -2303,7 +2401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{1D5264D9-AB99-455A-B86C-4E2C25F48F6A}">
       <text>
         <r>
           <rPr>
@@ -2319,7 +2417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
+    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{6C4F22DB-FA0F-44FE-9464-80A10391AEA9}">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{0126B208-6367-4590-8C39-B14331422685}">
       <text>
         <r>
           <rPr>
@@ -2350,7 +2448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
+    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{060F2BE2-6E46-408E-83E0-015083DE1C07}">
       <text>
         <r>
           <rPr>
@@ -2366,7 +2464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{E7448ADD-47C6-4580-9EA6-BE77F25D82F0}">
       <text>
         <r>
           <rPr>
@@ -2382,7 +2480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
+    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{DD193C99-8A69-4623-8BFD-29BF73CE9A3A}">
       <text>
         <r>
           <rPr>
@@ -2397,7 +2495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
+    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{783E661B-F049-4197-9CBD-DE93CBFDAAB9}">
       <text>
         <r>
           <rPr>
@@ -2413,7 +2511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D152" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
+    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{8DEAB682-5F33-4105-84C9-A4D436E52E15}">
       <text>
         <r>
           <rPr>
@@ -2429,7 +2527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
+    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{B2928770-F876-4112-9DD4-279F5C6C338A}">
       <text>
         <r>
           <rPr>
@@ -2445,7 +2543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
+    <comment ref="E162" authorId="0" shapeId="0" xr:uid="{41CF92FC-CFBF-4B42-A868-6016911E61D4}">
       <text>
         <r>
           <rPr>
@@ -2460,7 +2558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C158" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
+    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{03DE4B53-4EB6-466A-B6F3-8D34AB751EAF}">
       <text>
         <r>
           <rPr>
@@ -2476,7 +2574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
+    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{AC31AA5F-35AC-4DFF-BCED-14D6685A93D6}">
       <text>
         <r>
           <rPr>
@@ -2492,7 +2590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
+    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{49665BA8-EE2C-4C54-91C8-3D6C9CED1826}">
       <text>
         <r>
           <rPr>
@@ -2508,7 +2606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E162" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
+    <comment ref="E168" authorId="0" shapeId="0" xr:uid="{65274083-9AD0-4AB6-8E7A-63343C0B73A2}">
       <text>
         <r>
           <rPr>
@@ -2523,7 +2621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C164" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
+    <comment ref="C170" authorId="0" shapeId="0" xr:uid="{217E1FA8-5FB9-46F4-A5A9-23EB55C9868F}">
       <text>
         <r>
           <rPr>
@@ -2539,7 +2637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
+    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{4E8F16E6-36AA-4D0E-A2EA-3F9874D062E7}">
       <text>
         <r>
           <rPr>
@@ -2555,7 +2653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
+    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{58F46490-5BC1-4225-98EA-B6B54BB22338}">
       <text>
         <r>
           <rPr>
@@ -2570,7 +2668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E168" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
+    <comment ref="E174" authorId="0" shapeId="0" xr:uid="{8136ADAA-6B05-4DA2-9D71-6D2348DD71EB}">
       <text>
         <r>
           <rPr>
@@ -2585,7 +2683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C170" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
+    <comment ref="C176" authorId="0" shapeId="0" xr:uid="{FAB2E7F7-8BAE-4F1A-BA20-B43BEBCDE2FC}">
       <text>
         <r>
           <rPr>
@@ -2601,7 +2699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
+    <comment ref="D176" authorId="0" shapeId="0" xr:uid="{0AF62D76-9CD7-45E3-BC3D-5ABFED6E6543}">
       <text>
         <r>
           <rPr>
@@ -2617,7 +2715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
+    <comment ref="E176" authorId="0" shapeId="0" xr:uid="{90B9F86B-B5E7-4969-8336-5569B8725328}">
       <text>
         <r>
           <rPr>
@@ -2632,7 +2730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C176" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
+    <comment ref="C182" authorId="0" shapeId="0" xr:uid="{3B9FBFBC-6477-44C0-8FC5-6ECA5040E77E}">
       <text>
         <r>
           <rPr>
@@ -2647,7 +2745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D176" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
+    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{A44FE0AA-CB7B-4F18-ADA3-1A801D4C0DA0}">
       <text>
         <r>
           <rPr>
@@ -2663,7 +2761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E176" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
+    <comment ref="E182" authorId="0" shapeId="0" xr:uid="{C2AA8BD7-53E1-47BC-9FC4-5E8A3A0D54D2}">
       <text>
         <r>
           <rPr>
@@ -2678,7 +2776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F176" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
+    <comment ref="F182" authorId="0" shapeId="0" xr:uid="{0B9DE706-52FB-4EC8-823B-7A19CB9BA00D}">
       <text>
         <r>
           <rPr>
@@ -2693,7 +2791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C182" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
+    <comment ref="C188" authorId="0" shapeId="0" xr:uid="{04498CC4-FBB0-4884-BF18-D14936D1667A}">
       <text>
         <r>
           <rPr>
@@ -2708,7 +2806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
+    <comment ref="D188" authorId="0" shapeId="0" xr:uid="{861E942D-4CE0-4026-B39D-382F3054C006}">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E182" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
+    <comment ref="E188" authorId="0" shapeId="0" xr:uid="{CD57EB9C-84E2-4748-A015-7F0DEEE8779D}">
       <text>
         <r>
           <rPr>
@@ -2738,7 +2836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F182" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
+    <comment ref="F188" authorId="0" shapeId="0" xr:uid="{5EF0A044-578F-40F9-B139-ECC66F81DE42}">
       <text>
         <r>
           <rPr>
@@ -2758,7 +2856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="232">
   <si>
     <t>IH_Area</t>
   </si>
@@ -3764,6 +3862,12 @@
   </si>
   <si>
     <t>IH pass rates at the end of March 2025 remain around 68%.  This is largely because of tests failing to run due to being blocked because of environment issues.</t>
+  </si>
+  <si>
+    <t>62 - 04/4</t>
+  </si>
+  <si>
+    <t>IH pass rates at the begining of April 2025 have increased slightly to just over 70%.  This is largely because of a significant reduction of tests that could not be run in Sprints in late March because of changes that had not been checked in from Dev.</t>
   </si>
 </sst>
 </file>
@@ -5147,7 +5251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$248:$B$248</c:f>
+              <c:f>'Combined PassRates'!$A$254:$B$254</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5261,7 +5365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$248:$F$248</c:f>
+              <c:f>'Combined PassRates'!$C$254:$F$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5428,7 +5532,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$249:$B$249</c:f>
+              <c:f>'Combined PassRates'!$A$255:$B$255</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5547,7 +5651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$249:$F$249</c:f>
+              <c:f>'Combined PassRates'!$C$255:$F$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5739,7 +5843,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$250:$B$250</c:f>
+              <c:f>'Combined PassRates'!$A$256:$B$256</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5853,7 +5957,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$250:$F$250</c:f>
+              <c:f>'Combined PassRates'!$C$256:$F$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6045,7 +6149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$251:$B$251</c:f>
+              <c:f>'Combined PassRates'!$A$257:$B$257</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6159,7 +6263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$251:$F$251</c:f>
+              <c:f>'Combined PassRates'!$C$257:$F$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6351,7 +6455,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$252:$B$252</c:f>
+              <c:f>'Combined PassRates'!$A$258:$B$258</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6465,7 +6569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$252:$F$252</c:f>
+              <c:f>'Combined PassRates'!$C$258:$F$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6657,7 +6761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Combined PassRates'!$A$253:$B$253</c:f>
+              <c:f>'Combined PassRates'!$A$259:$B$259</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6771,7 +6875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Combined PassRates'!$C$253:$F$253</c:f>
+              <c:f>'Combined PassRates'!$C$259:$F$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11387,11 +11491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C35082A-40D3-484E-BC7C-74EDCA6617AA}">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11427,23 +11531,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>45744</v>
+        <v>45751</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>836</v>
+        <v>899</v>
       </c>
       <c r="F2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <f>SUM(C2:F2)</f>
-        <v>1245</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -11451,7 +11555,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>45744</v>
+        <v>45751</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11471,7 +11575,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>45744</v>
+        <v>45751</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11491,7 +11595,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>45744</v>
+        <v>45751</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11511,7 +11615,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>45744</v>
+        <v>45751</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11531,23 +11635,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45744</v>
+        <v>45751</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:F7" si="0">SUM(D2:D6)</f>
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>836</v>
+        <v>899</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -11555,23 +11659,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C8">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="F8">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I8">
         <f>SUM(C8:F8)</f>
-        <v>1240</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -11579,7 +11683,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11599,7 +11703,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11619,7 +11723,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11639,7 +11743,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11659,23 +11763,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45737</v>
+        <v>45744</v>
       </c>
       <c r="C13">
         <f>SUM(C8:C12)</f>
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:F13" si="1">SUM(D8:D12)</f>
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11683,23 +11787,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C14">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D14">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E14">
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="F14">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I14">
         <f>SUM(C14:F14)</f>
-        <v>1219</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -11707,7 +11811,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11727,7 +11831,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11747,7 +11851,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11767,7 +11871,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11787,23 +11891,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C19">
         <f>SUM(C14:C18)</f>
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:F19" si="2">SUM(D14:D18)</f>
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -11811,23 +11915,23 @@
         <v>6</v>
       </c>
       <c r="B20" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C20">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D20">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E20">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <f>SUM(C20:F20)</f>
-        <v>1196</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -11835,7 +11939,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11855,7 +11959,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11875,7 +11979,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11895,7 +11999,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11915,23 +12019,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="5">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:F25" si="3">SUM(D20:D24)</f>
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -11939,23 +12043,23 @@
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C26">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D26">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E26">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F26">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I26">
         <f>SUM(C26:F26)</f>
-        <v>1191</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -11963,7 +12067,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11983,7 +12087,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -12003,7 +12107,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -12023,7 +12127,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -12043,23 +12147,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="5">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="C31">
         <f>SUM(C26:C30)</f>
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:F31" si="4">SUM(D26:D30)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -12067,23 +12171,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C32">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D32">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E32">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F32">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I32">
         <f>SUM(C32:F32)</f>
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -12091,7 +12195,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -12111,7 +12215,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -12131,7 +12235,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -12151,7 +12255,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -12171,23 +12275,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="5">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C37">
         <f>SUM(C32:C36)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:F37" si="5">SUM(D32:D36)</f>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -12195,19 +12299,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C38">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D38">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F38">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I38">
         <f>SUM(C38:F38)</f>
@@ -12219,7 +12323,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -12239,7 +12343,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -12259,7 +12363,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -12279,7 +12383,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -12299,23 +12403,23 @@
         <v>11</v>
       </c>
       <c r="B43" s="5">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D43">
         <f t="shared" ref="D43:F43" si="6">SUM(D38:D42)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43">
         <f t="shared" si="6"/>
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -12323,23 +12427,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C44">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D44">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E44">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F44">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I44">
         <f>SUM(C44:F44)</f>
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -12347,7 +12451,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -12367,7 +12471,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -12387,7 +12491,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -12407,7 +12511,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -12427,23 +12531,23 @@
         <v>11</v>
       </c>
       <c r="B49" s="5">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C49">
         <f>SUM(C44:C48)</f>
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D49">
         <f t="shared" ref="D49:F49" si="7">SUM(D44:D48)</f>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="F49">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -12451,22 +12555,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C50">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D50">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E50">
-        <v>636</v>
+        <v>867</v>
       </c>
       <c r="F50">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="I50">
-        <v>1236</v>
+        <f>SUM(C50:F50)</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -12474,7 +12579,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -12494,7 +12599,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -12514,7 +12619,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -12534,7 +12639,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -12554,51 +12659,54 @@
         <v>11</v>
       </c>
       <c r="B55" s="5">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C55">
-        <v>117</v>
+        <f>SUM(C50:C54)</f>
+        <v>151</v>
       </c>
       <c r="D55">
-        <v>207</v>
+        <f t="shared" ref="D55:F55" si="8">SUM(D50:D54)</f>
+        <v>130</v>
       </c>
       <c r="E55">
-        <v>636</v>
+        <f t="shared" si="8"/>
+        <v>867</v>
       </c>
       <c r="F55">
-        <v>276</v>
+        <f t="shared" si="8"/>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="13">
-        <v>45681</v>
+      <c r="B56" s="5">
+        <v>45688</v>
       </c>
       <c r="C56">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D56">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E56">
-        <v>812</v>
-      </c>
-      <c r="F56" s="9">
-        <v>77</v>
+        <v>636</v>
+      </c>
+      <c r="F56">
+        <v>276</v>
       </c>
       <c r="I56">
-        <f>SUM(C56:H56)</f>
-        <v>1179</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="13">
-        <v>45681</v>
+      <c r="B57" s="5">
+        <v>45688</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -12609,7 +12717,7 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57">
         <v>0</v>
       </c>
     </row>
@@ -12617,8 +12725,8 @@
       <c r="A58" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="13">
-        <v>45681</v>
+      <c r="B58" s="5">
+        <v>45688</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -12629,7 +12737,7 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58">
         <v>0</v>
       </c>
     </row>
@@ -12637,8 +12745,8 @@
       <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="13">
-        <v>45681</v>
+      <c r="B59" s="5">
+        <v>45688</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -12649,7 +12757,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59">
         <v>0</v>
       </c>
     </row>
@@ -12657,8 +12765,8 @@
       <c r="A60" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="13">
-        <v>45681</v>
+      <c r="B60" s="5">
+        <v>45688</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -12669,7 +12777,7 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60">
         <v>0</v>
       </c>
     </row>
@@ -12677,24 +12785,20 @@
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="13">
-        <v>45681</v>
+      <c r="B61" s="5">
+        <v>45688</v>
       </c>
       <c r="C61">
-        <f>SUM(C56:C60)</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="8">SUM(D56:D60)</f>
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E61">
-        <f>SUM(E56:E60)</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="9">SUM(F56:F60)</f>
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -12702,23 +12806,23 @@
         <v>6</v>
       </c>
       <c r="B62" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C62">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D62">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E62">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F62" s="9">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I62">
         <f>SUM(C62:H62)</f>
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12726,7 +12830,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -12746,7 +12850,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -12766,7 +12870,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -12786,7 +12890,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -12806,49 +12910,47 @@
         <v>11</v>
       </c>
       <c r="B67" s="13">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="C67">
         <f>SUM(C62:C66)</f>
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67" si="10">SUM(D62:D66)</f>
-        <v>157</v>
+        <f t="shared" ref="D67" si="9">SUM(D62:D66)</f>
+        <v>148</v>
       </c>
       <c r="E67">
         <f>SUM(E62:E66)</f>
+        <v>812</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67" si="10">SUM(F62:F66)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C68">
+        <v>121</v>
+      </c>
+      <c r="D68">
+        <v>157</v>
+      </c>
+      <c r="E68">
         <v>799</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67" si="11">SUM(F62:F66)</f>
+      <c r="F68" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C68" s="19">
-        <v>122</v>
-      </c>
-      <c r="D68" s="19">
-        <v>162</v>
-      </c>
-      <c r="E68" s="19">
-        <v>790</v>
-      </c>
-      <c r="F68" s="21">
-        <v>97</v>
-      </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="23">
+      <c r="I68">
         <f>SUM(C68:H68)</f>
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -12856,19 +12958,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F69" s="9">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
@@ -12876,16 +12978,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -12896,19 +12998,19 @@
         <v>9</v>
       </c>
       <c r="B71" s="13">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F71" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
@@ -12916,73 +13018,69 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C73">
+        <f>SUM(C68:C72)</f>
+        <v>121</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73" si="11">SUM(D68:D72)</f>
+        <v>157</v>
+      </c>
+      <c r="E73">
+        <f>SUM(E68:E72)</f>
+        <v>799</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73" si="12">SUM(F68:F72)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="18">
         <v>45667</v>
       </c>
-      <c r="C72">
-        <v>50</v>
-      </c>
-      <c r="D72">
-        <v>20</v>
-      </c>
-      <c r="E72">
-        <v>79</v>
-      </c>
-      <c r="F72" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="18">
-        <v>45667</v>
-      </c>
-      <c r="C73" s="19">
-        <f>SUM(C68:C72)</f>
-        <v>211</v>
-      </c>
-      <c r="D73" s="19">
-        <f t="shared" ref="D73" si="12">SUM(D68:D72)</f>
-        <v>254</v>
-      </c>
-      <c r="E73" s="19">
-        <f>SUM(E68:E72)</f>
-        <v>944</v>
-      </c>
-      <c r="F73" s="19">
-        <f t="shared" ref="F73" si="13">SUM(F68:F72)</f>
-        <v>431</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="23">
-        <f>SUM(C73:H73)</f>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C74">
-        <v>136</v>
-      </c>
-      <c r="D74">
-        <v>182</v>
-      </c>
-      <c r="E74">
-        <v>695</v>
-      </c>
-      <c r="F74" s="9">
-        <v>165</v>
-      </c>
-      <c r="I74">
+      <c r="C74" s="19">
+        <v>122</v>
+      </c>
+      <c r="D74" s="19">
+        <v>162</v>
+      </c>
+      <c r="E74" s="19">
+        <v>790</v>
+      </c>
+      <c r="F74" s="21">
+        <v>97</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="23">
         <f>SUM(C74:H74)</f>
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -12990,7 +13088,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -13010,7 +13108,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C76">
         <v>17</v>
@@ -13030,7 +13128,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -13050,7 +13148,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="C78">
         <v>50</v>
@@ -13066,27 +13164,33 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="A79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="13">
-        <v>45660</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="18">
+        <v>45667</v>
+      </c>
+      <c r="C79" s="19">
         <f>SUM(C74:C78)</f>
-        <v>225</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ref="D79" si="14">SUM(D74:D78)</f>
-        <v>274</v>
-      </c>
-      <c r="E79">
+        <v>211</v>
+      </c>
+      <c r="D79" s="19">
+        <f t="shared" ref="D79" si="13">SUM(D74:D78)</f>
+        <v>254</v>
+      </c>
+      <c r="E79" s="19">
         <f>SUM(E74:E78)</f>
-        <v>849</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ref="F79" si="15">SUM(F74:F78)</f>
-        <v>499</v>
+        <v>944</v>
+      </c>
+      <c r="F79" s="19">
+        <f t="shared" ref="F79" si="14">SUM(F74:F78)</f>
+        <v>431</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="23">
+        <f>SUM(C79:H79)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -13094,23 +13198,23 @@
         <v>6</v>
       </c>
       <c r="B80" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C80">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D80">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E80">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F80" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I80">
         <f>SUM(C80:H80)</f>
-        <v>1064</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -13118,7 +13222,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -13138,7 +13242,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C82">
         <v>17</v>
@@ -13158,7 +13262,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C83">
         <v>10</v>
@@ -13178,7 +13282,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C84">
         <v>50</v>
@@ -13198,23 +13302,23 @@
         <v>11</v>
       </c>
       <c r="B85" s="13">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C85">
         <f>SUM(C80:C84)</f>
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="16">SUM(D80:D84)</f>
-        <v>249</v>
+        <f t="shared" ref="D85" si="15">SUM(D80:D84)</f>
+        <v>274</v>
       </c>
       <c r="E85">
         <f>SUM(E80:E84)</f>
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="17">SUM(F80:F84)</f>
-        <v>367</v>
+        <f t="shared" ref="F85" si="16">SUM(F80:F84)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -13222,23 +13326,23 @@
         <v>6</v>
       </c>
       <c r="B86" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C86">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D86">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E86">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="F86" s="9">
         <v>33</v>
       </c>
       <c r="I86">
         <f>SUM(C86:H86)</f>
-        <v>1000</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -13246,7 +13350,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -13266,7 +13370,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -13286,7 +13390,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -13306,7 +13410,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C90">
         <v>50</v>
@@ -13326,22 +13430,22 @@
         <v>11</v>
       </c>
       <c r="B91" s="13">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C91">
         <f>SUM(C86:C90)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91" si="18">SUM(D86:D90)</f>
-        <v>253</v>
+        <f t="shared" ref="D91" si="17">SUM(D86:D90)</f>
+        <v>249</v>
       </c>
       <c r="E91">
         <f>SUM(E86:E90)</f>
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="19">SUM(F86:F90)</f>
+        <f t="shared" ref="F91" si="18">SUM(F86:F90)</f>
         <v>367</v>
       </c>
     </row>
@@ -13350,23 +13454,23 @@
         <v>6</v>
       </c>
       <c r="B92" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C92">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D92">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E92">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F92" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I92">
         <f>SUM(C92:H92)</f>
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -13374,7 +13478,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -13394,7 +13498,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C94">
         <v>17</v>
@@ -13414,7 +13518,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C95">
         <v>10</v>
@@ -13434,7 +13538,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C96">
         <v>50</v>
@@ -13454,23 +13558,23 @@
         <v>11</v>
       </c>
       <c r="B97" s="13">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C97">
         <f>SUM(C92:C96)</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97" si="20">SUM(D92:D96)</f>
-        <v>289</v>
+        <f t="shared" ref="D97" si="19">SUM(D92:D96)</f>
+        <v>253</v>
       </c>
       <c r="E97">
         <f>SUM(E92:E96)</f>
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="21">SUM(F92:F96)</f>
-        <v>433</v>
+        <f t="shared" ref="F97" si="20">SUM(F92:F96)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -13478,23 +13582,23 @@
         <v>6</v>
       </c>
       <c r="B98" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C98">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D98">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E98">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="F98" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I98">
         <f>SUM(C98:H98)</f>
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -13502,7 +13606,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -13522,7 +13626,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C100">
         <v>17</v>
@@ -13542,7 +13646,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -13562,7 +13666,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C102">
         <v>50</v>
@@ -13582,23 +13686,23 @@
         <v>11</v>
       </c>
       <c r="B103" s="13">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C103">
         <f>SUM(C98:C102)</f>
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103" si="22">SUM(D98:D102)</f>
-        <v>242</v>
+        <f t="shared" ref="D103" si="21">SUM(D98:D102)</f>
+        <v>289</v>
       </c>
       <c r="E103">
         <f>SUM(E98:E102)</f>
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="23">SUM(F98:F102)</f>
-        <v>363</v>
+        <f t="shared" ref="F103" si="22">SUM(F98:F102)</f>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -13606,23 +13710,23 @@
         <v>6</v>
       </c>
       <c r="B104" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C104">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D104">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E104">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F104" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I104">
         <f>SUM(C104:H104)</f>
-        <v>952</v>
+        <v>983</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -13630,7 +13734,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C105">
         <v>12</v>
@@ -13650,16 +13754,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E106">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -13670,13 +13774,13 @@
         <v>9</v>
       </c>
       <c r="B107" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>6</v>
@@ -13690,19 +13794,19 @@
         <v>10</v>
       </c>
       <c r="B108" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C108">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E108">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F108" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -13710,49 +13814,47 @@
         <v>11</v>
       </c>
       <c r="B109" s="13">
-        <v>45611</v>
+        <v>45618</v>
       </c>
       <c r="C109">
         <f>SUM(C104:C108)</f>
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="24">SUM(D104:D108)</f>
-        <v>189</v>
+        <f t="shared" ref="D109" si="23">SUM(D104:D108)</f>
+        <v>242</v>
       </c>
       <c r="E109">
         <f>SUM(E104:E108)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="25">SUM(F104:F108)</f>
-        <v>378</v>
+        <f t="shared" ref="F109" si="24">SUM(F104:F108)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110" s="17" t="s">
+      <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C110" s="19">
-        <v>149</v>
-      </c>
-      <c r="D110" s="19">
-        <v>121</v>
-      </c>
-      <c r="E110" s="19">
-        <v>658</v>
-      </c>
-      <c r="F110" s="21">
-        <v>10</v>
-      </c>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="23">
+      <c r="B110" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C110">
+        <v>164</v>
+      </c>
+      <c r="D110">
+        <v>110</v>
+      </c>
+      <c r="E110">
+        <v>659</v>
+      </c>
+      <c r="F110" s="9">
+        <v>19</v>
+      </c>
+      <c r="I110">
         <f>SUM(C110:H110)</f>
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -13760,16 +13862,16 @@
         <v>7</v>
       </c>
       <c r="B111" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C111">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111">
         <v>38</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F111" s="9">
         <v>126</v>
@@ -13780,16 +13882,16 @@
         <v>8</v>
       </c>
       <c r="B112" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C112">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E112">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
@@ -13800,19 +13902,19 @@
         <v>9</v>
       </c>
       <c r="B113" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C113">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E113">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F113" s="9">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -13820,49 +13922,43 @@
         <v>10</v>
       </c>
       <c r="B114" s="13">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="C114">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F114" s="9">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" s="17" t="s">
+      <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="18">
-        <v>45604</v>
-      </c>
-      <c r="C115" s="19">
+      <c r="B115" s="13">
+        <v>45611</v>
+      </c>
+      <c r="C115">
         <f>SUM(C110:C114)</f>
-        <v>247</v>
-      </c>
-      <c r="D115" s="19">
-        <f t="shared" ref="D115" si="26">SUM(D110:D114)</f>
-        <v>190</v>
-      </c>
-      <c r="E115" s="19">
+        <v>248</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ref="D115" si="25">SUM(D110:D114)</f>
+        <v>189</v>
+      </c>
+      <c r="E115">
         <f>SUM(E110:E114)</f>
-        <v>813</v>
-      </c>
-      <c r="F115" s="19">
-        <f t="shared" ref="F115" si="27">SUM(F110:F114)</f>
-        <v>369</v>
-      </c>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="23">
-        <f>SUM(C115:H115)</f>
-        <v>1619</v>
+        <v>806</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ref="F115" si="26">SUM(F110:F114)</f>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -13870,25 +13966,25 @@
         <v>6</v>
       </c>
       <c r="B116" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C116" s="19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D116" s="19">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E116" s="19">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F116" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="22">
+      <c r="I116" s="23">
         <f>SUM(C116:H116)</f>
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -13896,16 +13992,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117">
         <v>38</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F117" s="9">
         <v>126</v>
@@ -13916,16 +14012,16 @@
         <v>8</v>
       </c>
       <c r="B118" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C118">
         <v>19</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
@@ -13936,16 +14032,16 @@
         <v>9</v>
       </c>
       <c r="B119" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C119">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F119" s="9">
         <v>110</v>
@@ -13956,19 +14052,19 @@
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C120">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F120" s="9">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -13976,49 +14072,55 @@
         <v>11</v>
       </c>
       <c r="B121" s="18">
-        <v>45597</v>
+        <v>45604</v>
       </c>
       <c r="C121" s="19">
         <f>SUM(C116:C120)</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D121" s="19">
-        <f t="shared" ref="D121" si="28">SUM(D116:D120)</f>
-        <v>161</v>
+        <f t="shared" ref="D121" si="27">SUM(D116:D120)</f>
+        <v>190</v>
       </c>
       <c r="E121" s="19">
         <f>SUM(E116:E120)</f>
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F121" s="19">
-        <f t="shared" ref="F121" si="29">SUM(F116:F120)</f>
-        <v>393</v>
+        <f t="shared" ref="F121" si="28">SUM(F116:F120)</f>
+        <v>369</v>
       </c>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="20">
+      <c r="I121" s="23">
         <f>SUM(C121:H121)</f>
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+      <c r="A122" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C122">
-        <v>142</v>
-      </c>
-      <c r="D122">
-        <v>124</v>
-      </c>
-      <c r="E122">
-        <v>672</v>
-      </c>
-      <c r="F122" s="9">
-        <v>9</v>
+      <c r="B122" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C122" s="19">
+        <v>148</v>
+      </c>
+      <c r="D122" s="19">
+        <v>99</v>
+      </c>
+      <c r="E122" s="19">
+        <v>665</v>
+      </c>
+      <c r="F122" s="21">
+        <v>12</v>
+      </c>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="22">
+        <f>SUM(C122:H122)</f>
+        <v>924</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -14026,19 +14128,19 @@
         <v>7</v>
       </c>
       <c r="B123" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C123">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E123">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F123" s="9">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
@@ -14046,13 +14148,13 @@
         <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D124">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E124">
         <v>67</v>
@@ -14066,13 +14168,13 @@
         <v>9</v>
       </c>
       <c r="B125" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E125">
         <v>12</v>
@@ -14086,43 +14188,49 @@
         <v>10</v>
       </c>
       <c r="B126" s="13">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="C126">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F126" s="9">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+      <c r="A127" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="13">
-        <v>45590</v>
-      </c>
-      <c r="C127">
+      <c r="B127" s="18">
+        <v>45597</v>
+      </c>
+      <c r="C127" s="19">
         <f>SUM(C122:C126)</f>
-        <v>239</v>
-      </c>
-      <c r="D127">
-        <f t="shared" ref="D127" si="30">SUM(D122:D126)</f>
-        <v>164</v>
-      </c>
-      <c r="E127">
+        <v>248</v>
+      </c>
+      <c r="D127" s="19">
+        <f t="shared" ref="D127" si="29">SUM(D122:D126)</f>
+        <v>161</v>
+      </c>
+      <c r="E127" s="19">
         <f>SUM(E122:E126)</f>
-        <v>920</v>
-      </c>
-      <c r="F127">
-        <f t="shared" ref="F127" si="31">SUM(F122:F126)</f>
-        <v>304</v>
+        <v>819</v>
+      </c>
+      <c r="F127" s="19">
+        <f t="shared" ref="F127" si="30">SUM(F122:F126)</f>
+        <v>393</v>
+      </c>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="20">
+        <f>SUM(C127:H127)</f>
+        <v>1621</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -14130,19 +14238,19 @@
         <v>6</v>
       </c>
       <c r="B128" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C128">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D128">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E128">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F128" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
@@ -14150,19 +14258,19 @@
         <v>7</v>
       </c>
       <c r="B129" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C129">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D129">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F129" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
@@ -14170,16 +14278,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -14190,19 +14298,19 @@
         <v>9</v>
       </c>
       <c r="B131" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C131">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D131">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E131">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F131" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
@@ -14210,19 +14318,19 @@
         <v>10</v>
       </c>
       <c r="B132" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C132">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F132" s="9">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -14230,23 +14338,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="13">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C133">
         <f>SUM(C128:C132)</f>
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133" si="32">SUM(D128:D132)</f>
-        <v>119</v>
+        <f t="shared" ref="D133" si="31">SUM(D128:D132)</f>
+        <v>164</v>
       </c>
       <c r="E133">
         <f>SUM(E128:E132)</f>
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="33">SUM(F128:F132)</f>
-        <v>247</v>
+        <f t="shared" ref="F133" si="32">SUM(F128:F132)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -14254,19 +14362,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C134">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D134">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E134">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F134" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -14274,19 +14382,19 @@
         <v>7</v>
       </c>
       <c r="B135" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D135">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E135">
         <v>17</v>
       </c>
       <c r="F135" s="9">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
@@ -14294,16 +14402,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -14314,19 +14422,19 @@
         <v>9</v>
       </c>
       <c r="B137" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C137">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F137" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
@@ -14334,19 +14442,19 @@
         <v>10</v>
       </c>
       <c r="B138" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C138">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E138">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F138" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
@@ -14354,23 +14462,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="13">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="C139">
         <f>SUM(C134:C138)</f>
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139" si="34">SUM(D134:D138)</f>
-        <v>125</v>
+        <f t="shared" ref="D139" si="33">SUM(D134:D138)</f>
+        <v>119</v>
       </c>
       <c r="E139">
         <f>SUM(E134:E138)</f>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="35">SUM(F134:F138)</f>
-        <v>245</v>
+        <f t="shared" ref="F139" si="34">SUM(F134:F138)</f>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -14378,19 +14486,19 @@
         <v>6</v>
       </c>
       <c r="B140" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C140">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D140">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E140">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="F140" s="9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -14398,16 +14506,16 @@
         <v>7</v>
       </c>
       <c r="B141" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D141">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E141">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F141" s="9">
         <v>88</v>
@@ -14418,13 +14526,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E142">
         <v>77</v>
@@ -14438,19 +14546,19 @@
         <v>9</v>
       </c>
       <c r="B143" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C143">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F143" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
@@ -14458,19 +14566,19 @@
         <v>10</v>
       </c>
       <c r="B144" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C144">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F144" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
@@ -14478,23 +14586,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="13">
-        <v>45569</v>
+        <v>45576</v>
       </c>
       <c r="C145">
         <f>SUM(C140:C144)</f>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="36">SUM(D140:D144)</f>
-        <v>92</v>
+        <f t="shared" ref="D145" si="35">SUM(D140:D144)</f>
+        <v>125</v>
       </c>
       <c r="E145">
         <f>SUM(E140:E144)</f>
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="37">SUM(F140:F144)</f>
-        <v>193</v>
+        <f t="shared" ref="F145" si="36">SUM(F140:F144)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -14502,23 +14610,19 @@
         <v>6</v>
       </c>
       <c r="B146" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C146">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D146">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E146">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="F146" s="9">
-        <v>3</v>
-      </c>
-      <c r="I146">
-        <f>SUM(C146:H146)</f>
-        <v>907</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
@@ -14526,19 +14630,19 @@
         <v>7</v>
       </c>
       <c r="B147" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C147">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E147">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F147" s="9">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
@@ -14546,16 +14650,16 @@
         <v>8</v>
       </c>
       <c r="B148" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E148">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F148" s="9">
         <v>0</v>
@@ -14566,19 +14670,19 @@
         <v>9</v>
       </c>
       <c r="B149" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C149">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F149" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
@@ -14586,19 +14690,19 @@
         <v>10</v>
       </c>
       <c r="B150" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C150">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F150" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
@@ -14606,23 +14710,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="13">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="C151">
         <f>SUM(C146:C150)</f>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151" si="38">SUM(D146:D150)</f>
-        <v>83</v>
+        <f t="shared" ref="D151" si="37">SUM(D146:D150)</f>
+        <v>92</v>
       </c>
       <c r="E151">
         <f>SUM(E146:E150)</f>
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="39">SUM(F146:F150)</f>
-        <v>131</v>
+        <f t="shared" ref="F151" si="38">SUM(F146:F150)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
@@ -14630,19 +14734,23 @@
         <v>6</v>
       </c>
       <c r="B152" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C152">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D152">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E152">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F152" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <f>SUM(C152:H152)</f>
+        <v>907</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
@@ -14650,7 +14758,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C153">
         <v>12</v>
@@ -14670,16 +14778,16 @@
         <v>8</v>
       </c>
       <c r="B154" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F154" s="9">
         <v>0</v>
@@ -14690,19 +14798,19 @@
         <v>9</v>
       </c>
       <c r="B155" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C155">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F155" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
@@ -14710,19 +14818,19 @@
         <v>10</v>
       </c>
       <c r="B156" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C156">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D156">
         <v>8</v>
       </c>
       <c r="E156">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F156" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
@@ -14730,23 +14838,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="13">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="C157">
         <f>SUM(C152:C156)</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157" si="40">SUM(D152:D156)</f>
-        <v>113</v>
+        <f t="shared" ref="D157" si="39">SUM(D152:D156)</f>
+        <v>83</v>
       </c>
       <c r="E157">
         <f>SUM(E152:E156)</f>
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="41">SUM(F152:F156)</f>
-        <v>142</v>
+        <f t="shared" ref="F157" si="40">SUM(F152:F156)</f>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
@@ -14754,19 +14862,19 @@
         <v>6</v>
       </c>
       <c r="B158" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C158">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D158">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E158">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F158" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
@@ -14774,19 +14882,19 @@
         <v>7</v>
       </c>
       <c r="B159" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D159">
         <v>7</v>
       </c>
       <c r="E159">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F159" s="9">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
@@ -14794,16 +14902,16 @@
         <v>8</v>
       </c>
       <c r="B160" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C160">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E160">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
@@ -14814,19 +14922,19 @@
         <v>9</v>
       </c>
       <c r="B161" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C161">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D161">
+        <v>11</v>
+      </c>
+      <c r="E161">
+        <v>103</v>
+      </c>
+      <c r="F161" s="9">
         <v>6</v>
-      </c>
-      <c r="E161">
-        <v>46</v>
-      </c>
-      <c r="F161" s="9">
-        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
@@ -14834,19 +14942,19 @@
         <v>10</v>
       </c>
       <c r="B162" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C162">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E162">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F162" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
@@ -14854,23 +14962,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="13">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="C163">
         <f>SUM(C158:C162)</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163" si="42">SUM(D158:D162)</f>
-        <v>118</v>
+        <f t="shared" ref="D163" si="41">SUM(D158:D162)</f>
+        <v>113</v>
       </c>
       <c r="E163">
         <f>SUM(E158:E162)</f>
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="43">SUM(F158:F162)</f>
-        <v>128</v>
+        <f t="shared" ref="F163" si="42">SUM(F158:F162)</f>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
@@ -14878,19 +14986,19 @@
         <v>6</v>
       </c>
       <c r="B164" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C164">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D164">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E164">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F164" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
@@ -14898,16 +15006,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
@@ -14918,13 +15026,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C166">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>77</v>
@@ -14938,19 +15046,19 @@
         <v>9</v>
       </c>
       <c r="B167" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C167">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F167" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
@@ -14958,19 +15066,19 @@
         <v>10</v>
       </c>
       <c r="B168" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C168">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F168" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.45">
@@ -14978,23 +15086,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="13">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="C169">
         <f>SUM(C164:C168)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D169">
-        <f t="shared" ref="D169" si="44">SUM(D164:D168)</f>
-        <v>77</v>
+        <f t="shared" ref="D169" si="43">SUM(D164:D168)</f>
+        <v>118</v>
       </c>
       <c r="E169">
         <f>SUM(E164:E168)</f>
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="45">SUM(F164:F168)</f>
-        <v>83</v>
+        <f t="shared" ref="F169" si="44">SUM(F164:F168)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.45">
@@ -15002,23 +15110,19 @@
         <v>6</v>
       </c>
       <c r="B170" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C170">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D170">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E170">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F170" s="9">
         <v>2</v>
-      </c>
-      <c r="I170">
-        <f>SUM(C170:H170)</f>
-        <v>863</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
@@ -15026,7 +15130,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -15046,13 +15150,13 @@
         <v>8</v>
       </c>
       <c r="B172" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C172">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E172">
         <v>77</v>
@@ -15066,7 +15170,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C173">
         <v>24</v>
@@ -15086,19 +15190,19 @@
         <v>10</v>
       </c>
       <c r="B174" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C174">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D174">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F174" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.45">
@@ -15106,23 +15210,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="13">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="C175">
         <f>SUM(C170:C174)</f>
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D175">
-        <f t="shared" ref="D175" si="46">SUM(D170:D174)</f>
-        <v>79</v>
+        <f t="shared" ref="D175" si="45">SUM(D170:D174)</f>
+        <v>77</v>
       </c>
       <c r="E175">
         <f>SUM(E170:E174)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="47">SUM(F170:F174)</f>
-        <v>73</v>
+        <f t="shared" ref="F175" si="46">SUM(F170:F174)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.45">
@@ -15130,19 +15234,23 @@
         <v>6</v>
       </c>
       <c r="B176" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C176">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D176">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E176">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="F176" s="9">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <f>SUM(C176:H176)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -15150,7 +15258,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -15159,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -15170,16 +15278,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C178">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F178" s="9">
         <v>0</v>
@@ -15190,16 +15298,16 @@
         <v>9</v>
       </c>
       <c r="B179" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C179">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D179">
         <v>7</v>
       </c>
       <c r="E179">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F179" s="9">
         <v>0</v>
@@ -15210,19 +15318,19 @@
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C180">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D180">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E180">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F180" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -15230,23 +15338,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="13">
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="C181">
         <f>SUM(C176:C180)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D181">
-        <f t="shared" ref="D181" si="48">SUM(D176:D180)</f>
-        <v>128</v>
+        <f t="shared" ref="D181" si="47">SUM(D176:D180)</f>
+        <v>79</v>
       </c>
       <c r="E181">
         <f>SUM(E176:E180)</f>
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="49">SUM(F176:F180)</f>
-        <v>56</v>
+        <f t="shared" ref="F181" si="48">SUM(F176:F180)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -15254,19 +15362,19 @@
         <v>6</v>
       </c>
       <c r="B182" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C182">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D182">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="E182">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="F182" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -15274,19 +15382,19 @@
         <v>7</v>
       </c>
       <c r="B183" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F183" s="9">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -15294,16 +15402,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C184">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -15314,19 +15422,19 @@
         <v>9</v>
       </c>
       <c r="B185" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C185">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F185" s="9">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -15334,19 +15442,19 @@
         <v>10</v>
       </c>
       <c r="B186" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E186">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F186" s="9">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -15354,23 +15462,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="13">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C187">
         <f>SUM(C182:C186)</f>
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D187">
-        <f t="shared" ref="D187" si="50">SUM(D182:D186)</f>
-        <v>238</v>
+        <f t="shared" ref="D187" si="49">SUM(D182:D186)</f>
+        <v>128</v>
       </c>
       <c r="E187">
         <f>SUM(E182:E186)</f>
-        <v>535</v>
+        <v>1076</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="51">SUM(F182:F186)</f>
-        <v>572</v>
+        <f t="shared" ref="F187" si="50">SUM(F182:F186)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -15378,19 +15486,19 @@
         <v>6</v>
       </c>
       <c r="B188" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C188">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E188">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="F188" s="9">
-        <v>121</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -15398,19 +15506,19 @@
         <v>7</v>
       </c>
       <c r="B189" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C189">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E189">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F189" s="9">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
@@ -15418,16 +15526,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C190">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D190">
         <v>5</v>
       </c>
       <c r="E190">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F190" s="9">
         <v>0</v>
@@ -15438,19 +15546,19 @@
         <v>9</v>
       </c>
       <c r="B191" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C191">
         <v>25</v>
       </c>
       <c r="D191">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F191" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
@@ -15458,16 +15566,16 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C192">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="E192">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F192" s="9">
         <v>0</v>
@@ -15478,23 +15586,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="13">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="C193">
         <f>SUM(C188:C192)</f>
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="D193">
-        <f t="shared" ref="D193" si="52">SUM(D188:D192)</f>
-        <v>18</v>
+        <f t="shared" ref="D193" si="51">SUM(D188:D192)</f>
+        <v>238</v>
       </c>
       <c r="E193">
         <f>SUM(E188:E192)</f>
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F193">
-        <f t="shared" ref="F193" si="53">SUM(F188:F192)</f>
-        <v>122</v>
+        <f t="shared" ref="F193" si="52">SUM(F188:F192)</f>
+        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.45">
@@ -15502,19 +15610,19 @@
         <v>6</v>
       </c>
       <c r="B194" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C194">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D194">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="F194" s="9">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.45">
@@ -15522,19 +15630,19 @@
         <v>7</v>
       </c>
       <c r="B195" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F195" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.45">
@@ -15542,16 +15650,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C196">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D196">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -15562,16 +15670,16 @@
         <v>9</v>
       </c>
       <c r="B197" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C197">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D197">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F197" s="9">
         <v>0</v>
@@ -15582,16 +15690,16 @@
         <v>10</v>
       </c>
       <c r="B198" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F198" s="9">
         <v>0</v>
@@ -15602,23 +15710,23 @@
         <v>11</v>
       </c>
       <c r="B199" s="13">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="C199">
         <f>SUM(C194:C198)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199" si="54">SUM(D194:D198)</f>
-        <v>80</v>
+        <f t="shared" ref="D199" si="53">SUM(D194:D198)</f>
+        <v>18</v>
       </c>
       <c r="E199">
         <f>SUM(E194:E198)</f>
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F199">
-        <f t="shared" ref="F199" si="55">SUM(F194:F198)</f>
-        <v>14</v>
+        <f t="shared" ref="F199" si="54">SUM(F194:F198)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.45">
@@ -15626,23 +15734,19 @@
         <v>6</v>
       </c>
       <c r="B200" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C200">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D200">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E200">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F200" s="9">
         <v>14</v>
-      </c>
-      <c r="I200">
-        <f>SUM(C200:H200)</f>
-        <v>402</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.45">
@@ -15650,16 +15754,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F201" s="9">
         <v>0</v>
@@ -15670,16 +15774,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C202">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D202">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E202">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -15690,16 +15794,16 @@
         <v>9</v>
       </c>
       <c r="B203" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E203">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F203" s="9">
         <v>0</v>
@@ -15710,16 +15814,16 @@
         <v>10</v>
       </c>
       <c r="B204" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F204" s="9">
         <v>0</v>
@@ -15730,22 +15834,22 @@
         <v>11</v>
       </c>
       <c r="B205" s="13">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C205">
         <f>SUM(C200:C204)</f>
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D205">
-        <f t="shared" ref="D205" si="56">SUM(D200:D204)</f>
-        <v>102</v>
+        <f t="shared" ref="D205" si="55">SUM(D200:D204)</f>
+        <v>80</v>
       </c>
       <c r="E205">
         <f>SUM(E200:E204)</f>
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="F205">
-        <f t="shared" ref="F205" si="57">SUM(F200:F204)</f>
+        <f t="shared" ref="F205" si="56">SUM(F200:F204)</f>
         <v>14</v>
       </c>
     </row>
@@ -15754,19 +15858,23 @@
         <v>6</v>
       </c>
       <c r="B206" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C206">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E206">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F206" s="9">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="I206">
+        <f>SUM(C206:H206)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.45">
@@ -15774,7 +15882,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -15783,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F207" s="9">
         <v>0</v>
@@ -15794,7 +15902,7 @@
         <v>8</v>
       </c>
       <c r="B208" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C208">
         <v>8</v>
@@ -15814,16 +15922,16 @@
         <v>9</v>
       </c>
       <c r="B209" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C209">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F209" s="9">
         <v>0</v>
@@ -15834,19 +15942,19 @@
         <v>10</v>
       </c>
       <c r="B210" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>2</v>
       </c>
       <c r="E210">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F210" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -15854,23 +15962,23 @@
         <v>11</v>
       </c>
       <c r="B211" s="13">
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="C211">
         <f>SUM(C206:C210)</f>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D211">
-        <f t="shared" ref="D211" si="58">SUM(D206:D210)</f>
-        <v>71</v>
+        <f t="shared" ref="D211" si="57">SUM(D206:D210)</f>
+        <v>102</v>
       </c>
       <c r="E211">
         <f>SUM(E206:E210)</f>
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211" si="59">SUM(F206:F210)</f>
-        <v>125</v>
+        <f t="shared" ref="F211" si="58">SUM(F206:F210)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
@@ -15878,19 +15986,19 @@
         <v>6</v>
       </c>
       <c r="B212" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C212">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D212">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F212" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -15898,16 +16006,16 @@
         <v>7</v>
       </c>
       <c r="B213" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C213">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F213" s="9">
         <v>0</v>
@@ -15918,16 +16026,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C214">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E214">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F214" s="9">
         <v>0</v>
@@ -15938,16 +16046,16 @@
         <v>9</v>
       </c>
       <c r="B215" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C215">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F215" s="9">
         <v>0</v>
@@ -15958,19 +16066,19 @@
         <v>10</v>
       </c>
       <c r="B216" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F216" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
@@ -15978,23 +16086,23 @@
         <v>11</v>
       </c>
       <c r="B217" s="13">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="C217">
         <f>SUM(C212:C216)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D217">
-        <f t="shared" ref="D217" si="60">SUM(D212:D216)</f>
-        <v>77</v>
+        <f t="shared" ref="D217" si="59">SUM(D212:D216)</f>
+        <v>71</v>
       </c>
       <c r="E217">
         <f>SUM(E212:E216)</f>
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F217">
-        <f t="shared" ref="F217" si="61">SUM(F212:F216)</f>
-        <v>22</v>
+        <f t="shared" ref="F217" si="60">SUM(F212:F216)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
@@ -16002,16 +16110,16 @@
         <v>6</v>
       </c>
       <c r="B218" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C218">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D218">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E218">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="F218" s="9">
         <v>20</v>
@@ -16022,16 +16130,16 @@
         <v>7</v>
       </c>
       <c r="B219" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -16042,16 +16150,16 @@
         <v>8</v>
       </c>
       <c r="B220" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C220">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -16062,16 +16170,16 @@
         <v>9</v>
       </c>
       <c r="B221" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F221" s="9">
         <v>0</v>
@@ -16082,16 +16190,16 @@
         <v>10</v>
       </c>
       <c r="B222" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F222" s="9">
         <v>2</v>
@@ -16102,22 +16210,22 @@
         <v>11</v>
       </c>
       <c r="B223" s="13">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="C223">
         <f>SUM(C218:C222)</f>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D223">
-        <f t="shared" ref="D223" si="62">SUM(D218:D222)</f>
-        <v>21</v>
+        <f t="shared" ref="D223" si="61">SUM(D218:D222)</f>
+        <v>77</v>
       </c>
       <c r="E223">
         <f>SUM(E218:E222)</f>
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="F223">
-        <f t="shared" ref="F223" si="63">SUM(F218:F222)</f>
+        <f t="shared" ref="F223" si="62">SUM(F218:F222)</f>
         <v>22</v>
       </c>
     </row>
@@ -16126,16 +16234,16 @@
         <v>6</v>
       </c>
       <c r="B224" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C224">
         <v>74</v>
       </c>
       <c r="D224">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E224">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F224" s="9">
         <v>20</v>
@@ -16146,7 +16254,7 @@
         <v>7</v>
       </c>
       <c r="B225" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -16155,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F225" s="9">
         <v>0</v>
@@ -16166,13 +16274,13 @@
         <v>8</v>
       </c>
       <c r="B226" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C226">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E226">
         <v>83</v>
@@ -16186,7 +16294,7 @@
         <v>9</v>
       </c>
       <c r="B227" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C227">
         <v>10</v>
@@ -16206,7 +16314,7 @@
         <v>10</v>
       </c>
       <c r="B228" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C228">
         <v>5</v>
@@ -16226,22 +16334,22 @@
         <v>11</v>
       </c>
       <c r="B229" s="13">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="C229">
         <f>SUM(C224:C228)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:F229" si="64">SUM(D224:D228)</f>
-        <v>23</v>
+        <f t="shared" ref="D229" si="63">SUM(D224:D228)</f>
+        <v>21</v>
       </c>
       <c r="E229">
         <f>SUM(E224:E228)</f>
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F229">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="F229" si="64">SUM(F224:F228)</f>
         <v>22</v>
       </c>
     </row>
@@ -16250,19 +16358,19 @@
         <v>6</v>
       </c>
       <c r="B230" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C230">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D230">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E230">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F230" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
@@ -16270,16 +16378,16 @@
         <v>7</v>
       </c>
       <c r="B231" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F231" s="9">
         <v>0</v>
@@ -16290,16 +16398,16 @@
         <v>8</v>
       </c>
       <c r="B232" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C232">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F232" s="9">
         <v>0</v>
@@ -16310,16 +16418,16 @@
         <v>9</v>
       </c>
       <c r="B233" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C233">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F233" s="9">
         <v>0</v>
@@ -16330,13 +16438,13 @@
         <v>10</v>
       </c>
       <c r="B234" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C234">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>109</v>
@@ -16350,23 +16458,23 @@
         <v>11</v>
       </c>
       <c r="B235" s="13">
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="C235">
         <f>SUM(C230:C234)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D235">
         <f t="shared" ref="D235:F235" si="65">SUM(D230:D234)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E235">
-        <f t="shared" si="65"/>
-        <v>728</v>
+        <f>SUM(E230:E234)</f>
+        <v>725</v>
       </c>
       <c r="F235">
         <f t="shared" si="65"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -16374,19 +16482,19 @@
         <v>6</v>
       </c>
       <c r="B236" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C236">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D236">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E236">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="F236" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -16394,19 +16502,19 @@
         <v>7</v>
       </c>
       <c r="B237" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F237" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
@@ -16414,16 +16522,16 @@
         <v>8</v>
       </c>
       <c r="B238" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C238">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F238" s="9">
         <v>0</v>
@@ -16434,19 +16542,19 @@
         <v>9</v>
       </c>
       <c r="B239" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C239">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F239" s="9">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -16454,19 +16562,19 @@
         <v>10</v>
       </c>
       <c r="B240" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C240">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F240" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
@@ -16474,23 +16582,23 @@
         <v>11</v>
       </c>
       <c r="B241" s="13">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="C241">
         <f>SUM(C236:C240)</f>
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D241">
         <f t="shared" ref="D241:F241" si="66">SUM(D236:D240)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E241">
         <f t="shared" si="66"/>
-        <v>479</v>
+        <v>728</v>
       </c>
       <c r="F241">
         <f t="shared" si="66"/>
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
@@ -16498,19 +16606,19 @@
         <v>6</v>
       </c>
       <c r="B242" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C242">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D242">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E242">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F242" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
@@ -16518,19 +16626,19 @@
         <v>7</v>
       </c>
       <c r="B243" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
@@ -16538,16 +16646,16 @@
         <v>8</v>
       </c>
       <c r="B244" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C244">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F244" s="9">
         <v>0</v>
@@ -16558,7 +16666,7 @@
         <v>9</v>
       </c>
       <c r="B245" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C245">
         <v>10</v>
@@ -16567,10 +16675,10 @@
         <v>5</v>
       </c>
       <c r="E245">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F245" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
@@ -16578,19 +16686,19 @@
         <v>10</v>
       </c>
       <c r="B246" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C246">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F246" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
@@ -16598,60 +16706,60 @@
         <v>11</v>
       </c>
       <c r="B247" s="13">
-        <v>45450</v>
+        <v>45457</v>
       </c>
       <c r="C247">
         <f>SUM(C242:C246)</f>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D247">
         <f t="shared" ref="D247:F247" si="67">SUM(D242:D246)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E247">
         <f t="shared" si="67"/>
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="F247">
         <f t="shared" si="67"/>
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A248" s="14" t="s">
+      <c r="A248" t="s">
         <v>6</v>
       </c>
-      <c r="B248" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" s="14">
-        <v>79</v>
-      </c>
-      <c r="D248" s="14">
-        <v>21</v>
-      </c>
-      <c r="E248" s="14">
-        <v>255</v>
-      </c>
-      <c r="F248" s="16">
-        <v>22</v>
+      <c r="B248" s="13">
+        <v>45450</v>
+      </c>
+      <c r="C248">
+        <v>78</v>
+      </c>
+      <c r="D248">
+        <v>31</v>
+      </c>
+      <c r="E248">
+        <v>245</v>
+      </c>
+      <c r="F248" s="9">
+        <v>41</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>7</v>
       </c>
-      <c r="B249" s="11" t="s">
-        <v>12</v>
+      <c r="B249" s="13">
+        <v>45450</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F249" s="9">
         <v>0</v>
@@ -16661,17 +16769,17 @@
       <c r="A250" t="s">
         <v>8</v>
       </c>
-      <c r="B250" s="11" t="s">
-        <v>12</v>
+      <c r="B250" s="13">
+        <v>45450</v>
       </c>
       <c r="C250">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F250" s="9">
         <v>0</v>
@@ -16681,37 +16789,37 @@
       <c r="A251" t="s">
         <v>9</v>
       </c>
-      <c r="B251" s="11" t="s">
-        <v>12</v>
+      <c r="B251" s="13">
+        <v>45450</v>
       </c>
       <c r="C251">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F251" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>10</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>12</v>
+      <c r="B252" s="13">
+        <v>45450</v>
       </c>
       <c r="C252">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E252">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F252" s="9">
         <v>0</v>
@@ -16721,44 +16829,44 @@
       <c r="A253" t="s">
         <v>11</v>
       </c>
-      <c r="B253" s="11" t="s">
-        <v>12</v>
+      <c r="B253" s="13">
+        <v>45450</v>
       </c>
       <c r="C253">
         <f>SUM(C248:C252)</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D253">
         <f t="shared" ref="D253:F253" si="68">SUM(D248:D252)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E253">
         <f t="shared" si="68"/>
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F253">
         <f t="shared" si="68"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="14">
+        <v>79</v>
+      </c>
+      <c r="D254" s="14">
+        <v>21</v>
+      </c>
+      <c r="E254" s="14">
+        <v>255</v>
+      </c>
+      <c r="F254" s="16">
         <v>22</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A254" t="s">
-        <v>6</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C254">
-        <v>69</v>
-      </c>
-      <c r="D254">
-        <v>51</v>
-      </c>
-      <c r="E254">
-        <v>223</v>
-      </c>
-      <c r="F254" s="9">
-        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
@@ -16766,19 +16874,19 @@
         <v>7</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F255" s="9">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
@@ -16786,16 +16894,16 @@
         <v>8</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C256">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F256" s="9">
         <v>0</v>
@@ -16806,19 +16914,19 @@
         <v>9</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C257">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F257" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.45">
@@ -16826,16 +16934,16 @@
         <v>10</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F258" s="9">
         <v>0</v>
@@ -16846,23 +16954,23 @@
         <v>11</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C259">
         <f>SUM(C254:C258)</f>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D259">
         <f t="shared" ref="D259:F259" si="69">SUM(D254:D258)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E259">
         <f t="shared" si="69"/>
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="F259">
         <f t="shared" si="69"/>
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.45">
@@ -16870,19 +16978,19 @@
         <v>6</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C260">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D260">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E260">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F260" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.45">
@@ -16890,19 +16998,19 @@
         <v>7</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261">
+        <v>12</v>
+      </c>
+      <c r="E261">
         <v>1</v>
       </c>
-      <c r="E261">
-        <v>42</v>
-      </c>
       <c r="F261" s="9">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.45">
@@ -16910,16 +17018,16 @@
         <v>8</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C262">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F262" s="9">
         <v>0</v>
@@ -16930,19 +17038,19 @@
         <v>9</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C263">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F263" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.45">
@@ -16950,19 +17058,19 @@
         <v>10</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F264" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.45">
@@ -16970,180 +17078,168 @@
         <v>11</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C265">
         <f>SUM(C260:C264)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D265">
         <f t="shared" ref="D265:F265" si="70">SUM(D260:D264)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E265">
         <f t="shared" si="70"/>
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F265">
         <f t="shared" si="70"/>
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>6</v>
       </c>
-      <c r="B266" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B266" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C266">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E266">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F266" s="9">
-        <v>57</v>
-      </c>
-      <c r="G266" s="6"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>7</v>
       </c>
-      <c r="B267" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B267" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>42</v>
       </c>
       <c r="F267" s="9">
-        <v>0</v>
-      </c>
-      <c r="G267" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>8</v>
       </c>
-      <c r="B268" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B268" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C268">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F268" s="9">
         <v>0</v>
       </c>
-      <c r="G268" s="6"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>9</v>
       </c>
-      <c r="B269" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B269" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C269">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F269" s="9">
         <v>0</v>
       </c>
-      <c r="G269" s="6"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>10</v>
       </c>
-      <c r="B270" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B270" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C270">
         <v>3</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E270">
         <v>79</v>
       </c>
       <c r="F270" s="9">
-        <v>0</v>
-      </c>
-      <c r="G270" s="6"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="5">
-        <f>PassRates!$F$18</f>
-        <v>45422</v>
+      <c r="B271" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C271">
         <f>SUM(C266:C270)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D271">
         <f t="shared" ref="D271:F271" si="71">SUM(D266:D270)</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E271">
         <f t="shared" si="71"/>
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F271">
         <f t="shared" si="71"/>
-        <v>57</v>
-      </c>
-      <c r="G271" s="6"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>6</v>
       </c>
       <c r="B272" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
       </c>
       <c r="C272">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E272">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F272" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G272" s="6"/>
     </row>
@@ -17152,20 +17248,20 @@
         <v>7</v>
       </c>
       <c r="B273" s="5">
-        <f>PassRates!$F$17</f>
-        <v>45415</v>
+        <f>PassRates!$F$18</f>
+        <v>45422</v>
      